--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30020" windowHeight="22900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30940" windowHeight="18560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="slirv_translations" localSheetId="0">Blatt1!$A$2:$H$115</definedName>
+    <definedName name="slirv_translations" localSheetId="0">Blatt1!$A$2:$H$116</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="528">
   <si>
     <t>typ</t>
   </si>
@@ -1024,9 +1024,6 @@
     <t>impressum</t>
   </si>
   <si>
-    <t>Konsum, Handel oder Herstellen von Drogen</t>
-  </si>
-  <si>
     <t>Consumption, trade or manufacture of drugs</t>
   </si>
   <si>
@@ -1219,9 +1216,6 @@
     <t>Tecnologia</t>
   </si>
   <si>
-    <t>Delict Gravant</t>
-  </si>
-  <si>
     <t>servetsch da spiunadi scumandà</t>
   </si>
   <si>
@@ -1255,9 +1249,6 @@
     <t>cell phone</t>
   </si>
   <si>
-    <t>Basisinformationen, z.B. wem gehört eine eine bestimmte Telefonnummer oder eine bestimmte IP-Adresse zu einer bestimmten Zeit.</t>
-  </si>
-  <si>
     <t>simple basic information, ex. who used a certrain cell number or who used an IP adress at a certain time</t>
   </si>
   <si>
@@ -1423,9 +1414,6 @@
     <t>Gravi crimini sono evidenziati, in quanto questi sono ripetutamente cresciuti nel sostenere per la sorveglianza.</t>
   </si>
   <si>
-    <t>Ein Antennensuchlauf, auch Funkzellenabfrage oder Rasterfahndung, erfasst alle Mobiltelefone in einem Gebiet</t>
-  </si>
-  <si>
     <t>A mobile subscriber scan,  radiocell-inquiry or dragnet. All mobile phones registered in a certain area</t>
   </si>
   <si>
@@ -1447,12 +1435,6 @@
     <t>salvataggio di emergenza viene utilizzato per la ricerca e il salvataggio di mancanti o fuggito.</t>
   </si>
   <si>
-    <t>Die Digitale Gesellschaft Schweiz veröffentlicht jährlich den Swiss Lawful Interception Report über die staatliche Überwachung in der Schweiz..&lt;br&gt;Diese Visualiserung ergänzt den Report interaktiv und zeigt detailiert auf, wie in den Kantonen überwacht wird. Finden Sie heraus, für welche Delikte Ihre Grundrechte eingeschränkt werden.&lt;br&gt;&lt;br&gt;&lt;small&gt;Die Daten in dieser Statistik beinhalten nur Überwachungmassnahmen nach Strafprozessordnung. Ausgenommen sind Einsätze von IMSI-Catcher, Staatstrojanern oder Überwachungsmassnahmen des Nachrichtendienstes.&lt;/small&gt;</t>
-  </si>
-  <si>
-    <t>Die Digitale Gesellschaft ist ein offener Zusammenschluss netzpolitisch interessierter Kreise. Dem Bündnis angeschlossen sind rund 50 Einzelpersonen und 15 Gruppierungen. Dazu gehören Grundrechtsorganisationen, Parteien, KünstlerInnen-Kollektive, BetreiberInnen von Netzwerkdiensten und weiteren Gruppen, die sich der kritischen, digitalen Zivilgesellschaft verpflichtet fühlen. &lt;br&gt;Weitere Informationen zu netzpolitischen Themen sind im Blog zu finden: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;&lt;br&gt;&lt;br&gt;Programmierung: Ueli Kunz, &lt;a href='http://ideadapt.net'&gt;ideadapt.net&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Die Digitale Gesellschaft ist ein offener Zusammenschluss netzpolitisch interessierter Kreise. Dem Bündnis angeschlossen sind rund 50 Einzelpersonen und 15 Gruppierungen. Dazu gehören Grundrechtsorganisationen, Parteien, KünstlerInnen-Kollektive, BetreiberInnen von Netzwerkdiensten und weiteren Gruppen, die sich der kritischen, digitalen Zivilgesellschaft verpflichtet fühlen. &lt;br&gt;Weitere Informationen zu netzpolitischen Themen sind im Blog zu finden: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;&lt;br&gt;&lt;br&gt;Coded By: Ueli Kunz, &lt;a href='http://ideadapt.net'&gt;ideadapt.net&lt;/a&gt;</t>
   </si>
   <si>
@@ -1604,6 +1586,46 @@
   </si>
   <si>
     <t>slir_intro</t>
+  </si>
+  <si>
+    <t>Die Digitale Gesellschaft Schweiz veröffentlicht jährlich den Swiss Lawful Interception Report über die staatliche Überwachung in der Schweiz. Diese Visualiserung ergänzt den Report interaktiv und zeigt detailiert auf, wie in den Kantonen überwacht wird. Finden Sie heraus, für welche Delikte Ihre Grundrechte eingeschränkt werden.&lt;br&gt;&lt;br&gt;&lt;small&gt;Die Daten in dieser Statistik beinhalten nur Überwachungmassnahmen nach Strafprozessordnung. Ausgenommen sind Einsätze von IMSI-Catcher, Staatstrojanern oder Überwachungsmassnahmen des Nachrichtendienstes.&lt;/small&gt;</t>
+  </si>
+  <si>
+    <t>Herstellen, Handel oder Konsum  von Drogen</t>
+  </si>
+  <si>
+    <t>Störung des öffentlichen Friedens, Demonstrationen, Kriminelle Organisationen, Gefährdung durch Waffen</t>
+  </si>
+  <si>
+    <t>Landesverrat, Verbreiten menschlicher Krankheiten, Amtsmissbrauch, verbotener Nachrichtendienst</t>
+  </si>
+  <si>
+    <t>Strukturierte Gruppe, welche mittels Gewaltverbrechen oder sich durch verbrecherische Mittel
+Einkünfte bereichert, wie Mafia oder Djihad</t>
+  </si>
+  <si>
+    <t>wem gehört eine eine bestimmte Telefonnummer oder eine bestimmte IP-Adresse zu einer bestimmten Zeit.</t>
+  </si>
+  <si>
+    <t>Auch Funkzellenabfrage oder Rasterfahndung genannt, erfasst alle Mobiltelefone in einem Gebiet.</t>
+  </si>
+  <si>
+    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Swiss Lawful Interception Report 2015</t>
+  </si>
+  <si>
+    <t>Die Digitale Gesellschaft ist ein offener Zusammenschluss netzpolitisch interessierter Kreise. Dem Bündnis angeschlossen sind rund 50 Einzelpersonen und 15 Gruppierungen. Dazu gehören Grundrechtsorganisationen, Parteien, KünstlerInnen-Kollektive, BetreiberInnen von Netzwerkdiensten und weiteren Gruppen, die sich der kritischen, digitalen Zivilgesellschaft verpflichtet fühlen. &lt;br&gt;&lt;br&gt;Weitere Informationen zu netzpolitischen Themen sind im Blog zu finden: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;&lt;br&gt;&lt;br&gt;Programmierung: Ueli Kunz, &lt;a href='http://ideadapt.net'&gt;ideadapt.net&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Delicts Gravant</t>
+  </si>
+  <si>
+    <t>sämtliche Handlungen, welche geeignet sind, die Ermittlung der Herkunft, die Auffindung oder die Einziehung von Vermögenswerten zu vereiteln.</t>
+  </si>
+  <si>
+    <t>Menschen anwerben, anbieten, vermitteln oder beherbergen durch Anwendung unerlaubternMittel wie Täuschung, Drohung oder Nötigung zum Zwecke der Ausbeutung.</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1685,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="193">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1854,6 +1876,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1882,7 +1906,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="193">
+  <cellStyles count="195">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -1987,6 +2011,7 @@
     <cellStyle name="Besuchter Link" xfId="189" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2075,6 +2100,7 @@
     <cellStyle name="Link" xfId="186" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="188" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -2145,8 +2171,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J115" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J115"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J116" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J116"/>
   <tableColumns count="10">
     <tableColumn id="1" name="group" dataDxfId="9"/>
     <tableColumn id="2" name="typ" dataDxfId="8"/>
@@ -2485,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2497,7 +2523,8 @@
     <col min="2" max="2" width="9" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="32.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="3"/>
+    <col min="9" max="9" width="10.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2526,10 +2553,10 @@
         <v>175</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2716,16 +2743,16 @@
         <v>157</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
@@ -2741,19 +2768,19 @@
         <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="1"/>
@@ -2769,19 +2796,19 @@
         <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -2802,16 +2829,16 @@
         <v>116</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>392</v>
+        <v>525</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
@@ -2830,16 +2857,16 @@
         <v>115</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="1"/>
@@ -2858,16 +2885,16 @@
         <v>114</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="1"/>
@@ -2883,19 +2910,19 @@
         <v>325</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
@@ -2911,19 +2938,19 @@
         <v>326</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
@@ -2936,22 +2963,22 @@
         <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
@@ -2970,7 +2997,7 @@
         <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>297</v>
@@ -2979,7 +3006,7 @@
         <v>298</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
@@ -3007,7 +3034,7 @@
         <v>299</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="1"/>
@@ -3020,22 +3047,22 @@
         <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
@@ -3054,7 +3081,7 @@
         <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>267</v>
@@ -3063,7 +3090,7 @@
         <v>300</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
@@ -3076,22 +3103,22 @@
         <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="I20" s="6">
         <v>1</v>
@@ -3106,22 +3133,22 @@
         <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
@@ -3134,22 +3161,22 @@
         <v>55</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="I22" s="6">
         <v>1</v>
@@ -3164,22 +3191,22 @@
         <v>55</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
@@ -3194,22 +3221,22 @@
         <v>55</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -3224,22 +3251,22 @@
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="I25" s="6">
         <v>1</v>
@@ -3269,7 +3296,7 @@
         <v>237</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="1"/>
@@ -3297,7 +3324,7 @@
         <v>324</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="1"/>
@@ -4103,7 +4130,7 @@
         <v>283</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
@@ -4131,7 +4158,7 @@
         <v>276</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
@@ -4159,7 +4186,7 @@
         <v>284</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
@@ -4187,7 +4214,7 @@
         <v>285</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
@@ -4215,7 +4242,7 @@
         <v>278</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
@@ -4243,7 +4270,7 @@
         <v>286</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
@@ -4271,7 +4298,7 @@
         <v>279</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="1"/>
@@ -4299,7 +4326,7 @@
         <v>280</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="1"/>
@@ -4327,7 +4354,7 @@
         <v>317</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="1"/>
@@ -4343,19 +4370,19 @@
         <v>85</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="1"/>
@@ -4371,19 +4398,19 @@
         <v>86</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="1"/>
@@ -4399,19 +4426,19 @@
         <v>87</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="1"/>
@@ -4436,10 +4463,10 @@
         <v>242</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="1"/>
@@ -4467,12 +4494,12 @@
         <v>277</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" ht="60">
       <c r="A68" s="4" t="s">
         <v>75</v>
       </c>
@@ -4483,7 +4510,7 @@
         <v>90</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>106</v>
+        <v>517</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>134</v>
@@ -4495,7 +4522,7 @@
         <v>278</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="1"/>
@@ -4523,12 +4550,12 @@
         <v>166</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" ht="60">
       <c r="A70" s="4" t="s">
         <v>75</v>
       </c>
@@ -4539,7 +4566,7 @@
         <v>92</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>105</v>
+        <v>518</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>138</v>
@@ -4551,7 +4578,7 @@
         <v>279</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
@@ -4567,19 +4594,19 @@
         <v>93</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="1"/>
@@ -4595,16 +4622,16 @@
         <v>63</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="1"/>
@@ -4623,7 +4650,7 @@
         <v>102</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>258</v>
@@ -4632,7 +4659,7 @@
         <v>290</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="1"/>
@@ -4651,7 +4678,7 @@
         <v>96</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>259</v>
@@ -4660,7 +4687,7 @@
         <v>291</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="1"/>
@@ -4679,7 +4706,7 @@
         <v>99</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>260</v>
@@ -4688,7 +4715,7 @@
         <v>292</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="1"/>
@@ -4707,7 +4734,7 @@
         <v>171</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>261</v>
@@ -4716,7 +4743,7 @@
         <v>293</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="1"/>
@@ -4744,7 +4771,7 @@
         <v>140</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="1"/>
@@ -4763,7 +4790,7 @@
         <v>107</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>263</v>
@@ -4772,12 +4799,12 @@
         <v>294</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" ht="75">
       <c r="A79" s="4" t="s">
         <v>94</v>
       </c>
@@ -4788,24 +4815,24 @@
         <v>103</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>419</v>
+        <v>526</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" ht="75">
       <c r="A80" s="4" t="s">
         <v>94</v>
       </c>
@@ -4816,24 +4843,24 @@
         <v>97</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>423</v>
+        <v>519</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" ht="75">
       <c r="A81" s="4" t="s">
         <v>94</v>
       </c>
@@ -4844,19 +4871,19 @@
         <v>100</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>419</v>
+        <v>527</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
@@ -4884,7 +4911,7 @@
         <v>287</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="1"/>
@@ -4912,7 +4939,7 @@
         <v>288</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="1"/>
@@ -4940,7 +4967,7 @@
         <v>289</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="1"/>
@@ -4984,19 +5011,19 @@
         <v>60</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="1"/>
@@ -5124,7 +5151,7 @@
         <v>58</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>158</v>
@@ -5136,7 +5163,7 @@
         <v>301</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="1"/>
@@ -5152,24 +5179,24 @@
         <v>60</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" ht="60">
+    <row r="93" spans="1:10" ht="45">
       <c r="A93" s="4" t="s">
         <v>0</v>
       </c>
@@ -5180,19 +5207,19 @@
         <v>64</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="H93" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
@@ -5208,19 +5235,19 @@
         <v>59</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
@@ -5230,28 +5257,30 @@
         <v>0</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>310</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H95" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
         <v>https://de-de.facebook.com/help/405183566203254</v>
       </c>
-      <c r="I95" s="6"/>
+      <c r="I95" s="6">
+        <v>1</v>
+      </c>
       <c r="J95" s="1">
         <v>1</v>
       </c>
@@ -5267,7 +5296,7 @@
         <v>310</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="1"/>
@@ -5283,7 +5312,7 @@
         <v>311</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="1"/>
@@ -5367,7 +5396,7 @@
         <v>273</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="1"/>
@@ -5439,16 +5468,16 @@
         <v>120</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="1"/>
@@ -5464,16 +5493,16 @@
         <v>121</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="1"/>
@@ -5492,7 +5521,7 @@
         <v>71</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>265</v>
@@ -5501,7 +5530,7 @@
         <v>295</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="1"/>
@@ -5548,7 +5577,7 @@
         <v>73</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>264</v>
@@ -5557,7 +5586,7 @@
         <v>296</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="1"/>
@@ -5585,92 +5614,109 @@
         <v>274</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" ht="45">
-      <c r="A109" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C109" s="4" t="s">
+    <row r="109" spans="1:10" s="1" customFormat="1">
+      <c r="A109" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>325</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>451</v>
+        <v>523</v>
       </c>
       <c r="E109" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
+        <v>Swiss Lawful Interception Report 2015</v>
       </c>
       <c r="F109" s="1" t="str">
         <f>Tabelle2[[#This Row],[en]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
+        <v>Swiss Lawful Interception Report 2015</v>
       </c>
       <c r="G109" s="1" t="str">
         <f>Tabelle2[[#This Row],[fr]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
+        <v>Swiss Lawful Interception Report 2015</v>
       </c>
       <c r="H109" s="1" t="str">
         <f>Tabelle2[[#This Row],[it]]</f>
+        <v>Swiss Lawful Interception Report 2015</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="45">
+      <c r="A110" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E110" s="1" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
         <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
       </c>
-      <c r="I109" s="6">
-        <v>1</v>
-      </c>
-      <c r="J109" s="1"/>
-    </row>
-    <row r="110" spans="1:10" ht="330">
-      <c r="A110" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>503</v>
+      <c r="F110" s="1" t="str">
+        <f>Tabelle2[[#This Row],[en]]</f>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
+      </c>
+      <c r="G110" s="1" t="str">
+        <f>Tabelle2[[#This Row],[fr]]</f>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
+      </c>
+      <c r="H110" s="1" t="str">
+        <f>Tabelle2[[#This Row],[it]]</f>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
       </c>
       <c r="I110" s="6">
         <v>1</v>
       </c>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" ht="270">
-      <c r="A111" s="4" t="s">
+    <row r="111" spans="1:10" ht="330">
+      <c r="A111" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I111" s="6"/>
+      <c r="C111" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="I111" s="6">
+        <v>1</v>
+      </c>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" ht="120">
+    <row r="112" spans="1:10" ht="270">
       <c r="A112" s="4" t="s">
         <v>318</v>
       </c>
@@ -5678,29 +5724,15 @@
         <v>63</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>520</v>
+        <v>319</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="I112" s="6"/>
-      <c r="J112" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="105">
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="1:10" ht="120">
       <c r="A113" s="4" t="s">
         <v>318</v>
       </c>
@@ -5708,31 +5740,29 @@
         <v>63</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I113" s="6">
-        <v>1</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="I113" s="6"/>
       <c r="J113" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="210">
+    <row r="114" spans="1:10" ht="105">
       <c r="A114" s="4" t="s">
         <v>318</v>
       </c>
@@ -5740,63 +5770,96 @@
         <v>63</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D114" s="1" t="str">
+        <f>CONCATENATE("&lt;a href='",D110,"' title='",D109,"' target='_blank'&gt;",D109,"&lt;/a&gt;")</f>
+        <v>&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I114" s="6">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="210">
+      <c r="A115" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D114" s="1" t="str">
-        <f>CONCATENATE(D112,D113)</f>
-        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
-      </c>
-      <c r="E114" s="1" t="str">
-        <f>CONCATENATE(E112,E113)</f>
+      <c r="D115" s="1" t="str">
+        <f>CONCATENATE(D113,D114)</f>
+        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden.&lt;br&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="E115" s="1" t="str">
+        <f>CONCATENATE(E113,E114)</f>
         <v>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</v>
       </c>
-      <c r="F114" s="1" t="str">
-        <f t="shared" ref="F114:H114" si="0">CONCATENATE(F112,F113)</f>
+      <c r="F115" s="1" t="str">
+        <f t="shared" ref="F115:H115" si="0">CONCATENATE(F113,F114)</f>
         <v>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
       </c>
-      <c r="G114" s="1" t="str">
+      <c r="G115" s="1" t="str">
         <f t="shared" si="0"/>
         <v>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
       </c>
-      <c r="H114" s="1" t="str">
+      <c r="H115" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
-      <c r="I114" s="6">
+      <c r="I115" s="6">
         <v>1</v>
       </c>
-      <c r="J114" s="1"/>
-    </row>
-    <row r="115" spans="1:10" ht="300">
-      <c r="A115" s="4" t="s">
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="1:10" ht="300">
+      <c r="A116" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B116" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="I115" s="6"/>
-      <c r="J115" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I116" s="6"/>
+      <c r="J116" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I1:I108 I110:I1048576">
     <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I1)))</formula>
     </cfRule>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30940" windowHeight="18560" tabRatio="500"/>
+    <workbookView xWindow="500" yWindow="800" windowWidth="30940" windowHeight="18560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="3" r:id="rId1"/>
+    <sheet name="Blatt2" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="slirv_translations" localSheetId="0">Blatt1!$A$2:$H$116</definedName>
+    <definedName name="slirv_translations" localSheetId="0">Blatt1!$A$2:$H$117</definedName>
+    <definedName name="slirv_translations_1" localSheetId="1">Blatt2!$A$2:$H$116</definedName>
+    <definedName name="slirv_translations_2" localSheetId="1">Blatt2!$A$2:$H$116</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="535">
   <si>
     <t>typ</t>
   </si>
@@ -1303,9 +1306,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>Mafia, Djihad</t>
-  </si>
-  <si>
     <t>infurmaziun da basa p.ex. a tgi esser determinà numer da telefon u una adressa ip</t>
   </si>
   <si>
@@ -1402,9 +1402,6 @@
     <t>delicts pussanza</t>
   </si>
   <si>
-    <t>Schwere Delikte sind hervorgehoben, da diese immer wieder ins Feld geführt werden, um Überwachung zu rechtfertigen.</t>
-  </si>
-  <si>
     <t>Serious crimes are highlighted, because those are repeatedly brought up in arguing for surveillance.</t>
   </si>
   <si>
@@ -1498,9 +1495,6 @@
     <t>Appenzell Dadora</t>
   </si>
   <si>
-    <t>Anzahl betroffene Microsoft/Skype Accounts</t>
-  </si>
-  <si>
     <t>tmp_url</t>
   </si>
   <si>
@@ -1516,25 +1510,7 @@
     <t>https://fr-fr.facebook.com/help/405183566203254</t>
   </si>
   <si>
-    <t>Anzahl betroffene Facebook Accounts. Diese Liste der Facebook Daten zeigt den Umfang auf.</t>
-  </si>
-  <si>
     <t>notEXport</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href='https://www.li.admin.ch/de' target='_blank'&gt;Dienst Überwachung Post- und Fernmeldeverkehr&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Microsoft / Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href='https://www.li.admin.ch/en' target='_blank'&gt;Post and Telecommunications Surveillance Service&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Microsoft / Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Base map: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Federal Office of Topography swisstopo &lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href='https://www.li.admin.ch/fr' target='_blank'&gt;Service Surveillance de la correspondance par poste et télécommunication&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Microsoft / Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;plan de base: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Office fédéral de topographie swisstopo&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href='https://www.li.admin.ch/it' target='_blank'&gt;Servizio Sorveglianza della corrispondenza postale e del traffico delle telecomunicazioni&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Microsoft / Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;carta di base: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Ufficio federale di topografia swisstopo&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href='https://www.li.admin.ch/rm' target='_blank'&gt;Servetsch da surveglianza dal traffic da posta e da telecommunicaziun&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Microsoft / Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>nfTrans</t>
@@ -1610,22 +1586,70 @@
     <t>Auch Funkzellenabfrage oder Rasterfahndung genannt, erfasst alle Mobiltelefone in einem Gebiet.</t>
   </si>
   <si>
-    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden.&lt;br&gt;</t>
-  </si>
-  <si>
     <t>Swiss Lawful Interception Report 2015</t>
   </si>
   <si>
-    <t>Die Digitale Gesellschaft ist ein offener Zusammenschluss netzpolitisch interessierter Kreise. Dem Bündnis angeschlossen sind rund 50 Einzelpersonen und 15 Gruppierungen. Dazu gehören Grundrechtsorganisationen, Parteien, KünstlerInnen-Kollektive, BetreiberInnen von Netzwerkdiensten und weiteren Gruppen, die sich der kritischen, digitalen Zivilgesellschaft verpflichtet fühlen. &lt;br&gt;&lt;br&gt;Weitere Informationen zu netzpolitischen Themen sind im Blog zu finden: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;&lt;br&gt;&lt;br&gt;Programmierung: Ueli Kunz, &lt;a href='http://ideadapt.net'&gt;ideadapt.net&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Delicts Gravant</t>
   </si>
   <si>
     <t>sämtliche Handlungen, welche geeignet sind, die Ermittlung der Herkunft, die Auffindung oder die Einziehung von Vermögenswerten zu vereiteln.</t>
   </si>
   <si>
-    <t>Menschen anwerben, anbieten, vermitteln oder beherbergen durch Anwendung unerlaubternMittel wie Täuschung, Drohung oder Nötigung zum Zwecke der Ausbeutung.</t>
+    <t>Schwere Straftaten sind Delikte die hervorgehoben sind, da diese immer wieder ins Feld geführt werden, um Überwachung zu rechtfertigen.</t>
+  </si>
+  <si>
+    <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Menschen anwerben, anbieten, vermitteln oder beherbergen durch Anwendung unerlaubter Mittel wie Täuschung, Drohung oder Nötigung zum Zwecke der Ausbeutung.</t>
+  </si>
+  <si>
+    <t>betroffene Facebook Accounts. Diese Liste der Facebook Daten zeigt den Umfang auf.</t>
+  </si>
+  <si>
+    <t>betroffene Microsoft/Skype Accounts</t>
+  </si>
+  <si>
+    <t>Die Digitale Gesellschaft ist ein offener Zusammenschluss netzpolitisch interessierter Kreise. Dem Bündnis angeschlossen sind rund 50 Einzelpersonen und 15 Gruppierungen. Dazu gehören Grundrechts- organisationen, Parteien, KünstlerInnen-Kollektive, BetreiberInnen von Netzwerkdiensten und weiteren Gruppen, die sich der kritischen, digitalen Zivilgesellschaft verpflichtet fühlen. &lt;br&gt;&lt;br&gt;Weitere Informationen zu netzpolitischen Themen sind im Blog zu finden: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;&lt;br&gt;&lt;br&gt;Programmierung: Ueli Kunz, &lt;a href='http://ideadapt.net'&gt;ideadapt.net&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Normale Telefonüberwachung</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/de' target='_blank'&gt;Dienst Überwachung Post- und Fernmeldeverkehr&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Microsoft / Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/fr' target='_blank'&gt;Service Surveillance de la correspondance par poste et télécommunication&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;plan de base: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Office fédéral de topographie swisstopo&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/en' target='_blank'&gt;Post and Telecommunications Surveillance Service&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Base map: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Federal Office of Topography swisstopo &lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/it' target='_blank'&gt;Servizio Sorveglianza della corrispondenza postale e del traffico delle telecomunicazioni&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt; Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;carta di base: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Ufficio federale di topografia swisstopo&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/rm' target='_blank'&gt;Servetsch da surveglianza dal traffic da posta e da telecommunicaziun&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Strukturierte Gruppe, welche mittels Gewaltverbrechen oder sich durch verbrecherische Mittel</t>
+  </si>
+  <si>
+    <t>Einkünfte bereichert, wie Mafia oder Djihad</t>
+  </si>
+  <si>
+    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1709,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="195">
+  <cellStyleXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1876,6 +1900,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1906,7 +1940,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="195">
+  <cellStyles count="205">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2012,6 +2046,11 @@
     <cellStyle name="Besuchter Link" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2101,6 +2140,11 @@
     <cellStyle name="Link" xfId="188" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -2170,9 +2214,21 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations_2" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J116" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J116"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J117" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J117">
+    <filterColumn colId="9">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" name="group" dataDxfId="9"/>
     <tableColumn id="2" name="typ" dataDxfId="8"/>
@@ -2511,10 +2567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2553,10 +2609,10 @@
         <v>175</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2752,7 +2808,7 @@
         <v>414</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
@@ -2768,19 +2824,19 @@
         <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="1"/>
@@ -2838,7 +2894,7 @@
         <v>389</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
@@ -2966,19 +3022,19 @@
         <v>417</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
@@ -3006,7 +3062,7 @@
         <v>298</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
@@ -3047,22 +3103,22 @@
         <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
@@ -3103,22 +3159,22 @@
         <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="I20" s="6">
         <v>1</v>
@@ -3133,22 +3189,22 @@
         <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
@@ -3191,22 +3247,22 @@
         <v>55</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
@@ -3221,22 +3277,22 @@
         <v>55</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="E24" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -3251,22 +3307,22 @@
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="E25" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="I25" s="6">
         <v>1</v>
@@ -4186,7 +4242,7 @@
         <v>284</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
@@ -4214,7 +4270,7 @@
         <v>285</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
@@ -4270,7 +4326,7 @@
         <v>286</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
@@ -4326,7 +4382,7 @@
         <v>280</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="1"/>
@@ -4398,7 +4454,7 @@
         <v>86</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>327</v>
@@ -4438,7 +4494,7 @@
         <v>343</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="1"/>
@@ -4510,7 +4566,7 @@
         <v>90</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>134</v>
@@ -4522,7 +4578,7 @@
         <v>278</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="1"/>
@@ -4566,19 +4622,7 @@
         <v>92</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>330</v>
+        <v>509</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
@@ -4622,16 +4666,16 @@
         <v>63</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="1"/>
@@ -4815,7 +4859,7 @@
         <v>103</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>416</v>
@@ -4843,19 +4887,7 @@
         <v>97</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
@@ -4871,7 +4903,7 @@
         <v>100</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>416</v>
@@ -5207,7 +5239,7 @@
         <v>64</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>402</v>
@@ -5219,7 +5251,7 @@
         <v>404</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
@@ -5235,44 +5267,44 @@
         <v>59</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>405</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" ht="45">
+    <row r="95" spans="1:10" ht="45" hidden="1">
       <c r="A95" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>310</v>
       </c>
       <c r="D95" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H95" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5296,12 +5328,12 @@
         <v>310</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" ht="30">
+    <row r="97" spans="1:10">
       <c r="A97" s="4" t="s">
         <v>0</v>
       </c>
@@ -5312,7 +5344,7 @@
         <v>311</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="1"/>
@@ -5457,32 +5489,23 @@
       <c r="I102" s="6"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" ht="60">
+    <row r="103" spans="1:10">
       <c r="A103" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>459</v>
+        <v>526</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" ht="45">
+    <row r="104" spans="1:10" ht="60">
       <c r="A104" s="4" t="s">
         <v>113</v>
       </c>
@@ -5490,47 +5513,44 @@
         <v>63</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" ht="45">
       <c r="A105" s="4" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>71</v>
+        <v>458</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>265</v>
+        <v>460</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>363</v>
+        <v>461</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="1"/>
@@ -5543,22 +5563,22 @@
         <v>55</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>68</v>
+        <v>400</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>68</v>
+        <v>295</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>68</v>
+        <v>363</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="1"/>
@@ -5571,22 +5591,22 @@
         <v>55</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>401</v>
+        <v>68</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>264</v>
+        <v>68</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>364</v>
+        <v>68</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="1"/>
@@ -5599,140 +5619,152 @@
         <v>55</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>70</v>
+        <v>401</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" s="1" customFormat="1">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:10">
+      <c r="A109" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I109" s="6"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="1:10" s="1" customFormat="1">
+      <c r="A110" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E109" s="1" t="str">
+      <c r="D110" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E110" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
         <v>Swiss Lawful Interception Report 2015</v>
       </c>
-      <c r="F109" s="1" t="str">
+      <c r="F110" s="1" t="str">
         <f>Tabelle2[[#This Row],[en]]</f>
         <v>Swiss Lawful Interception Report 2015</v>
       </c>
-      <c r="G109" s="1" t="str">
+      <c r="G110" s="1" t="str">
         <f>Tabelle2[[#This Row],[fr]]</f>
         <v>Swiss Lawful Interception Report 2015</v>
       </c>
-      <c r="H109" s="1" t="str">
+      <c r="H110" s="1" t="str">
         <f>Tabelle2[[#This Row],[it]]</f>
         <v>Swiss Lawful Interception Report 2015</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I110" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="45">
-      <c r="A110" s="4" t="s">
+    <row r="111" spans="1:10" ht="45">
+      <c r="A111" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E110" s="1" t="str">
+      <c r="D111" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E111" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
         <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
       </c>
-      <c r="F110" s="1" t="str">
+      <c r="F111" s="1" t="str">
         <f>Tabelle2[[#This Row],[en]]</f>
         <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
       </c>
-      <c r="G110" s="1" t="str">
+      <c r="G111" s="1" t="str">
         <f>Tabelle2[[#This Row],[fr]]</f>
         <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
       </c>
-      <c r="H110" s="1" t="str">
+      <c r="H111" s="1" t="str">
         <f>Tabelle2[[#This Row],[it]]</f>
         <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
       </c>
-      <c r="I110" s="6">
-        <v>1</v>
-      </c>
-      <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="1:10" ht="330">
-      <c r="A111" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>497</v>
-      </c>
       <c r="I111" s="6">
         <v>1</v>
       </c>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" ht="270">
-      <c r="A112" s="4" t="s">
+    <row r="112" spans="1:10" ht="409">
+      <c r="A112" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="I112" s="6"/>
+      <c r="C112" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="I112" s="6">
+        <v>1</v>
+      </c>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" ht="120">
+    <row r="113" spans="1:10" ht="270">
       <c r="A113" s="4" t="s">
         <v>318</v>
       </c>
@@ -5740,29 +5772,15 @@
         <v>63</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>514</v>
+        <v>319</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H113" s="1" t="s">
         <v>506</v>
       </c>
       <c r="I113" s="6"/>
-      <c r="J113" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="105">
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="1:10" ht="120" hidden="1">
       <c r="A114" s="4" t="s">
         <v>318</v>
       </c>
@@ -5772,30 +5790,27 @@
       <c r="C114" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="D114" s="1" t="str">
-        <f>CONCATENATE("&lt;a href='",D110,"' title='",D109,"' target='_blank'&gt;",D109,"&lt;/a&gt;")</f>
-        <v>&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      <c r="D114" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="I114" s="6">
-        <v>1</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="I114" s="6"/>
       <c r="J114" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="210">
+    <row r="115" spans="1:10" ht="105" hidden="1">
       <c r="A115" s="4" t="s">
         <v>318</v>
       </c>
@@ -5803,63 +5818,96 @@
         <v>63</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D115" s="1" t="str">
+        <f>CONCATENATE("&lt;a href='",D111,"' title='",D110,"' target='_blank'&gt;",D110,"&lt;/a&gt;")</f>
+        <v>&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I115" s="6">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="210">
+      <c r="A116" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D115" s="1" t="str">
-        <f>CONCATENATE(D113,D114)</f>
-        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden.&lt;br&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
-      </c>
-      <c r="E115" s="1" t="str">
-        <f>CONCATENATE(E113,E114)</f>
+      <c r="D116" s="1" t="str">
+        <f>CONCATENATE(D114,D115)</f>
+        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="E116" s="1" t="str">
+        <f>CONCATENATE(E114,E115)</f>
         <v>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</v>
       </c>
-      <c r="F115" s="1" t="str">
-        <f t="shared" ref="F115:H115" si="0">CONCATENATE(F113,F114)</f>
+      <c r="F116" s="1" t="str">
+        <f t="shared" ref="F116:H116" si="0">CONCATENATE(F114,F115)</f>
         <v>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
       </c>
-      <c r="G115" s="1" t="str">
+      <c r="G116" s="1" t="str">
         <f t="shared" si="0"/>
         <v>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
       </c>
-      <c r="H115" s="1" t="str">
+      <c r="H116" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
-      <c r="I115" s="6">
+      <c r="I116" s="6">
         <v>1</v>
       </c>
-      <c r="J115" s="1"/>
-    </row>
-    <row r="116" spans="1:10" ht="300">
-      <c r="A116" s="4" t="s">
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="1:10" ht="300">
+      <c r="A117" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E117" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="I116" s="6"/>
-      <c r="J116" s="1"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I108 I110:I1048576">
+  <conditionalFormatting sqref="I1:I109 I111:I1048576">
     <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I1)))</formula>
     </cfRule>
@@ -5875,4 +5923,2912 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E9" t="s">
+        <v>374</v>
+      </c>
+      <c r="F9" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" t="s">
+        <v>374</v>
+      </c>
+      <c r="H9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F10" t="s">
+        <v>387</v>
+      </c>
+      <c r="G10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F12" t="s">
+        <v>392</v>
+      </c>
+      <c r="G12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" t="s">
+        <v>383</v>
+      </c>
+      <c r="G13" t="s">
+        <v>383</v>
+      </c>
+      <c r="H13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E14" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" t="s">
+        <v>386</v>
+      </c>
+      <c r="G14" t="s">
+        <v>388</v>
+      </c>
+      <c r="H14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>417</v>
+      </c>
+      <c r="D15" t="s">
+        <v>428</v>
+      </c>
+      <c r="E15" t="s">
+        <v>429</v>
+      </c>
+      <c r="F15" t="s">
+        <v>430</v>
+      </c>
+      <c r="G15" t="s">
+        <v>431</v>
+      </c>
+      <c r="H15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" t="s">
+        <v>299</v>
+      </c>
+      <c r="H17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D18" t="s">
+        <v>434</v>
+      </c>
+      <c r="E18" t="s">
+        <v>434</v>
+      </c>
+      <c r="F18" t="s">
+        <v>433</v>
+      </c>
+      <c r="G18" t="s">
+        <v>435</v>
+      </c>
+      <c r="H18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F19" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" t="s">
+        <v>300</v>
+      </c>
+      <c r="H19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F20" t="s">
+        <v>424</v>
+      </c>
+      <c r="G20" t="s">
+        <v>425</v>
+      </c>
+      <c r="H20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>442</v>
+      </c>
+      <c r="D21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E21" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" t="s">
+        <v>444</v>
+      </c>
+      <c r="G21" t="s">
+        <v>445</v>
+      </c>
+      <c r="H21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D22" t="s">
+        <v>407</v>
+      </c>
+      <c r="E22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" t="s">
+        <v>408</v>
+      </c>
+      <c r="G22" t="s">
+        <v>409</v>
+      </c>
+      <c r="H22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>467</v>
+      </c>
+      <c r="D23" t="s">
+        <v>472</v>
+      </c>
+      <c r="E23" t="s">
+        <v>472</v>
+      </c>
+      <c r="F23" t="s">
+        <v>474</v>
+      </c>
+      <c r="G23" t="s">
+        <v>473</v>
+      </c>
+      <c r="H23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>468</v>
+      </c>
+      <c r="D24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E24" t="s">
+        <v>475</v>
+      </c>
+      <c r="F24" t="s">
+        <v>476</v>
+      </c>
+      <c r="G24" t="s">
+        <v>477</v>
+      </c>
+      <c r="H24" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" t="s">
+        <v>479</v>
+      </c>
+      <c r="F25" t="s">
+        <v>480</v>
+      </c>
+      <c r="G25" t="s">
+        <v>481</v>
+      </c>
+      <c r="H25" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" t="s">
+        <v>322</v>
+      </c>
+      <c r="F27" t="s">
+        <v>323</v>
+      </c>
+      <c r="G27" t="s">
+        <v>324</v>
+      </c>
+      <c r="H27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" t="s">
+        <v>204</v>
+      </c>
+      <c r="H32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" t="s">
+        <v>207</v>
+      </c>
+      <c r="H35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
+        <v>208</v>
+      </c>
+      <c r="H36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
+        <v>192</v>
+      </c>
+      <c r="G39" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>194</v>
+      </c>
+      <c r="G41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" t="s">
+        <v>213</v>
+      </c>
+      <c r="H42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" t="s">
+        <v>214</v>
+      </c>
+      <c r="H43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" t="s">
+        <v>197</v>
+      </c>
+      <c r="G44" t="s">
+        <v>215</v>
+      </c>
+      <c r="H44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
+        <v>198</v>
+      </c>
+      <c r="G45" t="s">
+        <v>216</v>
+      </c>
+      <c r="H45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" t="s">
+        <v>217</v>
+      </c>
+      <c r="H49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" t="s">
+        <v>199</v>
+      </c>
+      <c r="G50" t="s">
+        <v>218</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" t="s">
+        <v>219</v>
+      </c>
+      <c r="H51" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" t="s">
+        <v>248</v>
+      </c>
+      <c r="G52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H52" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" t="s">
+        <v>282</v>
+      </c>
+      <c r="H53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" t="s">
+        <v>250</v>
+      </c>
+      <c r="G54" t="s">
+        <v>283</v>
+      </c>
+      <c r="H54" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" t="s">
+        <v>251</v>
+      </c>
+      <c r="G55" t="s">
+        <v>276</v>
+      </c>
+      <c r="H55" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" t="s">
+        <v>252</v>
+      </c>
+      <c r="G56" t="s">
+        <v>284</v>
+      </c>
+      <c r="H56" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" t="s">
+        <v>253</v>
+      </c>
+      <c r="G57" t="s">
+        <v>285</v>
+      </c>
+      <c r="H57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" t="s">
+        <v>134</v>
+      </c>
+      <c r="F58" t="s">
+        <v>244</v>
+      </c>
+      <c r="G58" t="s">
+        <v>278</v>
+      </c>
+      <c r="H58" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" t="s">
+        <v>286</v>
+      </c>
+      <c r="H59" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" t="s">
+        <v>246</v>
+      </c>
+      <c r="G60" t="s">
+        <v>279</v>
+      </c>
+      <c r="H60" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" t="s">
+        <v>247</v>
+      </c>
+      <c r="G61" t="s">
+        <v>280</v>
+      </c>
+      <c r="H61" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" t="s">
+        <v>314</v>
+      </c>
+      <c r="E62" t="s">
+        <v>315</v>
+      </c>
+      <c r="F62" t="s">
+        <v>316</v>
+      </c>
+      <c r="G62" t="s">
+        <v>317</v>
+      </c>
+      <c r="H62" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" t="s">
+        <v>416</v>
+      </c>
+      <c r="E63" t="s">
+        <v>416</v>
+      </c>
+      <c r="F63" t="s">
+        <v>416</v>
+      </c>
+      <c r="G63" t="s">
+        <v>416</v>
+      </c>
+      <c r="H63" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" t="s">
+        <v>507</v>
+      </c>
+      <c r="E64" t="s">
+        <v>327</v>
+      </c>
+      <c r="F64" t="s">
+        <v>328</v>
+      </c>
+      <c r="G64" t="s">
+        <v>329</v>
+      </c>
+      <c r="H64" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" t="s">
+        <v>339</v>
+      </c>
+      <c r="E65" t="s">
+        <v>340</v>
+      </c>
+      <c r="F65" t="s">
+        <v>341</v>
+      </c>
+      <c r="G65" t="s">
+        <v>343</v>
+      </c>
+      <c r="H65" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>169</v>
+      </c>
+      <c r="E66" t="s">
+        <v>170</v>
+      </c>
+      <c r="F66" t="s">
+        <v>242</v>
+      </c>
+      <c r="G66" t="s">
+        <v>342</v>
+      </c>
+      <c r="H66" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" t="s">
+        <v>168</v>
+      </c>
+      <c r="F67" t="s">
+        <v>243</v>
+      </c>
+      <c r="G67" t="s">
+        <v>277</v>
+      </c>
+      <c r="H67" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" t="s">
+        <v>508</v>
+      </c>
+      <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
+        <v>244</v>
+      </c>
+      <c r="G68" t="s">
+        <v>278</v>
+      </c>
+      <c r="H68" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" t="s">
+        <v>165</v>
+      </c>
+      <c r="E69" t="s">
+        <v>166</v>
+      </c>
+      <c r="F69" t="s">
+        <v>245</v>
+      </c>
+      <c r="G69" t="s">
+        <v>166</v>
+      </c>
+      <c r="H69" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" t="s">
+        <v>353</v>
+      </c>
+      <c r="E71" t="s">
+        <v>354</v>
+      </c>
+      <c r="F71" t="s">
+        <v>355</v>
+      </c>
+      <c r="G71" t="s">
+        <v>356</v>
+      </c>
+      <c r="H71" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>516</v>
+      </c>
+      <c r="E72" t="s">
+        <v>452</v>
+      </c>
+      <c r="F72" t="s">
+        <v>453</v>
+      </c>
+      <c r="G72" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" t="s">
+        <v>395</v>
+      </c>
+      <c r="F73" t="s">
+        <v>258</v>
+      </c>
+      <c r="G73" t="s">
+        <v>290</v>
+      </c>
+      <c r="H73" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" t="s">
+        <v>396</v>
+      </c>
+      <c r="F74" t="s">
+        <v>259</v>
+      </c>
+      <c r="G74" t="s">
+        <v>291</v>
+      </c>
+      <c r="H74" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" t="s">
+        <v>397</v>
+      </c>
+      <c r="F75" t="s">
+        <v>260</v>
+      </c>
+      <c r="G75" t="s">
+        <v>292</v>
+      </c>
+      <c r="H75" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" t="s">
+        <v>398</v>
+      </c>
+      <c r="F76" t="s">
+        <v>261</v>
+      </c>
+      <c r="G76" t="s">
+        <v>293</v>
+      </c>
+      <c r="H76" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" t="s">
+        <v>262</v>
+      </c>
+      <c r="G77" t="s">
+        <v>140</v>
+      </c>
+      <c r="H77" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" t="s">
+        <v>399</v>
+      </c>
+      <c r="F78" t="s">
+        <v>263</v>
+      </c>
+      <c r="G78" t="s">
+        <v>294</v>
+      </c>
+      <c r="H78" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" t="s">
+        <v>515</v>
+      </c>
+      <c r="E79" t="s">
+        <v>416</v>
+      </c>
+      <c r="F79" t="s">
+        <v>416</v>
+      </c>
+      <c r="G79" t="s">
+        <v>416</v>
+      </c>
+      <c r="H79" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="D81" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" t="s">
+        <v>521</v>
+      </c>
+      <c r="E82" t="s">
+        <v>416</v>
+      </c>
+      <c r="F82" t="s">
+        <v>416</v>
+      </c>
+      <c r="G82" t="s">
+        <v>416</v>
+      </c>
+      <c r="H82" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" t="s">
+        <v>161</v>
+      </c>
+      <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
+        <v>255</v>
+      </c>
+      <c r="G83" t="s">
+        <v>287</v>
+      </c>
+      <c r="H83" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
+        <v>256</v>
+      </c>
+      <c r="G84" t="s">
+        <v>288</v>
+      </c>
+      <c r="H84" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
+        <v>257</v>
+      </c>
+      <c r="G85" t="s">
+        <v>289</v>
+      </c>
+      <c r="H85" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" t="s">
+        <v>61</v>
+      </c>
+      <c r="E86" t="s">
+        <v>142</v>
+      </c>
+      <c r="F86" t="s">
+        <v>269</v>
+      </c>
+      <c r="G86" t="s">
+        <v>302</v>
+      </c>
+      <c r="H86" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" t="s">
+        <v>367</v>
+      </c>
+      <c r="E87" t="s">
+        <v>368</v>
+      </c>
+      <c r="F87" t="s">
+        <v>369</v>
+      </c>
+      <c r="G87" t="s">
+        <v>370</v>
+      </c>
+      <c r="H87" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" t="s">
+        <v>270</v>
+      </c>
+      <c r="G88" t="s">
+        <v>303</v>
+      </c>
+      <c r="H88" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
+        <v>271</v>
+      </c>
+      <c r="G89" t="s">
+        <v>304</v>
+      </c>
+      <c r="H89" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" t="s">
+        <v>310</v>
+      </c>
+      <c r="D90" t="s">
+        <v>312</v>
+      </c>
+      <c r="E90" t="s">
+        <v>312</v>
+      </c>
+      <c r="F90" t="s">
+        <v>312</v>
+      </c>
+      <c r="G90" t="s">
+        <v>312</v>
+      </c>
+      <c r="H90" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" t="s">
+        <v>311</v>
+      </c>
+      <c r="D91" t="s">
+        <v>313</v>
+      </c>
+      <c r="E91" t="s">
+        <v>313</v>
+      </c>
+      <c r="F91" t="s">
+        <v>313</v>
+      </c>
+      <c r="G91" t="s">
+        <v>313</v>
+      </c>
+      <c r="H91" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" t="s">
+        <v>376</v>
+      </c>
+      <c r="E92" t="s">
+        <v>158</v>
+      </c>
+      <c r="F92" t="s">
+        <v>268</v>
+      </c>
+      <c r="G92" t="s">
+        <v>301</v>
+      </c>
+      <c r="H92" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" t="s">
+        <v>377</v>
+      </c>
+      <c r="E93" t="s">
+        <v>379</v>
+      </c>
+      <c r="F93" t="s">
+        <v>380</v>
+      </c>
+      <c r="G93" t="s">
+        <v>381</v>
+      </c>
+      <c r="H93" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" t="s">
+        <v>64</v>
+      </c>
+      <c r="D94" t="s">
+        <v>511</v>
+      </c>
+      <c r="E94" t="s">
+        <v>402</v>
+      </c>
+      <c r="F94" t="s">
+        <v>403</v>
+      </c>
+      <c r="G94" t="s">
+        <v>404</v>
+      </c>
+      <c r="H94" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" t="s">
+        <v>490</v>
+      </c>
+      <c r="E95" t="s">
+        <v>491</v>
+      </c>
+      <c r="F95" t="s">
+        <v>492</v>
+      </c>
+      <c r="G95" t="s">
+        <v>405</v>
+      </c>
+      <c r="H95" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" t="s">
+        <v>310</v>
+      </c>
+      <c r="D96" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" t="s">
+        <v>311</v>
+      </c>
+      <c r="D97" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" t="s">
+        <v>238</v>
+      </c>
+      <c r="G98" t="s">
+        <v>272</v>
+      </c>
+      <c r="H98" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" t="s">
+        <v>68</v>
+      </c>
+      <c r="F99" t="s">
+        <v>68</v>
+      </c>
+      <c r="G99" t="s">
+        <v>68</v>
+      </c>
+      <c r="H99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" t="s">
+        <v>127</v>
+      </c>
+      <c r="F100" t="s">
+        <v>239</v>
+      </c>
+      <c r="G100" t="s">
+        <v>273</v>
+      </c>
+      <c r="H100" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" t="s">
+        <v>74</v>
+      </c>
+      <c r="E101" t="s">
+        <v>129</v>
+      </c>
+      <c r="F101" t="s">
+        <v>240</v>
+      </c>
+      <c r="G101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s">
+        <v>119</v>
+      </c>
+      <c r="D102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E102" t="s">
+        <v>128</v>
+      </c>
+      <c r="F102" t="s">
+        <v>241</v>
+      </c>
+      <c r="G102" t="s">
+        <v>275</v>
+      </c>
+      <c r="H102" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" t="s">
+        <v>119</v>
+      </c>
+      <c r="D103" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" t="s">
+        <v>120</v>
+      </c>
+      <c r="D104" t="s">
+        <v>512</v>
+      </c>
+      <c r="E104" t="s">
+        <v>455</v>
+      </c>
+      <c r="F104" t="s">
+        <v>456</v>
+      </c>
+      <c r="G104" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105" t="s">
+        <v>458</v>
+      </c>
+      <c r="E105" t="s">
+        <v>459</v>
+      </c>
+      <c r="F105" t="s">
+        <v>460</v>
+      </c>
+      <c r="G105" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106" t="s">
+        <v>400</v>
+      </c>
+      <c r="F106" t="s">
+        <v>265</v>
+      </c>
+      <c r="G106" t="s">
+        <v>295</v>
+      </c>
+      <c r="H106" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>72</v>
+      </c>
+      <c r="E107" t="s">
+        <v>68</v>
+      </c>
+      <c r="F107" t="s">
+        <v>68</v>
+      </c>
+      <c r="G107" t="s">
+        <v>68</v>
+      </c>
+      <c r="H107" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" t="s">
+        <v>73</v>
+      </c>
+      <c r="E108" t="s">
+        <v>401</v>
+      </c>
+      <c r="F108" t="s">
+        <v>264</v>
+      </c>
+      <c r="G108" t="s">
+        <v>296</v>
+      </c>
+      <c r="H108" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109" t="s">
+        <v>74</v>
+      </c>
+      <c r="E109" t="s">
+        <v>70</v>
+      </c>
+      <c r="F109" t="s">
+        <v>240</v>
+      </c>
+      <c r="G109" t="s">
+        <v>274</v>
+      </c>
+      <c r="H109" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>418</v>
+      </c>
+      <c r="B110" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" t="s">
+        <v>325</v>
+      </c>
+      <c r="D110" t="s">
+        <v>513</v>
+      </c>
+      <c r="E110" t="s">
+        <v>513</v>
+      </c>
+      <c r="F110" t="s">
+        <v>513</v>
+      </c>
+      <c r="G110" t="s">
+        <v>513</v>
+      </c>
+      <c r="H110" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>418</v>
+      </c>
+      <c r="B111" t="s">
+        <v>419</v>
+      </c>
+      <c r="C111" t="s">
+        <v>325</v>
+      </c>
+      <c r="D111" t="s">
+        <v>447</v>
+      </c>
+      <c r="E111" t="s">
+        <v>447</v>
+      </c>
+      <c r="F111" t="s">
+        <v>447</v>
+      </c>
+      <c r="G111" t="s">
+        <v>447</v>
+      </c>
+      <c r="H111" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>318</v>
+      </c>
+      <c r="B112" t="s">
+        <v>63</v>
+      </c>
+      <c r="C112" t="s">
+        <v>417</v>
+      </c>
+      <c r="D112" t="s">
+        <v>527</v>
+      </c>
+      <c r="E112" t="s">
+        <v>529</v>
+      </c>
+      <c r="F112" t="s">
+        <v>528</v>
+      </c>
+      <c r="G112" t="s">
+        <v>530</v>
+      </c>
+      <c r="H112" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>318</v>
+      </c>
+      <c r="B113" t="s">
+        <v>63</v>
+      </c>
+      <c r="C113" t="s">
+        <v>319</v>
+      </c>
+      <c r="D113" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>318</v>
+      </c>
+      <c r="B114" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" t="s">
+        <v>325</v>
+      </c>
+      <c r="D114" t="s">
+        <v>534</v>
+      </c>
+      <c r="E114" t="s">
+        <v>517</v>
+      </c>
+      <c r="F114" t="s">
+        <v>518</v>
+      </c>
+      <c r="G114" t="s">
+        <v>519</v>
+      </c>
+      <c r="H114" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>318</v>
+      </c>
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" t="s">
+        <v>326</v>
+      </c>
+      <c r="D115" t="s">
+        <v>524</v>
+      </c>
+      <c r="E115" t="s">
+        <v>462</v>
+      </c>
+      <c r="F115" t="s">
+        <v>463</v>
+      </c>
+      <c r="G115" t="s">
+        <v>464</v>
+      </c>
+      <c r="H115" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -8,12 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="3" r:id="rId1"/>
-    <sheet name="Blatt2" sheetId="6" r:id="rId2"/>
+    <sheet name="Blatt2" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="slirv_translations" localSheetId="0">Blatt1!$A$2:$H$117</definedName>
-    <definedName name="slirv_translations_1" localSheetId="1">Blatt2!$A$2:$H$116</definedName>
-    <definedName name="slirv_translations_2" localSheetId="1">Blatt2!$A$2:$H$116</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="533">
   <si>
     <t>typ</t>
   </si>
@@ -985,9 +983,6 @@
     <t>Facebook</t>
   </si>
   <si>
-    <t>Skype, Microsoft</t>
-  </si>
-  <si>
     <t>Überwachung ohne Strafverfahren, Notsuche</t>
   </si>
   <si>
@@ -1576,10 +1571,6 @@
     <t>Landesverrat, Verbreiten menschlicher Krankheiten, Amtsmissbrauch, verbotener Nachrichtendienst</t>
   </si>
   <si>
-    <t>Strukturierte Gruppe, welche mittels Gewaltverbrechen oder sich durch verbrecherische Mittel
-Einkünfte bereichert, wie Mafia oder Djihad</t>
-  </si>
-  <si>
     <t>wem gehört eine eine bestimmte Telefonnummer oder eine bestimmte IP-Adresse zu einer bestimmten Zeit.</t>
   </si>
   <si>
@@ -1592,9 +1583,6 @@
     <t>Delicts Gravant</t>
   </si>
   <si>
-    <t>sämtliche Handlungen, welche geeignet sind, die Ermittlung der Herkunft, die Auffindung oder die Einziehung von Vermögenswerten zu vereiteln.</t>
-  </si>
-  <si>
     <t>Schwere Straftaten sind Delikte die hervorgehoben sind, da diese immer wieder ins Feld geführt werden, um Überwachung zu rechtfertigen.</t>
   </si>
   <si>
@@ -1613,12 +1601,6 @@
     <t>Menschen anwerben, anbieten, vermitteln oder beherbergen durch Anwendung unerlaubter Mittel wie Täuschung, Drohung oder Nötigung zum Zwecke der Ausbeutung.</t>
   </si>
   <si>
-    <t>betroffene Facebook Accounts. Diese Liste der Facebook Daten zeigt den Umfang auf.</t>
-  </si>
-  <si>
-    <t>betroffene Microsoft/Skype Accounts</t>
-  </si>
-  <si>
     <t>Die Digitale Gesellschaft ist ein offener Zusammenschluss netzpolitisch interessierter Kreise. Dem Bündnis angeschlossen sind rund 50 Einzelpersonen und 15 Gruppierungen. Dazu gehören Grundrechts- organisationen, Parteien, KünstlerInnen-Kollektive, BetreiberInnen von Netzwerkdiensten und weiteren Gruppen, die sich der kritischen, digitalen Zivilgesellschaft verpflichtet fühlen. &lt;br&gt;&lt;br&gt;Weitere Informationen zu netzpolitischen Themen sind im Blog zu finden: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;&lt;br&gt;&lt;br&gt;Programmierung: Ueli Kunz, &lt;a href='http://ideadapt.net'&gt;ideadapt.net&lt;/a&gt;</t>
   </si>
   <si>
@@ -1643,20 +1625,29 @@
     <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/rm' target='_blank'&gt;Servetsch da surveglianza dal traffic da posta e da telecommunicaziun&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Strukturierte Gruppe, welche mittels Gewaltverbrechen oder sich durch verbrecherische Mittel</t>
-  </si>
-  <si>
-    <t>Einkünfte bereichert, wie Mafia oder Djihad</t>
-  </si>
-  <si>
     <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Geldwäscherei bedeutet, die Ermittlung der Herkunft, die Auffindung oder die Einziehung von Vermögenswerten zu vereiteln.</t>
+  </si>
+  <si>
+    <t>Strukturierte Gruppe, welche mittels Gewaltverbrechen oder sich durch verbrecherische Mittel Einkünfte bereichert. Bsp. Mafia oder Djihad-Reisende</t>
+  </si>
+  <si>
+    <t>Facebook Accounts. Diese Liste der Facebook Daten zeigt den Umfang auf.</t>
+  </si>
+  <si>
+    <t>Microsoft/Skype Accounts (Skype, Hotmail, Outlook, XBOX etc.)</t>
+  </si>
+  <si>
+    <t>Microsoft &amp; Skype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1685,8 +1676,14 @@
       <color theme="1"/>
       <name val="Courier"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1699,8 +1696,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1708,8 +1711,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="205">
+  <cellStyleXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1915,8 +1933,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1939,8 +1961,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="205">
+  <cellStyles count="209">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2051,6 +2076,8 @@
     <cellStyle name="Besuchter Link" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2145,6 +2172,8 @@
     <cellStyle name="Link" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -2212,14 +2241,6 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations_2" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2569,8 +2590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H117"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="H117" sqref="A1:H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2609,10 +2630,10 @@
         <v>175</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2799,16 +2820,16 @@
         <v>157</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
@@ -2824,19 +2845,19 @@
         <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="1"/>
@@ -2852,19 +2873,19 @@
         <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -2885,16 +2906,16 @@
         <v>116</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
@@ -2913,16 +2934,16 @@
         <v>115</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="1"/>
@@ -2941,16 +2962,16 @@
         <v>114</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="1"/>
@@ -2963,22 +2984,22 @@
         <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
@@ -2991,22 +3012,22 @@
         <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
@@ -3019,22 +3040,22 @@
         <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
@@ -3053,7 +3074,7 @@
         <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>297</v>
@@ -3062,7 +3083,7 @@
         <v>298</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
@@ -3090,7 +3111,7 @@
         <v>299</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="1"/>
@@ -3103,22 +3124,22 @@
         <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
@@ -3137,7 +3158,7 @@
         <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>267</v>
@@ -3146,7 +3167,7 @@
         <v>300</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
@@ -3159,22 +3180,22 @@
         <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="I20" s="6">
         <v>1</v>
@@ -3189,22 +3210,22 @@
         <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
@@ -3217,22 +3238,22 @@
         <v>55</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="I22" s="6">
         <v>1</v>
@@ -3247,22 +3268,22 @@
         <v>55</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
@@ -3277,22 +3298,22 @@
         <v>55</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -3307,22 +3328,22 @@
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="I25" s="6">
         <v>1</v>
@@ -3352,7 +3373,7 @@
         <v>237</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="1"/>
@@ -3365,22 +3386,22 @@
         <v>55</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="1"/>
@@ -4186,7 +4207,7 @@
         <v>283</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
@@ -4214,7 +4235,7 @@
         <v>276</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
@@ -4242,7 +4263,7 @@
         <v>284</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
@@ -4270,7 +4291,7 @@
         <v>285</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
@@ -4298,7 +4319,7 @@
         <v>278</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
@@ -4326,7 +4347,7 @@
         <v>286</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
@@ -4354,7 +4375,7 @@
         <v>279</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="1"/>
@@ -4382,7 +4403,7 @@
         <v>280</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="1"/>
@@ -4398,19 +4419,19 @@
         <v>84</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="1"/>
@@ -4426,19 +4447,19 @@
         <v>85</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="1"/>
@@ -4454,19 +4475,19 @@
         <v>86</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="1"/>
@@ -4482,19 +4503,19 @@
         <v>87</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="1"/>
@@ -4519,10 +4540,10 @@
         <v>242</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="1"/>
@@ -4550,7 +4571,7 @@
         <v>277</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="1"/>
@@ -4566,7 +4587,7 @@
         <v>90</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>134</v>
@@ -4578,7 +4599,7 @@
         <v>278</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="1"/>
@@ -4606,7 +4627,7 @@
         <v>166</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="1"/>
@@ -4622,7 +4643,7 @@
         <v>92</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
@@ -4638,19 +4659,19 @@
         <v>93</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="1"/>
@@ -4666,16 +4687,16 @@
         <v>63</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="1"/>
@@ -4694,7 +4715,7 @@
         <v>102</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>258</v>
@@ -4703,7 +4724,7 @@
         <v>290</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="1"/>
@@ -4722,7 +4743,7 @@
         <v>96</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>259</v>
@@ -4731,7 +4752,7 @@
         <v>291</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="1"/>
@@ -4750,7 +4771,7 @@
         <v>99</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>260</v>
@@ -4759,7 +4780,7 @@
         <v>292</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="1"/>
@@ -4778,7 +4799,7 @@
         <v>171</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>261</v>
@@ -4787,7 +4808,7 @@
         <v>293</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="1"/>
@@ -4815,7 +4836,7 @@
         <v>140</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="1"/>
@@ -4834,7 +4855,7 @@
         <v>107</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>263</v>
@@ -4843,12 +4864,12 @@
         <v>294</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" ht="75">
+    <row r="79" spans="1:10" ht="60">
       <c r="A79" s="4" t="s">
         <v>94</v>
       </c>
@@ -4859,19 +4880,19 @@
         <v>103</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="1"/>
@@ -4887,7 +4908,7 @@
         <v>97</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
@@ -4903,19 +4924,19 @@
         <v>100</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
@@ -4943,7 +4964,7 @@
         <v>287</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="1"/>
@@ -4971,7 +4992,7 @@
         <v>288</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="1"/>
@@ -4999,7 +5020,7 @@
         <v>289</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="1"/>
@@ -5043,19 +5064,19 @@
         <v>60</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="1"/>
@@ -5155,19 +5176,23 @@
         <v>311</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>313</v>
+        <v>532</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
+        <v>Microsoft &amp; Skype</v>
+      </c>
+      <c r="F90" s="1" t="str">
+        <f>Tabelle2[[#This Row],[en]]</f>
+        <v>Microsoft &amp; Skype</v>
+      </c>
+      <c r="G90" s="1" t="str">
+        <f>Tabelle2[[#This Row],[fr]]</f>
+        <v>Microsoft &amp; Skype</v>
+      </c>
+      <c r="H90" s="1" t="str">
+        <f>Tabelle2[[#This Row],[it]]</f>
+        <v>Microsoft &amp; Skype</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="1"/>
@@ -5183,7 +5208,7 @@
         <v>58</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>158</v>
@@ -5195,7 +5220,7 @@
         <v>301</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="1"/>
@@ -5211,19 +5236,19 @@
         <v>60</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="1"/>
@@ -5239,19 +5264,19 @@
         <v>64</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="H93" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
@@ -5267,19 +5292,19 @@
         <v>59</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
@@ -5289,22 +5314,22 @@
         <v>0</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>310</v>
       </c>
       <c r="D95" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="H95" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5328,12 +5353,12 @@
         <v>310</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" ht="30">
       <c r="A97" s="4" t="s">
         <v>0</v>
       </c>
@@ -5344,7 +5369,19 @@
         <v>311</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>523</v>
+        <v>531</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>531</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="1"/>
@@ -5428,7 +5465,7 @@
         <v>273</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="1"/>
@@ -5500,7 +5537,7 @@
         <v>119</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="1"/>
@@ -5516,16 +5553,16 @@
         <v>120</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="1"/>
@@ -5541,16 +5578,16 @@
         <v>121</v>
       </c>
       <c r="D105" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="1"/>
@@ -5569,7 +5606,7 @@
         <v>71</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>265</v>
@@ -5578,7 +5615,7 @@
         <v>295</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="1"/>
@@ -5625,7 +5662,7 @@
         <v>73</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>264</v>
@@ -5634,7 +5671,7 @@
         <v>296</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="1"/>
@@ -5662,23 +5699,23 @@
         <v>274</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" s="1" customFormat="1">
+    <row r="110" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A110" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E110" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5702,16 +5739,16 @@
     </row>
     <row r="111" spans="1:10" ht="45">
       <c r="A111" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="C111" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E111" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5736,28 +5773,28 @@
     </row>
     <row r="112" spans="1:10" ht="409">
       <c r="A112" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="I112" s="6">
         <v>1</v>
@@ -5766,44 +5803,44 @@
     </row>
     <row r="113" spans="1:10" ht="270">
       <c r="A113" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="1"/>
     </row>
     <row r="114" spans="1:10" ht="120" hidden="1">
       <c r="A114" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="1">
@@ -5812,29 +5849,29 @@
     </row>
     <row r="115" spans="1:10" ht="105" hidden="1">
       <c r="A115" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D115" s="1" t="str">
         <f>CONCATENATE("&lt;a href='",D111,"' title='",D110,"' target='_blank'&gt;",D110,"&lt;/a&gt;")</f>
         <v>&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I115" s="6">
         <v>1</v>
@@ -5845,13 +5882,13 @@
     </row>
     <row r="116" spans="1:10" ht="210">
       <c r="A116" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D116" s="1" t="str">
         <f>CONCATENATE(D114,D115)</f>
@@ -5880,28 +5917,28 @@
     </row>
     <row r="117" spans="1:10" ht="300">
       <c r="A117" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="G117" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="1"/>
@@ -5927,10 +5964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection sqref="A1:H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6105,16 +6142,16 @@
         <v>157</v>
       </c>
       <c r="E7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" t="s">
         <v>412</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>413</v>
       </c>
-      <c r="G7" t="s">
-        <v>414</v>
-      </c>
       <c r="H7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6128,19 +6165,19 @@
         <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6154,19 +6191,19 @@
         <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6183,16 +6220,16 @@
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6209,16 +6246,16 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F11" t="s">
         <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6235,16 +6272,16 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G12" t="s">
         <v>392</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>393</v>
-      </c>
-      <c r="H12" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6255,22 +6292,22 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6281,22 +6318,22 @@
         <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" t="s">
         <v>384</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>385</v>
       </c>
-      <c r="F14" t="s">
-        <v>386</v>
-      </c>
       <c r="G14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6307,22 +6344,22 @@
         <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D15" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" t="s">
         <v>428</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>429</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>430</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>431</v>
-      </c>
-      <c r="H15" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6339,7 +6376,7 @@
         <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F16" t="s">
         <v>297</v>
@@ -6348,7 +6385,7 @@
         <v>298</v>
       </c>
       <c r="H16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6374,7 +6411,7 @@
         <v>299</v>
       </c>
       <c r="H17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6385,22 +6422,22 @@
         <v>55</v>
       </c>
       <c r="C18" t="s">
+        <v>432</v>
+      </c>
+      <c r="D18" t="s">
         <v>433</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>433</v>
+      </c>
+      <c r="F18" t="s">
+        <v>432</v>
+      </c>
+      <c r="G18" t="s">
         <v>434</v>
       </c>
-      <c r="E18" t="s">
-        <v>434</v>
-      </c>
-      <c r="F18" t="s">
-        <v>433</v>
-      </c>
-      <c r="G18" t="s">
-        <v>435</v>
-      </c>
       <c r="H18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6417,7 +6454,7 @@
         <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F19" t="s">
         <v>267</v>
@@ -6426,7 +6463,7 @@
         <v>300</v>
       </c>
       <c r="H19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6437,22 +6474,22 @@
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D20" t="s">
+        <v>421</v>
+      </c>
+      <c r="E20" t="s">
         <v>422</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>423</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>424</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>425</v>
-      </c>
-      <c r="H20" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6463,22 +6500,22 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D21" t="s">
+        <v>493</v>
+      </c>
+      <c r="E21" t="s">
         <v>442</v>
       </c>
-      <c r="D21" t="s">
-        <v>494</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>443</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>444</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>445</v>
-      </c>
-      <c r="H21" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6489,22 +6526,22 @@
         <v>55</v>
       </c>
       <c r="C22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" t="s">
         <v>406</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" t="s">
         <v>407</v>
       </c>
-      <c r="E22" t="s">
-        <v>411</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>408</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>409</v>
-      </c>
-      <c r="H22" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6515,22 +6552,22 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D23" t="s">
+        <v>471</v>
+      </c>
+      <c r="E23" t="s">
+        <v>471</v>
+      </c>
+      <c r="F23" t="s">
+        <v>473</v>
+      </c>
+      <c r="G23" t="s">
         <v>472</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>472</v>
-      </c>
-      <c r="F23" t="s">
-        <v>474</v>
-      </c>
-      <c r="G23" t="s">
-        <v>473</v>
-      </c>
-      <c r="H23" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6541,22 +6578,22 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E24" t="s">
+        <v>474</v>
+      </c>
+      <c r="F24" t="s">
         <v>475</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>476</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>477</v>
-      </c>
-      <c r="H24" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6567,22 +6604,22 @@
         <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F25" t="s">
         <v>479</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>480</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>481</v>
-      </c>
-      <c r="H25" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6608,7 +6645,7 @@
         <v>237</v>
       </c>
       <c r="H26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6619,22 +6656,22 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" t="s">
         <v>320</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>321</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>322</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>323</v>
       </c>
-      <c r="G27" t="s">
-        <v>324</v>
-      </c>
       <c r="H27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7336,7 +7373,7 @@
         <v>283</v>
       </c>
       <c r="H54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7362,7 +7399,7 @@
         <v>276</v>
       </c>
       <c r="H55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7388,7 +7425,7 @@
         <v>284</v>
       </c>
       <c r="H56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7414,7 +7451,7 @@
         <v>285</v>
       </c>
       <c r="H57" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7440,7 +7477,7 @@
         <v>278</v>
       </c>
       <c r="H58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7466,7 +7503,7 @@
         <v>286</v>
       </c>
       <c r="H59" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7492,7 +7529,7 @@
         <v>279</v>
       </c>
       <c r="H60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7518,7 +7555,7 @@
         <v>280</v>
       </c>
       <c r="H61" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7532,19 +7569,19 @@
         <v>84</v>
       </c>
       <c r="D62" t="s">
+        <v>313</v>
+      </c>
+      <c r="E62" t="s">
         <v>314</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>315</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>316</v>
       </c>
-      <c r="G62" t="s">
-        <v>317</v>
-      </c>
       <c r="H62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7558,19 +7595,19 @@
         <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E63" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F63" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G63" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H63" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7584,19 +7621,19 @@
         <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E64" t="s">
+        <v>326</v>
+      </c>
+      <c r="F64" t="s">
         <v>327</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>328</v>
       </c>
-      <c r="G64" t="s">
-        <v>329</v>
-      </c>
       <c r="H64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7610,19 +7647,19 @@
         <v>87</v>
       </c>
       <c r="D65" t="s">
+        <v>338</v>
+      </c>
+      <c r="E65" t="s">
         <v>339</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>340</v>
       </c>
-      <c r="F65" t="s">
-        <v>341</v>
-      </c>
       <c r="G65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7645,10 +7682,10 @@
         <v>242</v>
       </c>
       <c r="G66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7674,7 +7711,7 @@
         <v>277</v>
       </c>
       <c r="H67" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7688,7 +7725,7 @@
         <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E68" t="s">
         <v>134</v>
@@ -7700,7 +7737,7 @@
         <v>278</v>
       </c>
       <c r="H68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7726,7 +7763,7 @@
         <v>166</v>
       </c>
       <c r="H69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7740,7 +7777,7 @@
         <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7754,19 +7791,19 @@
         <v>93</v>
       </c>
       <c r="D71" t="s">
+        <v>352</v>
+      </c>
+      <c r="E71" t="s">
         <v>353</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>354</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>355</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>356</v>
-      </c>
-      <c r="H71" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7780,16 +7817,16 @@
         <v>63</v>
       </c>
       <c r="D72" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E72" t="s">
+        <v>451</v>
+      </c>
+      <c r="F72" t="s">
         <v>452</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>453</v>
-      </c>
-      <c r="G72" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7806,7 +7843,7 @@
         <v>102</v>
       </c>
       <c r="E73" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F73" t="s">
         <v>258</v>
@@ -7815,7 +7852,7 @@
         <v>290</v>
       </c>
       <c r="H73" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7832,7 +7869,7 @@
         <v>96</v>
       </c>
       <c r="E74" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F74" t="s">
         <v>259</v>
@@ -7841,7 +7878,7 @@
         <v>291</v>
       </c>
       <c r="H74" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7858,7 +7895,7 @@
         <v>99</v>
       </c>
       <c r="E75" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F75" t="s">
         <v>260</v>
@@ -7867,7 +7904,7 @@
         <v>292</v>
       </c>
       <c r="H75" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7884,7 +7921,7 @@
         <v>171</v>
       </c>
       <c r="E76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F76" t="s">
         <v>261</v>
@@ -7893,7 +7930,7 @@
         <v>293</v>
       </c>
       <c r="H76" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7919,7 +7956,7 @@
         <v>140</v>
       </c>
       <c r="H77" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7936,7 +7973,7 @@
         <v>107</v>
       </c>
       <c r="E78" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F78" t="s">
         <v>263</v>
@@ -7945,7 +7982,7 @@
         <v>294</v>
       </c>
       <c r="H78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7959,19 +7996,19 @@
         <v>103</v>
       </c>
       <c r="D79" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="E79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7985,12 +8022,33 @@
         <v>97</v>
       </c>
       <c r="D80" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" t="s">
+        <v>100</v>
+      </c>
       <c r="D81" t="s">
-        <v>533</v>
+        <v>518</v>
+      </c>
+      <c r="E81" t="s">
+        <v>415</v>
+      </c>
+      <c r="F81" t="s">
+        <v>415</v>
+      </c>
+      <c r="G81" t="s">
+        <v>415</v>
+      </c>
+      <c r="H81" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8001,22 +8059,22 @@
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D82" t="s">
-        <v>521</v>
+        <v>161</v>
       </c>
       <c r="E82" t="s">
-        <v>416</v>
+        <v>162</v>
       </c>
       <c r="F82" t="s">
-        <v>416</v>
+        <v>255</v>
       </c>
       <c r="G82" t="s">
-        <v>416</v>
+        <v>287</v>
       </c>
       <c r="H82" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8027,22 +8085,22 @@
         <v>63</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G83" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H83" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8053,48 +8111,48 @@
         <v>63</v>
       </c>
       <c r="C84" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D84" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E84" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G84" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H84" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D85" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="E85" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F85" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G85" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="H85" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8105,22 +8163,22 @@
         <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D86" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="E86" t="s">
-        <v>142</v>
+        <v>367</v>
       </c>
       <c r="F86" t="s">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="G86" t="s">
-        <v>302</v>
+        <v>369</v>
       </c>
       <c r="H86" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8131,22 +8189,22 @@
         <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D87" t="s">
-        <v>367</v>
+        <v>65</v>
       </c>
       <c r="E87" t="s">
-        <v>368</v>
+        <v>143</v>
       </c>
       <c r="F87" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
       <c r="G87" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="H87" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8157,22 +8215,22 @@
         <v>55</v>
       </c>
       <c r="C88" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D88" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E88" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="F88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G88" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H88" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8183,22 +8241,22 @@
         <v>55</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>310</v>
       </c>
       <c r="D89" t="s">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="E89" t="s">
-        <v>172</v>
+        <v>312</v>
       </c>
       <c r="F89" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="G89" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H89" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8209,22 +8267,22 @@
         <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D90" t="s">
-        <v>312</v>
+        <v>532</v>
       </c>
       <c r="E90" t="s">
-        <v>312</v>
+        <v>532</v>
       </c>
       <c r="F90" t="s">
-        <v>312</v>
+        <v>532</v>
       </c>
       <c r="G90" t="s">
-        <v>312</v>
+        <v>532</v>
       </c>
       <c r="H90" t="s">
-        <v>312</v>
+        <v>532</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8232,25 +8290,25 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C91" t="s">
-        <v>311</v>
+        <v>58</v>
       </c>
       <c r="D91" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="E91" t="s">
-        <v>313</v>
+        <v>158</v>
       </c>
       <c r="F91" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="G91" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="H91" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8261,22 +8319,22 @@
         <v>63</v>
       </c>
       <c r="C92" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D92" t="s">
         <v>376</v>
       </c>
       <c r="E92" t="s">
-        <v>158</v>
+        <v>378</v>
       </c>
       <c r="F92" t="s">
-        <v>268</v>
+        <v>379</v>
       </c>
       <c r="G92" t="s">
-        <v>301</v>
+        <v>380</v>
       </c>
       <c r="H92" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8287,22 +8345,22 @@
         <v>63</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D93" t="s">
-        <v>377</v>
+        <v>509</v>
       </c>
       <c r="E93" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="F93" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="G93" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="H93" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8313,22 +8371,22 @@
         <v>63</v>
       </c>
       <c r="C94" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D94" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="E94" t="s">
-        <v>402</v>
+        <v>490</v>
       </c>
       <c r="F94" t="s">
-        <v>403</v>
+        <v>491</v>
       </c>
       <c r="G94" t="s">
         <v>404</v>
       </c>
       <c r="H94" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8339,22 +8397,10 @@
         <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
+        <v>310</v>
       </c>
       <c r="D95" t="s">
-        <v>490</v>
-      </c>
-      <c r="E95" t="s">
-        <v>491</v>
-      </c>
-      <c r="F95" t="s">
-        <v>492</v>
-      </c>
-      <c r="G95" t="s">
-        <v>405</v>
-      </c>
-      <c r="H95" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8365,24 +8411,48 @@
         <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D96" t="s">
-        <v>522</v>
+        <v>531</v>
+      </c>
+      <c r="E96" t="s">
+        <v>531</v>
+      </c>
+      <c r="F96" t="s">
+        <v>531</v>
+      </c>
+      <c r="G96" t="s">
+        <v>531</v>
+      </c>
+      <c r="H96" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C97" t="s">
-        <v>311</v>
+        <v>120</v>
       </c>
       <c r="D97" t="s">
-        <v>523</v>
+        <v>124</v>
+      </c>
+      <c r="E97" t="s">
+        <v>126</v>
+      </c>
+      <c r="F97" t="s">
+        <v>238</v>
+      </c>
+      <c r="G97" t="s">
+        <v>272</v>
+      </c>
+      <c r="H97" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8393,22 +8463,22 @@
         <v>55</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="E98" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="F98" t="s">
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="G98" t="s">
-        <v>272</v>
+        <v>68</v>
       </c>
       <c r="H98" t="s">
-        <v>305</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8419,22 +8489,22 @@
         <v>55</v>
       </c>
       <c r="C99" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="D99" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="E99" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F99" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="G99" t="s">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c r="H99" t="s">
-        <v>68</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8445,22 +8515,22 @@
         <v>55</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="E100" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G100" t="s">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="H100" t="s">
-        <v>348</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8471,22 +8541,22 @@
         <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D101" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G101" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c r="H101" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8500,19 +8570,7 @@
         <v>119</v>
       </c>
       <c r="D102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E102" t="s">
-        <v>128</v>
-      </c>
-      <c r="F102" t="s">
-        <v>241</v>
-      </c>
-      <c r="G102" t="s">
-        <v>275</v>
-      </c>
-      <c r="H102" t="s">
-        <v>119</v>
+        <v>521</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8520,13 +8578,22 @@
         <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D103" t="s">
-        <v>526</v>
+        <v>510</v>
+      </c>
+      <c r="E103" t="s">
+        <v>454</v>
+      </c>
+      <c r="F103" t="s">
+        <v>455</v>
+      </c>
+      <c r="G103" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8537,42 +8604,45 @@
         <v>63</v>
       </c>
       <c r="C104" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D104" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
       <c r="E104" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F104" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G104" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C105" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="D105" t="s">
-        <v>458</v>
+        <v>71</v>
       </c>
       <c r="E105" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
       <c r="F105" t="s">
-        <v>460</v>
+        <v>265</v>
       </c>
       <c r="G105" t="s">
-        <v>461</v>
+        <v>295</v>
+      </c>
+      <c r="H105" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8583,22 +8653,22 @@
         <v>55</v>
       </c>
       <c r="C106" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D106" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E106" t="s">
-        <v>400</v>
+        <v>68</v>
       </c>
       <c r="F106" t="s">
-        <v>265</v>
+        <v>68</v>
       </c>
       <c r="G106" t="s">
-        <v>295</v>
+        <v>68</v>
       </c>
       <c r="H106" t="s">
-        <v>363</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8609,22 +8679,22 @@
         <v>55</v>
       </c>
       <c r="C107" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D107" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E107" t="s">
-        <v>68</v>
+        <v>400</v>
       </c>
       <c r="F107" t="s">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="G107" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="H107" t="s">
-        <v>68</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8635,145 +8705,145 @@
         <v>55</v>
       </c>
       <c r="C108" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D108" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E108" t="s">
-        <v>401</v>
+        <v>70</v>
       </c>
       <c r="F108" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="G108" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="H108" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>66</v>
+        <v>417</v>
       </c>
       <c r="B109" t="s">
         <v>55</v>
       </c>
       <c r="C109" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="D109" t="s">
-        <v>74</v>
+        <v>511</v>
       </c>
       <c r="E109" t="s">
-        <v>70</v>
+        <v>511</v>
       </c>
       <c r="F109" t="s">
-        <v>240</v>
+        <v>511</v>
       </c>
       <c r="G109" t="s">
-        <v>274</v>
+        <v>511</v>
       </c>
       <c r="H109" t="s">
-        <v>366</v>
+        <v>511</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
+        <v>417</v>
+      </c>
+      <c r="B110" t="s">
         <v>418</v>
       </c>
-      <c r="B110" t="s">
-        <v>55</v>
-      </c>
       <c r="C110" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D110" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
       <c r="E110" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
       <c r="F110" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
       <c r="G110" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
       <c r="H110" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>418</v>
+        <v>317</v>
       </c>
       <c r="B111" t="s">
-        <v>419</v>
+        <v>63</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
+        <v>416</v>
       </c>
       <c r="D111" t="s">
-        <v>447</v>
+        <v>522</v>
       </c>
       <c r="E111" t="s">
-        <v>447</v>
+        <v>524</v>
       </c>
       <c r="F111" t="s">
-        <v>447</v>
+        <v>523</v>
       </c>
       <c r="G111" t="s">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="H111" t="s">
-        <v>447</v>
+        <v>526</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B112" t="s">
         <v>63</v>
       </c>
       <c r="C112" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
       <c r="D112" t="s">
-        <v>527</v>
-      </c>
-      <c r="E112" t="s">
-        <v>529</v>
-      </c>
-      <c r="F112" t="s">
-        <v>528</v>
-      </c>
-      <c r="G112" t="s">
-        <v>530</v>
-      </c>
-      <c r="H112" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B113" t="s">
         <v>63</v>
       </c>
       <c r="C113" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D113" t="s">
-        <v>506</v>
+        <v>527</v>
+      </c>
+      <c r="E113" t="s">
+        <v>514</v>
+      </c>
+      <c r="F113" t="s">
+        <v>515</v>
+      </c>
+      <c r="G113" t="s">
+        <v>516</v>
+      </c>
+      <c r="H113" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B114" t="s">
         <v>63</v>
@@ -8782,45 +8852,19 @@
         <v>325</v>
       </c>
       <c r="D114" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="E114" t="s">
-        <v>517</v>
+        <v>461</v>
       </c>
       <c r="F114" t="s">
-        <v>518</v>
+        <v>462</v>
       </c>
       <c r="G114" t="s">
-        <v>519</v>
+        <v>463</v>
       </c>
       <c r="H114" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>318</v>
-      </c>
-      <c r="B115" t="s">
-        <v>63</v>
-      </c>
-      <c r="C115" t="s">
-        <v>326</v>
-      </c>
-      <c r="D115" t="s">
-        <v>524</v>
-      </c>
-      <c r="E115" t="s">
-        <v>462</v>
-      </c>
-      <c r="F115" t="s">
-        <v>463</v>
-      </c>
-      <c r="G115" t="s">
         <v>464</v>
-      </c>
-      <c r="H115" t="s">
-        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Blatt2" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="slirv_translations" localSheetId="0">Blatt1!$A$2:$H$117</definedName>
+    <definedName name="slirv_translations" localSheetId="0">Blatt1!$A$2:$H$118</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="534">
   <si>
     <t>typ</t>
   </si>
@@ -1535,27 +1535,15 @@
     <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden.</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.</t>
   </si>
   <si>
-    <t>&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</t>
-  </si>
-  <si>
     <t>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
-  </si>
-  <si>
     <t>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</t>
-  </si>
-  <si>
     <t>slir_intro</t>
   </si>
   <si>
@@ -1586,18 +1574,6 @@
     <t>Schwere Straftaten sind Delikte die hervorgehoben sind, da diese immer wieder ins Feld geführt werden, um Überwachung zu rechtfertigen.</t>
   </si>
   <si>
-    <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Menschen anwerben, anbieten, vermitteln oder beherbergen durch Anwendung unerlaubter Mittel wie Täuschung, Drohung oder Nötigung zum Zwecke der Ausbeutung.</t>
   </si>
   <si>
@@ -1625,9 +1601,6 @@
     <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/rm' target='_blank'&gt;Servetsch da surveglianza dal traffic da posta e da telecommunicaziun&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Geldwäscherei bedeutet, die Ermittlung der Herkunft, die Auffindung oder die Einziehung von Vermögenswerten zu vereiteln.</t>
   </si>
   <si>
@@ -1641,6 +1614,36 @@
   </si>
   <si>
     <t>Microsoft &amp; Skype</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>nur_deutsch</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Nur in Deutsch verfügbar</t>
+  </si>
+  <si>
+    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;Nur in Deutsch verfügbar</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1730,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="209">
+  <cellStyleXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1918,6 +1921,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1965,7 +1976,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="209">
+  <cellStyles count="217">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2078,6 +2089,10 @@
     <cellStyle name="Besuchter Link" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2174,9 +2189,23 @@
     <cellStyle name="Link" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2224,16 +2253,6 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
@@ -2244,23 +2263,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J117" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J118" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:J118">
     <filterColumn colId="9">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="group" dataDxfId="9"/>
-    <tableColumn id="2" name="typ" dataDxfId="8"/>
-    <tableColumn id="3" name="detail" dataDxfId="7"/>
-    <tableColumn id="4" name="de" dataDxfId="6"/>
-    <tableColumn id="5" name="en" dataDxfId="5"/>
-    <tableColumn id="6" name="fr" dataDxfId="4"/>
-    <tableColumn id="7" name="it" dataDxfId="3"/>
-    <tableColumn id="8" name="rm" dataDxfId="2"/>
-    <tableColumn id="9" name="nfTrans" dataDxfId="1"/>
-    <tableColumn id="10" name="notEXport" dataDxfId="0"/>
+    <tableColumn id="1" name="group" dataDxfId="10"/>
+    <tableColumn id="2" name="typ" dataDxfId="9"/>
+    <tableColumn id="3" name="detail" dataDxfId="8"/>
+    <tableColumn id="4" name="de" dataDxfId="7"/>
+    <tableColumn id="5" name="en" dataDxfId="6"/>
+    <tableColumn id="6" name="fr" dataDxfId="5"/>
+    <tableColumn id="7" name="it" dataDxfId="4"/>
+    <tableColumn id="8" name="rm" dataDxfId="3"/>
+    <tableColumn id="9" name="nfTrans" dataDxfId="2"/>
+    <tableColumn id="10" name="notEXport" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2588,10 +2607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="H117" sqref="A1:H117"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2915,7 +2934,7 @@
         <v>388</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
@@ -4475,7 +4494,7 @@
         <v>86</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>326</v>
@@ -4587,7 +4606,7 @@
         <v>90</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>134</v>
@@ -4643,7 +4662,7 @@
         <v>92</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
@@ -4687,7 +4706,7 @@
         <v>63</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>451</v>
@@ -4880,7 +4899,7 @@
         <v>103</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>415</v>
@@ -4908,7 +4927,7 @@
         <v>97</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
@@ -4924,7 +4943,7 @@
         <v>100</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>415</v>
@@ -5176,7 +5195,7 @@
         <v>311</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="E90" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5264,7 +5283,7 @@
         <v>64</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>401</v>
@@ -5353,7 +5372,7 @@
         <v>310</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="1"/>
@@ -5369,19 +5388,19 @@
         <v>311</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="1"/>
@@ -5537,7 +5556,7 @@
         <v>119</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="1"/>
@@ -5553,7 +5572,7 @@
         <v>120</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>454</v>
@@ -5704,7 +5723,7 @@
       <c r="I109" s="6"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" s="1" customFormat="1" ht="30">
+    <row r="110" spans="1:10" s="1" customFormat="1">
       <c r="A110" s="1" t="s">
         <v>417</v>
       </c>
@@ -5715,7 +5734,7 @@
         <v>324</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E110" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5782,19 +5801,19 @@
         <v>416</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="I112" s="6">
         <v>1</v>
@@ -5812,7 +5831,7 @@
         <v>318</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="1"/>
@@ -5825,19 +5844,19 @@
         <v>63</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="G114" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>496</v>
@@ -5847,7 +5866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="105" hidden="1">
+    <row r="115" spans="1:10" ht="30" hidden="1">
       <c r="A115" s="4" t="s">
         <v>317</v>
       </c>
@@ -5855,32 +5874,29 @@
         <v>63</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="D115" s="1" t="str">
-        <f>CONCATENATE("&lt;a href='",D111,"' title='",D110,"' target='_blank'&gt;",D110,"&lt;/a&gt;")</f>
-        <v>&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <v>526</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I115" s="6">
-        <v>1</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="I115" s="6"/>
       <c r="J115" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="210">
+    <row r="116" spans="1:10" ht="135" hidden="1">
       <c r="A116" s="4" t="s">
         <v>317</v>
       </c>
@@ -5888,34 +5904,36 @@
         <v>63</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>324</v>
+        <v>495</v>
       </c>
       <c r="D116" s="1" t="str">
-        <f>CONCATENATE(D114,D115)</f>
-        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",D111,"' title='",D110,"' target='_blank'&gt;",D110,"&lt;/a&gt;")</f>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="E116" s="1" t="str">
-        <f>CONCATENATE(E114,E115)</f>
-        <v>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</v>
+        <f t="shared" ref="E116:H116" si="0">CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",E111,"' title='",E110,"' target='_blank'&gt;",E110,"&lt;/a&gt;")</f>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f t="shared" ref="F116:H116" si="0">CONCATENATE(F114,F115)</f>
-        <v>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="G116" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="H116" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden. &lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' &gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="I116" s="6">
         <v>1</v>
       </c>
-      <c r="J116" s="1"/>
-    </row>
-    <row r="117" spans="1:10" ht="300">
+      <c r="J116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="285">
       <c r="A117" s="4" t="s">
         <v>317</v>
       </c>
@@ -5923,29 +5941,64 @@
         <v>63</v>
       </c>
       <c r="C117" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D117" s="1" t="str">
+        <f>CONCATENATE(D114,D116)</f>
+        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="E117" s="1" t="str">
+        <f t="shared" ref="E117:H117" si="1">CONCATENATE(E114,E116,E115)</f>
+        <v>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</v>
+      </c>
+      <c r="F117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
+      </c>
+      <c r="G117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
+      </c>
+      <c r="H117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;Nur in Deutsch verfügbar</v>
+      </c>
+      <c r="I117" s="6">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="1:10" ht="300">
+      <c r="A118" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E117" s="1" t="s">
+      <c r="D118" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I117" s="6"/>
-      <c r="J117" s="1"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I109 I111:I1048576">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6229,7 +6282,7 @@
         <v>388</v>
       </c>
       <c r="H10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7621,7 +7674,7 @@
         <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E64" t="s">
         <v>326</v>
@@ -7725,7 +7778,7 @@
         <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E68" t="s">
         <v>134</v>
@@ -7777,7 +7830,7 @@
         <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7817,7 +7870,7 @@
         <v>63</v>
       </c>
       <c r="D72" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E72" t="s">
         <v>451</v>
@@ -7996,7 +8049,7 @@
         <v>103</v>
       </c>
       <c r="D79" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="E79" t="s">
         <v>415</v>
@@ -8022,7 +8075,7 @@
         <v>97</v>
       </c>
       <c r="D80" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8036,7 +8089,7 @@
         <v>100</v>
       </c>
       <c r="D81" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E81" t="s">
         <v>415</v>
@@ -8270,19 +8323,19 @@
         <v>311</v>
       </c>
       <c r="D90" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="E90" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="F90" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G90" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="H90" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8348,7 +8401,7 @@
         <v>64</v>
       </c>
       <c r="D93" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E93" t="s">
         <v>401</v>
@@ -8400,7 +8453,7 @@
         <v>310</v>
       </c>
       <c r="D95" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8414,19 +8467,19 @@
         <v>311</v>
       </c>
       <c r="D96" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="E96" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F96" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="G96" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="H96" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8570,7 +8623,7 @@
         <v>119</v>
       </c>
       <c r="D102" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8584,7 +8637,7 @@
         <v>120</v>
       </c>
       <c r="D103" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E103" t="s">
         <v>454</v>
@@ -8734,19 +8787,19 @@
         <v>324</v>
       </c>
       <c r="D109" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E109" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F109" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G109" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H109" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8786,19 +8839,19 @@
         <v>416</v>
       </c>
       <c r="D111" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="E111" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F111" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="G111" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="H111" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8812,7 +8865,7 @@
         <v>318</v>
       </c>
       <c r="D112" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8826,19 +8879,19 @@
         <v>324</v>
       </c>
       <c r="D113" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E113" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="F113" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="G113" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="H113" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8852,7 +8905,7 @@
         <v>325</v>
       </c>
       <c r="D114" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E114" t="s">
         <v>461</v>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="800" windowWidth="30940" windowHeight="18560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="500" yWindow="800" windowWidth="30940" windowHeight="18560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="536">
   <si>
     <t>typ</t>
   </si>
@@ -1644,6 +1644,12 @@
   </si>
   <si>
     <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;Nur in Deutsch verfügbar</t>
+  </si>
+  <si>
+    <t>Antennensuchlauf auch Funkzellenabfrage oder Rasterfahndung genannt, erfasst alle Mobiltelefone in einem Gebiet.</t>
+  </si>
+  <si>
+    <t>Notsuche, zur Suche und Rettung von vermissten oder flüchtigen Personen.</t>
   </si>
 </sst>
 </file>
@@ -2197,16 +2203,6 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2253,6 +2249,16 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
@@ -2263,23 +2269,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J118" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J118" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J118">
     <filterColumn colId="9">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="group" dataDxfId="10"/>
-    <tableColumn id="2" name="typ" dataDxfId="9"/>
-    <tableColumn id="3" name="detail" dataDxfId="8"/>
-    <tableColumn id="4" name="de" dataDxfId="7"/>
-    <tableColumn id="5" name="en" dataDxfId="6"/>
-    <tableColumn id="6" name="fr" dataDxfId="5"/>
-    <tableColumn id="7" name="it" dataDxfId="4"/>
-    <tableColumn id="8" name="rm" dataDxfId="3"/>
-    <tableColumn id="9" name="nfTrans" dataDxfId="2"/>
-    <tableColumn id="10" name="notEXport" dataDxfId="1"/>
+    <tableColumn id="1" name="group" dataDxfId="9"/>
+    <tableColumn id="2" name="typ" dataDxfId="8"/>
+    <tableColumn id="3" name="detail" dataDxfId="7"/>
+    <tableColumn id="4" name="de" dataDxfId="6"/>
+    <tableColumn id="5" name="en" dataDxfId="5"/>
+    <tableColumn id="6" name="fr" dataDxfId="4"/>
+    <tableColumn id="7" name="it" dataDxfId="3"/>
+    <tableColumn id="8" name="rm" dataDxfId="2"/>
+    <tableColumn id="9" name="nfTrans" dataDxfId="1"/>
+    <tableColumn id="10" name="notEXport" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2607,10 +2613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H118"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5572,7 +5579,7 @@
         <v>120</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>454</v>
@@ -5597,7 +5604,7 @@
         <v>121</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>457</v>
+        <v>535</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>458</v>
@@ -5933,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="285">
+    <row r="117" spans="1:10" ht="270">
       <c r="A117" s="4" t="s">
         <v>317</v>
       </c>
@@ -5998,7 +6005,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I109 I111:I1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6019,7 +6026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H114"/>
     </sheetView>
   </sheetViews>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="800" windowWidth="30940" windowHeight="18560" tabRatio="500"/>
+    <workbookView xWindow="500" yWindow="800" windowWidth="30940" windowHeight="18560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="3" r:id="rId1"/>
-    <sheet name="Blatt2" sheetId="7" r:id="rId2"/>
+    <sheet name="Blatt3" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="slirv_translations" localSheetId="0">Blatt1!$A$2:$H$118</definedName>
+    <definedName name="slirv_translations_1" localSheetId="1">Blatt3!$A$2:$H$118</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="534">
   <si>
     <t>typ</t>
   </si>
@@ -1415,9 +1416,6 @@
     <t>Un abbonato mobile scansione, inchiesta cellulare o rete a strascico. Tutti i telefoni cellulari registrati in una certa area</t>
   </si>
   <si>
-    <t>Die Notsuche wird zur Suche und Rettung von vermissten oder flüchtigen Personen eingesetzt.</t>
-  </si>
-  <si>
     <t>Emergency rescue is used for search and rescue of missing or absconded.</t>
   </si>
   <si>
@@ -1560,9 +1558,6 @@
   </si>
   <si>
     <t>wem gehört eine eine bestimmte Telefonnummer oder eine bestimmte IP-Adresse zu einer bestimmten Zeit.</t>
-  </si>
-  <si>
-    <t>Auch Funkzellenabfrage oder Rasterfahndung genannt, erfasst alle Mobiltelefone in einem Gebiet.</t>
   </si>
   <si>
     <t>Swiss Lawful Interception Report 2015</t>
@@ -1736,7 +1731,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="217">
+  <cellStyleXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1927,6 +1922,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1982,7 +1979,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="217">
+  <cellStyles count="219">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2099,6 +2096,7 @@
     <cellStyle name="Besuchter Link" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2199,6 +2197,7 @@
     <cellStyle name="Link" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -2266,6 +2265,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2613,11 +2616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2656,10 +2658,10 @@
         <v>175</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2941,7 +2943,7 @@
         <v>388</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
@@ -3109,7 +3111,7 @@
         <v>298</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
@@ -3239,7 +3241,7 @@
         <v>441</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>442</v>
@@ -3294,22 +3296,22 @@
         <v>55</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
@@ -3324,22 +3326,22 @@
         <v>55</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -3354,22 +3356,22 @@
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="I25" s="6">
         <v>1</v>
@@ -4501,7 +4503,7 @@
         <v>86</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>326</v>
@@ -4541,7 +4543,7 @@
         <v>342</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="1"/>
@@ -4613,7 +4615,7 @@
         <v>90</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>134</v>
@@ -4669,7 +4671,7 @@
         <v>92</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
@@ -4713,7 +4715,7 @@
         <v>63</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>451</v>
@@ -4906,7 +4908,7 @@
         <v>103</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>415</v>
@@ -4934,7 +4936,7 @@
         <v>97</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
@@ -4950,7 +4952,7 @@
         <v>100</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>415</v>
@@ -5202,7 +5204,7 @@
         <v>311</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E90" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5290,7 +5292,7 @@
         <v>64</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>401</v>
@@ -5318,19 +5320,19 @@
         <v>59</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>404</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
@@ -5340,22 +5342,22 @@
         <v>0</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>310</v>
       </c>
       <c r="D95" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="H95" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5379,7 +5381,7 @@
         <v>310</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="1"/>
@@ -5395,19 +5397,19 @@
         <v>311</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="1"/>
@@ -5563,7 +5565,7 @@
         <v>119</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="1"/>
@@ -5579,7 +5581,7 @@
         <v>120</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>454</v>
@@ -5604,16 +5606,16 @@
         <v>121</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="1"/>
@@ -5741,7 +5743,7 @@
         <v>324</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E110" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5808,19 +5810,19 @@
         <v>416</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="H112" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="I112" s="6">
         <v>1</v>
@@ -5838,7 +5840,7 @@
         <v>318</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="1"/>
@@ -5851,22 +5853,22 @@
         <v>63</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="H114" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="1">
@@ -5881,22 +5883,22 @@
         <v>63</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="1">
@@ -5911,7 +5913,7 @@
         <v>63</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D116" s="1" t="str">
         <f>CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",D111,"' title='",D110,"' target='_blank'&gt;",D110,"&lt;/a&gt;")</f>
@@ -5986,19 +5988,19 @@
         <v>325</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="1"/>
@@ -6026,8 +6028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6289,7 +6291,7 @@
         <v>388</v>
       </c>
       <c r="H10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6445,7 +6447,7 @@
         <v>298</v>
       </c>
       <c r="H16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6563,7 +6565,7 @@
         <v>441</v>
       </c>
       <c r="D21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E21" t="s">
         <v>442</v>
@@ -6612,22 +6614,22 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D23" t="s">
+        <v>470</v>
+      </c>
+      <c r="E23" t="s">
+        <v>470</v>
+      </c>
+      <c r="F23" t="s">
+        <v>472</v>
+      </c>
+      <c r="G23" t="s">
         <v>471</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>471</v>
-      </c>
-      <c r="F23" t="s">
-        <v>473</v>
-      </c>
-      <c r="G23" t="s">
-        <v>472</v>
-      </c>
-      <c r="H23" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6638,22 +6640,22 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E24" t="s">
+        <v>473</v>
+      </c>
+      <c r="F24" t="s">
         <v>474</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>475</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>476</v>
-      </c>
-      <c r="H24" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6664,22 +6666,22 @@
         <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E25" t="s">
+        <v>477</v>
+      </c>
+      <c r="F25" t="s">
         <v>478</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>479</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>480</v>
-      </c>
-      <c r="H25" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7681,7 +7683,7 @@
         <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E64" t="s">
         <v>326</v>
@@ -7719,7 +7721,7 @@
         <v>342</v>
       </c>
       <c r="H65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7785,7 +7787,7 @@
         <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E68" t="s">
         <v>134</v>
@@ -7837,7 +7839,7 @@
         <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7877,7 +7879,7 @@
         <v>63</v>
       </c>
       <c r="D72" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E72" t="s">
         <v>451</v>
@@ -8056,7 +8058,7 @@
         <v>103</v>
       </c>
       <c r="D79" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E79" t="s">
         <v>415</v>
@@ -8082,7 +8084,7 @@
         <v>97</v>
       </c>
       <c r="D80" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8096,7 +8098,7 @@
         <v>100</v>
       </c>
       <c r="D81" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E81" t="s">
         <v>415</v>
@@ -8330,19 +8332,19 @@
         <v>311</v>
       </c>
       <c r="D90" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E90" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F90" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G90" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H90" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8408,7 +8410,7 @@
         <v>64</v>
       </c>
       <c r="D93" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E93" t="s">
         <v>401</v>
@@ -8434,19 +8436,19 @@
         <v>59</v>
       </c>
       <c r="D94" t="s">
+        <v>488</v>
+      </c>
+      <c r="E94" t="s">
         <v>489</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>490</v>
-      </c>
-      <c r="F94" t="s">
-        <v>491</v>
       </c>
       <c r="G94" t="s">
         <v>404</v>
       </c>
       <c r="H94" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8460,7 +8462,7 @@
         <v>310</v>
       </c>
       <c r="D95" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8474,19 +8476,19 @@
         <v>311</v>
       </c>
       <c r="D96" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E96" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F96" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G96" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H96" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8630,7 +8632,7 @@
         <v>119</v>
       </c>
       <c r="D102" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8644,7 +8646,7 @@
         <v>120</v>
       </c>
       <c r="D103" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="E103" t="s">
         <v>454</v>
@@ -8667,16 +8669,16 @@
         <v>121</v>
       </c>
       <c r="D104" t="s">
+        <v>533</v>
+      </c>
+      <c r="E104" t="s">
         <v>457</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>458</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>459</v>
-      </c>
-      <c r="G104" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8794,19 +8796,19 @@
         <v>324</v>
       </c>
       <c r="D109" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E109" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F109" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G109" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H109" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8846,19 +8848,19 @@
         <v>416</v>
       </c>
       <c r="D111" t="s">
+        <v>512</v>
+      </c>
+      <c r="E111" t="s">
         <v>514</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
+        <v>513</v>
+      </c>
+      <c r="G111" t="s">
+        <v>515</v>
+      </c>
+      <c r="H111" t="s">
         <v>516</v>
-      </c>
-      <c r="F111" t="s">
-        <v>515</v>
-      </c>
-      <c r="G111" t="s">
-        <v>517</v>
-      </c>
-      <c r="H111" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8872,7 +8874,7 @@
         <v>318</v>
       </c>
       <c r="D112" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8886,19 +8888,19 @@
         <v>324</v>
       </c>
       <c r="D113" t="s">
+        <v>527</v>
+      </c>
+      <c r="E113" t="s">
+        <v>528</v>
+      </c>
+      <c r="F113" t="s">
         <v>529</v>
       </c>
-      <c r="E113" t="s">
+      <c r="G113" t="s">
         <v>530</v>
       </c>
-      <c r="F113" t="s">
+      <c r="H113" t="s">
         <v>531</v>
-      </c>
-      <c r="G113" t="s">
-        <v>532</v>
-      </c>
-      <c r="H113" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8912,19 +8914,19 @@
         <v>325</v>
       </c>
       <c r="D114" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E114" t="s">
+        <v>460</v>
+      </c>
+      <c r="F114" t="s">
         <v>461</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>462</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>463</v>
-      </c>
-      <c r="H114" t="s">
-        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="800" windowWidth="30940" windowHeight="18560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1160" yWindow="10000" windowWidth="30940" windowHeight="18560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blatt1" sheetId="3" r:id="rId1"/>
-    <sheet name="Blatt3" sheetId="8" r:id="rId2"/>
+    <sheet name="trans" sheetId="3" r:id="rId1"/>
+    <sheet name="Blatt3" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="slirv_translations" localSheetId="0">Blatt1!$A$2:$H$118</definedName>
-    <definedName name="slirv_translations_1" localSheetId="1">Blatt3!$A$2:$H$118</definedName>
+    <definedName name="slirv_translations" localSheetId="1">Blatt3!$A$2:$H$117</definedName>
+    <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$117</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="551">
   <si>
     <t>typ</t>
   </si>
@@ -414,9 +414,6 @@
     <t>Notsuche</t>
   </si>
   <si>
-    <t>Telefon</t>
-  </si>
-  <si>
     <t>Antennensuchlauf</t>
   </si>
   <si>
@@ -429,9 +426,6 @@
     <t>emergency rescue</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>post mail</t>
   </si>
   <si>
@@ -768,9 +762,6 @@
     <t>poste</t>
   </si>
   <si>
-    <t>téléphone</t>
-  </si>
-  <si>
     <t>Le blanchiment d'argent, est corrompu, la fraud de carte de crédit</t>
   </si>
   <si>
@@ -870,9 +861,6 @@
     <t>postale</t>
   </si>
   <si>
-    <t>telefono</t>
-  </si>
-  <si>
     <t>minacce e sequestro di persona</t>
   </si>
   <si>
@@ -1645,6 +1633,69 @@
   </si>
   <si>
     <t>Notsuche, zur Suche und Rettung von vermissten oder flüchtigen Personen.</t>
+  </si>
+  <si>
+    <t>Treason, distribution of human diseases, misuse of authority, espionage</t>
+  </si>
+  <si>
+    <t>La trahison, la distribution des maladies humaines, abus d'autorité, espionnage</t>
+  </si>
+  <si>
+    <t>Tradimento, la distribuzione delle malattie umane, abuso di autorità, di spionaggio</t>
+  </si>
+  <si>
+    <t>Money laundering means to thwart the identification of the origin, the discovery or the confiscation of assets.</t>
+  </si>
+  <si>
+    <t>Le blanchiment d'argent signifie pour contrecarrer l'identification de l'origine, la découverte ou la confiscation des biens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il riciclaggio di denaro significa contrastare l'identificazione dell'origine, il ritrovamento o la confisca dei beni.</t>
+  </si>
+  <si>
+    <t>Structured group enriched by violence or by criminal means income. Ex. Mafia or jihad travelers</t>
+  </si>
+  <si>
+    <t>Groupe structuré enrichi par la violence ou par les revenus de moyens criminels. Ex. Mafia ou jihad voyageurs</t>
+  </si>
+  <si>
+    <t>Gruppo strutturato arricchito con la violenza o con mezzi criminali reddito. Es. Mafia o viaggiatori di jihad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> People recruit, offer, give or host application by unauthorized agents such as deception, threat or coercion for the purpose of exploitation.</t>
+  </si>
+  <si>
+    <t>Les gens recrutent, offre, donner ou application hôte par des agents non autorisés tels que la tromperie, la menace ou la contrainte aux fins d'exploitation.</t>
+  </si>
+  <si>
+    <t>Persone reclutare, offrire, dare o applicazione host da agenti non autorizzati, come inganno, minaccia o coercizione a scopo di sfruttamento.</t>
+  </si>
+  <si>
+    <t>Facebook accounts. This list of Facebook data points to the perimeter.</t>
+  </si>
+  <si>
+    <t>Comptes du Facebook. Cette liste de points de données Facebook au périmètre.</t>
+  </si>
+  <si>
+    <t>Account Facebook. Questo elenco di Facebook punti dati al perimetro.</t>
+  </si>
+  <si>
+    <t>Regular phone surveillance</t>
+  </si>
+  <si>
+    <t>sorveglianza del telefono normale</t>
+  </si>
+  <si>
+    <t>la surveillance régulière de téléphone</t>
+  </si>
+  <si>
+    <t>The Digital Society Switzerland annually publishes the Swiss Lawful Interception Report on the cantons of Switzerland. This Visualization complements the report interactively and shows in detail, how many people are affected in the cantons. Find out what crimes are limiting your basic liberties. &lt;br&gt; &lt;small&gt;The data in these statistics only include surveillance measures in accordance with the Criminal Procedure Code. Except for operations of IMSI catchers, governmental trojans or surveillance of intelligence agencies.&lt;/small&gt;</t>
+  </si>
+  <si>
+    <t>La Société numérique Suisse publie annuellement le rapport interception légale suisse sur les cantons de la Suisse. Cette visualisation interactive complète le rapport et montre en détail, combien de personnes sont touchées dans les cantons. Découvrez ce que les crimes limitent vos libertés fondamentales. &lt;br&gt; &lt;small&gt; Les données dans ces statistiques ne comprennent que des mesures de surveillance conformément au Code de procédure pénale. Sauf pour les opérations de capteurs IMSI, chevaux de Troie gouvernementales ou de la surveillance des agences de renseignement. &lt;/small&gt;</t>
+  </si>
+  <si>
+    <t>Il Digital Society Switzerland pubblica annualmente l'intercettazione legale Relazione svizzera sui cantoni della Svizzera. Questa visualizzazione completa il rapporto interattivo e mostra in dettaglio, quante persone sono interessate nei Cantoni. Scopri quali crimini stanno limitando le vostre libertà fondamentali. &lt;br&gt;&lt;small&gt;I dati di queste statistiche includono soltanto misure di vigilanza in conformità con il codice di procedura penale. Fatta eccezione per le operazioni di cacciatori IMSI, trojan governative o di sorveglianza delle agenzie di intelligence.&lt;/small&gt;</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1782,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="219">
+  <cellStyleXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1922,6 +1973,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1979,7 +2034,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="219">
+  <cellStyles count="223">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2097,6 +2152,8 @@
     <cellStyle name="Besuchter Link" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2198,9 +2255,21 @@
     <cellStyle name="Link" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2248,16 +2317,6 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
@@ -2268,27 +2327,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J118" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J117" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:J117">
     <filterColumn colId="9">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="group" dataDxfId="9"/>
-    <tableColumn id="2" name="typ" dataDxfId="8"/>
-    <tableColumn id="3" name="detail" dataDxfId="7"/>
-    <tableColumn id="4" name="de" dataDxfId="6"/>
-    <tableColumn id="5" name="en" dataDxfId="5"/>
-    <tableColumn id="6" name="fr" dataDxfId="4"/>
-    <tableColumn id="7" name="it" dataDxfId="3"/>
-    <tableColumn id="8" name="rm" dataDxfId="2"/>
-    <tableColumn id="9" name="nfTrans" dataDxfId="1"/>
-    <tableColumn id="10" name="notEXport" dataDxfId="0"/>
+    <tableColumn id="1" name="group" dataDxfId="10"/>
+    <tableColumn id="2" name="typ" dataDxfId="9"/>
+    <tableColumn id="3" name="detail" dataDxfId="8"/>
+    <tableColumn id="4" name="de" dataDxfId="7"/>
+    <tableColumn id="5" name="en" dataDxfId="6"/>
+    <tableColumn id="6" name="fr" dataDxfId="5"/>
+    <tableColumn id="7" name="it" dataDxfId="4"/>
+    <tableColumn id="8" name="rm" dataDxfId="3"/>
+    <tableColumn id="9" name="nfTrans" dataDxfId="2"/>
+    <tableColumn id="10" name="notEXport" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2616,10 +2675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H118"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="H117" sqref="A1:H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2646,36 +2705,36 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -2700,16 +2759,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -2734,7 +2793,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>55</v>
@@ -2743,7 +2802,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -2768,16 +2827,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -2802,16 +2861,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -2845,19 +2904,19 @@
         <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
@@ -2873,19 +2932,19 @@
         <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="1"/>
@@ -2901,19 +2960,19 @@
         <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -2934,16 +2993,16 @@
         <v>116</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
@@ -2962,16 +3021,16 @@
         <v>115</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="1"/>
@@ -2990,16 +3049,16 @@
         <v>114</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="1"/>
@@ -3012,22 +3071,22 @@
         <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
@@ -3040,22 +3099,22 @@
         <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
@@ -3068,22 +3127,22 @@
         <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
@@ -3102,16 +3161,16 @@
         <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
@@ -3130,16 +3189,16 @@
         <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="1"/>
@@ -3152,27 +3211,27 @@
         <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -3186,21 +3245,23 @@
         <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -3208,27 +3269,29 @@
         <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="I20" s="6">
         <v>1</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
@@ -3238,27 +3301,27 @@
         <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="45">
+    <row r="22" spans="1:10" ht="45" hidden="1">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -3266,27 +3329,29 @@
         <v>55</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="I22" s="6">
         <v>1</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="5" t="s">
@@ -3296,22 +3361,22 @@
         <v>55</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
@@ -3326,22 +3391,22 @@
         <v>55</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -3356,22 +3421,22 @@
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="I25" s="6">
         <v>1</v>
@@ -3392,16 +3457,16 @@
         <v>29</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="1"/>
@@ -3414,22 +3479,22 @@
         <v>55</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="1"/>
@@ -3451,13 +3516,13 @@
         <v>33</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I28" s="6">
         <v>1</v>
@@ -3478,16 +3543,16 @@
         <v>31</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I29" s="6">
         <v>1</v>
@@ -3508,16 +3573,16 @@
         <v>32</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I30" s="6">
         <v>1</v>
@@ -3538,16 +3603,16 @@
         <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I31" s="6">
         <v>1</v>
@@ -3568,16 +3633,16 @@
         <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I32" s="6">
         <v>1</v>
@@ -3598,16 +3663,16 @@
         <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I33" s="6">
         <v>1</v>
@@ -3631,13 +3696,13 @@
         <v>36</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I34" s="6">
         <v>1</v>
@@ -3658,16 +3723,16 @@
         <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I35" s="6">
         <v>1</v>
@@ -3694,10 +3759,10 @@
         <v>38</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I36" s="6">
         <v>1</v>
@@ -3718,16 +3783,16 @@
         <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I37" s="6">
         <v>1</v>
@@ -3748,16 +3813,16 @@
         <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I38" s="6">
         <v>1</v>
@@ -3781,13 +3846,13 @@
         <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I39" s="6">
         <v>1</v>
@@ -3811,13 +3876,13 @@
         <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I40" s="6">
         <v>1</v>
@@ -3841,13 +3906,13 @@
         <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I41" s="6">
         <v>1</v>
@@ -3871,13 +3936,13 @@
         <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I42" s="6">
         <v>1</v>
@@ -3901,13 +3966,13 @@
         <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I43" s="6">
         <v>1</v>
@@ -3931,13 +3996,13 @@
         <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I44" s="6">
         <v>1</v>
@@ -3961,13 +4026,13 @@
         <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I45" s="6">
         <v>1</v>
@@ -3988,13 +4053,13 @@
         <v>48</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>48</v>
@@ -4048,16 +4113,16 @@
         <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I48" s="6">
         <v>1</v>
@@ -4078,16 +4143,16 @@
         <v>51</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I49" s="6">
         <v>1</v>
@@ -4111,10 +4176,10 @@
         <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>52</v>
@@ -4138,16 +4203,16 @@
         <v>30</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I51" s="6">
         <v>1</v>
@@ -4168,16 +4233,16 @@
         <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -4198,16 +4263,16 @@
         <v>77</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
@@ -4226,16 +4291,16 @@
         <v>82</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
@@ -4254,16 +4319,16 @@
         <v>83</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
@@ -4282,16 +4347,16 @@
         <v>78</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
@@ -4310,16 +4375,16 @@
         <v>79</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
@@ -4338,16 +4403,16 @@
         <v>106</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
@@ -4366,16 +4431,16 @@
         <v>80</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
@@ -4394,16 +4459,16 @@
         <v>105</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="1"/>
@@ -4422,16 +4487,16 @@
         <v>81</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="1"/>
@@ -4447,19 +4512,19 @@
         <v>84</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="1"/>
@@ -4475,19 +4540,19 @@
         <v>85</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="1"/>
@@ -4503,19 +4568,19 @@
         <v>86</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="1"/>
@@ -4531,19 +4596,19 @@
         <v>87</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="H65" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="1"/>
@@ -4559,19 +4624,19 @@
         <v>88</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G66" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="1"/>
@@ -4587,19 +4652,19 @@
         <v>89</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="1"/>
@@ -4615,19 +4680,19 @@
         <v>90</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="1"/>
@@ -4643,19 +4708,19 @@
         <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="1"/>
@@ -4671,7 +4736,16 @@
         <v>92</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
@@ -4687,19 +4761,19 @@
         <v>93</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="1"/>
@@ -4715,16 +4789,16 @@
         <v>63</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="1"/>
@@ -4743,16 +4817,16 @@
         <v>102</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="1"/>
@@ -4771,16 +4845,16 @@
         <v>96</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="1"/>
@@ -4799,16 +4873,16 @@
         <v>99</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="1"/>
@@ -4824,19 +4898,19 @@
         <v>101</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="1"/>
@@ -4855,16 +4929,16 @@
         <v>104</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="1"/>
@@ -4883,16 +4957,16 @@
         <v>107</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="1"/>
@@ -4908,19 +4982,19 @@
         <v>103</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>415</v>
+        <v>533</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>415</v>
+        <v>534</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>415</v>
+        <v>535</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="1"/>
@@ -4936,7 +5010,16 @@
         <v>97</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
@@ -4952,19 +5035,19 @@
         <v>100</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>415</v>
+        <v>539</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>415</v>
+        <v>540</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>415</v>
+        <v>541</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
@@ -4980,19 +5063,19 @@
         <v>101</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="1"/>
@@ -5008,19 +5091,19 @@
         <v>95</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="1"/>
@@ -5036,19 +5119,19 @@
         <v>98</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="1"/>
@@ -5067,16 +5150,16 @@
         <v>61</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="1"/>
@@ -5092,19 +5175,19 @@
         <v>60</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="1"/>
@@ -5123,16 +5206,16 @@
         <v>65</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="1"/>
@@ -5151,16 +5234,16 @@
         <v>62</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="1"/>
@@ -5173,22 +5256,22 @@
         <v>55</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="1"/>
@@ -5201,10 +5284,10 @@
         <v>55</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E90" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5236,19 +5319,19 @@
         <v>58</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="1"/>
@@ -5264,19 +5347,19 @@
         <v>60</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="H92" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="1"/>
@@ -5292,19 +5375,19 @@
         <v>64</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
@@ -5320,19 +5403,19 @@
         <v>59</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
@@ -5342,22 +5425,22 @@
         <v>0</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H95" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5378,10 +5461,19 @@
         <v>63</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="1"/>
@@ -5394,22 +5486,22 @@
         <v>63</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="1"/>
@@ -5425,24 +5517,24 @@
         <v>120</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" hidden="1">
       <c r="A99" s="4" t="s">
         <v>113</v>
       </c>
@@ -5468,7 +5560,9 @@
         <v>68</v>
       </c>
       <c r="I99" s="6"/>
-      <c r="J99" s="1"/>
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="4" t="s">
@@ -5484,21 +5578,21 @@
         <v>122</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101" s="4" t="s">
         <v>113</v>
       </c>
@@ -5512,21 +5606,23 @@
         <v>74</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>68</v>
+        <v>361</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>68</v>
+        <v>361</v>
       </c>
       <c r="I101" s="6"/>
-      <c r="J101" s="1"/>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="J101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102" s="4" t="s">
         <v>113</v>
       </c>
@@ -5537,40 +5633,48 @@
         <v>119</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>123</v>
+        <v>507</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>128</v>
+        <v>545</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>241</v>
+        <v>547</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>119</v>
+        <v>546</v>
       </c>
       <c r="I102" s="6"/>
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="J102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="60">
       <c r="A103" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>511</v>
+        <v>528</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" ht="60">
+    <row r="104" spans="1:10" ht="45">
       <c r="A104" s="4" t="s">
         <v>113</v>
       </c>
@@ -5578,44 +5682,47 @@
         <v>63</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" ht="45">
+    <row r="105" spans="1:10">
       <c r="A105" s="4" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>533</v>
+        <v>71</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>458</v>
+        <v>262</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>459</v>
+        <v>291</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="1"/>
@@ -5628,22 +5735,22 @@
         <v>55</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>265</v>
+        <v>68</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>295</v>
+        <v>68</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>362</v>
+        <v>68</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="1"/>
@@ -5656,22 +5763,22 @@
         <v>55</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>68</v>
+        <v>396</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="1"/>
@@ -5684,330 +5791,314 @@
         <v>55</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>70</v>
+    <row r="109" spans="1:10" s="1" customFormat="1" hidden="1">
+      <c r="A109" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="I109" s="6"/>
-      <c r="J109" s="1"/>
-    </row>
-    <row r="110" spans="1:10" s="1" customFormat="1">
-      <c r="A110" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>324</v>
+        <v>501</v>
+      </c>
+      <c r="E109" s="1" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
+        <v>Swiss Lawful Interception Report 2015</v>
+      </c>
+      <c r="F109" s="1" t="str">
+        <f>Tabelle2[[#This Row],[en]]</f>
+        <v>Swiss Lawful Interception Report 2015</v>
+      </c>
+      <c r="G109" s="1" t="str">
+        <f>Tabelle2[[#This Row],[fr]]</f>
+        <v>Swiss Lawful Interception Report 2015</v>
+      </c>
+      <c r="H109" s="1" t="str">
+        <f>Tabelle2[[#This Row],[it]]</f>
+        <v>Swiss Lawful Interception Report 2015</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="45">
+      <c r="A110" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>505</v>
+        <v>442</v>
       </c>
       <c r="E110" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
-        <v>Swiss Lawful Interception Report 2015</v>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
       </c>
       <c r="F110" s="1" t="str">
         <f>Tabelle2[[#This Row],[en]]</f>
-        <v>Swiss Lawful Interception Report 2015</v>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
       </c>
       <c r="G110" s="1" t="str">
         <f>Tabelle2[[#This Row],[fr]]</f>
-        <v>Swiss Lawful Interception Report 2015</v>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
       </c>
       <c r="H110" s="1" t="str">
         <f>Tabelle2[[#This Row],[it]]</f>
-        <v>Swiss Lawful Interception Report 2015</v>
-      </c>
-      <c r="I110" s="1">
+        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
+      </c>
+      <c r="I110" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="45">
-      <c r="A111" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E111" s="1" t="str">
-        <f>Tabelle2[[#This Row],[de]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
-      </c>
-      <c r="F111" s="1" t="str">
-        <f>Tabelle2[[#This Row],[en]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
-      </c>
-      <c r="G111" s="1" t="str">
-        <f>Tabelle2[[#This Row],[fr]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
-      </c>
-      <c r="H111" s="1" t="str">
-        <f>Tabelle2[[#This Row],[it]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="1:10" ht="409">
+      <c r="A111" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
       </c>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" ht="409">
-      <c r="A112" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B112" s="5" t="s">
+    <row r="112" spans="1:10" ht="270">
+      <c r="A112" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="I112" s="6">
-        <v>1</v>
-      </c>
+      <c r="C112" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I112" s="6"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" ht="270">
+    <row r="113" spans="1:10" ht="120" hidden="1">
       <c r="A113" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>318</v>
+        <v>495</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>500</v>
+        <v>506</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="I113" s="6"/>
-      <c r="J113" s="1"/>
-    </row>
-    <row r="114" spans="1:10" ht="120" hidden="1">
+      <c r="J113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="30" hidden="1">
       <c r="A114" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="30" hidden="1">
+    <row r="115" spans="1:10" ht="135" hidden="1">
       <c r="A115" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="I115" s="6"/>
+        <v>490</v>
+      </c>
+      <c r="D115" s="1" t="str">
+        <f>CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",D110,"' title='",D109,"' target='_blank'&gt;",D109,"&lt;/a&gt;")</f>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="E115" s="1" t="str">
+        <f t="shared" ref="E115:H115" si="0">CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",E110,"' title='",E109,"' target='_blank'&gt;",E109,"&lt;/a&gt;")</f>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="F115" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="G115" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="H115" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="I115" s="6">
+        <v>1</v>
+      </c>
       <c r="J115" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="135" hidden="1">
+    <row r="116" spans="1:10" ht="270">
       <c r="A116" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>494</v>
+        <v>320</v>
       </c>
       <c r="D116" s="1" t="str">
-        <f>CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",D111,"' title='",D110,"' target='_blank'&gt;",D110,"&lt;/a&gt;")</f>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <f>CONCATENATE(D113,D115)</f>
+        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="E116" s="1" t="str">
-        <f t="shared" ref="E116:H116" si="0">CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",E111,"' title='",E110,"' target='_blank'&gt;",E110,"&lt;/a&gt;")</f>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <f t="shared" ref="E116:H116" si="1">CONCATENATE(E113,E115,E114)</f>
+        <v>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <f t="shared" si="1"/>
+        <v>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
       </c>
       <c r="G116" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <f t="shared" si="1"/>
+        <v>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
       </c>
       <c r="H116" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <f t="shared" si="1"/>
+        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;Nur in Deutsch verfügbar</v>
       </c>
       <c r="I116" s="6">
         <v>1</v>
       </c>
-      <c r="J116" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="270">
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="1:10" ht="300">
       <c r="A117" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D117" s="1" t="str">
-        <f>CONCATENATE(D114,D116)</f>
-        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
-      </c>
-      <c r="E117" s="1" t="str">
-        <f t="shared" ref="E117:H117" si="1">CONCATENATE(E114,E116,E115)</f>
-        <v>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</v>
-      </c>
-      <c r="F117" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
-      </c>
-      <c r="G117" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
-      </c>
-      <c r="H117" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;Nur in Deutsch verfügbar</v>
-      </c>
-      <c r="I117" s="6">
-        <v>1</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I117" s="6"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" ht="300">
-      <c r="A118" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I118" s="6"/>
-      <c r="J118" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I109 I111:I1048576">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="1">
+  <conditionalFormatting sqref="I110:I1048576 I1:I108">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6026,10 +6117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection sqref="A1:H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6048,73 +6139,73 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
         <v>173</v>
-      </c>
-      <c r="G1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" t="s">
         <v>176</v>
       </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" t="s">
-        <v>178</v>
-      </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -6123,71 +6214,71 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6201,19 +6292,19 @@
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6227,19 +6318,19 @@
         <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6253,19 +6344,19 @@
         <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6282,16 +6373,16 @@
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H10" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6308,16 +6399,16 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F11" t="s">
         <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6334,16 +6425,16 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6354,22 +6445,22 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D13" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E13" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F13" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G13" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H13" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6380,22 +6471,22 @@
         <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" t="s">
+        <v>381</v>
+      </c>
+      <c r="G14" t="s">
         <v>383</v>
       </c>
-      <c r="E14" t="s">
-        <v>384</v>
-      </c>
-      <c r="F14" t="s">
-        <v>385</v>
-      </c>
-      <c r="G14" t="s">
-        <v>387</v>
-      </c>
       <c r="H14" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6406,22 +6497,22 @@
         <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D15" t="s">
+        <v>423</v>
+      </c>
+      <c r="E15" t="s">
+        <v>424</v>
+      </c>
+      <c r="F15" t="s">
+        <v>425</v>
+      </c>
+      <c r="G15" t="s">
+        <v>426</v>
+      </c>
+      <c r="H15" t="s">
         <v>427</v>
-      </c>
-      <c r="E15" t="s">
-        <v>428</v>
-      </c>
-      <c r="F15" t="s">
-        <v>429</v>
-      </c>
-      <c r="G15" t="s">
-        <v>430</v>
-      </c>
-      <c r="H15" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6438,16 +6529,16 @@
         <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F16" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H16" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6464,16 +6555,16 @@
         <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6484,22 +6575,22 @@
         <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D18" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E18" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F18" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H18" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6510,100 +6601,100 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>437</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>488</v>
       </c>
       <c r="E19" t="s">
-        <v>333</v>
+        <v>438</v>
       </c>
       <c r="F19" t="s">
-        <v>267</v>
+        <v>439</v>
       </c>
       <c r="G19" t="s">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="H19" t="s">
-        <v>332</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="D20" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="E20" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="F20" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="G20" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="H20" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="D21" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="E21" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F21" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="G21" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="H21" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>405</v>
+        <v>463</v>
       </c>
       <c r="D22" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="E22" t="s">
-        <v>410</v>
+        <v>473</v>
       </c>
       <c r="F22" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="G22" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="H22" t="s">
-        <v>409</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6614,22 +6705,22 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>465</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>470</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>470</v>
+        <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>472</v>
+        <v>234</v>
       </c>
       <c r="G23" t="s">
-        <v>471</v>
+        <v>235</v>
       </c>
       <c r="H23" t="s">
-        <v>471</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6640,22 +6731,22 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>466</v>
+        <v>315</v>
       </c>
       <c r="D24" t="s">
-        <v>468</v>
+        <v>316</v>
       </c>
       <c r="E24" t="s">
-        <v>473</v>
+        <v>317</v>
       </c>
       <c r="F24" t="s">
-        <v>474</v>
+        <v>318</v>
       </c>
       <c r="G24" t="s">
-        <v>475</v>
+        <v>319</v>
       </c>
       <c r="H24" t="s">
-        <v>476</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6666,22 +6757,22 @@
         <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>469</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>477</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>478</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
-        <v>479</v>
+        <v>198</v>
       </c>
       <c r="H25" t="s">
-        <v>480</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6692,22 +6783,22 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F26" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="G26" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="H26" t="s">
-        <v>371</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6718,22 +6809,22 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>319</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>321</v>
+        <v>146</v>
       </c>
       <c r="F27" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="G27" t="s">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="H27" t="s">
-        <v>372</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6744,22 +6835,22 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H28" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6770,19 +6861,19 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
         <v>220</v>
@@ -6796,19 +6887,19 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H30" t="s">
         <v>221</v>
@@ -6822,22 +6913,22 @@
         <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H31" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6848,22 +6939,22 @@
         <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6874,22 +6965,22 @@
         <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H33" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6900,22 +6991,22 @@
         <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H34" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6926,10 +7017,10 @@
         <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
         <v>150</v>
@@ -6938,10 +7029,10 @@
         <v>150</v>
       </c>
       <c r="G35" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="H35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6952,22 +7043,22 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="G36" t="s">
         <v>208</v>
       </c>
       <c r="H36" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6978,22 +7069,22 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="G37" t="s">
         <v>209</v>
       </c>
       <c r="H37" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7004,22 +7095,22 @@
         <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="G38" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="H38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7030,22 +7121,22 @@
         <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7056,22 +7147,22 @@
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7082,22 +7173,22 @@
         <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7108,22 +7199,22 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H42" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7134,22 +7225,22 @@
         <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="F43" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="H43" t="s">
-        <v>231</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7160,22 +7251,22 @@
         <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s">
-        <v>232</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7186,22 +7277,22 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="F45" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="G45" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="H45" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7212,22 +7303,22 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
         <v>153</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="G46" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7238,22 +7329,22 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7264,10 +7355,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
         <v>154</v>
@@ -7276,7 +7367,7 @@
         <v>154</v>
       </c>
       <c r="G48" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="H48" t="s">
         <v>233</v>
@@ -7284,80 +7375,80 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F49" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="G49" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="H49" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="G50" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="F51" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="G51" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="H51" t="s">
-        <v>235</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7368,22 +7459,22 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F52" t="s">
         <v>248</v>
       </c>
       <c r="G52" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="H52" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7394,22 +7485,22 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E53" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F53" t="s">
         <v>249</v>
       </c>
       <c r="G53" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H53" t="s">
-        <v>249</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7420,22 +7511,22 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F54" t="s">
         <v>250</v>
       </c>
       <c r="G54" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H54" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7446,22 +7537,22 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F55" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H55" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7472,22 +7563,22 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G56" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H56" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7498,22 +7589,22 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
         <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G57" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H57" t="s">
-        <v>448</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7524,22 +7615,22 @@
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E58" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F58" t="s">
         <v>244</v>
       </c>
       <c r="G58" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H58" t="s">
-        <v>349</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7547,25 +7638,25 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="F59" t="s">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c r="G59" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H59" t="s">
-        <v>449</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7573,25 +7664,25 @@
         <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>411</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>411</v>
       </c>
       <c r="F60" t="s">
-        <v>246</v>
+        <v>411</v>
       </c>
       <c r="G60" t="s">
-        <v>279</v>
+        <v>411</v>
       </c>
       <c r="H60" t="s">
-        <v>329</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7599,25 +7690,25 @@
         <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>497</v>
       </c>
       <c r="E61" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="F61" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="G61" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="H61" t="s">
-        <v>450</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7628,22 +7719,22 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="E62" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="F62" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="G62" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="H62" t="s">
-        <v>348</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7654,22 +7745,22 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>415</v>
+        <v>167</v>
       </c>
       <c r="E63" t="s">
-        <v>415</v>
+        <v>168</v>
       </c>
       <c r="F63" t="s">
-        <v>415</v>
+        <v>239</v>
       </c>
       <c r="G63" t="s">
-        <v>415</v>
+        <v>337</v>
       </c>
       <c r="H63" t="s">
-        <v>415</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7680,22 +7771,22 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D64" t="s">
-        <v>501</v>
+        <v>165</v>
       </c>
       <c r="E64" t="s">
-        <v>326</v>
+        <v>166</v>
       </c>
       <c r="F64" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="G64" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="H64" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7706,22 +7797,22 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D65" t="s">
-        <v>338</v>
+        <v>498</v>
       </c>
       <c r="E65" t="s">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="F65" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
       <c r="G65" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="H65" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7732,22 +7823,22 @@
         <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E66" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F66" t="s">
         <v>242</v>
       </c>
       <c r="G66" t="s">
-        <v>341</v>
+        <v>164</v>
       </c>
       <c r="H66" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7758,22 +7849,19 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>499</v>
       </c>
       <c r="E67" t="s">
-        <v>168</v>
+        <v>530</v>
       </c>
       <c r="F67" t="s">
-        <v>243</v>
+        <v>531</v>
       </c>
       <c r="G67" t="s">
-        <v>277</v>
-      </c>
-      <c r="H67" t="s">
-        <v>346</v>
+        <v>532</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7784,88 +7872,97 @@
         <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D68" t="s">
-        <v>502</v>
+        <v>348</v>
       </c>
       <c r="E68" t="s">
-        <v>134</v>
+        <v>349</v>
       </c>
       <c r="F68" t="s">
-        <v>244</v>
+        <v>350</v>
       </c>
       <c r="G68" t="s">
-        <v>278</v>
+        <v>351</v>
       </c>
       <c r="H68" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s">
         <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
+        <v>503</v>
       </c>
       <c r="E69" t="s">
-        <v>166</v>
+        <v>447</v>
       </c>
       <c r="F69" t="s">
-        <v>245</v>
+        <v>448</v>
       </c>
       <c r="G69" t="s">
-        <v>166</v>
-      </c>
-      <c r="H69" t="s">
-        <v>351</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
-        <v>503</v>
+        <v>102</v>
+      </c>
+      <c r="E70" t="s">
+        <v>390</v>
+      </c>
+      <c r="F70" t="s">
+        <v>255</v>
+      </c>
+      <c r="G70" t="s">
+        <v>286</v>
+      </c>
+      <c r="H70" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>352</v>
+        <v>96</v>
       </c>
       <c r="E71" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="F71" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
       <c r="G71" t="s">
+        <v>287</v>
+      </c>
+      <c r="H71" t="s">
         <v>355</v>
-      </c>
-      <c r="H71" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7873,22 +7970,25 @@
         <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D72" t="s">
-        <v>507</v>
+        <v>99</v>
       </c>
       <c r="E72" t="s">
-        <v>451</v>
+        <v>392</v>
       </c>
       <c r="F72" t="s">
-        <v>452</v>
+        <v>257</v>
       </c>
       <c r="G72" t="s">
-        <v>453</v>
+        <v>288</v>
+      </c>
+      <c r="H72" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7899,22 +7999,22 @@
         <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="E73" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F73" t="s">
         <v>258</v>
       </c>
       <c r="G73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H73" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7925,22 +8025,22 @@
         <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E74" t="s">
-        <v>395</v>
+        <v>138</v>
       </c>
       <c r="F74" t="s">
         <v>259</v>
       </c>
       <c r="G74" t="s">
-        <v>291</v>
+        <v>138</v>
       </c>
       <c r="H74" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7951,22 +8051,22 @@
         <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E75" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F75" t="s">
         <v>260</v>
       </c>
       <c r="G75" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H75" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7974,25 +8074,25 @@
         <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s">
-        <v>171</v>
+        <v>513</v>
       </c>
       <c r="E76" t="s">
-        <v>397</v>
+        <v>533</v>
       </c>
       <c r="F76" t="s">
-        <v>261</v>
+        <v>534</v>
       </c>
       <c r="G76" t="s">
-        <v>293</v>
+        <v>535</v>
       </c>
       <c r="H76" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8000,25 +8100,22 @@
         <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
-        <v>104</v>
+        <v>514</v>
       </c>
       <c r="E77" t="s">
-        <v>140</v>
+        <v>536</v>
       </c>
       <c r="F77" t="s">
-        <v>262</v>
+        <v>537</v>
       </c>
       <c r="G77" t="s">
-        <v>140</v>
-      </c>
-      <c r="H77" t="s">
-        <v>360</v>
+        <v>538</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8026,25 +8123,25 @@
         <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>504</v>
       </c>
       <c r="E78" t="s">
-        <v>398</v>
+        <v>539</v>
       </c>
       <c r="F78" t="s">
-        <v>263</v>
+        <v>540</v>
       </c>
       <c r="G78" t="s">
-        <v>294</v>
+        <v>541</v>
       </c>
       <c r="H78" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -8055,22 +8152,22 @@
         <v>63</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D79" t="s">
-        <v>517</v>
+        <v>159</v>
       </c>
       <c r="E79" t="s">
-        <v>415</v>
+        <v>160</v>
       </c>
       <c r="F79" t="s">
-        <v>415</v>
+        <v>252</v>
       </c>
       <c r="G79" t="s">
-        <v>415</v>
+        <v>283</v>
       </c>
       <c r="H79" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8081,10 +8178,22 @@
         <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D80" t="s">
-        <v>518</v>
+        <v>157</v>
+      </c>
+      <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
+        <v>253</v>
+      </c>
+      <c r="G80" t="s">
+        <v>284</v>
+      </c>
+      <c r="H80" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8095,100 +8204,100 @@
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D81" t="s">
-        <v>508</v>
+        <v>161</v>
       </c>
       <c r="E81" t="s">
-        <v>415</v>
+        <v>162</v>
       </c>
       <c r="F81" t="s">
-        <v>415</v>
+        <v>254</v>
       </c>
       <c r="G81" t="s">
-        <v>415</v>
+        <v>285</v>
       </c>
       <c r="H81" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="E82" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="F82" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G82" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H82" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>362</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
+        <v>363</v>
       </c>
       <c r="F83" t="s">
-        <v>256</v>
+        <v>364</v>
       </c>
       <c r="G83" t="s">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="H83" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="E84" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="F84" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="G84" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="H84" t="s">
-        <v>364</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8199,22 +8308,22 @@
         <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E85" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="F85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G85" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H85" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8225,22 +8334,22 @@
         <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>60</v>
+        <v>306</v>
       </c>
       <c r="D86" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="E86" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="F86" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="G86" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
       <c r="H86" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8251,22 +8360,22 @@
         <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>64</v>
+        <v>307</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>517</v>
       </c>
       <c r="E87" t="s">
-        <v>143</v>
+        <v>517</v>
       </c>
       <c r="F87" t="s">
-        <v>270</v>
+        <v>517</v>
       </c>
       <c r="G87" t="s">
-        <v>303</v>
+        <v>517</v>
       </c>
       <c r="H87" t="s">
-        <v>308</v>
+        <v>517</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8274,25 +8383,25 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D88" t="s">
-        <v>62</v>
+        <v>371</v>
       </c>
       <c r="E88" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F88" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G88" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H88" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8300,25 +8409,25 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C89" t="s">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="D89" t="s">
-        <v>312</v>
+        <v>372</v>
       </c>
       <c r="E89" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="F89" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="G89" t="s">
-        <v>312</v>
+        <v>376</v>
       </c>
       <c r="H89" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8326,25 +8435,25 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C90" t="s">
-        <v>311</v>
+        <v>64</v>
       </c>
       <c r="D90" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="E90" t="s">
-        <v>521</v>
+        <v>397</v>
       </c>
       <c r="F90" t="s">
-        <v>521</v>
+        <v>398</v>
       </c>
       <c r="G90" t="s">
-        <v>521</v>
+        <v>399</v>
       </c>
       <c r="H90" t="s">
-        <v>521</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8355,22 +8464,22 @@
         <v>63</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D91" t="s">
-        <v>375</v>
+        <v>484</v>
       </c>
       <c r="E91" t="s">
-        <v>158</v>
+        <v>485</v>
       </c>
       <c r="F91" t="s">
-        <v>268</v>
+        <v>486</v>
       </c>
       <c r="G91" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="H91" t="s">
-        <v>381</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8381,22 +8490,19 @@
         <v>63</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>306</v>
       </c>
       <c r="D92" t="s">
-        <v>376</v>
+        <v>515</v>
       </c>
       <c r="E92" t="s">
-        <v>378</v>
+        <v>542</v>
       </c>
       <c r="F92" t="s">
-        <v>379</v>
+        <v>543</v>
       </c>
       <c r="G92" t="s">
-        <v>380</v>
-      </c>
-      <c r="H92" t="s">
-        <v>377</v>
+        <v>544</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8407,88 +8513,97 @@
         <v>63</v>
       </c>
       <c r="C93" t="s">
-        <v>64</v>
+        <v>307</v>
       </c>
       <c r="D93" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="E93" t="s">
-        <v>401</v>
+        <v>516</v>
       </c>
       <c r="F93" t="s">
-        <v>402</v>
+        <v>516</v>
       </c>
       <c r="G93" t="s">
-        <v>403</v>
+        <v>516</v>
       </c>
       <c r="H93" t="s">
-        <v>419</v>
+        <v>516</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C94" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="D94" t="s">
-        <v>488</v>
+        <v>123</v>
       </c>
       <c r="E94" t="s">
-        <v>489</v>
+        <v>125</v>
       </c>
       <c r="F94" t="s">
-        <v>490</v>
+        <v>236</v>
       </c>
       <c r="G94" t="s">
-        <v>404</v>
+        <v>269</v>
       </c>
       <c r="H94" t="s">
-        <v>491</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C95" t="s">
-        <v>310</v>
+        <v>121</v>
       </c>
       <c r="D95" t="s">
-        <v>519</v>
+        <v>122</v>
+      </c>
+      <c r="E95" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" t="s">
+        <v>237</v>
+      </c>
+      <c r="G95" t="s">
+        <v>270</v>
+      </c>
+      <c r="H95" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
         <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>311</v>
+        <v>120</v>
       </c>
       <c r="D96" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="E96" t="s">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="F96" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="G96" t="s">
-        <v>520</v>
-      </c>
-      <c r="H96" t="s">
-        <v>520</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8496,437 +8611,253 @@
         <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D97" t="s">
-        <v>124</v>
+        <v>529</v>
       </c>
       <c r="E97" t="s">
-        <v>126</v>
+        <v>453</v>
       </c>
       <c r="F97" t="s">
-        <v>238</v>
+        <v>454</v>
       </c>
       <c r="G97" t="s">
-        <v>272</v>
-      </c>
-      <c r="H97" t="s">
-        <v>305</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B98" t="s">
         <v>55</v>
       </c>
       <c r="C98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E98" t="s">
-        <v>68</v>
+        <v>395</v>
       </c>
       <c r="F98" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G98" t="s">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="H98" t="s">
-        <v>68</v>
+        <v>358</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B99" t="s">
         <v>55</v>
       </c>
       <c r="C99" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D99" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E99" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="F99" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="G99" t="s">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="H99" t="s">
-        <v>347</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B100" t="s">
         <v>55</v>
       </c>
       <c r="C100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D100" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E100" t="s">
-        <v>129</v>
+        <v>396</v>
       </c>
       <c r="F100" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="G100" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="H100" t="s">
-        <v>68</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B101" t="s">
         <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="D101" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="E101" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="F101" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G101" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H101" t="s">
-        <v>119</v>
+        <v>361</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>413</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>414</v>
       </c>
       <c r="C102" t="s">
-        <v>119</v>
+        <v>320</v>
       </c>
       <c r="D102" t="s">
-        <v>511</v>
+        <v>442</v>
+      </c>
+      <c r="E102" t="s">
+        <v>442</v>
+      </c>
+      <c r="F102" t="s">
+        <v>442</v>
+      </c>
+      <c r="G102" t="s">
+        <v>442</v>
+      </c>
+      <c r="H102" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>313</v>
       </c>
       <c r="B103" t="s">
         <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>120</v>
+        <v>412</v>
       </c>
       <c r="D103" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="E103" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="F103" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="G103" t="s">
-        <v>456</v>
+        <v>511</v>
+      </c>
+      <c r="H103" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>313</v>
       </c>
       <c r="B104" t="s">
         <v>63</v>
       </c>
       <c r="C104" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="D104" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
       <c r="E104" t="s">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="F104" t="s">
-        <v>458</v>
+        <v>549</v>
       </c>
       <c r="G104" t="s">
-        <v>459</v>
+        <v>550</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>313</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C105" t="s">
-        <v>67</v>
+        <v>320</v>
       </c>
       <c r="D105" t="s">
-        <v>71</v>
+        <v>523</v>
       </c>
       <c r="E105" t="s">
-        <v>399</v>
+        <v>524</v>
       </c>
       <c r="F105" t="s">
-        <v>265</v>
+        <v>525</v>
       </c>
       <c r="G105" t="s">
-        <v>295</v>
+        <v>526</v>
       </c>
       <c r="H105" t="s">
-        <v>362</v>
+        <v>527</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>313</v>
       </c>
       <c r="B106" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C106" t="s">
-        <v>68</v>
+        <v>321</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>505</v>
       </c>
       <c r="E106" t="s">
-        <v>68</v>
+        <v>456</v>
       </c>
       <c r="F106" t="s">
-        <v>68</v>
+        <v>457</v>
       </c>
       <c r="G106" t="s">
-        <v>68</v>
+        <v>458</v>
       </c>
       <c r="H106" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
-        <v>66</v>
-      </c>
-      <c r="B107" t="s">
-        <v>55</v>
-      </c>
-      <c r="C107" t="s">
-        <v>69</v>
-      </c>
-      <c r="D107" t="s">
-        <v>73</v>
-      </c>
-      <c r="E107" t="s">
-        <v>400</v>
-      </c>
-      <c r="F107" t="s">
-        <v>264</v>
-      </c>
-      <c r="G107" t="s">
-        <v>296</v>
-      </c>
-      <c r="H107" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>66</v>
-      </c>
-      <c r="B108" t="s">
-        <v>55</v>
-      </c>
-      <c r="C108" t="s">
-        <v>70</v>
-      </c>
-      <c r="D108" t="s">
-        <v>74</v>
-      </c>
-      <c r="E108" t="s">
-        <v>70</v>
-      </c>
-      <c r="F108" t="s">
-        <v>240</v>
-      </c>
-      <c r="G108" t="s">
-        <v>274</v>
-      </c>
-      <c r="H108" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>417</v>
-      </c>
-      <c r="B109" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" t="s">
-        <v>324</v>
-      </c>
-      <c r="D109" t="s">
-        <v>505</v>
-      </c>
-      <c r="E109" t="s">
-        <v>505</v>
-      </c>
-      <c r="F109" t="s">
-        <v>505</v>
-      </c>
-      <c r="G109" t="s">
-        <v>505</v>
-      </c>
-      <c r="H109" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>417</v>
-      </c>
-      <c r="B110" t="s">
-        <v>418</v>
-      </c>
-      <c r="C110" t="s">
-        <v>324</v>
-      </c>
-      <c r="D110" t="s">
-        <v>446</v>
-      </c>
-      <c r="E110" t="s">
-        <v>446</v>
-      </c>
-      <c r="F110" t="s">
-        <v>446</v>
-      </c>
-      <c r="G110" t="s">
-        <v>446</v>
-      </c>
-      <c r="H110" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>317</v>
-      </c>
-      <c r="B111" t="s">
-        <v>63</v>
-      </c>
-      <c r="C111" t="s">
-        <v>416</v>
-      </c>
-      <c r="D111" t="s">
-        <v>512</v>
-      </c>
-      <c r="E111" t="s">
-        <v>514</v>
-      </c>
-      <c r="F111" t="s">
-        <v>513</v>
-      </c>
-      <c r="G111" t="s">
-        <v>515</v>
-      </c>
-      <c r="H111" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>317</v>
-      </c>
-      <c r="B112" t="s">
-        <v>63</v>
-      </c>
-      <c r="C112" t="s">
-        <v>318</v>
-      </c>
-      <c r="D112" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>317</v>
-      </c>
-      <c r="B113" t="s">
-        <v>63</v>
-      </c>
-      <c r="C113" t="s">
-        <v>324</v>
-      </c>
-      <c r="D113" t="s">
-        <v>527</v>
-      </c>
-      <c r="E113" t="s">
-        <v>528</v>
-      </c>
-      <c r="F113" t="s">
-        <v>529</v>
-      </c>
-      <c r="G113" t="s">
-        <v>530</v>
-      </c>
-      <c r="H113" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
-        <v>317</v>
-      </c>
-      <c r="B114" t="s">
-        <v>63</v>
-      </c>
-      <c r="C114" t="s">
-        <v>325</v>
-      </c>
-      <c r="D114" t="s">
-        <v>509</v>
-      </c>
-      <c r="E114" t="s">
-        <v>460</v>
-      </c>
-      <c r="F114" t="s">
-        <v>461</v>
-      </c>
-      <c r="G114" t="s">
-        <v>462</v>
-      </c>
-      <c r="H114" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="10000" windowWidth="30940" windowHeight="18560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3260" yWindow="2540" windowWidth="28640" windowHeight="19080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="slirv_translations" localSheetId="1">Blatt3!$A$2:$H$117</definedName>
-    <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$117</definedName>
+    <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$118</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="559">
   <si>
     <t>typ</t>
   </si>
@@ -1696,6 +1696,30 @@
   </si>
   <si>
     <t>Il Digital Society Switzerland pubblica annualmente l'intercettazione legale Relazione svizzera sui cantoni della Svizzera. Questa visualizzazione completa il rapporto interattivo e mostra in dettaglio, quante persone sono interessate nei Cantoni. Scopri quali crimini stanno limitando le vostre libertà fondamentali. &lt;br&gt;&lt;small&gt;I dati di queste statistiche includono soltanto misure di vigilanza in conformità con il codice di procedura penale. Fatta eccezione per le operazioni di cacciatori IMSI, trojan governative o di sorveglianza delle agenzie di intelligence.&lt;/small&gt;</t>
+  </si>
+  <si>
+    <t>Visualisierung zur staatlichen Überwachung in der Schweiz</t>
+  </si>
+  <si>
+    <t>Die Digitale Gesellschaft ist ein offener Zusammenschluss netzpolitisch interessierter Kreise. Dem Bündnis angeschlossen sind rund 50 Einzelpersonen und 15 Gruppierungen. Dazu gehören Grundrechtsorganisationen, Parteien, KünstlerInnen-Kollektive, BetreiberInnen von Netzwerkdiensten und weiteren Gruppen, die sich der kritischen, digitalen Zivilgesellschaft verpflichtet fühlen. &lt;br&gt;&lt;br&gt;Weitere Informationen zu netzpolitischen Themen sind im Blog zu finden: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;&lt;br&gt;&lt;br&gt;Programmierung: Ueli Kunz, &lt;a href='http://ideadapt.net'&gt;ideadapt.net&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Schwere Straftaten sind als Delikte hervorgehoben, da diese immer wieder ins Feld geführt werden, um Überwachung zu rechtfertigen.</t>
+  </si>
+  <si>
+    <t>fullscreen</t>
+  </si>
+  <si>
+    <t>in den Vollbildmodus wechseln</t>
+  </si>
+  <si>
+    <t>switch to full screen mode</t>
+  </si>
+  <si>
+    <t>passer en mode plein écran</t>
+  </si>
+  <si>
+    <t>passare alla modalità a schermo intero</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1806,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="223">
+  <cellStyleXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1973,6 +1997,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2034,7 +2062,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="223">
+  <cellStyles count="227">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2154,6 +2182,8 @@
     <cellStyle name="Besuchter Link" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2257,6 +2287,8 @@
     <cellStyle name="Link" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -2331,12 +2363,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J117" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:J117">
-    <filterColumn colId="9">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J118" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:J118"/>
   <tableColumns count="10">
     <tableColumn id="1" name="group" dataDxfId="10"/>
     <tableColumn id="2" name="typ" dataDxfId="9"/>
@@ -2675,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="H117" sqref="A1:H117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2960,7 +2988,7 @@
         <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>370</v>
+        <v>551</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>369</v>
@@ -3231,7 +3259,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -3261,127 +3289,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
-      <c r="A20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="5" t="s">
+    <row r="20" spans="1:10" ht="30">
+      <c r="A20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I21" s="6">
         <v>1</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="4" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="45" hidden="1">
-      <c r="A22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="I22" s="6"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="45">
+      <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5" t="s">
@@ -3391,22 +3414,22 @@
         <v>55</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -3421,57 +3444,59 @@
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I25" s="6">
         <v>1</v>
       </c>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="30">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="B26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="30">
       <c r="A27" s="4" t="s">
         <v>2</v>
       </c>
@@ -3479,54 +3504,52 @@
         <v>55</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>315</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>316</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>317</v>
+        <v>142</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>318</v>
+        <v>234</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>319</v>
+        <v>235</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I28" s="6">
-        <v>1</v>
-      </c>
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I28" s="6"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10">
@@ -3537,22 +3560,22 @@
         <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="I29" s="6">
         <v>1</v>
@@ -3567,22 +3590,22 @@
         <v>55</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I30" s="6">
         <v>1</v>
@@ -3597,22 +3620,22 @@
         <v>55</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="I31" s="6">
         <v>1</v>
@@ -3627,22 +3650,22 @@
         <v>55</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="I32" s="6">
         <v>1</v>
@@ -3657,22 +3680,22 @@
         <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I33" s="6">
         <v>1</v>
@@ -3687,22 +3710,22 @@
         <v>55</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I34" s="6">
         <v>1</v>
@@ -3717,22 +3740,22 @@
         <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I35" s="6">
         <v>1</v>
@@ -3747,22 +3770,22 @@
         <v>55</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="I36" s="6">
         <v>1</v>
@@ -3777,22 +3800,22 @@
         <v>55</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I37" s="6">
         <v>1</v>
@@ -3807,22 +3830,22 @@
         <v>55</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="I38" s="6">
         <v>1</v>
@@ -3837,22 +3860,22 @@
         <v>55</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I39" s="6">
         <v>1</v>
@@ -3867,22 +3890,22 @@
         <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I40" s="6">
         <v>1</v>
@@ -3897,22 +3920,22 @@
         <v>55</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I41" s="6">
         <v>1</v>
@@ -3927,22 +3950,22 @@
         <v>55</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I42" s="6">
         <v>1</v>
@@ -3957,22 +3980,22 @@
         <v>55</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I43" s="6">
         <v>1</v>
@@ -3987,22 +4010,22 @@
         <v>55</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I44" s="6">
         <v>1</v>
@@ -4017,22 +4040,22 @@
         <v>55</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="I45" s="6">
         <v>1</v>
@@ -4047,22 +4070,22 @@
         <v>55</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="I46" s="6">
         <v>1</v>
@@ -4077,22 +4100,22 @@
         <v>55</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I47" s="6">
         <v>1</v>
@@ -4107,22 +4130,22 @@
         <v>55</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="I48" s="6">
         <v>1</v>
@@ -4137,22 +4160,22 @@
         <v>55</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I49" s="6">
         <v>1</v>
@@ -4167,22 +4190,22 @@
         <v>55</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="I50" s="6">
         <v>1</v>
@@ -4197,22 +4220,22 @@
         <v>55</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="I51" s="6">
         <v>1</v>
@@ -4221,28 +4244,28 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="5" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>245</v>
+        <v>154</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -4250,31 +4273,33 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I53" s="6"/>
+      <c r="B53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I53" s="6">
+        <v>1</v>
+      </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10">
@@ -4285,22 +4310,22 @@
         <v>55</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>410</v>
+        <v>246</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
@@ -4313,22 +4338,22 @@
         <v>55</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>326</v>
+        <v>410</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
@@ -4341,22 +4366,22 @@
         <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>443</v>
+        <v>326</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
@@ -4369,22 +4394,22 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
@@ -4397,22 +4422,22 @@
         <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>345</v>
+        <v>444</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
@@ -4425,22 +4450,22 @@
         <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
@@ -4453,22 +4478,22 @@
         <v>55</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>325</v>
+        <v>445</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="1"/>
@@ -4481,55 +4506,55 @@
         <v>55</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>446</v>
+        <v>325</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" ht="30">
+    <row r="62" spans="1:10">
       <c r="A62" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>310</v>
+        <v>137</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>344</v>
+        <v>446</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" ht="30">
       <c r="A63" s="4" t="s">
         <v>75</v>
       </c>
@@ -4537,27 +4562,27 @@
         <v>63</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>411</v>
+        <v>309</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>411</v>
+        <v>310</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>411</v>
+        <v>344</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" ht="30">
+    <row r="64" spans="1:10">
       <c r="A64" s="4" t="s">
         <v>75</v>
       </c>
@@ -4565,22 +4590,22 @@
         <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>497</v>
+        <v>411</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>323</v>
+        <v>411</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>324</v>
+        <v>411</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="1"/>
@@ -4593,27 +4618,27 @@
         <v>63</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>334</v>
+        <v>497</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>460</v>
+        <v>346</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" ht="45">
+    <row r="66" spans="1:10" ht="30">
       <c r="A66" s="4" t="s">
         <v>75</v>
       </c>
@@ -4621,22 +4646,22 @@
         <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>239</v>
+        <v>336</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="1"/>
@@ -4649,27 +4674,27 @@
         <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" ht="60">
+    <row r="68" spans="1:10" ht="45">
       <c r="A68" s="4" t="s">
         <v>75</v>
       </c>
@@ -4677,27 +4702,27 @@
         <v>63</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>498</v>
+        <v>165</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>416</v>
+        <v>342</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" ht="30">
+    <row r="69" spans="1:10" ht="60">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
@@ -4705,27 +4730,27 @@
         <v>63</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>163</v>
+        <v>498</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>164</v>
+        <v>274</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" ht="60">
+    <row r="70" spans="1:10" ht="30">
       <c r="A70" s="4" t="s">
         <v>75</v>
       </c>
@@ -4733,24 +4758,27 @@
         <v>63</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>499</v>
+        <v>163</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>530</v>
+        <v>164</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>531</v>
+        <v>242</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>532</v>
+        <v>164</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" ht="30">
+    <row r="71" spans="1:10" ht="60">
       <c r="A71" s="4" t="s">
         <v>75</v>
       </c>
@@ -4758,75 +4786,72 @@
         <v>63</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>348</v>
+        <v>499</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>349</v>
+        <v>530</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>350</v>
+        <v>531</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>352</v>
+        <v>532</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" ht="60">
+    <row r="72" spans="1:10" ht="30">
       <c r="A72" s="4" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>447</v>
+        <v>349</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>448</v>
+        <v>350</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>449</v>
+        <v>351</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" ht="60">
       <c r="A73" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>102</v>
+        <v>553</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>255</v>
+        <v>448</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>340</v>
+        <v>449</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="1"/>
@@ -4839,22 +4864,22 @@
         <v>55</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="1"/>
@@ -4867,22 +4892,22 @@
         <v>55</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="1"/>
@@ -4895,22 +4920,22 @@
         <v>55</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="1"/>
@@ -4923,22 +4948,22 @@
         <v>55</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>138</v>
+        <v>393</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>138</v>
+        <v>289</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="1"/>
@@ -4951,55 +4976,55 @@
         <v>55</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>394</v>
+        <v>138</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>290</v>
+        <v>138</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" ht="60">
+    <row r="79" spans="1:10">
       <c r="A79" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>513</v>
+        <v>107</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>533</v>
+        <v>394</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>534</v>
+        <v>260</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>535</v>
+        <v>290</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" ht="75">
+    <row r="80" spans="1:10" ht="60">
       <c r="A80" s="4" t="s">
         <v>94</v>
       </c>
@@ -5007,19 +5032,22 @@
         <v>63</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
@@ -5032,27 +5060,24 @@
         <v>63</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>411</v>
+        <v>538</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" ht="45">
+    <row r="82" spans="1:10" ht="75">
       <c r="A82" s="4" t="s">
         <v>94</v>
       </c>
@@ -5060,27 +5085,27 @@
         <v>63</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>159</v>
+        <v>504</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>160</v>
+        <v>539</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>252</v>
+        <v>540</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>283</v>
+        <v>541</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" ht="30">
+    <row r="83" spans="1:10" ht="45">
       <c r="A83" s="4" t="s">
         <v>94</v>
       </c>
@@ -5088,22 +5113,22 @@
         <v>63</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="1"/>
@@ -5116,50 +5141,50 @@
         <v>63</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" ht="30">
       <c r="A85" s="4" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="1"/>
@@ -5172,22 +5197,22 @@
         <v>55</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>362</v>
+        <v>61</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>363</v>
+        <v>140</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>364</v>
+        <v>266</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>365</v>
+        <v>298</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>366</v>
+        <v>305</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="1"/>
@@ -5200,22 +5225,22 @@
         <v>55</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>65</v>
+        <v>362</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>141</v>
+        <v>363</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>267</v>
+        <v>364</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>304</v>
+        <v>366</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="1"/>
@@ -5228,22 +5253,22 @@
         <v>55</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="1"/>
@@ -5256,22 +5281,22 @@
         <v>55</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>306</v>
+        <v>59</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>308</v>
+        <v>62</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="1"/>
@@ -5284,59 +5309,59 @@
         <v>55</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I90" s="6"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E90" s="1" t="str">
+      <c r="E91" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
         <v>Microsoft &amp; Skype</v>
       </c>
-      <c r="F90" s="1" t="str">
+      <c r="F91" s="1" t="str">
         <f>Tabelle2[[#This Row],[en]]</f>
         <v>Microsoft &amp; Skype</v>
       </c>
-      <c r="G90" s="1" t="str">
+      <c r="G91" s="1" t="str">
         <f>Tabelle2[[#This Row],[fr]]</f>
         <v>Microsoft &amp; Skype</v>
       </c>
-      <c r="H90" s="1" t="str">
+      <c r="H91" s="1" t="str">
         <f>Tabelle2[[#This Row],[it]]</f>
         <v>Microsoft &amp; Skype</v>
       </c>
-      <c r="I90" s="6"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="1:10" ht="45">
-      <c r="A91" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="I91" s="6"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" ht="30">
+    <row r="92" spans="1:10" ht="45">
       <c r="A92" s="4" t="s">
         <v>0</v>
       </c>
@@ -5344,27 +5369,27 @@
         <v>63</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>374</v>
+        <v>156</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>375</v>
+        <v>265</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>376</v>
+        <v>297</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" ht="45">
+    <row r="93" spans="1:10" ht="30">
       <c r="A93" s="4" t="s">
         <v>0</v>
       </c>
@@ -5372,27 +5397,27 @@
         <v>63</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" ht="60">
+    <row r="94" spans="1:10" ht="45">
       <c r="A94" s="4" t="s">
         <v>0</v>
       </c>
@@ -5400,85 +5425,88 @@
         <v>63</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>485</v>
+        <v>397</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>486</v>
+        <v>398</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>487</v>
+        <v>415</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" ht="45" hidden="1">
+    <row r="95" spans="1:10" ht="60">
       <c r="A95" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>477</v>
+        <v>63</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>478</v>
+        <v>59</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="H95" s="1" t="str">
-        <f>Tabelle2[[#This Row],[de]]</f>
-        <v>https://de-de.facebook.com/help/405183566203254</v>
-      </c>
-      <c r="I95" s="6">
-        <v>1</v>
-      </c>
-      <c r="J95" s="1">
-        <v>1</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I95" s="6"/>
+      <c r="J95" s="1"/>
     </row>
     <row r="96" spans="1:10" ht="45">
       <c r="A96" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>63</v>
+        <v>477</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>515</v>
+      <c r="D96" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="I96" s="6"/>
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="1:10" ht="30">
+        <v>480</v>
+      </c>
+      <c r="H96" s="1" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
+        <v>https://de-de.facebook.com/help/405183566203254</v>
+      </c>
+      <c r="I96" s="6">
+        <v>1</v>
+      </c>
+      <c r="J96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="45">
       <c r="A97" s="4" t="s">
         <v>0</v>
       </c>
@@ -5486,55 +5514,52 @@
         <v>63</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>516</v>
+        <v>543</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" ht="30">
       <c r="A98" s="4" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>120</v>
+        <v>307</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>123</v>
+        <v>516</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>125</v>
+        <v>516</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>301</v>
+        <v>516</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>516</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" hidden="1">
+    <row r="99" spans="1:10">
       <c r="A99" s="4" t="s">
         <v>113</v>
       </c>
@@ -5542,27 +5567,25 @@
         <v>55</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>68</v>
+        <v>301</v>
       </c>
       <c r="I99" s="6"/>
-      <c r="J99" s="1">
-        <v>1</v>
-      </c>
+      <c r="J99" s="1"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="4" t="s">
@@ -5572,27 +5595,29 @@
         <v>55</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>237</v>
+        <v>68</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="I100" s="6"/>
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="1:10" hidden="1">
+      <c r="J100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="4" t="s">
         <v>113</v>
       </c>
@@ -5600,29 +5625,27 @@
         <v>55</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>361</v>
+        <v>270</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="I101" s="6"/>
-      <c r="J101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" hidden="1">
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="4" t="s">
         <v>113</v>
       </c>
@@ -5630,51 +5653,56 @@
         <v>55</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>507</v>
+        <v>74</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>545</v>
+        <v>127</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>547</v>
+        <v>238</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>546</v>
+        <v>361</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="60">
+    <row r="103" spans="1:10">
       <c r="A103" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>450</v>
+        <v>545</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>451</v>
+        <v>547</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="I103" s="6"/>
-      <c r="J103" s="1"/>
-    </row>
-    <row r="104" spans="1:10" ht="45">
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="60">
       <c r="A104" s="4" t="s">
         <v>113</v>
       </c>
@@ -5682,47 +5710,44 @@
         <v>63</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" ht="45">
       <c r="A105" s="4" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>71</v>
+        <v>529</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>262</v>
+        <v>454</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>358</v>
+        <v>455</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="1"/>
@@ -5735,22 +5760,22 @@
         <v>55</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>68</v>
+        <v>395</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>68</v>
+        <v>358</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="1"/>
@@ -5763,22 +5788,22 @@
         <v>55</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>396</v>
+        <v>68</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>261</v>
+        <v>68</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>359</v>
+        <v>68</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="1"/>
@@ -5791,152 +5816,155 @@
         <v>55</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>70</v>
+        <v>396</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" s="1" customFormat="1" hidden="1">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:10">
+      <c r="A109" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I109" s="6"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="1:10" s="1" customFormat="1">
+      <c r="A110" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E109" s="1" t="str">
+      <c r="E110" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
         <v>Swiss Lawful Interception Report 2015</v>
       </c>
-      <c r="F109" s="1" t="str">
+      <c r="F110" s="1" t="str">
         <f>Tabelle2[[#This Row],[en]]</f>
         <v>Swiss Lawful Interception Report 2015</v>
       </c>
-      <c r="G109" s="1" t="str">
+      <c r="G110" s="1" t="str">
         <f>Tabelle2[[#This Row],[fr]]</f>
         <v>Swiss Lawful Interception Report 2015</v>
       </c>
-      <c r="H109" s="1" t="str">
+      <c r="H110" s="1" t="str">
         <f>Tabelle2[[#This Row],[it]]</f>
         <v>Swiss Lawful Interception Report 2015</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I110" s="1">
         <v>1</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J110" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="45">
-      <c r="A110" s="4" t="s">
+    <row r="111" spans="1:10" ht="45">
+      <c r="A111" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E110" s="1" t="str">
+      <c r="E111" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
         <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
       </c>
-      <c r="F110" s="1" t="str">
+      <c r="F111" s="1" t="str">
         <f>Tabelle2[[#This Row],[en]]</f>
         <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
       </c>
-      <c r="G110" s="1" t="str">
+      <c r="G111" s="1" t="str">
         <f>Tabelle2[[#This Row],[fr]]</f>
         <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
       </c>
-      <c r="H110" s="1" t="str">
+      <c r="H111" s="1" t="str">
         <f>Tabelle2[[#This Row],[it]]</f>
         <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
       </c>
-      <c r="I110" s="6">
-        <v>1</v>
-      </c>
-      <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="1:10" ht="409">
-      <c r="A111" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>512</v>
-      </c>
       <c r="I111" s="6">
         <v>1</v>
       </c>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" ht="270">
-      <c r="A112" s="4" t="s">
+    <row r="112" spans="1:10" ht="409">
+      <c r="A112" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="I112" s="6"/>
+      <c r="C112" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="I112" s="6">
+        <v>1</v>
+      </c>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" ht="120" hidden="1">
+    <row r="113" spans="1:10" ht="270">
       <c r="A113" s="4" t="s">
         <v>313</v>
       </c>
@@ -5944,29 +5972,24 @@
         <v>63</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>495</v>
+        <v>314</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="I113" s="6"/>
-      <c r="J113" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="30" hidden="1">
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="1:10" ht="120">
       <c r="A114" s="4" t="s">
         <v>313</v>
       </c>
@@ -5974,29 +5997,29 @@
         <v>63</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="135" hidden="1">
+    <row r="115" spans="1:10" ht="30">
       <c r="A115" s="4" t="s">
         <v>313</v>
       </c>
@@ -6004,100 +6027,130 @@
         <v>63</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I115" s="6"/>
+      <c r="J115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="135">
+      <c r="A116" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="D115" s="1" t="str">
-        <f>CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",D110,"' title='",D109,"' target='_blank'&gt;",D109,"&lt;/a&gt;")</f>
+      <c r="D116" s="1" t="str">
+        <f>CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",D111,"' title='",D110,"' target='_blank'&gt;",D110,"&lt;/a&gt;")</f>
         <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
-      <c r="E115" s="1" t="str">
-        <f t="shared" ref="E115:H115" si="0">CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",E110,"' title='",E109,"' target='_blank'&gt;",E109,"&lt;/a&gt;")</f>
+      <c r="E116" s="1" t="str">
+        <f t="shared" ref="E116:H116" si="0">CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",E111,"' title='",E110,"' target='_blank'&gt;",E110,"&lt;/a&gt;")</f>
         <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
-      <c r="F115" s="1" t="str">
+      <c r="F116" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
-      <c r="G115" s="1" t="str">
+      <c r="G116" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
-      <c r="H115" s="1" t="str">
+      <c r="H116" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
-      <c r="I115" s="6">
+      <c r="I116" s="6">
         <v>1</v>
       </c>
-      <c r="J115" s="1">
+      <c r="J116" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="270">
-      <c r="A116" s="4" t="s">
+    <row r="117" spans="1:10" ht="270">
+      <c r="A117" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D116" s="1" t="str">
-        <f>CONCATENATE(D113,D115)</f>
+      <c r="D117" s="1" t="str">
+        <f>CONCATENATE(D114,D116)</f>
         <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
-      <c r="E116" s="1" t="str">
-        <f t="shared" ref="E116:H116" si="1">CONCATENATE(E113,E115,E114)</f>
+      <c r="E117" s="1" t="str">
+        <f t="shared" ref="E117:H117" si="1">CONCATENATE(E114,E116,E115)</f>
         <v>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</v>
       </c>
-      <c r="F116" s="1" t="str">
+      <c r="F117" s="1" t="str">
         <f t="shared" si="1"/>
         <v>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
       </c>
-      <c r="G116" s="1" t="str">
+      <c r="G117" s="1" t="str">
         <f t="shared" si="1"/>
         <v>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
       </c>
-      <c r="H116" s="1" t="str">
+      <c r="H117" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;Nur in Deutsch verfügbar</v>
       </c>
-      <c r="I116" s="6">
+      <c r="I117" s="6">
         <v>1</v>
       </c>
-      <c r="J116" s="1"/>
-    </row>
-    <row r="117" spans="1:10" ht="300">
-      <c r="A117" s="4" t="s">
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="1:10" ht="300">
+      <c r="A118" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="E117" s="1" t="s">
+      <c r="D118" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I117" s="6"/>
-      <c r="J117" s="1"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I110:I1048576 I1:I108">
+  <conditionalFormatting sqref="I111:I1048576 I1:I109">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I1)))</formula>
     </cfRule>
@@ -6119,8 +6172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2540" windowWidth="28640" windowHeight="19080" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="28320" windowHeight="26640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
     <sheet name="Blatt3" sheetId="10" r:id="rId2"/>
+    <sheet name="Blatt1" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="slirv_translations" localSheetId="2">Blatt1!$A$2:$H$118</definedName>
     <definedName name="slirv_translations" localSheetId="1">Blatt3!$A$2:$H$117</definedName>
     <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$118</definedName>
   </definedNames>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="588">
   <si>
     <t>typ</t>
   </si>
@@ -1518,9 +1520,6 @@
     <t>slir_tmp</t>
   </si>
   <si>
-    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden.</t>
-  </si>
-  <si>
     <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.</t>
   </si>
   <si>
@@ -1720,13 +1719,105 @@
   </si>
   <si>
     <t>passare alla modalità a schermo intero</t>
+  </si>
+  <si>
+    <t>Gruppa da delicts</t>
+  </si>
+  <si>
+    <t>Gravants delicts</t>
+  </si>
+  <si>
+    <t>nagin delict gravant</t>
+  </si>
+  <si>
+    <t>traffic da droga</t>
+  </si>
+  <si>
+    <t>delicts finanzial</t>
+  </si>
+  <si>
+    <t>delicts da violenza</t>
+  </si>
+  <si>
+    <t>stadi et defensiun da la patria</t>
+  </si>
+  <si>
+    <t>delicts da facultad</t>
+  </si>
+  <si>
+    <t>blessura corporala, assassinat, mazzament, omicidi, represchentaziun da violenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">associaziun criminala, prievel tras armas, constricziun sexuala,violaziun,prostituziun illegala, </t>
+  </si>
+  <si>
+    <t>disturba da pasch publica, demonstraziun</t>
+  </si>
+  <si>
+    <t>Producziun, traffic u consume da drogas</t>
+  </si>
+  <si>
+    <t>Grevs malfatgs en delicts extraordinaris, perchegl tgi reivan mess an discurs per giustifitgar la survigilanza</t>
+  </si>
+  <si>
+    <t>lavada da daners suspectus manegia la retschertga da derevanza, chattada ni incassament da valurs da facultad.</t>
+  </si>
+  <si>
+    <t>Scumandàs servetschs da spiunadi politic u economic</t>
+  </si>
+  <si>
+    <t>Simpla dumonda</t>
+  </si>
+  <si>
+    <t>accumular datas scu reserva</t>
+  </si>
+  <si>
+    <t>Surveglianza en temp real, discurs da telefon vegnian spiunos, localisar en telefon mobil</t>
+  </si>
+  <si>
+    <t>copia da contract, copia dal quint</t>
+  </si>
+  <si>
+    <t>A tgi tutga ena determinada nomra da telefon ni adressa dal protocol d’internet tar en fix temp.</t>
+  </si>
+  <si>
+    <t>metadati da sis mais passà p.ex. tgi che ha utilisar una adressa ip cura. Metainformaziuns digls davos sis meis, tgi ha communitgia cura cun tgi.</t>
+  </si>
+  <si>
+    <t>account d’uttilisaders da facebook. Quella lista dallas datas da facebook mossan se la dimensiun</t>
+  </si>
+  <si>
+    <t>tschertgar d’antennas mobilas</t>
+  </si>
+  <si>
+    <t>ordinara survigilaziun telefonica</t>
+  </si>
+  <si>
+    <t>Tschertga d’ antennas, er numno dumandada da cellas radiofonicas ni persecuziun en schema, tschiffa tot igls telefons mobils an ena regiun.</t>
+  </si>
+  <si>
+    <t>Tschertga neccessitada, per la tschertga e salvamaint da persunas sparidas ni persunas fugitivas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Societad Digitala Svizzra publitgescha annual igl “Swiss Lawfull Interception Report” tgi sa tracta sur la survigilaziun digl stadi en Svizzra. La visualisaziun cumplettescha igl report interactiv e mossa detaglià, scu tgi igl Cantuns survigileschan. Chatta or, per tge delicts igls voss dretgs fundamentals reivan restranschia. &lt;br&gt;&lt;br&gt;&lt;small&gt;Las datas ainten quella statistica cuntignan sulettamain mesiras da survigilaziun siva urdan da process penal. Exceptà en missiuns digl IMSI-Catcher, trojan digl stadi ni mesiras da survigilaziun digl servetsch da spiunadi.&lt;/small&gt;
+</t>
+  </si>
+  <si>
+    <t>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d’artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila.  &lt;br&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1761,8 +1852,18 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1779,6 +1880,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB8CCE4"/>
         <bgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1806,7 +1913,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="227">
+  <cellStyleXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2034,8 +2141,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2061,8 +2190,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="227">
+  <cellStyles count="249">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2184,6 +2322,17 @@
     <cellStyle name="Besuchter Link" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2289,19 +2438,20 @@
     <cellStyle name="Link" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="223" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2349,6 +2499,16 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
@@ -2362,20 +2522,24 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J118" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J118" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J118"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="group" dataDxfId="10"/>
-    <tableColumn id="2" name="typ" dataDxfId="9"/>
-    <tableColumn id="3" name="detail" dataDxfId="8"/>
-    <tableColumn id="4" name="de" dataDxfId="7"/>
-    <tableColumn id="5" name="en" dataDxfId="6"/>
-    <tableColumn id="6" name="fr" dataDxfId="5"/>
-    <tableColumn id="7" name="it" dataDxfId="4"/>
-    <tableColumn id="8" name="rm" dataDxfId="3"/>
-    <tableColumn id="9" name="nfTrans" dataDxfId="2"/>
-    <tableColumn id="10" name="notEXport" dataDxfId="1"/>
+    <tableColumn id="1" name="group" dataDxfId="9"/>
+    <tableColumn id="2" name="typ" dataDxfId="8"/>
+    <tableColumn id="3" name="detail" dataDxfId="7"/>
+    <tableColumn id="4" name="de" dataDxfId="6"/>
+    <tableColumn id="5" name="en" dataDxfId="5"/>
+    <tableColumn id="6" name="fr" dataDxfId="4"/>
+    <tableColumn id="7" name="it" dataDxfId="3"/>
+    <tableColumn id="8" name="rm" dataDxfId="2"/>
+    <tableColumn id="9" name="nfTrans" dataDxfId="1"/>
+    <tableColumn id="10" name="notEXport" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2705,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2944,7 +3108,7 @@
         <v>409</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>431</v>
+        <v>558</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
@@ -2988,7 +3152,7 @@
         <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>369</v>
@@ -3030,7 +3194,7 @@
         <v>384</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
@@ -3297,19 +3461,19 @@
         <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="1"/>
@@ -3369,7 +3533,7 @@
         <v>440</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>441</v>
+        <v>560</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
@@ -4353,7 +4517,7 @@
         <v>279</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>410</v>
+        <v>561</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
@@ -4408,8 +4572,8 @@
       <c r="G57" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>443</v>
+      <c r="H57" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
@@ -4436,8 +4600,8 @@
       <c r="G58" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>444</v>
+      <c r="H58" s="9" t="s">
+        <v>563</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
@@ -4521,7 +4685,7 @@
         <v>275</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>325</v>
+        <v>564</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="1"/>
@@ -4548,8 +4712,8 @@
       <c r="G62" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>446</v>
+      <c r="H62" s="9" t="s">
+        <v>565</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="1"/>
@@ -4621,7 +4785,7 @@
         <v>86</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>322</v>
@@ -4632,8 +4796,8 @@
       <c r="G65" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>346</v>
+      <c r="H65" s="9" t="s">
+        <v>569</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="1"/>
@@ -4716,8 +4880,8 @@
       <c r="G68" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>342</v>
+      <c r="H68" s="9" t="s">
+        <v>566</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="1"/>
@@ -4733,7 +4897,7 @@
         <v>90</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>132</v>
@@ -4744,13 +4908,13 @@
       <c r="G69" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>416</v>
+      <c r="H69" s="9" t="s">
+        <v>568</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" ht="30">
+    <row r="70" spans="1:10" ht="45">
       <c r="A70" s="4" t="s">
         <v>75</v>
       </c>
@@ -4772,8 +4936,8 @@
       <c r="G70" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>347</v>
+      <c r="H70" s="9" t="s">
+        <v>567</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
@@ -4789,17 +4953,18 @@
         <v>92</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>532</v>
-      </c>
+      <c r="H71" s="10"/>
       <c r="I71" s="6"/>
       <c r="J71" s="1"/>
     </row>
@@ -4842,7 +5007,7 @@
         <v>63</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>447</v>
@@ -4852,6 +5017,9 @@
       </c>
       <c r="G73" s="1" t="s">
         <v>449</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="1"/>
@@ -5035,19 +5203,19 @@
         <v>103</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="H80" s="1" t="s">
-        <v>411</v>
+        <v>571</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
@@ -5063,17 +5231,18 @@
         <v>97</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>538</v>
-      </c>
+      <c r="H81" s="11"/>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
     </row>
@@ -5088,18 +5257,18 @@
         <v>100</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="11" t="s">
         <v>411</v>
       </c>
       <c r="I82" s="6"/>
@@ -5127,8 +5296,8 @@
       <c r="G83" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>354</v>
+      <c r="H83" s="9" t="s">
+        <v>572</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="1"/>
@@ -5268,7 +5437,7 @@
         <v>299</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>304</v>
+        <v>573</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="1"/>
@@ -5296,7 +5465,7 @@
         <v>300</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>303</v>
+        <v>574</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="1"/>
@@ -5340,7 +5509,7 @@
         <v>307</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E91" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5384,7 +5553,7 @@
         <v>297</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>377</v>
+        <v>575</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="1"/>
@@ -5412,7 +5581,7 @@
         <v>376</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>373</v>
+        <v>576</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
@@ -5428,7 +5597,7 @@
         <v>64</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>397</v>
@@ -5440,7 +5609,7 @@
         <v>399</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>415</v>
+        <v>577</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
@@ -5468,7 +5637,7 @@
         <v>400</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="1"/>
@@ -5517,16 +5686,19 @@
         <v>306</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>544</v>
+      <c r="H97" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="1"/>
@@ -5542,19 +5714,19 @@
         <v>307</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="1"/>
@@ -5582,10 +5754,12 @@
         <v>269</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>301</v>
+        <v>580</v>
       </c>
       <c r="I99" s="6"/>
-      <c r="J99" s="1"/>
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="4" t="s">
@@ -5613,9 +5787,7 @@
         <v>68</v>
       </c>
       <c r="I100" s="6"/>
-      <c r="J100" s="1">
-        <v>1</v>
-      </c>
+      <c r="J100" s="1"/>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="4" t="s">
@@ -5680,22 +5852,25 @@
         <v>113</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>546</v>
+      <c r="H103" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="1">
@@ -5713,7 +5888,7 @@
         <v>120</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>450</v>
@@ -5723,6 +5898,9 @@
       </c>
       <c r="G104" s="1" t="s">
         <v>452</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>582</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="1"/>
@@ -5738,7 +5916,7 @@
         <v>121</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>453</v>
@@ -5748,6 +5926,9 @@
       </c>
       <c r="G105" s="1" t="s">
         <v>455</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="1"/>
@@ -5875,7 +6056,7 @@
         <v>320</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E110" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5945,19 +6126,19 @@
         <v>412</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="I112" s="6">
         <v>1</v>
@@ -5975,16 +6156,19 @@
         <v>314</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>550</v>
+      <c r="H113" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="1"/>
@@ -5997,22 +6181,22 @@
         <v>63</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="H114" s="1" t="s">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="1">
@@ -6027,22 +6211,22 @@
         <v>63</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="H115" s="1" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="1">
@@ -6086,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="270">
+    <row r="117" spans="1:10" ht="285">
       <c r="A117" s="4" t="s">
         <v>313</v>
       </c>
@@ -6113,15 +6297,15 @@
         <v>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
       </c>
       <c r="H117" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Swiss Lawful Interception Report kann hier heruntergeladen werden.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;Nur in Deutsch verfügbar</v>
+        <f>CONCATENATE(H114,H116,H115)</f>
+        <v>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</v>
       </c>
       <c r="I117" s="6">
         <v>1</v>
       </c>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" ht="300">
+    <row r="118" spans="1:10" ht="315">
       <c r="A118" s="4" t="s">
         <v>313</v>
       </c>
@@ -6132,7 +6316,7 @@
         <v>321</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>456</v>
@@ -6144,14 +6328,14 @@
         <v>458</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>459</v>
+        <v>586</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I111:I1048576 I1:I109">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6435,7 +6619,7 @@
         <v>384</v>
       </c>
       <c r="H10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7749,7 +7933,7 @@
         <v>86</v>
       </c>
       <c r="D61" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E61" t="s">
         <v>322</v>
@@ -7853,7 +8037,7 @@
         <v>90</v>
       </c>
       <c r="D65" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E65" t="s">
         <v>132</v>
@@ -7905,16 +8089,16 @@
         <v>92</v>
       </c>
       <c r="D67" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E67" t="s">
+        <v>529</v>
+      </c>
+      <c r="F67" t="s">
         <v>530</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>531</v>
-      </c>
-      <c r="G67" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7954,7 +8138,7 @@
         <v>63</v>
       </c>
       <c r="D69" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E69" t="s">
         <v>447</v>
@@ -8133,16 +8317,16 @@
         <v>103</v>
       </c>
       <c r="D76" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E76" t="s">
+        <v>532</v>
+      </c>
+      <c r="F76" t="s">
         <v>533</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>534</v>
-      </c>
-      <c r="G76" t="s">
-        <v>535</v>
       </c>
       <c r="H76" t="s">
         <v>411</v>
@@ -8159,16 +8343,16 @@
         <v>97</v>
       </c>
       <c r="D77" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E77" t="s">
+        <v>535</v>
+      </c>
+      <c r="F77" t="s">
         <v>536</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>537</v>
-      </c>
-      <c r="G77" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8182,16 +8366,16 @@
         <v>100</v>
       </c>
       <c r="D78" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E78" t="s">
+        <v>538</v>
+      </c>
+      <c r="F78" t="s">
         <v>539</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>540</v>
-      </c>
-      <c r="G78" t="s">
-        <v>541</v>
       </c>
       <c r="H78" t="s">
         <v>411</v>
@@ -8416,19 +8600,19 @@
         <v>307</v>
       </c>
       <c r="D87" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E87" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F87" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G87" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H87" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8494,7 +8678,7 @@
         <v>64</v>
       </c>
       <c r="D90" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E90" t="s">
         <v>397</v>
@@ -8546,16 +8730,16 @@
         <v>306</v>
       </c>
       <c r="D92" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E92" t="s">
+        <v>541</v>
+      </c>
+      <c r="F92" t="s">
         <v>542</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>543</v>
-      </c>
-      <c r="G92" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8569,19 +8753,19 @@
         <v>307</v>
       </c>
       <c r="D93" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E93" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F93" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G93" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H93" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8647,7 +8831,7 @@
         <v>120</v>
       </c>
       <c r="D96" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E96" t="s">
         <v>450</v>
@@ -8670,7 +8854,7 @@
         <v>121</v>
       </c>
       <c r="D97" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E97" t="s">
         <v>453</v>
@@ -8823,19 +9007,19 @@
         <v>412</v>
       </c>
       <c r="D103" t="s">
+        <v>507</v>
+      </c>
+      <c r="E103" t="s">
+        <v>509</v>
+      </c>
+      <c r="F103" t="s">
         <v>508</v>
       </c>
-      <c r="E103" t="s">
+      <c r="G103" t="s">
         <v>510</v>
       </c>
-      <c r="F103" t="s">
-        <v>509</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>511</v>
-      </c>
-      <c r="H103" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8849,16 +9033,16 @@
         <v>314</v>
       </c>
       <c r="D104" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E104" t="s">
+        <v>547</v>
+      </c>
+      <c r="F104" t="s">
         <v>548</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>549</v>
-      </c>
-      <c r="G104" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8872,19 +9056,19 @@
         <v>320</v>
       </c>
       <c r="D105" t="s">
+        <v>522</v>
+      </c>
+      <c r="E105" t="s">
         <v>523</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>524</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>525</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>526</v>
-      </c>
-      <c r="H105" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8898,7 +9082,7 @@
         <v>321</v>
       </c>
       <c r="D106" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E106" t="s">
         <v>456</v>
@@ -8911,6 +9095,3128 @@
       </c>
       <c r="H106" t="s">
         <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
+        <v>Deutsch</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Tabelle2[[#This Row],[en]]</f>
+        <v>Deutsch</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Tabelle2[[#This Row],[fr]]</f>
+        <v>Deutsch</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Tabelle2[[#This Row],[it]]</f>
+        <v>Deutsch</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
+        <v>English</v>
+      </c>
+      <c r="F3" t="str">
+        <f>Tabelle2[[#This Row],[en]]</f>
+        <v>English</v>
+      </c>
+      <c r="G3" t="str">
+        <f>Tabelle2[[#This Row],[fr]]</f>
+        <v>English</v>
+      </c>
+      <c r="H3" t="str">
+        <f>Tabelle2[[#This Row],[it]]</f>
+        <v>English</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
+        <v>Français</v>
+      </c>
+      <c r="F4" t="str">
+        <f>Tabelle2[[#This Row],[en]]</f>
+        <v>Français</v>
+      </c>
+      <c r="G4" t="str">
+        <f>Tabelle2[[#This Row],[fr]]</f>
+        <v>Français</v>
+      </c>
+      <c r="H4" t="str">
+        <f>Tabelle2[[#This Row],[it]]</f>
+        <v>Français</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
+        <v>Italiano</v>
+      </c>
+      <c r="F5" t="str">
+        <f>Tabelle2[[#This Row],[en]]</f>
+        <v>Italiano</v>
+      </c>
+      <c r="G5" t="str">
+        <f>Tabelle2[[#This Row],[fr]]</f>
+        <v>Italiano</v>
+      </c>
+      <c r="H5" t="str">
+        <f>Tabelle2[[#This Row],[it]]</f>
+        <v>Italiano</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
+        <v>Rumantsch</v>
+      </c>
+      <c r="F6" t="str">
+        <f>Tabelle2[[#This Row],[en]]</f>
+        <v>Rumantsch</v>
+      </c>
+      <c r="G6" t="str">
+        <f>Tabelle2[[#This Row],[fr]]</f>
+        <v>Rumantsch</v>
+      </c>
+      <c r="H6" t="str">
+        <f>Tabelle2[[#This Row],[it]]</f>
+        <v>Rumantsch</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H7" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E8" t="s">
+        <v>435</v>
+      </c>
+      <c r="F8" t="s">
+        <v>434</v>
+      </c>
+      <c r="G8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>550</v>
+      </c>
+      <c r="E9" t="s">
+        <v>369</v>
+      </c>
+      <c r="F9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G10" t="s">
+        <v>384</v>
+      </c>
+      <c r="H10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>385</v>
+      </c>
+      <c r="H11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" t="s">
+        <v>387</v>
+      </c>
+      <c r="G12" t="s">
+        <v>388</v>
+      </c>
+      <c r="H12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" t="s">
+        <v>378</v>
+      </c>
+      <c r="F13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G13" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" t="s">
+        <v>381</v>
+      </c>
+      <c r="G14" t="s">
+        <v>383</v>
+      </c>
+      <c r="H14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>412</v>
+      </c>
+      <c r="D15" t="s">
+        <v>423</v>
+      </c>
+      <c r="E15" t="s">
+        <v>424</v>
+      </c>
+      <c r="F15" t="s">
+        <v>425</v>
+      </c>
+      <c r="G15" t="s">
+        <v>426</v>
+      </c>
+      <c r="H15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G17" t="s">
+        <v>295</v>
+      </c>
+      <c r="H17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D18" t="s">
+        <v>429</v>
+      </c>
+      <c r="E18" t="s">
+        <v>429</v>
+      </c>
+      <c r="F18" t="s">
+        <v>428</v>
+      </c>
+      <c r="G18" t="s">
+        <v>430</v>
+      </c>
+      <c r="H18" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>329</v>
+      </c>
+      <c r="F19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G19" t="s">
+        <v>296</v>
+      </c>
+      <c r="H19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>553</v>
+      </c>
+      <c r="D20" t="s">
+        <v>554</v>
+      </c>
+      <c r="E20" t="s">
+        <v>555</v>
+      </c>
+      <c r="F20" t="s">
+        <v>556</v>
+      </c>
+      <c r="G20" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" t="s">
+        <v>417</v>
+      </c>
+      <c r="E21" t="s">
+        <v>418</v>
+      </c>
+      <c r="F21" t="s">
+        <v>419</v>
+      </c>
+      <c r="G21" t="s">
+        <v>420</v>
+      </c>
+      <c r="H21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>437</v>
+      </c>
+      <c r="D22" t="s">
+        <v>488</v>
+      </c>
+      <c r="E22" t="s">
+        <v>438</v>
+      </c>
+      <c r="F22" t="s">
+        <v>439</v>
+      </c>
+      <c r="G22" t="s">
+        <v>440</v>
+      </c>
+      <c r="H22" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>401</v>
+      </c>
+      <c r="D23" t="s">
+        <v>402</v>
+      </c>
+      <c r="E23" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" t="s">
+        <v>403</v>
+      </c>
+      <c r="G23" t="s">
+        <v>404</v>
+      </c>
+      <c r="H23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E24" t="s">
+        <v>466</v>
+      </c>
+      <c r="F24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G24" t="s">
+        <v>467</v>
+      </c>
+      <c r="H24" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>462</v>
+      </c>
+      <c r="D25" t="s">
+        <v>464</v>
+      </c>
+      <c r="E25" t="s">
+        <v>469</v>
+      </c>
+      <c r="F25" t="s">
+        <v>470</v>
+      </c>
+      <c r="G25" t="s">
+        <v>471</v>
+      </c>
+      <c r="H25" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>463</v>
+      </c>
+      <c r="D26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F26" t="s">
+        <v>474</v>
+      </c>
+      <c r="G26" t="s">
+        <v>475</v>
+      </c>
+      <c r="H26" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>235</v>
+      </c>
+      <c r="H27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>315</v>
+      </c>
+      <c r="D28" t="s">
+        <v>316</v>
+      </c>
+      <c r="E28" t="s">
+        <v>317</v>
+      </c>
+      <c r="F28" t="s">
+        <v>318</v>
+      </c>
+      <c r="G28" t="s">
+        <v>319</v>
+      </c>
+      <c r="H28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" t="s">
+        <v>203</v>
+      </c>
+      <c r="H34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s">
+        <v>190</v>
+      </c>
+      <c r="G40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>192</v>
+      </c>
+      <c r="G42" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>193</v>
+      </c>
+      <c r="G43" t="s">
+        <v>211</v>
+      </c>
+      <c r="H43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" t="s">
+        <v>212</v>
+      </c>
+      <c r="H44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
+        <v>195</v>
+      </c>
+      <c r="G45" t="s">
+        <v>213</v>
+      </c>
+      <c r="H45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" t="s">
+        <v>215</v>
+      </c>
+      <c r="H50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" t="s">
+        <v>197</v>
+      </c>
+      <c r="G51" t="s">
+        <v>216</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" t="s">
+        <v>217</v>
+      </c>
+      <c r="H52" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" t="s">
+        <v>245</v>
+      </c>
+      <c r="G53" t="s">
+        <v>245</v>
+      </c>
+      <c r="H53" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" t="s">
+        <v>246</v>
+      </c>
+      <c r="G54" t="s">
+        <v>278</v>
+      </c>
+      <c r="H54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" t="s">
+        <v>247</v>
+      </c>
+      <c r="G55" t="s">
+        <v>279</v>
+      </c>
+      <c r="H55" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" t="s">
+        <v>248</v>
+      </c>
+      <c r="G56" t="s">
+        <v>272</v>
+      </c>
+      <c r="H56" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" t="s">
+        <v>280</v>
+      </c>
+      <c r="H57" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" t="s">
+        <v>134</v>
+      </c>
+      <c r="F58" t="s">
+        <v>250</v>
+      </c>
+      <c r="G58" t="s">
+        <v>281</v>
+      </c>
+      <c r="H58" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" t="s">
+        <v>241</v>
+      </c>
+      <c r="G59" t="s">
+        <v>274</v>
+      </c>
+      <c r="H59" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" t="s">
+        <v>251</v>
+      </c>
+      <c r="G60" t="s">
+        <v>282</v>
+      </c>
+      <c r="H60" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" t="s">
+        <v>243</v>
+      </c>
+      <c r="G61" t="s">
+        <v>275</v>
+      </c>
+      <c r="H61" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" t="s">
+        <v>244</v>
+      </c>
+      <c r="G62" t="s">
+        <v>276</v>
+      </c>
+      <c r="H62" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>309</v>
+      </c>
+      <c r="E63" t="s">
+        <v>310</v>
+      </c>
+      <c r="F63" t="s">
+        <v>311</v>
+      </c>
+      <c r="G63" t="s">
+        <v>312</v>
+      </c>
+      <c r="H63" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" t="s">
+        <v>411</v>
+      </c>
+      <c r="E64" t="s">
+        <v>411</v>
+      </c>
+      <c r="F64" t="s">
+        <v>411</v>
+      </c>
+      <c r="G64" t="s">
+        <v>411</v>
+      </c>
+      <c r="H64" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" t="s">
+        <v>496</v>
+      </c>
+      <c r="E65" t="s">
+        <v>322</v>
+      </c>
+      <c r="F65" t="s">
+        <v>323</v>
+      </c>
+      <c r="G65" t="s">
+        <v>324</v>
+      </c>
+      <c r="H65" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" t="s">
+        <v>334</v>
+      </c>
+      <c r="E66" t="s">
+        <v>335</v>
+      </c>
+      <c r="F66" t="s">
+        <v>336</v>
+      </c>
+      <c r="G66" t="s">
+        <v>338</v>
+      </c>
+      <c r="H66" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" t="s">
+        <v>168</v>
+      </c>
+      <c r="F67" t="s">
+        <v>239</v>
+      </c>
+      <c r="G67" t="s">
+        <v>337</v>
+      </c>
+      <c r="H67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" t="s">
+        <v>240</v>
+      </c>
+      <c r="G68" t="s">
+        <v>273</v>
+      </c>
+      <c r="H68" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" t="s">
+        <v>497</v>
+      </c>
+      <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
+        <v>241</v>
+      </c>
+      <c r="G69" t="s">
+        <v>274</v>
+      </c>
+      <c r="H69" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" t="s">
+        <v>242</v>
+      </c>
+      <c r="G70" t="s">
+        <v>164</v>
+      </c>
+      <c r="H70" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" t="s">
+        <v>498</v>
+      </c>
+      <c r="E71" t="s">
+        <v>529</v>
+      </c>
+      <c r="F71" t="s">
+        <v>530</v>
+      </c>
+      <c r="G71" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" t="s">
+        <v>348</v>
+      </c>
+      <c r="E72" t="s">
+        <v>349</v>
+      </c>
+      <c r="F72" t="s">
+        <v>350</v>
+      </c>
+      <c r="G72" t="s">
+        <v>351</v>
+      </c>
+      <c r="H72" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>552</v>
+      </c>
+      <c r="E73" t="s">
+        <v>447</v>
+      </c>
+      <c r="F73" t="s">
+        <v>448</v>
+      </c>
+      <c r="G73" t="s">
+        <v>449</v>
+      </c>
+      <c r="H73" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" t="s">
+        <v>390</v>
+      </c>
+      <c r="F74" t="s">
+        <v>255</v>
+      </c>
+      <c r="G74" t="s">
+        <v>286</v>
+      </c>
+      <c r="H74" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" t="s">
+        <v>391</v>
+      </c>
+      <c r="F75" t="s">
+        <v>256</v>
+      </c>
+      <c r="G75" t="s">
+        <v>287</v>
+      </c>
+      <c r="H75" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" t="s">
+        <v>392</v>
+      </c>
+      <c r="F76" t="s">
+        <v>257</v>
+      </c>
+      <c r="G76" t="s">
+        <v>288</v>
+      </c>
+      <c r="H76" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" t="s">
+        <v>393</v>
+      </c>
+      <c r="F77" t="s">
+        <v>258</v>
+      </c>
+      <c r="G77" t="s">
+        <v>289</v>
+      </c>
+      <c r="H77" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" t="s">
+        <v>138</v>
+      </c>
+      <c r="F78" t="s">
+        <v>259</v>
+      </c>
+      <c r="G78" t="s">
+        <v>138</v>
+      </c>
+      <c r="H78" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" t="s">
+        <v>394</v>
+      </c>
+      <c r="F79" t="s">
+        <v>260</v>
+      </c>
+      <c r="G79" t="s">
+        <v>290</v>
+      </c>
+      <c r="H79" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" t="s">
+        <v>512</v>
+      </c>
+      <c r="E80" t="s">
+        <v>532</v>
+      </c>
+      <c r="F80" t="s">
+        <v>533</v>
+      </c>
+      <c r="G80" t="s">
+        <v>534</v>
+      </c>
+      <c r="H80" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" t="s">
+        <v>513</v>
+      </c>
+      <c r="E81" t="s">
+        <v>535</v>
+      </c>
+      <c r="F81" t="s">
+        <v>536</v>
+      </c>
+      <c r="G81" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" t="s">
+        <v>503</v>
+      </c>
+      <c r="E82" t="s">
+        <v>538</v>
+      </c>
+      <c r="F82" t="s">
+        <v>539</v>
+      </c>
+      <c r="G82" t="s">
+        <v>540</v>
+      </c>
+      <c r="H82" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
+        <v>252</v>
+      </c>
+      <c r="G83" t="s">
+        <v>283</v>
+      </c>
+      <c r="H83" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
+        <v>253</v>
+      </c>
+      <c r="G84" t="s">
+        <v>284</v>
+      </c>
+      <c r="H84" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" t="s">
+        <v>161</v>
+      </c>
+      <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
+        <v>254</v>
+      </c>
+      <c r="G85" t="s">
+        <v>285</v>
+      </c>
+      <c r="H85" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" t="s">
+        <v>61</v>
+      </c>
+      <c r="E86" t="s">
+        <v>140</v>
+      </c>
+      <c r="F86" t="s">
+        <v>266</v>
+      </c>
+      <c r="G86" t="s">
+        <v>298</v>
+      </c>
+      <c r="H86" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" t="s">
+        <v>362</v>
+      </c>
+      <c r="E87" t="s">
+        <v>363</v>
+      </c>
+      <c r="F87" t="s">
+        <v>364</v>
+      </c>
+      <c r="G87" t="s">
+        <v>365</v>
+      </c>
+      <c r="H87" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" t="s">
+        <v>141</v>
+      </c>
+      <c r="F88" t="s">
+        <v>267</v>
+      </c>
+      <c r="G88" t="s">
+        <v>299</v>
+      </c>
+      <c r="H88" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
+        <v>268</v>
+      </c>
+      <c r="G89" t="s">
+        <v>300</v>
+      </c>
+      <c r="H89" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90" t="s">
+        <v>308</v>
+      </c>
+      <c r="E90" t="s">
+        <v>308</v>
+      </c>
+      <c r="F90" t="s">
+        <v>308</v>
+      </c>
+      <c r="G90" t="s">
+        <v>308</v>
+      </c>
+      <c r="H90" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" t="s">
+        <v>307</v>
+      </c>
+      <c r="D91" t="s">
+        <v>516</v>
+      </c>
+      <c r="E91" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
+        <v>Microsoft &amp; Skype</v>
+      </c>
+      <c r="F91" t="str">
+        <f>Tabelle2[[#This Row],[en]]</f>
+        <v>Microsoft &amp; Skype</v>
+      </c>
+      <c r="G91" t="str">
+        <f>Tabelle2[[#This Row],[fr]]</f>
+        <v>Microsoft &amp; Skype</v>
+      </c>
+      <c r="H91" t="str">
+        <f>Tabelle2[[#This Row],[it]]</f>
+        <v>Microsoft &amp; Skype</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" t="s">
+        <v>371</v>
+      </c>
+      <c r="E92" t="s">
+        <v>156</v>
+      </c>
+      <c r="F92" t="s">
+        <v>265</v>
+      </c>
+      <c r="G92" t="s">
+        <v>297</v>
+      </c>
+      <c r="H92" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" t="s">
+        <v>372</v>
+      </c>
+      <c r="E93" t="s">
+        <v>374</v>
+      </c>
+      <c r="F93" t="s">
+        <v>375</v>
+      </c>
+      <c r="G93" t="s">
+        <v>376</v>
+      </c>
+      <c r="H93" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" t="s">
+        <v>64</v>
+      </c>
+      <c r="D94" t="s">
+        <v>499</v>
+      </c>
+      <c r="E94" t="s">
+        <v>397</v>
+      </c>
+      <c r="F94" t="s">
+        <v>398</v>
+      </c>
+      <c r="G94" t="s">
+        <v>399</v>
+      </c>
+      <c r="H94" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" t="s">
+        <v>484</v>
+      </c>
+      <c r="E95" t="s">
+        <v>485</v>
+      </c>
+      <c r="F95" t="s">
+        <v>486</v>
+      </c>
+      <c r="G95" t="s">
+        <v>400</v>
+      </c>
+      <c r="H95" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>477</v>
+      </c>
+      <c r="C96" t="s">
+        <v>306</v>
+      </c>
+      <c r="D96" t="s">
+        <v>478</v>
+      </c>
+      <c r="E96" t="s">
+        <v>479</v>
+      </c>
+      <c r="F96" t="s">
+        <v>481</v>
+      </c>
+      <c r="G96" t="s">
+        <v>480</v>
+      </c>
+      <c r="H96" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
+        <v>https://de-de.facebook.com/help/405183566203254</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" t="s">
+        <v>306</v>
+      </c>
+      <c r="D97" t="s">
+        <v>514</v>
+      </c>
+      <c r="E97" t="s">
+        <v>541</v>
+      </c>
+      <c r="F97" t="s">
+        <v>542</v>
+      </c>
+      <c r="G97" t="s">
+        <v>543</v>
+      </c>
+      <c r="H97" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" t="s">
+        <v>307</v>
+      </c>
+      <c r="D98" t="s">
+        <v>515</v>
+      </c>
+      <c r="E98" t="s">
+        <v>515</v>
+      </c>
+      <c r="F98" t="s">
+        <v>515</v>
+      </c>
+      <c r="G98" t="s">
+        <v>515</v>
+      </c>
+      <c r="H98" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" t="s">
+        <v>125</v>
+      </c>
+      <c r="F99" t="s">
+        <v>236</v>
+      </c>
+      <c r="G99" t="s">
+        <v>269</v>
+      </c>
+      <c r="H99" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>72</v>
+      </c>
+      <c r="E100" t="s">
+        <v>68</v>
+      </c>
+      <c r="F100" t="s">
+        <v>68</v>
+      </c>
+      <c r="G100" t="s">
+        <v>68</v>
+      </c>
+      <c r="H100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" t="s">
+        <v>121</v>
+      </c>
+      <c r="D101" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" t="s">
+        <v>237</v>
+      </c>
+      <c r="G101" t="s">
+        <v>270</v>
+      </c>
+      <c r="H101" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102" t="s">
+        <v>74</v>
+      </c>
+      <c r="E102" t="s">
+        <v>127</v>
+      </c>
+      <c r="F102" t="s">
+        <v>238</v>
+      </c>
+      <c r="G102" t="s">
+        <v>361</v>
+      </c>
+      <c r="H102" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" t="s">
+        <v>119</v>
+      </c>
+      <c r="D103" t="s">
+        <v>506</v>
+      </c>
+      <c r="E103" t="s">
+        <v>544</v>
+      </c>
+      <c r="F103" t="s">
+        <v>546</v>
+      </c>
+      <c r="G103" t="s">
+        <v>545</v>
+      </c>
+      <c r="H103" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" t="s">
+        <v>120</v>
+      </c>
+      <c r="D104" t="s">
+        <v>527</v>
+      </c>
+      <c r="E104" t="s">
+        <v>450</v>
+      </c>
+      <c r="F104" t="s">
+        <v>451</v>
+      </c>
+      <c r="G104" t="s">
+        <v>452</v>
+      </c>
+      <c r="H104" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105" t="s">
+        <v>528</v>
+      </c>
+      <c r="E105" t="s">
+        <v>453</v>
+      </c>
+      <c r="F105" t="s">
+        <v>454</v>
+      </c>
+      <c r="G105" t="s">
+        <v>455</v>
+      </c>
+      <c r="H105" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106" t="s">
+        <v>395</v>
+      </c>
+      <c r="F106" t="s">
+        <v>262</v>
+      </c>
+      <c r="G106" t="s">
+        <v>291</v>
+      </c>
+      <c r="H106" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>72</v>
+      </c>
+      <c r="E107" t="s">
+        <v>68</v>
+      </c>
+      <c r="F107" t="s">
+        <v>68</v>
+      </c>
+      <c r="G107" t="s">
+        <v>68</v>
+      </c>
+      <c r="H107" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" t="s">
+        <v>73</v>
+      </c>
+      <c r="E108" t="s">
+        <v>396</v>
+      </c>
+      <c r="F108" t="s">
+        <v>261</v>
+      </c>
+      <c r="G108" t="s">
+        <v>292</v>
+      </c>
+      <c r="H108" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109" t="s">
+        <v>74</v>
+      </c>
+      <c r="E109" t="s">
+        <v>70</v>
+      </c>
+      <c r="F109" t="s">
+        <v>238</v>
+      </c>
+      <c r="G109" t="s">
+        <v>271</v>
+      </c>
+      <c r="H109" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>413</v>
+      </c>
+      <c r="B110" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" t="s">
+        <v>320</v>
+      </c>
+      <c r="D110" t="s">
+        <v>500</v>
+      </c>
+      <c r="E110" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
+        <v>Swiss Lawful Interception Report 2015</v>
+      </c>
+      <c r="F110" t="str">
+        <f>Tabelle2[[#This Row],[en]]</f>
+        <v>Swiss Lawful Interception Report 2015</v>
+      </c>
+      <c r="G110" t="str">
+        <f>Tabelle2[[#This Row],[fr]]</f>
+        <v>Swiss Lawful Interception Report 2015</v>
+      </c>
+      <c r="H110" t="str">
+        <f>Tabelle2[[#This Row],[it]]</f>
+        <v>Swiss Lawful Interception Report 2015</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>413</v>
+      </c>
+      <c r="B111" t="s">
+        <v>414</v>
+      </c>
+      <c r="C111" t="s">
+        <v>320</v>
+      </c>
+      <c r="D111" t="s">
+        <v>442</v>
+      </c>
+      <c r="E111" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
+      </c>
+      <c r="F111" t="str">
+        <f>Tabelle2[[#This Row],[en]]</f>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
+      </c>
+      <c r="G111" t="str">
+        <f>Tabelle2[[#This Row],[fr]]</f>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
+      </c>
+      <c r="H111" t="str">
+        <f>Tabelle2[[#This Row],[it]]</f>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>313</v>
+      </c>
+      <c r="B112" t="s">
+        <v>63</v>
+      </c>
+      <c r="C112" t="s">
+        <v>412</v>
+      </c>
+      <c r="D112" t="s">
+        <v>507</v>
+      </c>
+      <c r="E112" t="s">
+        <v>509</v>
+      </c>
+      <c r="F112" t="s">
+        <v>508</v>
+      </c>
+      <c r="G112" t="s">
+        <v>510</v>
+      </c>
+      <c r="H112" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>313</v>
+      </c>
+      <c r="B113" t="s">
+        <v>63</v>
+      </c>
+      <c r="C113" t="s">
+        <v>314</v>
+      </c>
+      <c r="D113" t="s">
+        <v>495</v>
+      </c>
+      <c r="E113" t="s">
+        <v>547</v>
+      </c>
+      <c r="F113" t="s">
+        <v>548</v>
+      </c>
+      <c r="G113" t="s">
+        <v>549</v>
+      </c>
+      <c r="H113" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>313</v>
+      </c>
+      <c r="B114" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" t="s">
+        <v>494</v>
+      </c>
+      <c r="D114" t="s">
+        <v>505</v>
+      </c>
+      <c r="E114" t="s">
+        <v>491</v>
+      </c>
+      <c r="F114" t="s">
+        <v>492</v>
+      </c>
+      <c r="G114" t="s">
+        <v>493</v>
+      </c>
+      <c r="H114" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>313</v>
+      </c>
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" t="s">
+        <v>519</v>
+      </c>
+      <c r="D115" t="s">
+        <v>521</v>
+      </c>
+      <c r="E115" t="s">
+        <v>517</v>
+      </c>
+      <c r="F115" t="s">
+        <v>520</v>
+      </c>
+      <c r="G115" t="s">
+        <v>518</v>
+      </c>
+      <c r="H115" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>313</v>
+      </c>
+      <c r="B116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" t="s">
+        <v>490</v>
+      </c>
+      <c r="D116" t="str">
+        <f>CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",D111,"' title='",D110,"' target='_blank'&gt;",D110,"&lt;/a&gt;")</f>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" ref="E116:H116" si="0">CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",E111,"' title='",E110,"' target='_blank'&gt;",E110,"&lt;/a&gt;")</f>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" t="s">
+        <v>320</v>
+      </c>
+      <c r="D117" t="str">
+        <f>CONCATENATE(D114,D116)</f>
+        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" ref="E117:H117" si="1">CONCATENATE(E114,E116,E115)</f>
+        <v>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="1"/>
+        <v>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="1"/>
+        <v>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
+      </c>
+      <c r="H117" t="str">
+        <f>CONCATENATE(H114,H116,H115)</f>
+        <v>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>313</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" t="s">
+        <v>321</v>
+      </c>
+      <c r="D118" t="s">
+        <v>551</v>
+      </c>
+      <c r="E118" t="s">
+        <v>456</v>
+      </c>
+      <c r="F118" t="s">
+        <v>457</v>
+      </c>
+      <c r="G118" t="s">
+        <v>458</v>
+      </c>
+      <c r="H118" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -8,8 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
+    <sheet name="Blatt1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="slirv_translations" localSheetId="1">Blatt1!$A$2:$H$117</definedName>
     <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$117</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="558">
   <si>
     <t>typ</t>
   </si>
@@ -1693,6 +1695,32 @@
   </si>
   <si>
     <t>Die Digitale Gesellschaft ist ein offener Zusammenschluss netzpolitisch interessierter Kreise. Dem Bündnis angeschlossen sind rund 50 Einzelpersonen und 15 Gruppierungen. Dazu gehören Grundrechtsorganisationen, Parteien, KünstlerInnen-Kollektive, BetreiberInnen von Netzwerkdiensten und weiteren Gruppen, die sich der kritischen, digitalen Zivilgesellschaft verpflichtet fühlen. &lt;br&gt;&lt;br&gt;Weitere Informationen zu netzpolitischen Themen sind im Blog zu finden: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">midar an modi maletg antir
+</t>
+  </si>
+  <si>
+    <t>tradiment da la patria, desarar malsongas humanas, abus d'uffezi,
+servetsch d'infurmaziun scumando</t>
+  </si>
+  <si>
+    <t>Visualisaziun digl Spiunadi digl Stadi an Svizzra</t>
+  </si>
+  <si>
+    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1773,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1762,12 +1790,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB8CCE4"/>
         <bgColor rgb="FFB8CCE4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1795,7 +1817,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="249">
+  <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1986,6 +2008,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2075,14 +2101,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="249">
+  <cellStyles count="253">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2215,6 +2241,8 @@
     <cellStyle name="Besuchter Link" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2331,6 +2359,8 @@
     <cellStyle name="Link" xfId="243" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="245" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -2400,9 +2430,17 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J117" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J117"/>
+  <autoFilter ref="A1:J117">
+    <filterColumn colId="9">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" name="group" dataDxfId="9"/>
     <tableColumn id="2" name="typ" dataDxfId="8"/>
@@ -2741,10 +2779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3038,11 +3077,9 @@
         <v>355</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
@@ -3319,10 +3356,13 @@
       <c r="G19" s="1" t="s">
         <v>517</v>
       </c>
+      <c r="H19" s="1" t="s">
+        <v>550</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -3382,7 +3422,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="45">
+    <row r="22" spans="1:10" ht="45" hidden="1">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -4808,7 +4848,9 @@
       <c r="G70" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="H70" s="10"/>
+      <c r="H70" s="10" t="s">
+        <v>551</v>
+      </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
     </row>
@@ -5086,7 +5128,10 @@
       <c r="G80" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H80" s="11"/>
+      <c r="H80" s="11" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
+        <v>Strukturierte Gruppe, welche sich mittels Gewaltverbrechen oder sich durch verbrecherische Mittel um Einkünfte bereichert. Bsp. Mafia oder Djihad-Reisende</v>
+      </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
     </row>
@@ -5112,8 +5157,9 @@
       <c r="G81" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="H81" s="11" t="s">
-        <v>393</v>
+      <c r="H81" s="11" t="str">
+        <f>Tabelle2[[#This Row],[de]]</f>
+        <v>Menschen anwerben, anbieten, vermitteln oder beherbergen durch Anwendung unerlaubter Mittel wie Täuschung, Drohung oder Nötigung zum Zwecke der Ausbeutung.</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
@@ -5486,7 +5532,7 @@
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" ht="45">
+    <row r="95" spans="1:10" ht="45" hidden="1">
       <c r="A95" s="4" t="s">
         <v>0</v>
       </c>
@@ -5575,7 +5621,7 @@
       <c r="I97" s="6"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98" s="4" t="s">
         <v>111</v>
       </c>
@@ -5661,7 +5707,7 @@
       <c r="I100" s="6"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101" s="4" t="s">
         <v>111</v>
       </c>
@@ -5691,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102" s="4" t="s">
         <v>111</v>
       </c>
@@ -5889,7 +5935,7 @@
       <c r="I108" s="6"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" s="1" customFormat="1">
+    <row r="109" spans="1:10" s="1" customFormat="1" hidden="1">
       <c r="A109" s="1" t="s">
         <v>395</v>
       </c>
@@ -6017,7 +6063,7 @@
       <c r="I112" s="6"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" ht="120">
+    <row r="113" spans="1:10" ht="120" hidden="1">
       <c r="A113" s="4" t="s">
         <v>306</v>
       </c>
@@ -6047,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="30">
+    <row r="114" spans="1:10" ht="30" hidden="1">
       <c r="A114" s="4" t="s">
         <v>306</v>
       </c>
@@ -6077,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="135">
+    <row r="115" spans="1:10" ht="135" hidden="1">
       <c r="A115" s="4" t="s">
         <v>306</v>
       </c>
@@ -6185,4 +6231,2797 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>511</v>
+      </c>
+      <c r="E9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9" t="s">
+        <v>355</v>
+      </c>
+      <c r="H9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G10" t="s">
+        <v>367</v>
+      </c>
+      <c r="H10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>368</v>
+      </c>
+      <c r="H11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" t="s">
+        <v>361</v>
+      </c>
+      <c r="E13" t="s">
+        <v>361</v>
+      </c>
+      <c r="F13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G13" t="s">
+        <v>361</v>
+      </c>
+      <c r="H13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" t="s">
+        <v>362</v>
+      </c>
+      <c r="E14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F14" t="s">
+        <v>364</v>
+      </c>
+      <c r="G14" t="s">
+        <v>366</v>
+      </c>
+      <c r="H14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>394</v>
+      </c>
+      <c r="D15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E15" t="s">
+        <v>404</v>
+      </c>
+      <c r="F15" t="s">
+        <v>405</v>
+      </c>
+      <c r="G15" t="s">
+        <v>406</v>
+      </c>
+      <c r="H15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>323</v>
+      </c>
+      <c r="F16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G16" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" t="s">
+        <v>292</v>
+      </c>
+      <c r="H17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>408</v>
+      </c>
+      <c r="D18" t="s">
+        <v>409</v>
+      </c>
+      <c r="E18" t="s">
+        <v>409</v>
+      </c>
+      <c r="F18" t="s">
+        <v>408</v>
+      </c>
+      <c r="G18" t="s">
+        <v>410</v>
+      </c>
+      <c r="H18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D19" t="s">
+        <v>514</v>
+      </c>
+      <c r="E19" t="s">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>516</v>
+      </c>
+      <c r="G19" t="s">
+        <v>517</v>
+      </c>
+      <c r="H19" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" t="s">
+        <v>458</v>
+      </c>
+      <c r="E20" t="s">
+        <v>417</v>
+      </c>
+      <c r="F20" t="s">
+        <v>418</v>
+      </c>
+      <c r="G20" t="s">
+        <v>419</v>
+      </c>
+      <c r="H20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>432</v>
+      </c>
+      <c r="D21" t="s">
+        <v>437</v>
+      </c>
+      <c r="E21" t="s">
+        <v>437</v>
+      </c>
+      <c r="F21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G21" t="s">
+        <v>438</v>
+      </c>
+      <c r="H21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>433</v>
+      </c>
+      <c r="D22" t="s">
+        <v>435</v>
+      </c>
+      <c r="E22" t="s">
+        <v>440</v>
+      </c>
+      <c r="F22" t="s">
+        <v>441</v>
+      </c>
+      <c r="G22" t="s">
+        <v>442</v>
+      </c>
+      <c r="H22" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>434</v>
+      </c>
+      <c r="D23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E23" t="s">
+        <v>444</v>
+      </c>
+      <c r="F23" t="s">
+        <v>445</v>
+      </c>
+      <c r="G23" t="s">
+        <v>446</v>
+      </c>
+      <c r="H23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" t="s">
+        <v>233</v>
+      </c>
+      <c r="H24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" t="s">
+        <v>310</v>
+      </c>
+      <c r="F25" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" t="s">
+        <v>312</v>
+      </c>
+      <c r="H25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>190</v>
+      </c>
+      <c r="G39" t="s">
+        <v>208</v>
+      </c>
+      <c r="H39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>191</v>
+      </c>
+      <c r="G40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>192</v>
+      </c>
+      <c r="G41" t="s">
+        <v>210</v>
+      </c>
+      <c r="H41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G42" t="s">
+        <v>211</v>
+      </c>
+      <c r="H42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H46" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" t="s">
+        <v>213</v>
+      </c>
+      <c r="H47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" t="s">
+        <v>195</v>
+      </c>
+      <c r="G48" t="s">
+        <v>214</v>
+      </c>
+      <c r="H48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G50" t="s">
+        <v>243</v>
+      </c>
+      <c r="H50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G51" t="s">
+        <v>275</v>
+      </c>
+      <c r="H51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" t="s">
+        <v>245</v>
+      </c>
+      <c r="G52" t="s">
+        <v>276</v>
+      </c>
+      <c r="H52" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" t="s">
+        <v>246</v>
+      </c>
+      <c r="G53" t="s">
+        <v>269</v>
+      </c>
+      <c r="H53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" t="s">
+        <v>247</v>
+      </c>
+      <c r="G54" t="s">
+        <v>277</v>
+      </c>
+      <c r="H54" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" t="s">
+        <v>248</v>
+      </c>
+      <c r="G55" t="s">
+        <v>278</v>
+      </c>
+      <c r="H55" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" t="s">
+        <v>239</v>
+      </c>
+      <c r="G56" t="s">
+        <v>271</v>
+      </c>
+      <c r="H56" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" t="s">
+        <v>279</v>
+      </c>
+      <c r="H57" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" t="s">
+        <v>134</v>
+      </c>
+      <c r="F58" t="s">
+        <v>241</v>
+      </c>
+      <c r="G58" t="s">
+        <v>272</v>
+      </c>
+      <c r="H58" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" t="s">
+        <v>242</v>
+      </c>
+      <c r="G59" t="s">
+        <v>273</v>
+      </c>
+      <c r="H59" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" t="s">
+        <v>302</v>
+      </c>
+      <c r="E60" t="s">
+        <v>303</v>
+      </c>
+      <c r="F60" t="s">
+        <v>304</v>
+      </c>
+      <c r="G60" t="s">
+        <v>305</v>
+      </c>
+      <c r="H60" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" t="s">
+        <v>393</v>
+      </c>
+      <c r="E61" t="s">
+        <v>393</v>
+      </c>
+      <c r="F61" t="s">
+        <v>393</v>
+      </c>
+      <c r="G61" t="s">
+        <v>393</v>
+      </c>
+      <c r="H61" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" t="s">
+        <v>466</v>
+      </c>
+      <c r="E62" t="s">
+        <v>315</v>
+      </c>
+      <c r="F62" t="s">
+        <v>316</v>
+      </c>
+      <c r="G62" t="s">
+        <v>317</v>
+      </c>
+      <c r="H62" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" t="s">
+        <v>324</v>
+      </c>
+      <c r="E63" t="s">
+        <v>325</v>
+      </c>
+      <c r="F63" t="s">
+        <v>326</v>
+      </c>
+      <c r="G63" t="s">
+        <v>328</v>
+      </c>
+      <c r="H63" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" t="s">
+        <v>166</v>
+      </c>
+      <c r="F64" t="s">
+        <v>237</v>
+      </c>
+      <c r="G64" t="s">
+        <v>327</v>
+      </c>
+      <c r="H64" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F65" t="s">
+        <v>238</v>
+      </c>
+      <c r="G65" t="s">
+        <v>270</v>
+      </c>
+      <c r="H65" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>467</v>
+      </c>
+      <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
+        <v>239</v>
+      </c>
+      <c r="G66" t="s">
+        <v>271</v>
+      </c>
+      <c r="H66" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" t="s">
+        <v>240</v>
+      </c>
+      <c r="G67" t="s">
+        <v>162</v>
+      </c>
+      <c r="H67" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" t="s">
+        <v>468</v>
+      </c>
+      <c r="E68" t="s">
+        <v>490</v>
+      </c>
+      <c r="F68" t="s">
+        <v>491</v>
+      </c>
+      <c r="G68" t="s">
+        <v>492</v>
+      </c>
+      <c r="H68" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" t="s">
+        <v>335</v>
+      </c>
+      <c r="E69" t="s">
+        <v>336</v>
+      </c>
+      <c r="F69" t="s">
+        <v>337</v>
+      </c>
+      <c r="G69" t="s">
+        <v>338</v>
+      </c>
+      <c r="H69" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" t="s">
+        <v>512</v>
+      </c>
+      <c r="E70" t="s">
+        <v>422</v>
+      </c>
+      <c r="F70" t="s">
+        <v>423</v>
+      </c>
+      <c r="G70" t="s">
+        <v>424</v>
+      </c>
+      <c r="H70" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" t="s">
+        <v>373</v>
+      </c>
+      <c r="F71" t="s">
+        <v>253</v>
+      </c>
+      <c r="G71" t="s">
+        <v>283</v>
+      </c>
+      <c r="H71" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" t="s">
+        <v>374</v>
+      </c>
+      <c r="F72" t="s">
+        <v>254</v>
+      </c>
+      <c r="G72" t="s">
+        <v>284</v>
+      </c>
+      <c r="H72" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" t="s">
+        <v>375</v>
+      </c>
+      <c r="F73" t="s">
+        <v>255</v>
+      </c>
+      <c r="G73" t="s">
+        <v>285</v>
+      </c>
+      <c r="H73" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" t="s">
+        <v>376</v>
+      </c>
+      <c r="F74" t="s">
+        <v>256</v>
+      </c>
+      <c r="G74" t="s">
+        <v>286</v>
+      </c>
+      <c r="H74" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
+        <v>257</v>
+      </c>
+      <c r="G75" t="s">
+        <v>136</v>
+      </c>
+      <c r="H75" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76" t="s">
+        <v>377</v>
+      </c>
+      <c r="F76" t="s">
+        <v>258</v>
+      </c>
+      <c r="G76" t="s">
+        <v>287</v>
+      </c>
+      <c r="H76" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" t="s">
+        <v>479</v>
+      </c>
+      <c r="E77" t="s">
+        <v>493</v>
+      </c>
+      <c r="F77" t="s">
+        <v>494</v>
+      </c>
+      <c r="G77" t="s">
+        <v>495</v>
+      </c>
+      <c r="H77" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" t="s">
+        <v>548</v>
+      </c>
+      <c r="E78" t="s">
+        <v>496</v>
+      </c>
+      <c r="F78" t="s">
+        <v>497</v>
+      </c>
+      <c r="G78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H78" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" t="s">
+        <v>471</v>
+      </c>
+      <c r="E79" t="s">
+        <v>499</v>
+      </c>
+      <c r="F79" t="s">
+        <v>500</v>
+      </c>
+      <c r="G79" t="s">
+        <v>501</v>
+      </c>
+      <c r="H79" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
+        <v>250</v>
+      </c>
+      <c r="G80" t="s">
+        <v>280</v>
+      </c>
+      <c r="H80" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
+        <v>251</v>
+      </c>
+      <c r="G81" t="s">
+        <v>281</v>
+      </c>
+      <c r="H81" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
+        <v>252</v>
+      </c>
+      <c r="G82" t="s">
+        <v>282</v>
+      </c>
+      <c r="H82" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" t="s">
+        <v>138</v>
+      </c>
+      <c r="F83" t="s">
+        <v>263</v>
+      </c>
+      <c r="G83" t="s">
+        <v>294</v>
+      </c>
+      <c r="H83" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" t="s">
+        <v>348</v>
+      </c>
+      <c r="E84" t="s">
+        <v>349</v>
+      </c>
+      <c r="F84" t="s">
+        <v>350</v>
+      </c>
+      <c r="G84" t="s">
+        <v>351</v>
+      </c>
+      <c r="H84" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" t="s">
+        <v>264</v>
+      </c>
+      <c r="G85" t="s">
+        <v>295</v>
+      </c>
+      <c r="H85" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
+        <v>265</v>
+      </c>
+      <c r="G86" t="s">
+        <v>296</v>
+      </c>
+      <c r="H86" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" t="s">
+        <v>299</v>
+      </c>
+      <c r="D87" t="s">
+        <v>301</v>
+      </c>
+      <c r="E87" t="s">
+        <v>301</v>
+      </c>
+      <c r="F87" t="s">
+        <v>301</v>
+      </c>
+      <c r="G87" t="s">
+        <v>301</v>
+      </c>
+      <c r="H87" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" t="s">
+        <v>300</v>
+      </c>
+      <c r="D88" t="s">
+        <v>482</v>
+      </c>
+      <c r="E88" t="s">
+        <v>482</v>
+      </c>
+      <c r="F88" t="s">
+        <v>482</v>
+      </c>
+      <c r="G88" t="s">
+        <v>482</v>
+      </c>
+      <c r="H88" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" t="s">
+        <v>356</v>
+      </c>
+      <c r="E89" t="s">
+        <v>154</v>
+      </c>
+      <c r="F89" t="s">
+        <v>262</v>
+      </c>
+      <c r="G89" t="s">
+        <v>293</v>
+      </c>
+      <c r="H89" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90" t="s">
+        <v>357</v>
+      </c>
+      <c r="E90" t="s">
+        <v>358</v>
+      </c>
+      <c r="F90" t="s">
+        <v>359</v>
+      </c>
+      <c r="G90" t="s">
+        <v>360</v>
+      </c>
+      <c r="H90" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" t="s">
+        <v>469</v>
+      </c>
+      <c r="E91" t="s">
+        <v>380</v>
+      </c>
+      <c r="F91" t="s">
+        <v>381</v>
+      </c>
+      <c r="G91" t="s">
+        <v>382</v>
+      </c>
+      <c r="H91" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" t="s">
+        <v>455</v>
+      </c>
+      <c r="E92" t="s">
+        <v>456</v>
+      </c>
+      <c r="F92" t="s">
+        <v>457</v>
+      </c>
+      <c r="G92" t="s">
+        <v>383</v>
+      </c>
+      <c r="H92" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" t="s">
+        <v>480</v>
+      </c>
+      <c r="E93" t="s">
+        <v>502</v>
+      </c>
+      <c r="F93" t="s">
+        <v>503</v>
+      </c>
+      <c r="G93" t="s">
+        <v>504</v>
+      </c>
+      <c r="H93" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" t="s">
+        <v>300</v>
+      </c>
+      <c r="D94" t="s">
+        <v>481</v>
+      </c>
+      <c r="E94" t="s">
+        <v>481</v>
+      </c>
+      <c r="F94" t="s">
+        <v>481</v>
+      </c>
+      <c r="G94" t="s">
+        <v>481</v>
+      </c>
+      <c r="H94" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" t="s">
+        <v>70</v>
+      </c>
+      <c r="E95" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" t="s">
+        <v>66</v>
+      </c>
+      <c r="G95" t="s">
+        <v>66</v>
+      </c>
+      <c r="H95" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" t="s">
+        <v>124</v>
+      </c>
+      <c r="F96" t="s">
+        <v>235</v>
+      </c>
+      <c r="G96" t="s">
+        <v>267</v>
+      </c>
+      <c r="H96" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" t="s">
+        <v>488</v>
+      </c>
+      <c r="E97" t="s">
+        <v>425</v>
+      </c>
+      <c r="F97" t="s">
+        <v>426</v>
+      </c>
+      <c r="G97" t="s">
+        <v>427</v>
+      </c>
+      <c r="H97" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" t="s">
+        <v>489</v>
+      </c>
+      <c r="E98" t="s">
+        <v>428</v>
+      </c>
+      <c r="F98" t="s">
+        <v>429</v>
+      </c>
+      <c r="G98" t="s">
+        <v>430</v>
+      </c>
+      <c r="H98" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="s">
+        <v>65</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" t="s">
+        <v>378</v>
+      </c>
+      <c r="F99" t="s">
+        <v>260</v>
+      </c>
+      <c r="G99" t="s">
+        <v>288</v>
+      </c>
+      <c r="H99" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>64</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100" t="s">
+        <v>70</v>
+      </c>
+      <c r="E100" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100" t="s">
+        <v>66</v>
+      </c>
+      <c r="G100" t="s">
+        <v>66</v>
+      </c>
+      <c r="H100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" t="s">
+        <v>71</v>
+      </c>
+      <c r="E101" t="s">
+        <v>379</v>
+      </c>
+      <c r="F101" t="s">
+        <v>259</v>
+      </c>
+      <c r="G101" t="s">
+        <v>289</v>
+      </c>
+      <c r="H101" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>72</v>
+      </c>
+      <c r="E102" t="s">
+        <v>68</v>
+      </c>
+      <c r="F102" t="s">
+        <v>236</v>
+      </c>
+      <c r="G102" t="s">
+        <v>268</v>
+      </c>
+      <c r="H102" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>395</v>
+      </c>
+      <c r="B103" t="s">
+        <v>396</v>
+      </c>
+      <c r="C103" t="s">
+        <v>313</v>
+      </c>
+      <c r="D103" t="s">
+        <v>420</v>
+      </c>
+      <c r="E103" t="s">
+        <v>420</v>
+      </c>
+      <c r="F103" t="s">
+        <v>420</v>
+      </c>
+      <c r="G103" t="s">
+        <v>420</v>
+      </c>
+      <c r="H103" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>306</v>
+      </c>
+      <c r="B104" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" t="s">
+        <v>394</v>
+      </c>
+      <c r="D104" t="s">
+        <v>474</v>
+      </c>
+      <c r="E104" t="s">
+        <v>476</v>
+      </c>
+      <c r="F104" t="s">
+        <v>475</v>
+      </c>
+      <c r="G104" t="s">
+        <v>477</v>
+      </c>
+      <c r="H104" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>306</v>
+      </c>
+      <c r="B105" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105" t="s">
+        <v>307</v>
+      </c>
+      <c r="D105" t="s">
+        <v>465</v>
+      </c>
+      <c r="E105" t="s">
+        <v>508</v>
+      </c>
+      <c r="F105" t="s">
+        <v>509</v>
+      </c>
+      <c r="G105" t="s">
+        <v>510</v>
+      </c>
+      <c r="H105" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>306</v>
+      </c>
+      <c r="B106" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" t="s">
+        <v>313</v>
+      </c>
+      <c r="D106" t="s">
+        <v>553</v>
+      </c>
+      <c r="E106" t="s">
+        <v>554</v>
+      </c>
+      <c r="F106" t="s">
+        <v>555</v>
+      </c>
+      <c r="G106" t="s">
+        <v>556</v>
+      </c>
+      <c r="H106" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>306</v>
+      </c>
+      <c r="B107" t="s">
+        <v>61</v>
+      </c>
+      <c r="C107" t="s">
+        <v>314</v>
+      </c>
+      <c r="D107" t="s">
+        <v>549</v>
+      </c>
+      <c r="H107" t="s">
+        <v>545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="28320" windowHeight="26640" tabRatio="500"/>
+    <workbookView xWindow="22600" yWindow="2120" windowWidth="28320" windowHeight="26640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
-    <sheet name="Blatt1" sheetId="4" r:id="rId2"/>
+    <sheet name="Blatt1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="slirv_translations" localSheetId="1">Blatt1!$A$2:$H$117</definedName>
     <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$117</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="565">
   <si>
     <t>typ</t>
   </si>
@@ -1721,6 +1720,27 @@
   </si>
   <si>
     <t>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Gruppas structuradas, che sa enritgeschan cun crims da violenza ni oter metels criminals  p.Ex. la mafia ni viagiaturs digl Djihad.</t>
+  </si>
+  <si>
+    <t>Recrutar, porscher, intermediar, ni dar albiert a glieud cun utilisaziun da mettels nunlubias scu fintas, smanatschas ni sforz cun la fignamira d'explotaziun.</t>
+  </si>
+  <si>
+    <t>midar an modi maletg antir</t>
+  </si>
+  <si>
+    <t>tradiment da la patria, desarar malsongas humanas, abus d'uffezi,</t>
+  </si>
+  <si>
+    <t>servetsch d'infurmaziun scumando</t>
+  </si>
+  <si>
+    <t>La Societad Digitala Svizzra publitgescha annual igl “Swiss Lawfull Interception Report” tgi sa tracta sur la survigilaziun digl stadi en Svizzra. La visualisaziun cumplettescha igl report interactiv e mossa detaglià, scu tgi igl Cantuns survigileschan. Chatta or, per tge delicts igls voss dretgs fundamentals reivan restranschia. &lt;br&gt;&lt;br&gt;&lt;small&gt;Las datas ainten quella statistica cuntignan sulettamain mesiras da survigilaziun siva urdan da process penal. Exceptà en missiuns digl IMSI-Catcher, trojan digl stadi ni mesiras da survigilaziun digl servetsch da spiunadi.&lt;/small&gt;</t>
+  </si>
+  <si>
+    <t>La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d’artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila.  &lt;br&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1837,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="253">
+  <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2008,6 +2028,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2108,7 +2130,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="253">
+  <cellStyles count="255">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2243,6 +2265,7 @@
     <cellStyle name="Besuchter Link" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2361,6 +2384,7 @@
     <cellStyle name="Link" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -2427,10 +2451,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -2779,11 +2799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5128,9 +5147,8 @@
       <c r="G80" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H80" s="11" t="str">
-        <f>Tabelle2[[#This Row],[de]]</f>
-        <v>Strukturierte Gruppe, welche sich mittels Gewaltverbrechen oder sich durch verbrecherische Mittel um Einkünfte bereichert. Bsp. Mafia oder Djihad-Reisende</v>
+      <c r="H80" s="11" t="s">
+        <v>558</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
@@ -5157,9 +5175,8 @@
       <c r="G81" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="H81" s="11" t="str">
-        <f>Tabelle2[[#This Row],[de]]</f>
-        <v>Menschen anwerben, anbieten, vermitteln oder beherbergen durch Anwendung unerlaubter Mittel wie Täuschung, Drohung oder Nötigung zum Zwecke der Ausbeutung.</v>
+      <c r="H81" s="11" t="s">
+        <v>559</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
@@ -6235,10 +6252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6734,7 +6751,7 @@
         <v>517</v>
       </c>
       <c r="H19" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7985,7 +8002,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="120" customHeight="1">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -8008,59 +8025,38 @@
         <v>492</v>
       </c>
       <c r="H68" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" t="s">
-        <v>335</v>
-      </c>
-      <c r="E69" t="s">
-        <v>336</v>
-      </c>
-      <c r="F69" t="s">
-        <v>337</v>
-      </c>
-      <c r="G69" t="s">
-        <v>338</v>
-      </c>
       <c r="H69" t="s">
-        <v>339</v>
+        <v>562</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
         <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D70" t="s">
-        <v>512</v>
+        <v>335</v>
       </c>
       <c r="E70" t="s">
-        <v>422</v>
+        <v>336</v>
       </c>
       <c r="F70" t="s">
-        <v>423</v>
+        <v>337</v>
       </c>
       <c r="G70" t="s">
-        <v>424</v>
+        <v>338</v>
       </c>
       <c r="H70" t="s">
-        <v>530</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -8068,25 +8064,25 @@
         <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>512</v>
       </c>
       <c r="E71" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="F71" t="s">
-        <v>253</v>
+        <v>423</v>
       </c>
       <c r="G71" t="s">
-        <v>283</v>
+        <v>424</v>
       </c>
       <c r="H71" t="s">
-        <v>330</v>
+        <v>530</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -8097,22 +8093,22 @@
         <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G72" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H72" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -8123,22 +8119,22 @@
         <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H73" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -8149,22 +8145,22 @@
         <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="E74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F74" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H74" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -8175,22 +8171,22 @@
         <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="E75" t="s">
-        <v>136</v>
+        <v>376</v>
       </c>
       <c r="F75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G75" t="s">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="H75" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -8201,22 +8197,22 @@
         <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E76" t="s">
-        <v>377</v>
+        <v>136</v>
       </c>
       <c r="F76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G76" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="H76" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8224,25 +8220,25 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>479</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
-        <v>493</v>
+        <v>377</v>
       </c>
       <c r="F77" t="s">
-        <v>494</v>
+        <v>258</v>
       </c>
       <c r="G77" t="s">
-        <v>495</v>
+        <v>287</v>
       </c>
       <c r="H77" t="s">
-        <v>531</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8253,22 +8249,22 @@
         <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D78" t="s">
-        <v>548</v>
+        <v>479</v>
       </c>
       <c r="E78" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F78" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G78" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H78" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -8279,22 +8275,22 @@
         <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D79" t="s">
-        <v>471</v>
+        <v>548</v>
       </c>
       <c r="E79" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F79" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G79" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H79" t="s">
-        <v>471</v>
+        <v>558</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8305,22 +8301,22 @@
         <v>61</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>471</v>
       </c>
       <c r="E80" t="s">
-        <v>158</v>
+        <v>499</v>
       </c>
       <c r="F80" t="s">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G80" t="s">
-        <v>280</v>
+        <v>501</v>
       </c>
       <c r="H80" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8331,22 +8327,22 @@
         <v>61</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D81" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E81" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F81" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H81" t="s">
-        <v>340</v>
+        <v>532</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8357,48 +8353,48 @@
         <v>61</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G82" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H82" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="E83" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G83" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H83" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8409,22 +8405,22 @@
         <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D84" t="s">
-        <v>348</v>
+        <v>59</v>
       </c>
       <c r="E84" t="s">
-        <v>349</v>
+        <v>138</v>
       </c>
       <c r="F84" t="s">
-        <v>350</v>
+        <v>263</v>
       </c>
       <c r="G84" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="H84" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8435,22 +8431,22 @@
         <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D85" t="s">
-        <v>63</v>
+        <v>348</v>
       </c>
       <c r="E85" t="s">
-        <v>139</v>
+        <v>349</v>
       </c>
       <c r="F85" t="s">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="G85" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="H85" t="s">
-        <v>533</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8461,22 +8457,22 @@
         <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D86" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E86" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="F86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G86" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H86" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8487,22 +8483,22 @@
         <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>299</v>
+        <v>57</v>
       </c>
       <c r="D87" t="s">
-        <v>301</v>
+        <v>60</v>
       </c>
       <c r="E87" t="s">
-        <v>301</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="G87" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H87" t="s">
-        <v>301</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8513,22 +8509,22 @@
         <v>55</v>
       </c>
       <c r="C88" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D88" t="s">
-        <v>482</v>
+        <v>301</v>
       </c>
       <c r="E88" t="s">
-        <v>482</v>
+        <v>301</v>
       </c>
       <c r="F88" t="s">
-        <v>482</v>
+        <v>301</v>
       </c>
       <c r="G88" t="s">
-        <v>482</v>
+        <v>301</v>
       </c>
       <c r="H88" t="s">
-        <v>482</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8536,25 +8532,25 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="D89" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="E89" t="s">
-        <v>154</v>
+        <v>482</v>
       </c>
       <c r="F89" t="s">
-        <v>262</v>
+        <v>482</v>
       </c>
       <c r="G89" t="s">
-        <v>293</v>
+        <v>482</v>
       </c>
       <c r="H89" t="s">
-        <v>535</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8565,22 +8561,22 @@
         <v>61</v>
       </c>
       <c r="C90" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D90" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E90" t="s">
-        <v>358</v>
+        <v>154</v>
       </c>
       <c r="F90" t="s">
-        <v>359</v>
+        <v>262</v>
       </c>
       <c r="G90" t="s">
-        <v>360</v>
+        <v>293</v>
       </c>
       <c r="H90" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8591,22 +8587,22 @@
         <v>61</v>
       </c>
       <c r="C91" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D91" t="s">
-        <v>469</v>
+        <v>357</v>
       </c>
       <c r="E91" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="F91" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="G91" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="H91" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8617,22 +8613,22 @@
         <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D92" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="E92" t="s">
-        <v>456</v>
+        <v>380</v>
       </c>
       <c r="F92" t="s">
-        <v>457</v>
+        <v>381</v>
       </c>
       <c r="G92" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H92" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8643,22 +8639,22 @@
         <v>61</v>
       </c>
       <c r="C93" t="s">
-        <v>299</v>
+        <v>57</v>
       </c>
       <c r="D93" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="E93" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
       <c r="F93" t="s">
-        <v>503</v>
+        <v>457</v>
       </c>
       <c r="G93" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="H93" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8669,48 +8665,48 @@
         <v>61</v>
       </c>
       <c r="C94" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D94" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E94" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="F94" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="G94" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="H94" t="s">
-        <v>481</v>
+        <v>547</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
+        <v>300</v>
       </c>
       <c r="D95" t="s">
-        <v>70</v>
+        <v>481</v>
       </c>
       <c r="E95" t="s">
-        <v>66</v>
+        <v>481</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>481</v>
       </c>
       <c r="G95" t="s">
-        <v>66</v>
+        <v>481</v>
       </c>
       <c r="H95" t="s">
-        <v>66</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8721,22 +8717,22 @@
         <v>55</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="D96" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E96" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="F96" t="s">
-        <v>235</v>
+        <v>66</v>
       </c>
       <c r="G96" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="H96" t="s">
-        <v>332</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8744,25 +8740,25 @@
         <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D97" t="s">
-        <v>488</v>
+        <v>120</v>
       </c>
       <c r="E97" t="s">
-        <v>425</v>
+        <v>124</v>
       </c>
       <c r="F97" t="s">
-        <v>426</v>
+        <v>235</v>
       </c>
       <c r="G97" t="s">
-        <v>427</v>
+        <v>267</v>
       </c>
       <c r="H97" t="s">
-        <v>541</v>
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8773,48 +8769,48 @@
         <v>61</v>
       </c>
       <c r="C98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D98" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E98" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G98" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H98" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="D99" t="s">
-        <v>69</v>
+        <v>489</v>
       </c>
       <c r="E99" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="F99" t="s">
-        <v>260</v>
+        <v>429</v>
       </c>
       <c r="G99" t="s">
-        <v>288</v>
+        <v>430</v>
       </c>
       <c r="H99" t="s">
-        <v>344</v>
+        <v>542</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8825,22 +8821,22 @@
         <v>55</v>
       </c>
       <c r="C100" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E100" t="s">
-        <v>66</v>
+        <v>378</v>
       </c>
       <c r="F100" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G100" t="s">
-        <v>66</v>
+        <v>288</v>
       </c>
       <c r="H100" t="s">
-        <v>66</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8851,22 +8847,22 @@
         <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E101" t="s">
-        <v>379</v>
+        <v>66</v>
       </c>
       <c r="F101" t="s">
-        <v>259</v>
+        <v>66</v>
       </c>
       <c r="G101" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="H101" t="s">
-        <v>345</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8877,74 +8873,74 @@
         <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D102" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E102" t="s">
-        <v>68</v>
+        <v>379</v>
       </c>
       <c r="F102" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="G102" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="H102" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>395</v>
+        <v>64</v>
       </c>
       <c r="B103" t="s">
-        <v>396</v>
+        <v>55</v>
       </c>
       <c r="C103" t="s">
-        <v>313</v>
+        <v>68</v>
       </c>
       <c r="D103" t="s">
-        <v>420</v>
+        <v>72</v>
       </c>
       <c r="E103" t="s">
-        <v>420</v>
+        <v>68</v>
       </c>
       <c r="F103" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="G103" t="s">
-        <v>420</v>
+        <v>268</v>
       </c>
       <c r="H103" t="s">
-        <v>420</v>
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="B104" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="C104" t="s">
-        <v>394</v>
+        <v>313</v>
       </c>
       <c r="D104" t="s">
-        <v>474</v>
+        <v>420</v>
       </c>
       <c r="E104" t="s">
-        <v>476</v>
+        <v>420</v>
       </c>
       <c r="F104" t="s">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="G104" t="s">
-        <v>477</v>
+        <v>420</v>
       </c>
       <c r="H104" t="s">
-        <v>478</v>
+        <v>420</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8955,22 +8951,22 @@
         <v>61</v>
       </c>
       <c r="C105" t="s">
-        <v>307</v>
+        <v>394</v>
       </c>
       <c r="D105" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="E105" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="F105" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="G105" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="H105" t="s">
-        <v>543</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8981,22 +8977,22 @@
         <v>61</v>
       </c>
       <c r="C106" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D106" t="s">
-        <v>553</v>
+        <v>465</v>
       </c>
       <c r="E106" t="s">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="F106" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
       <c r="G106" t="s">
-        <v>556</v>
+        <v>510</v>
       </c>
       <c r="H106" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -9007,13 +9003,39 @@
         <v>61</v>
       </c>
       <c r="C107" t="s">
+        <v>313</v>
+      </c>
+      <c r="D107" t="s">
+        <v>553</v>
+      </c>
+      <c r="E107" t="s">
+        <v>554</v>
+      </c>
+      <c r="F107" t="s">
+        <v>555</v>
+      </c>
+      <c r="G107" t="s">
+        <v>556</v>
+      </c>
+      <c r="H107" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>306</v>
+      </c>
+      <c r="B108" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" t="s">
         <v>314</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>549</v>
       </c>
-      <c r="H107" t="s">
-        <v>545</v>
+      <c r="H108" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22600" yWindow="2120" windowWidth="28320" windowHeight="26640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="19160" yWindow="5700" windowWidth="27760" windowHeight="19560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
-    <sheet name="Blatt1" sheetId="5" r:id="rId2"/>
+    <sheet name="Blatt1" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$117</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="565">
   <si>
     <t>typ</t>
   </si>
@@ -1655,19 +1655,10 @@
     <t>copia da contract, copia dal quint</t>
   </si>
   <si>
-    <t>A tgi tutga ena determinada nomra da telefon ni adressa dal protocol d’internet tar en fix temp.</t>
-  </si>
-  <si>
     <t>metadati da sis mais passà p.ex. tgi che ha utilisar una adressa ip cura. Metainformaziuns digls davos sis meis, tgi ha communitgia cura cun tgi.</t>
   </si>
   <si>
-    <t>tschertgar d’antennas mobilas</t>
-  </si>
-  <si>
     <t>ordinara survigilaziun telefonica</t>
-  </si>
-  <si>
-    <t>Tschertga d’ antennas, er numno dumandada da cellas radiofonicas ni persecuziun en schema, tschiffa tot igls telefons mobils an ena regiun.</t>
   </si>
   <si>
     <t>Tschertga neccessitada, per la tschertga e salvamaint da persunas sparidas ni persunas fugitivas.</t>
@@ -1680,14 +1671,7 @@
     <t>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d’artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila.  &lt;br&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;
-</t>
-  </si>
-  <si>
     <t>&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>account d’uttilisaders da facebook. Quella &lt;a href='https://de-de.facebook.com/help/405183566203254' target='_blank'&gt;lista dallas datas da facebook&lt;/a&gt; mossan se la dimensiun</t>
   </si>
   <si>
     <t>Strukturierte Gruppe, welche sich mittels Gewaltverbrechen oder sich durch verbrecherische Mittel um Einkünfte bereichert. Bsp. Mafia oder Djihad-Reisende</t>
@@ -1740,7 +1724,23 @@
     <t>La Societad Digitala Svizzra publitgescha annual igl “Swiss Lawfull Interception Report” tgi sa tracta sur la survigilaziun digl stadi en Svizzra. La visualisaziun cumplettescha igl report interactiv e mossa detaglià, scu tgi igl Cantuns survigileschan. Chatta or, per tge delicts igls voss dretgs fundamentals reivan restranschia. &lt;br&gt;&lt;br&gt;&lt;small&gt;Las datas ainten quella statistica cuntignan sulettamain mesiras da survigilaziun siva urdan da process penal. Exceptà en missiuns digl IMSI-Catcher, trojan digl stadi ni mesiras da survigilaziun digl servetsch da spiunadi.&lt;/small&gt;</t>
   </si>
   <si>
-    <t>La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d’artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila.  &lt;br&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
+    <t>account d'uttilisaders da facebook. Quella &lt;a href='https://de-de.facebook.com/help/405183566203254' target='_blank'&gt;lista dallas datas da facebook&lt;/a&gt; mossan se la dimensiun</t>
+  </si>
+  <si>
+    <t>A tgi tutga ena determinada nomra da telefon ni adressa dal protocol d'internet tar en fix temp.</t>
+  </si>
+  <si>
+    <t>tschertgar d'antennas mobilas</t>
+  </si>
+  <si>
+    <t>Tschertga d'antennas, er numno dumandada da cellas radiofonicas ni persecuziun en schema, tschiffa tot igls telefons mobils an ena regiun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;
+</t>
+  </si>
+  <si>
+    <t>La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1837,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="255">
+  <cellStyleXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2028,6 +2028,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2130,7 +2134,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="255">
+  <cellStyles count="259">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2266,6 +2270,8 @@
     <cellStyle name="Besuchter Link" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="258" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2385,6 +2391,8 @@
     <cellStyle name="Link" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="257" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -3096,7 +3104,7 @@
         <v>355</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
@@ -3376,7 +3384,7 @@
         <v>517</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
@@ -4868,7 +4876,7 @@
         <v>492</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
@@ -5136,7 +5144,7 @@
         <v>95</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>496</v>
@@ -5148,7 +5156,7 @@
         <v>498</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
@@ -5176,7 +5184,7 @@
         <v>501</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
@@ -5516,7 +5524,7 @@
         <v>382</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
@@ -5544,7 +5552,7 @@
         <v>383</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
@@ -5605,7 +5613,7 @@
         <v>504</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="1"/>
@@ -5661,7 +5669,7 @@
         <v>266</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="1">
@@ -5724,7 +5732,7 @@
       <c r="I100" s="6"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" hidden="1">
+    <row r="101" spans="1:10">
       <c r="A101" s="4" t="s">
         <v>111</v>
       </c>
@@ -5750,11 +5758,9 @@
         <v>347</v>
       </c>
       <c r="I101" s="6"/>
-      <c r="J101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" hidden="1">
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="4" t="s">
         <v>111</v>
       </c>
@@ -5777,12 +5783,10 @@
         <v>506</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I102" s="6"/>
-      <c r="J102" s="1">
-        <v>1</v>
-      </c>
+      <c r="J102" s="1"/>
     </row>
     <row r="103" spans="1:10" ht="60">
       <c r="A103" s="4" t="s">
@@ -5807,7 +5811,7 @@
         <v>427</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="1"/>
@@ -5835,7 +5839,7 @@
         <v>430</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="1"/>
@@ -6075,7 +6079,7 @@
         <v>510</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="1"/>
@@ -6103,7 +6107,7 @@
         <v>463</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="1">
@@ -6133,7 +6137,7 @@
         <v>484</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="1">
@@ -6223,10 +6227,10 @@
         <v>314</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="1"/>
@@ -6252,10 +6256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6491,7 +6495,7 @@
         <v>355</v>
       </c>
       <c r="H9" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6751,7 +6755,7 @@
         <v>517</v>
       </c>
       <c r="H19" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -8025,12 +8029,12 @@
         <v>492</v>
       </c>
       <c r="H68" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="H69" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -8278,7 +8282,7 @@
         <v>95</v>
       </c>
       <c r="D79" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E79" t="s">
         <v>496</v>
@@ -8290,7 +8294,7 @@
         <v>498</v>
       </c>
       <c r="H79" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8316,7 +8320,7 @@
         <v>501</v>
       </c>
       <c r="H80" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8628,7 +8632,7 @@
         <v>382</v>
       </c>
       <c r="H92" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8654,7 +8658,7 @@
         <v>383</v>
       </c>
       <c r="H93" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8680,7 +8684,7 @@
         <v>504</v>
       </c>
       <c r="H94" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8766,25 +8770,25 @@
         <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="D98" t="s">
-        <v>488</v>
+        <v>72</v>
       </c>
       <c r="E98" t="s">
-        <v>425</v>
+        <v>125</v>
       </c>
       <c r="F98" t="s">
-        <v>426</v>
+        <v>236</v>
       </c>
       <c r="G98" t="s">
-        <v>427</v>
+        <v>347</v>
       </c>
       <c r="H98" t="s">
-        <v>541</v>
+        <v>347</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8795,74 +8799,74 @@
         <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D99" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E99" t="s">
-        <v>428</v>
+        <v>505</v>
       </c>
       <c r="F99" t="s">
-        <v>429</v>
+        <v>507</v>
       </c>
       <c r="G99" t="s">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="H99" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="D100" t="s">
-        <v>69</v>
+        <v>488</v>
       </c>
       <c r="E100" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="F100" t="s">
-        <v>260</v>
+        <v>426</v>
       </c>
       <c r="G100" t="s">
-        <v>288</v>
+        <v>427</v>
       </c>
       <c r="H100" t="s">
-        <v>344</v>
+        <v>562</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="D101" t="s">
-        <v>70</v>
+        <v>489</v>
       </c>
       <c r="E101" t="s">
-        <v>66</v>
+        <v>428</v>
       </c>
       <c r="F101" t="s">
-        <v>66</v>
+        <v>429</v>
       </c>
       <c r="G101" t="s">
-        <v>66</v>
+        <v>430</v>
       </c>
       <c r="H101" t="s">
-        <v>66</v>
+        <v>539</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8873,22 +8877,22 @@
         <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D102" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E102" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F102" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8899,100 +8903,100 @@
         <v>55</v>
       </c>
       <c r="C103" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D103" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E103" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F103" t="s">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="G103" t="s">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="H103" t="s">
-        <v>347</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>395</v>
+        <v>64</v>
       </c>
       <c r="B104" t="s">
-        <v>396</v>
+        <v>55</v>
       </c>
       <c r="C104" t="s">
-        <v>313</v>
+        <v>67</v>
       </c>
       <c r="D104" t="s">
-        <v>420</v>
+        <v>71</v>
       </c>
       <c r="E104" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="F104" t="s">
-        <v>420</v>
+        <v>259</v>
       </c>
       <c r="G104" t="s">
-        <v>420</v>
+        <v>289</v>
       </c>
       <c r="H104" t="s">
-        <v>420</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>306</v>
+        <v>64</v>
       </c>
       <c r="B105" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C105" t="s">
-        <v>394</v>
+        <v>68</v>
       </c>
       <c r="D105" t="s">
-        <v>474</v>
+        <v>72</v>
       </c>
       <c r="E105" t="s">
-        <v>476</v>
+        <v>68</v>
       </c>
       <c r="F105" t="s">
-        <v>475</v>
+        <v>236</v>
       </c>
       <c r="G105" t="s">
-        <v>477</v>
+        <v>268</v>
       </c>
       <c r="H105" t="s">
-        <v>478</v>
+        <v>347</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="C106" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D106" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="E106" t="s">
-        <v>508</v>
+        <v>420</v>
       </c>
       <c r="F106" t="s">
-        <v>509</v>
+        <v>420</v>
       </c>
       <c r="G106" t="s">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="H106" t="s">
-        <v>563</v>
+        <v>420</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -9003,22 +9007,22 @@
         <v>61</v>
       </c>
       <c r="C107" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="D107" t="s">
-        <v>553</v>
+        <v>474</v>
       </c>
       <c r="E107" t="s">
-        <v>554</v>
+        <v>476</v>
       </c>
       <c r="F107" t="s">
-        <v>555</v>
+        <v>475</v>
       </c>
       <c r="G107" t="s">
-        <v>556</v>
+        <v>477</v>
       </c>
       <c r="H107" t="s">
-        <v>557</v>
+        <v>478</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -9029,12 +9033,64 @@
         <v>61</v>
       </c>
       <c r="C108" t="s">
+        <v>307</v>
+      </c>
+      <c r="D108" t="s">
+        <v>465</v>
+      </c>
+      <c r="E108" t="s">
+        <v>508</v>
+      </c>
+      <c r="F108" t="s">
+        <v>509</v>
+      </c>
+      <c r="G108" t="s">
+        <v>510</v>
+      </c>
+      <c r="H108" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>306</v>
+      </c>
+      <c r="B109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" t="s">
+        <v>313</v>
+      </c>
+      <c r="D109" t="s">
+        <v>548</v>
+      </c>
+      <c r="E109" t="s">
+        <v>549</v>
+      </c>
+      <c r="F109" t="s">
+        <v>550</v>
+      </c>
+      <c r="G109" t="s">
+        <v>551</v>
+      </c>
+      <c r="H109" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>306</v>
+      </c>
+      <c r="B110" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" t="s">
         <v>314</v>
       </c>
-      <c r="D108" t="s">
-        <v>549</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="D110" t="s">
+        <v>544</v>
+      </c>
+      <c r="H110" t="s">
         <v>564</v>
       </c>
     </row>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19160" yWindow="5700" windowWidth="27760" windowHeight="19560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7400" yWindow="800" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
-    <sheet name="Blatt1" sheetId="6" r:id="rId2"/>
+    <sheet name="Blatt1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$117</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="563">
   <si>
     <t>typ</t>
   </si>
@@ -746,33 +746,9 @@
     <t>Ministero pubblico della Confederazione</t>
   </si>
   <si>
-    <t>analyse de l'abonné mobile</t>
-  </si>
-  <si>
-    <t>secours d'urgence</t>
-  </si>
-  <si>
     <t>poste</t>
   </si>
   <si>
-    <t>Le blanchiment d'argent, est corrompu, la fraud de carte de crédit</t>
-  </si>
-  <si>
-    <t>assault, assassiner, homicide, homicide involontaire coupable, la violence</t>
-  </si>
-  <si>
-    <t>paix publique inquiétante</t>
-  </si>
-  <si>
-    <t>agression sexuelle, le viol, la prostitution illégale, la pornographie</t>
-  </si>
-  <si>
-    <t>sécurité et la défense nationale</t>
-  </si>
-  <si>
-    <t>crimes contre les biens</t>
-  </si>
-  <si>
     <t>LSCPT</t>
   </si>
   <si>
@@ -794,27 +770,12 @@
     <t>crimes sexuels</t>
   </si>
   <si>
-    <t>illégale activités politiques ou économiques renseignement</t>
-  </si>
-  <si>
-    <t>exploitation sexuelle des enfants, la pornographie juvénile</t>
-  </si>
-  <si>
-    <t>menace pour la sécurité publique, le financement du terrorisme</t>
-  </si>
-  <si>
-    <t>le blanchiment d'argent</t>
-  </si>
-  <si>
     <t>organisation criminelle</t>
   </si>
   <si>
     <t>traite des êtres humains</t>
   </si>
   <si>
-    <t>activités de renseignement illégales</t>
-  </si>
-  <si>
     <t>pédocriminalité</t>
   </si>
   <si>
@@ -830,9 +791,6 @@
     <t>n.s.</t>
   </si>
   <si>
-    <t>Suivi en temps réel. p.e. écouter les appels de téléphone cellulaire, téléphone portable suivre</t>
-  </si>
-  <si>
     <t>actif</t>
   </si>
   <si>
@@ -956,9 +914,6 @@
     <t>requests without criminal proceedings, emergency rescue</t>
   </si>
   <si>
-    <t>surveillance sans criminelle, secours d'urgence</t>
-  </si>
-  <si>
     <t>richieste senza un procedimento penale, salvataggio di emergenza</t>
   </si>
   <si>
@@ -992,9 +947,6 @@
     <t>Consumption, trade or manufacture of drugs</t>
   </si>
   <si>
-    <t>Consommation, le trafic ou la fabrication de drogue</t>
-  </si>
-  <si>
     <t>Consumo, il traffico o la produzione di droga</t>
   </si>
   <si>
@@ -1094,9 +1046,6 @@
     <t>administrative requests</t>
   </si>
   <si>
-    <t>demandes administratif</t>
-  </si>
-  <si>
     <t>richieste amministrativo</t>
   </si>
   <si>
@@ -1136,12 +1085,6 @@
     <t>Imprint</t>
   </si>
   <si>
-    <t>Empreinte</t>
-  </si>
-  <si>
-    <t>Crimes Graves</t>
-  </si>
-  <si>
     <t>Impronta</t>
   </si>
   <si>
@@ -1154,9 +1097,6 @@
     <t>servetsch da spiunadi scumandà</t>
   </si>
   <si>
-    <t>Forme de Surveillance</t>
-  </si>
-  <si>
     <t>Forma di Sorveglianza</t>
   </si>
   <si>
@@ -1187,9 +1127,6 @@
     <t>simple basic information, ex. who used a certrain cell number or who used an IP adress at a certain time</t>
   </si>
   <si>
-    <t>informations de base simple, ex. qui a un nombre de cellules certrain ou utilisé adresse IP a quel temp</t>
-  </si>
-  <si>
     <t>semplice le informazioni di base, es. chi usano un numero di cellule o ha usato indirizzo IP</t>
   </si>
   <si>
@@ -1217,9 +1154,6 @@
     <t>Groups of Crimes</t>
   </si>
   <si>
-    <t>Groupes de Crimes</t>
-  </si>
-  <si>
     <t>Gruppi di Reati</t>
   </si>
   <si>
@@ -1298,9 +1232,6 @@
     <t>No Serious Crimes</t>
   </si>
   <si>
-    <t>pas de crimes graves</t>
-  </si>
-  <si>
     <t>no retati gravi</t>
   </si>
   <si>
@@ -1313,27 +1244,18 @@
     <t>Serious crimes are highlighted, because those are repeatedly brought up in arguing for surveillance.</t>
   </si>
   <si>
-    <t>Les crimes graves sont mis en évidence, parce que ceux qui sont à plusieurs reprises élevé dans plaidant pour la surveillance.</t>
-  </si>
-  <si>
     <t>Gravi crimini sono evidenziati, in quanto questi sono ripetutamente cresciuti nel sostenere per la sorveglianza.</t>
   </si>
   <si>
     <t>A mobile subscriber scan,  radiocell-inquiry or dragnet. All mobile phones registered in a certain area</t>
   </si>
   <si>
-    <t>Une analyse de l'abonné mobile, cellule radioélectrique-enquête ou filet. Tous les téléphones mobiles registrées dans une certaine zone</t>
-  </si>
-  <si>
     <t>Un abbonato mobile scansione, inchiesta cellulare o rete a strascico. Tutti i telefoni cellulari registrati in una certa area</t>
   </si>
   <si>
     <t>Emergency rescue is used for search and rescue of missing or absconded.</t>
   </si>
   <si>
-    <t>secours d'urgence est utilisé pour la recherche et le sauvetage de manquer ou se est esquivée.</t>
-  </si>
-  <si>
     <t>salvataggio di emergenza viene utilizzato per la ricerca e il salvataggio di mancanti o fuggito.</t>
   </si>
   <si>
@@ -1415,9 +1337,6 @@
     <t xml:space="preserve">dataretention of the last six months. who communicated when to whom </t>
   </si>
   <si>
-    <t>conservation des données des six derniers monts. qui communiquées lors à qui</t>
-  </si>
-  <si>
     <t>Keine schweren Straftaten</t>
   </si>
   <si>
@@ -1430,9 +1349,6 @@
     <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.</t>
   </si>
   <si>
-    <t>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.</t>
-  </si>
-  <si>
     <t>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.</t>
   </si>
   <si>
@@ -1517,45 +1433,30 @@
     <t>Treason, distribution of human diseases, misuse of authority, espionage</t>
   </si>
   <si>
-    <t>La trahison, la distribution des maladies humaines, abus d'autorité, espionnage</t>
-  </si>
-  <si>
     <t>Tradimento, la distribuzione delle malattie umane, abuso di autorità, di spionaggio</t>
   </si>
   <si>
     <t>Money laundering means to thwart the identification of the origin, the discovery or the confiscation of assets.</t>
   </si>
   <si>
-    <t>Le blanchiment d'argent signifie pour contrecarrer l'identification de l'origine, la découverte ou la confiscation des biens.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Il riciclaggio di denaro significa contrastare l'identificazione dell'origine, il ritrovamento o la confisca dei beni.</t>
   </si>
   <si>
     <t>Structured group enriched by violence or by criminal means income. Ex. Mafia or jihad travelers</t>
   </si>
   <si>
-    <t>Groupe structuré enrichi par la violence ou par les revenus de moyens criminels. Ex. Mafia ou jihad voyageurs</t>
-  </si>
-  <si>
     <t>Gruppo strutturato arricchito con la violenza o con mezzi criminali reddito. Es. Mafia o viaggiatori di jihad</t>
   </si>
   <si>
     <t xml:space="preserve"> People recruit, offer, give or host application by unauthorized agents such as deception, threat or coercion for the purpose of exploitation.</t>
   </si>
   <si>
-    <t>Les gens recrutent, offre, donner ou application hôte par des agents non autorisés tels que la tromperie, la menace ou la contrainte aux fins d'exploitation.</t>
-  </si>
-  <si>
     <t>Persone reclutare, offrire, dare o applicazione host da agenti non autorizzati, come inganno, minaccia o coercizione a scopo di sfruttamento.</t>
   </si>
   <si>
     <t>Facebook accounts. This list of Facebook data points to the perimeter.</t>
   </si>
   <si>
-    <t>Comptes du Facebook. Cette liste de points de données Facebook au périmètre.</t>
-  </si>
-  <si>
     <t>Account Facebook. Questo elenco di Facebook punti dati al perimetro.</t>
   </si>
   <si>
@@ -1565,13 +1466,7 @@
     <t>sorveglianza del telefono normale</t>
   </si>
   <si>
-    <t>la surveillance régulière de téléphone</t>
-  </si>
-  <si>
     <t>The Digital Society Switzerland annually publishes the Swiss Lawful Interception Report on the cantons of Switzerland. This Visualization complements the report interactively and shows in detail, how many people are affected in the cantons. Find out what crimes are limiting your basic liberties. &lt;br&gt; &lt;small&gt;The data in these statistics only include surveillance measures in accordance with the Criminal Procedure Code. Except for operations of IMSI catchers, governmental trojans or surveillance of intelligence agencies.&lt;/small&gt;</t>
-  </si>
-  <si>
-    <t>La Société numérique Suisse publie annuellement le rapport interception légale suisse sur les cantons de la Suisse. Cette visualisation interactive complète le rapport et montre en détail, combien de personnes sont touchées dans les cantons. Découvrez ce que les crimes limitent vos libertés fondamentales. &lt;br&gt; &lt;small&gt; Les données dans ces statistiques ne comprennent que des mesures de surveillance conformément au Code de procédure pénale. Sauf pour les opérations de capteurs IMSI, chevaux de Troie gouvernementales ou de la surveillance des agences de renseignement. &lt;/small&gt;</t>
   </si>
   <si>
     <t>Il Digital Society Switzerland pubblica annualmente l'intercettazione legale Relazione svizzera sui cantoni della Svizzera. Questa visualizzazione completa il rapporto interattivo e mostra in dettaglio, quante persone sono interessate nei Cantoni. Scopri quali crimini stanno limitando le vostre libertà fondamentali. &lt;br&gt;&lt;small&gt;I dati di queste statistiche includono soltanto misure di vigilanza in conformità con il codice di procedura penale. Fatta eccezione per le operazioni di cacciatori IMSI, trojan governative o di sorveglianza delle agenzie di intelligence.&lt;/small&gt;</t>
@@ -1697,9 +1592,6 @@
     <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</t>
   </si>
   <si>
-    <t>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
-  </si>
-  <si>
     <t>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</t>
   </si>
   <si>
@@ -1710,18 +1602,6 @@
   </si>
   <si>
     <t>Recrutar, porscher, intermediar, ni dar albiert a glieud cun utilisaziun da mettels nunlubias scu fintas, smanatschas ni sforz cun la fignamira d'explotaziun.</t>
-  </si>
-  <si>
-    <t>midar an modi maletg antir</t>
-  </si>
-  <si>
-    <t>tradiment da la patria, desarar malsongas humanas, abus d'uffezi,</t>
-  </si>
-  <si>
-    <t>servetsch d'infurmaziun scumando</t>
-  </si>
-  <si>
-    <t>La Societad Digitala Svizzra publitgescha annual igl “Swiss Lawfull Interception Report” tgi sa tracta sur la survigilaziun digl stadi en Svizzra. La visualisaziun cumplettescha igl report interactiv e mossa detaglià, scu tgi igl Cantuns survigileschan. Chatta or, per tge delicts igls voss dretgs fundamentals reivan restranschia. &lt;br&gt;&lt;br&gt;&lt;small&gt;Las datas ainten quella statistica cuntignan sulettamain mesiras da survigilaziun siva urdan da process penal. Exceptà en missiuns digl IMSI-Catcher, trojan digl stadi ni mesiras da survigilaziun digl servetsch da spiunadi.&lt;/small&gt;</t>
   </si>
   <si>
     <t>account d'uttilisaders da facebook. Quella &lt;a href='https://de-de.facebook.com/help/405183566203254' target='_blank'&gt;lista dallas datas da facebook&lt;/a&gt; mossan se la dimensiun</t>
@@ -1740,7 +1620,121 @@
 </t>
   </si>
   <si>
-    <t>La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
+    <t>Groupes de délits</t>
+  </si>
+  <si>
+    <t>Délits graves</t>
+  </si>
+  <si>
+    <t>Genre de surveillance</t>
+  </si>
+  <si>
+    <t>pas de délits graves</t>
+  </si>
+  <si>
+    <t>trouble de l'ordre public</t>
+  </si>
+  <si>
+    <t>sécurité et défense nationale</t>
+  </si>
+  <si>
+    <t>atteintes aux biens</t>
+  </si>
+  <si>
+    <t>surveillance hors procédure pénale, localisation de personnes disparues</t>
+  </si>
+  <si>
+    <t>fabrication, trafic ou consommation de drogue</t>
+  </si>
+  <si>
+    <t>blanchiment d'argent, corruption passive, fraude à la carte de crédit</t>
+  </si>
+  <si>
+    <t>Atteinte à l'intégrité corporelle, assassinat, meurtre, homicide, représentation de la violence</t>
+  </si>
+  <si>
+    <t>trouble de l'ordre public, manifestation, organisations criminelles, mise en danger avec des armes</t>
+  </si>
+  <si>
+    <t>agression sexuelle, viol, prostitution illégale, pornographie</t>
+  </si>
+  <si>
+    <t>trahison, dissémination de maladies humaines, abus d'autorité, espionnage</t>
+  </si>
+  <si>
+    <t>Les délits graves sont considérés comme des crimes, ce qui permet de justifier la surveillance.</t>
+  </si>
+  <si>
+    <t>blanchiment d'argent</t>
+  </si>
+  <si>
+    <t>espionnage</t>
+  </si>
+  <si>
+    <t>Le blanchiment d'argent est l'action de dissimuler l'origine de fonds ou d'empêcher la découverte ou la saisie de fonds.</t>
+  </si>
+  <si>
+    <t>Groupe structuré enrichi par la violence ou par les revenus d'activités criminelles, par exemple la mafia ou les voyageurs du Jihad.</t>
+  </si>
+  <si>
+    <t>Recruter, proposer, servir d'intermédiaire ou héberger des personnes via des moyens illégaux comme la tromperie, la menace ou la contrainte aux fins d'exploitation humaine.</t>
+  </si>
+  <si>
+    <t>espionnage politique ou économique</t>
+  </si>
+  <si>
+    <t>exploitation sexuelle des enfants, pornographie juvénile</t>
+  </si>
+  <si>
+    <t>menace pour la sécurité publique, financement du terrorisme</t>
+  </si>
+  <si>
+    <t>demandes administratives</t>
+  </si>
+  <si>
+    <t>Surveillance en temps réel, p.ex. écoute téléphonique, localisation de téléphones mobiles</t>
+  </si>
+  <si>
+    <t>à qui appartient un numéro de téléphone ou une adresse IP à un moment donné</t>
+  </si>
+  <si>
+    <t>conservation des métadonnées des derniers six mois, qui a communiqué avec qui</t>
+  </si>
+  <si>
+    <t>Comptes Microsoft/Skype (Skype, Hotmail, Outlook, XBOX etc.)</t>
+  </si>
+  <si>
+    <t>analyse de localisation d'un téléphone mobile</t>
+  </si>
+  <si>
+    <t>localisation d'urgence</t>
+  </si>
+  <si>
+    <t>la surveillance téléphonique normale</t>
+  </si>
+  <si>
+    <t>Analyse de localisation des téléphones mobiles basée sur le trafic de la cellule, aussi appelée quadrillage. Indique tous les téléphones mobiles enregistrés dans une certaine zone.</t>
+  </si>
+  <si>
+    <t>localisation d'urgence : activée en cas de recherche de personnes disparues ou en fuite.</t>
+  </si>
+  <si>
+    <t>Société numérique Suisse publie annuellement un rapport sur la situation de l'interception légale en Suisse. Cette visualisation interactive complète le rapport et montre en détail la surveillance effectuée dans chaque canton. Découvrez avec quels délits on justifie la limitation de vos libertés fondamentales. &lt;br&gt; &lt;small&gt; Les données de cette statistique ne comprennent que les mesures de surveillance conformes au Code de procédure pénale à l'exclusion des scanners IMSI, des chevaux de Troie gouvernementales ou de la surveillance effectuée par le service de renseignement de la Confédération (SRC). &lt;/small&gt;</t>
+  </si>
+  <si>
+    <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.</t>
+  </si>
+  <si>
+    <t>Société numérique est un regroupement de cercles intéressés par les questions de politique numérique. Elle est formée d'une cinquantaine de personnes et quinze groupements. Cela inclut les organisations de défense des droits fondamentaux, des partis politiques, des collectifs d'artistes, des opérateurs de services réseaux et d'autres groupes qui, au sein de la société civile numérique, se sentent appelés à une vision critique de celle-ci. &lt;br&gt; dans la même ligne, des sujets de politique des réseaux sont développés dans le blog: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comptes Facebook : &lt;a href='https://fr-fr.facebook.com/help/405183566203254' target='_blank'&gt;cette liste montre les informations récoltées.&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>midar an modi maletg antir</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1831,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="259">
+  <cellStyleXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2097,8 +2091,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2133,8 +2129,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="259">
+  <cellStyles count="261">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2272,6 +2271,7 @@
     <cellStyle name="Besuchter Link" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="256" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2393,6 +2393,7 @@
     <cellStyle name="Link" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="255" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -2807,10 +2808,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H117"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2849,10 +2851,10 @@
         <v>171</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3039,16 +3041,16 @@
         <v>153</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>391</v>
+        <v>524</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
@@ -3064,19 +3066,19 @@
         <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="1"/>
@@ -3092,19 +3094,19 @@
         <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
@@ -3123,16 +3125,16 @@
         <v>114</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>365</v>
+        <v>525</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
@@ -3151,16 +3153,16 @@
         <v>113</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>113</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="1"/>
@@ -3179,16 +3181,16 @@
         <v>112</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>370</v>
+        <v>526</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="1"/>
@@ -3201,22 +3203,22 @@
         <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
@@ -3229,22 +3231,22 @@
         <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>364</v>
+        <v>346</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>345</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
@@ -3257,22 +3259,22 @@
         <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
@@ -3291,16 +3293,16 @@
         <v>115</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>290</v>
+        <v>307</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
@@ -3322,13 +3324,13 @@
         <v>137</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="1"/>
@@ -3341,22 +3343,22 @@
         <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
@@ -3369,22 +3371,22 @@
         <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>516</v>
+        <v>480</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>481</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
@@ -3397,22 +3399,22 @@
         <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="I20" s="6">
         <v>1</v>
@@ -3429,22 +3431,22 @@
         <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>418</v>
+        <v>527</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
@@ -3457,22 +3459,22 @@
         <v>55</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="I22" s="6">
         <v>1</v>
@@ -3489,22 +3491,22 @@
         <v>55</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
@@ -3519,22 +3521,22 @@
         <v>55</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -3549,22 +3551,22 @@
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="I25" s="6">
         <v>1</v>
@@ -3587,14 +3589,14 @@
       <c r="E26" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="12" t="s">
         <v>232</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>233</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="1"/>
@@ -3607,22 +3609,22 @@
         <v>55</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="1"/>
@@ -3740,7 +3742,7 @@
         <v>199</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="I31" s="6">
         <v>1</v>
@@ -4364,13 +4366,13 @@
         <v>126</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -4394,13 +4396,13 @@
         <v>127</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
@@ -4421,14 +4423,14 @@
       <c r="E54" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>245</v>
+      <c r="F54" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
@@ -4449,14 +4451,14 @@
       <c r="E55" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>246</v>
+      <c r="F55" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
@@ -4478,13 +4480,13 @@
         <v>133</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
@@ -4506,13 +4508,13 @@
         <v>132</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
@@ -4533,14 +4535,14 @@
       <c r="E58" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>239</v>
+      <c r="F58" s="12" t="s">
+        <v>528</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
@@ -4562,13 +4564,13 @@
         <v>131</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
@@ -4589,14 +4591,14 @@
       <c r="E60" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>241</v>
+      <c r="F60" s="12" t="s">
+        <v>529</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="1"/>
@@ -4617,14 +4619,14 @@
       <c r="E61" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>242</v>
+      <c r="F61" s="12" t="s">
+        <v>530</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="1"/>
@@ -4640,19 +4642,19 @@
         <v>82</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>304</v>
+        <v>289</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>531</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="1"/>
@@ -4668,19 +4670,19 @@
         <v>83</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="1"/>
@@ -4696,19 +4698,19 @@
         <v>84</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>532</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="1"/>
@@ -4724,19 +4726,19 @@
         <v>85</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>326</v>
+        <v>309</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="1"/>
@@ -4757,14 +4759,14 @@
       <c r="E66" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>237</v>
+      <c r="F66" s="12" t="s">
+        <v>533</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="1"/>
@@ -4785,14 +4787,14 @@
       <c r="E67" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>238</v>
+      <c r="F67" s="12" t="s">
+        <v>534</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>526</v>
+        <v>491</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="1"/>
@@ -4808,19 +4810,19 @@
         <v>88</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>239</v>
+      <c r="F68" s="12" t="s">
+        <v>535</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="1"/>
@@ -4841,14 +4843,14 @@
       <c r="E69" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>240</v>
+      <c r="F69" s="12" t="s">
+        <v>536</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>162</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="1"/>
@@ -4864,19 +4866,19 @@
         <v>90</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>491</v>
+        <v>462</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>537</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
@@ -4892,19 +4894,19 @@
         <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="1"/>
@@ -4920,19 +4922,19 @@
         <v>61</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>423</v>
+        <v>399</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>538</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="1"/>
@@ -4951,16 +4953,16 @@
         <v>100</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>253</v>
+        <v>353</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>539</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="1"/>
@@ -4979,16 +4981,16 @@
         <v>94</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>254</v>
+        <v>354</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="1"/>
@@ -5007,16 +5009,16 @@
         <v>97</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>255</v>
+        <v>355</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="1"/>
@@ -5035,16 +5037,16 @@
         <v>167</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>256</v>
+        <v>356</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>540</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="1"/>
@@ -5065,14 +5067,14 @@
       <c r="E77" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>257</v>
+      <c r="F77" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>136</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="1"/>
@@ -5091,16 +5093,16 @@
         <v>105</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>258</v>
+        <v>357</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="1"/>
@@ -5116,19 +5118,19 @@
         <v>101</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>494</v>
+        <v>464</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>541</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>531</v>
+        <v>496</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="1"/>
@@ -5144,24 +5146,24 @@
         <v>95</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>497</v>
+        <v>466</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>542</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" ht="75">
+    <row r="81" spans="1:10" ht="90">
       <c r="A81" s="4" t="s">
         <v>92</v>
       </c>
@@ -5172,19 +5174,19 @@
         <v>98</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>500</v>
+        <v>468</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>543</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
@@ -5205,14 +5207,14 @@
       <c r="E82" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>250</v>
+      <c r="F82" s="12" t="s">
+        <v>544</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>532</v>
+        <v>497</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="1"/>
@@ -5233,14 +5235,14 @@
       <c r="E83" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>251</v>
+      <c r="F83" s="12" t="s">
+        <v>545</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="1"/>
@@ -5261,14 +5263,14 @@
       <c r="E84" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>252</v>
+      <c r="F84" s="12" t="s">
+        <v>546</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="1"/>
@@ -5290,13 +5292,13 @@
         <v>138</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="1"/>
@@ -5312,19 +5314,19 @@
         <v>58</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>350</v>
+        <v>333</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>547</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="1"/>
@@ -5345,14 +5347,14 @@
       <c r="E87" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>264</v>
+      <c r="F87" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="1"/>
@@ -5373,14 +5375,14 @@
       <c r="E88" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>265</v>
+      <c r="F88" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>534</v>
+        <v>499</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="1"/>
@@ -5393,22 +5395,22 @@
         <v>55</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="1"/>
@@ -5421,10 +5423,10 @@
         <v>55</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="E90" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5456,19 +5458,19 @@
         <v>56</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>262</v>
+      <c r="F91" s="12" t="s">
+        <v>548</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="1"/>
@@ -5484,19 +5486,19 @@
         <v>58</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>359</v>
+        <v>341</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>536</v>
+        <v>501</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="1"/>
@@ -5512,19 +5514,19 @@
         <v>62</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>381</v>
+        <v>360</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>549</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
@@ -5540,19 +5542,19 @@
         <v>57</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>457</v>
+        <v>430</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>550</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
@@ -5562,22 +5564,22 @@
         <v>0</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="H95" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5598,22 +5600,22 @@
         <v>61</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>503</v>
+        <v>470</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>560</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="1"/>
@@ -5626,27 +5628,27 @@
         <v>61</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>481</v>
+        <v>453</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>551</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10" ht="30" hidden="1">
       <c r="A98" s="4" t="s">
         <v>111</v>
       </c>
@@ -5662,14 +5664,14 @@
       <c r="E98" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>234</v>
+      <c r="F98" s="12" t="s">
+        <v>552</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="1">
@@ -5720,14 +5722,14 @@
       <c r="E100" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>235</v>
+      <c r="F100" s="12" t="s">
+        <v>553</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="1"/>
@@ -5749,13 +5751,13 @@
         <v>125</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I101" s="6"/>
       <c r="J101" s="1"/>
@@ -5771,24 +5773,24 @@
         <v>117</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="H102" s="1" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" ht="60">
+    <row r="103" spans="1:10" ht="90">
       <c r="A103" s="4" t="s">
         <v>111</v>
       </c>
@@ -5799,19 +5801,19 @@
         <v>118</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>426</v>
+        <v>401</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>555</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="1"/>
@@ -5827,19 +5829,19 @@
         <v>119</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>429</v>
+        <v>403</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>556</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>539</v>
+        <v>504</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="1"/>
@@ -5858,16 +5860,16 @@
         <v>69</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="1"/>
@@ -5914,16 +5916,16 @@
         <v>71</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>259</v>
+        <v>359</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="1"/>
@@ -5945,29 +5947,29 @@
         <v>68</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="1"/>
     </row>
     <row r="109" spans="1:10" s="1" customFormat="1" hidden="1">
       <c r="A109" s="1" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="E109" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5994,16 +5996,16 @@
     </row>
     <row r="110" spans="1:10" ht="45">
       <c r="A110" s="4" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="E110" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -6028,28 +6030,28 @@
     </row>
     <row r="111" spans="1:10" ht="409">
       <c r="A111" s="5" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
@@ -6058,56 +6060,56 @@
     </row>
     <row r="112" spans="1:10" ht="270">
       <c r="A112" s="4" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>509</v>
+        <v>474</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>557</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="1"/>
     </row>
     <row r="113" spans="1:10" ht="120" hidden="1">
       <c r="A113" s="4" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>462</v>
+        <v>434</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>558</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="1">
@@ -6116,28 +6118,28 @@
     </row>
     <row r="114" spans="1:10" ht="30" hidden="1">
       <c r="A114" s="4" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>486</v>
+        <v>455</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>458</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>542</v>
+        <v>507</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="1">
@@ -6146,13 +6148,13 @@
     </row>
     <row r="115" spans="1:10" ht="135" hidden="1">
       <c r="A115" s="4" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="D115" s="1" t="str">
         <f>CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",D110,"' title='",D109,"' target='_blank'&gt;",D109,"&lt;/a&gt;")</f>
@@ -6183,13 +6185,13 @@
     </row>
     <row r="116" spans="1:10" ht="285">
       <c r="A116" s="4" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D116" s="1" t="str">
         <f>CONCATENATE(D113,D115)</f>
@@ -6201,7 +6203,7 @@
       </c>
       <c r="F116" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>En plus de cette visualisation de la surveillance la société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
+        <v>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
       </c>
       <c r="G116" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6218,19 +6220,22 @@
     </row>
     <row r="117" spans="1:10" ht="315">
       <c r="A117" s="4" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>544</v>
+        <v>509</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="1"/>
@@ -6256,49 +6261,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
         <v>173</v>
@@ -6309,22 +6308,16 @@
       <c r="F2" t="s">
         <v>173</v>
       </c>
-      <c r="G2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
         <v>174</v>
@@ -6335,22 +6328,16 @@
       <c r="F3" t="s">
         <v>174</v>
       </c>
-      <c r="G3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
         <v>175</v>
@@ -6361,22 +6348,16 @@
       <c r="F4" t="s">
         <v>175</v>
       </c>
-      <c r="G4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
         <v>176</v>
@@ -6387,22 +6368,16 @@
       <c r="F5" t="s">
         <v>176</v>
       </c>
-      <c r="G5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
         <v>177</v>
@@ -6413,984 +6388,756 @@
       <c r="F6" t="s">
         <v>177</v>
       </c>
-      <c r="G6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>524</v>
       </c>
       <c r="E7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" t="s">
         <v>390</v>
       </c>
-      <c r="F7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H7" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E8" t="s">
-        <v>414</v>
-      </c>
       <c r="F8" t="s">
-        <v>413</v>
-      </c>
-      <c r="G8" t="s">
-        <v>412</v>
-      </c>
-      <c r="H8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>476</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>338</v>
       </c>
       <c r="D9" t="s">
-        <v>511</v>
+        <v>338</v>
       </c>
       <c r="E9" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="F9" t="s">
-        <v>355</v>
-      </c>
-      <c r="G9" t="s">
-        <v>355</v>
-      </c>
-      <c r="H9" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>306</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>525</v>
       </c>
       <c r="E10" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="F10" t="s">
-        <v>365</v>
-      </c>
-      <c r="G10" t="s">
-        <v>367</v>
-      </c>
-      <c r="H10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>304</v>
       </c>
       <c r="D11" t="s">
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" t="s">
-        <v>368</v>
-      </c>
-      <c r="H11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>526</v>
       </c>
       <c r="E12" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="F12" t="s">
-        <v>370</v>
-      </c>
-      <c r="G12" t="s">
-        <v>371</v>
-      </c>
-      <c r="H12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E13" t="s">
-        <v>361</v>
-      </c>
-      <c r="F13" t="s">
-        <v>361</v>
-      </c>
-      <c r="G13" t="s">
-        <v>361</v>
-      </c>
-      <c r="H13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>314</v>
-      </c>
-      <c r="D14" t="s">
-        <v>362</v>
-      </c>
-      <c r="E14" t="s">
-        <v>363</v>
-      </c>
-      <c r="F14" t="s">
-        <v>364</v>
-      </c>
-      <c r="G14" t="s">
-        <v>366</v>
-      </c>
-      <c r="H14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>108</v>
-      </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>381</v>
       </c>
       <c r="C15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E15" t="s">
+        <v>384</v>
+      </c>
+      <c r="F15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>386</v>
+      </c>
+      <c r="B18" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" t="s">
+        <v>388</v>
+      </c>
+      <c r="F18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>478</v>
+      </c>
+      <c r="B19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C19" t="s">
+        <v>480</v>
+      </c>
+      <c r="D19" t="s">
+        <v>481</v>
+      </c>
+      <c r="E19" t="s">
+        <v>482</v>
+      </c>
+      <c r="F19" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>394</v>
       </c>
-      <c r="D15" t="s">
-        <v>403</v>
-      </c>
-      <c r="E15" t="s">
-        <v>404</v>
-      </c>
-      <c r="F15" t="s">
-        <v>405</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="B20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" t="s">
+        <v>527</v>
+      </c>
+      <c r="E20" t="s">
+        <v>396</v>
+      </c>
+      <c r="F20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>406</v>
       </c>
-      <c r="H15" t="s">
+      <c r="B21" t="s">
+        <v>411</v>
+      </c>
+      <c r="C21" t="s">
+        <v>411</v>
+      </c>
+      <c r="D21" t="s">
+        <v>413</v>
+      </c>
+      <c r="E21" t="s">
+        <v>412</v>
+      </c>
+      <c r="F21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" t="s">
-        <v>323</v>
-      </c>
-      <c r="F16" t="s">
-        <v>290</v>
-      </c>
-      <c r="G16" t="s">
-        <v>291</v>
-      </c>
-      <c r="H16" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" t="s">
-        <v>292</v>
-      </c>
-      <c r="H17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B22" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" t="s">
+        <v>414</v>
+      </c>
+      <c r="D22" t="s">
+        <v>415</v>
+      </c>
+      <c r="E22" t="s">
+        <v>416</v>
+      </c>
+      <c r="F22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>408</v>
       </c>
-      <c r="D18" t="s">
-        <v>409</v>
-      </c>
-      <c r="E18" t="s">
-        <v>409</v>
-      </c>
-      <c r="F18" t="s">
-        <v>408</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="B23" t="s">
         <v>410</v>
       </c>
-      <c r="H18" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>513</v>
-      </c>
-      <c r="D19" t="s">
-        <v>514</v>
-      </c>
-      <c r="E19" t="s">
-        <v>515</v>
-      </c>
-      <c r="F19" t="s">
-        <v>516</v>
-      </c>
-      <c r="G19" t="s">
-        <v>517</v>
-      </c>
-      <c r="H19" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>416</v>
-      </c>
-      <c r="D20" t="s">
-        <v>458</v>
-      </c>
-      <c r="E20" t="s">
-        <v>417</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="C23" t="s">
         <v>418</v>
       </c>
-      <c r="G20" t="s">
+      <c r="D23" t="s">
         <v>419</v>
       </c>
-      <c r="H20" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>432</v>
-      </c>
-      <c r="D21" t="s">
-        <v>437</v>
-      </c>
-      <c r="E21" t="s">
-        <v>437</v>
-      </c>
-      <c r="F21" t="s">
-        <v>439</v>
-      </c>
-      <c r="G21" t="s">
-        <v>438</v>
-      </c>
-      <c r="H21" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>433</v>
-      </c>
-      <c r="D22" t="s">
-        <v>435</v>
-      </c>
-      <c r="E22" t="s">
-        <v>440</v>
-      </c>
-      <c r="F22" t="s">
-        <v>441</v>
-      </c>
-      <c r="G22" t="s">
-        <v>442</v>
-      </c>
-      <c r="H22" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>434</v>
-      </c>
-      <c r="D23" t="s">
-        <v>436</v>
-      </c>
       <c r="E23" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="F23" t="s">
-        <v>445</v>
-      </c>
-      <c r="G23" t="s">
-        <v>446</v>
-      </c>
-      <c r="H23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" t="s">
-        <v>233</v>
-      </c>
-      <c r="H24" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>294</v>
       </c>
       <c r="C25" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D25" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E25" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F25" t="s">
-        <v>311</v>
-      </c>
-      <c r="G25" t="s">
-        <v>312</v>
-      </c>
-      <c r="H25" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" t="s">
         <v>196</v>
       </c>
-      <c r="H26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="F27" t="s">
-        <v>182</v>
-      </c>
-      <c r="G27" t="s">
-        <v>197</v>
-      </c>
-      <c r="H27" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28" t="s">
-        <v>198</v>
-      </c>
-      <c r="H28" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="F29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" t="s">
-        <v>200</v>
-      </c>
-      <c r="H30" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="F31" t="s">
-        <v>186</v>
-      </c>
-      <c r="G31" t="s">
-        <v>201</v>
-      </c>
-      <c r="H31" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="F32" t="s">
-        <v>187</v>
-      </c>
-      <c r="G32" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
-      </c>
-      <c r="G33" t="s">
-        <v>203</v>
-      </c>
-      <c r="H33" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" t="s">
         <v>204</v>
       </c>
-      <c r="H34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="F35" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" t="s">
         <v>205</v>
       </c>
-      <c r="H35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
         <v>148</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" t="s">
-        <v>148</v>
-      </c>
-      <c r="H36" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
-      </c>
-      <c r="G37" t="s">
-        <v>206</v>
-      </c>
-      <c r="H37" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
-      </c>
-      <c r="G38" t="s">
-        <v>207</v>
-      </c>
-      <c r="H38" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
-      </c>
-      <c r="G39" t="s">
-        <v>208</v>
-      </c>
-      <c r="H39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
-      </c>
-      <c r="G40" t="s">
-        <v>209</v>
-      </c>
-      <c r="H40" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
-        <v>192</v>
-      </c>
-      <c r="G41" t="s">
-        <v>210</v>
-      </c>
-      <c r="H41" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="F42" t="s">
-        <v>193</v>
-      </c>
-      <c r="G42" t="s">
-        <v>211</v>
-      </c>
-      <c r="H42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
-        <v>194</v>
-      </c>
-      <c r="G43" t="s">
         <v>212</v>
       </c>
-      <c r="H43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
@@ -7401,22 +7148,16 @@
       <c r="F44" t="s">
         <v>48</v>
       </c>
-      <c r="G44" t="s">
-        <v>149</v>
-      </c>
-      <c r="H44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
         <v>49</v>
@@ -7427,1671 +7168,1279 @@
       <c r="F45" t="s">
         <v>49</v>
       </c>
-      <c r="G45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
         <v>150</v>
       </c>
       <c r="F46" t="s">
-        <v>150</v>
-      </c>
-      <c r="G46" t="s">
-        <v>150</v>
-      </c>
-      <c r="H46" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="F47" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" t="s">
-        <v>213</v>
-      </c>
-      <c r="H47" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" t="s">
+        <v>214</v>
+      </c>
+      <c r="F48" t="s">
         <v>52</v>
       </c>
-      <c r="E48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" t="s">
-        <v>195</v>
-      </c>
-      <c r="G48" t="s">
-        <v>214</v>
-      </c>
-      <c r="H48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" t="s">
-        <v>215</v>
-      </c>
-      <c r="H49" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51" t="s">
+        <v>261</v>
+      </c>
+      <c r="F51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52" t="s">
+        <v>262</v>
+      </c>
+      <c r="F52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53" t="s">
+        <v>255</v>
+      </c>
+      <c r="F53" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" t="s">
+        <v>263</v>
+      </c>
+      <c r="F54" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" t="s">
+        <v>264</v>
+      </c>
+      <c r="F55" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" t="s">
+        <v>528</v>
+      </c>
+      <c r="E56" t="s">
+        <v>257</v>
+      </c>
+      <c r="F56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" t="s">
+        <v>241</v>
+      </c>
+      <c r="E57" t="s">
+        <v>265</v>
+      </c>
+      <c r="F57" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" t="s">
+        <v>529</v>
+      </c>
+      <c r="E58" t="s">
+        <v>258</v>
+      </c>
+      <c r="F58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" t="s">
+        <v>530</v>
+      </c>
+      <c r="E59" t="s">
+        <v>259</v>
+      </c>
+      <c r="F59" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
         <v>82</v>
       </c>
-      <c r="D50" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50" t="s">
-        <v>243</v>
-      </c>
-      <c r="G50" t="s">
-        <v>243</v>
-      </c>
-      <c r="H50" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B60" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" t="s">
+        <v>289</v>
+      </c>
+      <c r="D60" t="s">
+        <v>531</v>
+      </c>
+      <c r="E60" t="s">
+        <v>290</v>
+      </c>
+      <c r="F60" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
         <v>83</v>
       </c>
-      <c r="D51" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" t="s">
-        <v>127</v>
-      </c>
-      <c r="F51" t="s">
-        <v>244</v>
-      </c>
-      <c r="G51" t="s">
-        <v>275</v>
-      </c>
-      <c r="H51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B61" t="s">
+        <v>371</v>
+      </c>
+      <c r="C61" t="s">
+        <v>371</v>
+      </c>
+      <c r="D61" t="s">
+        <v>371</v>
+      </c>
+      <c r="E61" t="s">
+        <v>371</v>
+      </c>
+      <c r="F61" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
         <v>84</v>
       </c>
-      <c r="D52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" t="s">
-        <v>245</v>
-      </c>
-      <c r="G52" t="s">
-        <v>276</v>
-      </c>
-      <c r="H52" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B62" t="s">
+        <v>438</v>
+      </c>
+      <c r="C62" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" t="s">
+        <v>532</v>
+      </c>
+      <c r="E62" t="s">
+        <v>301</v>
+      </c>
+      <c r="F62" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
         <v>85</v>
       </c>
-      <c r="D53" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" t="s">
-        <v>129</v>
-      </c>
-      <c r="F53" t="s">
-        <v>246</v>
-      </c>
-      <c r="G53" t="s">
-        <v>269</v>
-      </c>
-      <c r="H53" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B63" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" t="s">
+        <v>309</v>
+      </c>
+      <c r="D63" t="s">
+        <v>310</v>
+      </c>
+      <c r="E63" t="s">
+        <v>312</v>
+      </c>
+      <c r="F63" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
         <v>86</v>
       </c>
-      <c r="D54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" t="s">
-        <v>133</v>
-      </c>
-      <c r="F54" t="s">
-        <v>247</v>
-      </c>
-      <c r="G54" t="s">
-        <v>277</v>
-      </c>
-      <c r="H54" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B64" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" t="s">
+        <v>533</v>
+      </c>
+      <c r="E64" t="s">
+        <v>311</v>
+      </c>
+      <c r="F64" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
         <v>87</v>
       </c>
-      <c r="D55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55" t="s">
-        <v>248</v>
-      </c>
-      <c r="G55" t="s">
-        <v>278</v>
-      </c>
-      <c r="H55" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B65" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" t="s">
+        <v>534</v>
+      </c>
+      <c r="E65" t="s">
+        <v>256</v>
+      </c>
+      <c r="F65" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
         <v>88</v>
       </c>
-      <c r="D56" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="B66" t="s">
+        <v>439</v>
+      </c>
+      <c r="C66" t="s">
         <v>130</v>
       </c>
-      <c r="F56" t="s">
-        <v>239</v>
-      </c>
-      <c r="G56" t="s">
-        <v>271</v>
-      </c>
-      <c r="H56" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D66" t="s">
+        <v>535</v>
+      </c>
+      <c r="E66" t="s">
+        <v>257</v>
+      </c>
+      <c r="F66" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
         <v>89</v>
       </c>
-      <c r="D57" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" t="s">
-        <v>131</v>
-      </c>
-      <c r="F57" t="s">
-        <v>249</v>
-      </c>
-      <c r="G57" t="s">
-        <v>279</v>
-      </c>
-      <c r="H57" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58" t="s">
-        <v>241</v>
-      </c>
-      <c r="G58" t="s">
-        <v>272</v>
-      </c>
-      <c r="H58" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" t="s">
-        <v>135</v>
-      </c>
-      <c r="F59" t="s">
-        <v>242</v>
-      </c>
-      <c r="G59" t="s">
-        <v>273</v>
-      </c>
-      <c r="H59" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" t="s">
-        <v>302</v>
-      </c>
-      <c r="E60" t="s">
-        <v>303</v>
-      </c>
-      <c r="F60" t="s">
-        <v>304</v>
-      </c>
-      <c r="G60" t="s">
-        <v>305</v>
-      </c>
-      <c r="H60" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" t="s">
-        <v>393</v>
-      </c>
-      <c r="E61" t="s">
-        <v>393</v>
-      </c>
-      <c r="F61" t="s">
-        <v>393</v>
-      </c>
-      <c r="G61" t="s">
-        <v>393</v>
-      </c>
-      <c r="H61" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" t="s">
-        <v>466</v>
-      </c>
-      <c r="E62" t="s">
-        <v>315</v>
-      </c>
-      <c r="F62" t="s">
-        <v>316</v>
-      </c>
-      <c r="G62" t="s">
-        <v>317</v>
-      </c>
-      <c r="H62" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" t="s">
-        <v>324</v>
-      </c>
-      <c r="E63" t="s">
-        <v>325</v>
-      </c>
-      <c r="F63" t="s">
-        <v>326</v>
-      </c>
-      <c r="G63" t="s">
-        <v>328</v>
-      </c>
-      <c r="H63" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" t="s">
-        <v>165</v>
-      </c>
-      <c r="E64" t="s">
-        <v>166</v>
-      </c>
-      <c r="F64" t="s">
-        <v>237</v>
-      </c>
-      <c r="G64" t="s">
-        <v>327</v>
-      </c>
-      <c r="H64" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" t="s">
-        <v>163</v>
-      </c>
-      <c r="E65" t="s">
-        <v>164</v>
-      </c>
-      <c r="F65" t="s">
-        <v>238</v>
-      </c>
-      <c r="G65" t="s">
-        <v>270</v>
-      </c>
-      <c r="H65" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" t="s">
-        <v>467</v>
-      </c>
-      <c r="E66" t="s">
-        <v>130</v>
-      </c>
-      <c r="F66" t="s">
-        <v>239</v>
-      </c>
-      <c r="G66" t="s">
-        <v>271</v>
-      </c>
-      <c r="H66" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>73</v>
-      </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>536</v>
       </c>
       <c r="E67" t="s">
         <v>162</v>
       </c>
       <c r="F67" t="s">
-        <v>240</v>
-      </c>
-      <c r="G67" t="s">
-        <v>162</v>
-      </c>
-      <c r="H67" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="120" customHeight="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
+        <v>440</v>
+      </c>
+      <c r="C68" t="s">
+        <v>462</v>
+      </c>
+      <c r="D68" t="s">
+        <v>537</v>
+      </c>
+      <c r="E68" t="s">
+        <v>463</v>
+      </c>
+      <c r="F68" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" t="s">
+        <v>319</v>
+      </c>
+      <c r="C69" t="s">
+        <v>320</v>
+      </c>
+      <c r="D69" t="s">
+        <v>321</v>
+      </c>
+      <c r="E69" t="s">
+        <v>322</v>
+      </c>
+      <c r="F69" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
         <v>61</v>
       </c>
-      <c r="C68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="B70" t="s">
+        <v>477</v>
+      </c>
+      <c r="C70" t="s">
+        <v>399</v>
+      </c>
+      <c r="D70" t="s">
+        <v>538</v>
+      </c>
+      <c r="E70" t="s">
+        <v>400</v>
+      </c>
+      <c r="F70" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" t="s">
+        <v>353</v>
+      </c>
+      <c r="D71" t="s">
+        <v>539</v>
+      </c>
+      <c r="E71" t="s">
+        <v>269</v>
+      </c>
+      <c r="F71" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" t="s">
+        <v>354</v>
+      </c>
+      <c r="D72" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72" t="s">
+        <v>270</v>
+      </c>
+      <c r="F72" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" t="s">
+        <v>355</v>
+      </c>
+      <c r="D73" t="s">
+        <v>243</v>
+      </c>
+      <c r="E73" t="s">
+        <v>271</v>
+      </c>
+      <c r="F73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" t="s">
+        <v>356</v>
+      </c>
+      <c r="D74" t="s">
+        <v>540</v>
+      </c>
+      <c r="E74" t="s">
+        <v>272</v>
+      </c>
+      <c r="F74" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" t="s">
+        <v>244</v>
+      </c>
+      <c r="E75" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" t="s">
+        <v>357</v>
+      </c>
+      <c r="D76" t="s">
+        <v>245</v>
+      </c>
+      <c r="E76" t="s">
+        <v>273</v>
+      </c>
+      <c r="F76" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" t="s">
+        <v>451</v>
+      </c>
+      <c r="C77" t="s">
+        <v>464</v>
+      </c>
+      <c r="D77" t="s">
+        <v>541</v>
+      </c>
+      <c r="E77" t="s">
+        <v>465</v>
+      </c>
+      <c r="F77" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" t="s">
+        <v>508</v>
+      </c>
+      <c r="C78" t="s">
+        <v>466</v>
+      </c>
+      <c r="D78" t="s">
+        <v>542</v>
+      </c>
+      <c r="E78" t="s">
+        <v>467</v>
+      </c>
+      <c r="F78" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" t="s">
+        <v>443</v>
+      </c>
+      <c r="C79" t="s">
         <v>468</v>
-      </c>
-      <c r="E68" t="s">
-        <v>490</v>
-      </c>
-      <c r="F68" t="s">
-        <v>491</v>
-      </c>
-      <c r="G68" t="s">
-        <v>492</v>
-      </c>
-      <c r="H68" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="H69" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" t="s">
-        <v>335</v>
-      </c>
-      <c r="E70" t="s">
-        <v>336</v>
-      </c>
-      <c r="F70" t="s">
-        <v>337</v>
-      </c>
-      <c r="G70" t="s">
-        <v>338</v>
-      </c>
-      <c r="H70" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" t="s">
-        <v>512</v>
-      </c>
-      <c r="E71" t="s">
-        <v>422</v>
-      </c>
-      <c r="F71" t="s">
-        <v>423</v>
-      </c>
-      <c r="G71" t="s">
-        <v>424</v>
-      </c>
-      <c r="H71" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" t="s">
-        <v>101</v>
-      </c>
-      <c r="D72" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" t="s">
-        <v>373</v>
-      </c>
-      <c r="F72" t="s">
-        <v>253</v>
-      </c>
-      <c r="G72" t="s">
-        <v>283</v>
-      </c>
-      <c r="H72" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" t="s">
-        <v>374</v>
-      </c>
-      <c r="F73" t="s">
-        <v>254</v>
-      </c>
-      <c r="G73" t="s">
-        <v>284</v>
-      </c>
-      <c r="H73" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" t="s">
-        <v>97</v>
-      </c>
-      <c r="E74" t="s">
-        <v>375</v>
-      </c>
-      <c r="F74" t="s">
-        <v>255</v>
-      </c>
-      <c r="G74" t="s">
-        <v>285</v>
-      </c>
-      <c r="H74" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75" t="s">
-        <v>167</v>
-      </c>
-      <c r="E75" t="s">
-        <v>376</v>
-      </c>
-      <c r="F75" t="s">
-        <v>256</v>
-      </c>
-      <c r="G75" t="s">
-        <v>286</v>
-      </c>
-      <c r="H75" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" t="s">
-        <v>93</v>
-      </c>
-      <c r="D76" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" t="s">
-        <v>136</v>
-      </c>
-      <c r="F76" t="s">
-        <v>257</v>
-      </c>
-      <c r="G76" t="s">
-        <v>136</v>
-      </c>
-      <c r="H76" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" t="s">
-        <v>55</v>
-      </c>
-      <c r="C77" t="s">
-        <v>96</v>
-      </c>
-      <c r="D77" t="s">
-        <v>105</v>
-      </c>
-      <c r="E77" t="s">
-        <v>377</v>
-      </c>
-      <c r="F77" t="s">
-        <v>258</v>
-      </c>
-      <c r="G77" t="s">
-        <v>287</v>
-      </c>
-      <c r="H77" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" t="s">
-        <v>101</v>
-      </c>
-      <c r="D78" t="s">
-        <v>479</v>
-      </c>
-      <c r="E78" t="s">
-        <v>493</v>
-      </c>
-      <c r="F78" t="s">
-        <v>494</v>
-      </c>
-      <c r="G78" t="s">
-        <v>495</v>
-      </c>
-      <c r="H78" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" t="s">
-        <v>95</v>
       </c>
       <c r="D79" t="s">
         <v>543</v>
       </c>
       <c r="E79" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="F79" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" t="s">
+        <v>544</v>
+      </c>
+      <c r="E80" t="s">
+        <v>266</v>
+      </c>
+      <c r="F80" t="s">
         <v>497</v>
       </c>
-      <c r="G79" t="s">
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" t="s">
+        <v>545</v>
+      </c>
+      <c r="E81" t="s">
+        <v>267</v>
+      </c>
+      <c r="F81" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" t="s">
+        <v>546</v>
+      </c>
+      <c r="E82" t="s">
+        <v>268</v>
+      </c>
+      <c r="F82" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" t="s">
+        <v>280</v>
+      </c>
+      <c r="F83" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" t="s">
+        <v>332</v>
+      </c>
+      <c r="C84" t="s">
+        <v>333</v>
+      </c>
+      <c r="D84" t="s">
+        <v>547</v>
+      </c>
+      <c r="E84" t="s">
+        <v>334</v>
+      </c>
+      <c r="F84" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" t="s">
+        <v>250</v>
+      </c>
+      <c r="E85" t="s">
+        <v>281</v>
+      </c>
+      <c r="F85" t="s">
         <v>498</v>
       </c>
-      <c r="H79" t="s">
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" t="s">
+        <v>251</v>
+      </c>
+      <c r="E86" t="s">
+        <v>282</v>
+      </c>
+      <c r="F86" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" t="s">
+        <v>287</v>
+      </c>
+      <c r="C87" t="s">
+        <v>287</v>
+      </c>
+      <c r="D87" t="s">
+        <v>287</v>
+      </c>
+      <c r="E87" t="s">
+        <v>287</v>
+      </c>
+      <c r="F87" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>286</v>
+      </c>
+      <c r="B88" t="s">
+        <v>454</v>
+      </c>
+      <c r="C88" t="s">
+        <v>454</v>
+      </c>
+      <c r="D88" t="s">
+        <v>454</v>
+      </c>
+      <c r="E88" t="s">
+        <v>454</v>
+      </c>
+      <c r="F88" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" t="s">
+        <v>339</v>
+      </c>
+      <c r="C89" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" t="s">
+        <v>548</v>
+      </c>
+      <c r="E89" t="s">
+        <v>279</v>
+      </c>
+      <c r="F89" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" t="s">
+        <v>340</v>
+      </c>
+      <c r="C90" t="s">
+        <v>341</v>
+      </c>
+      <c r="D90" t="s">
+        <v>342</v>
+      </c>
+      <c r="E90" t="s">
+        <v>343</v>
+      </c>
+      <c r="F90" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" t="s">
+        <v>441</v>
+      </c>
+      <c r="C91" t="s">
+        <v>360</v>
+      </c>
+      <c r="D91" t="s">
+        <v>549</v>
+      </c>
+      <c r="E91" t="s">
+        <v>361</v>
+      </c>
+      <c r="F91" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92" t="s">
+        <v>429</v>
+      </c>
+      <c r="C92" t="s">
+        <v>430</v>
+      </c>
+      <c r="D92" t="s">
+        <v>550</v>
+      </c>
+      <c r="E92" t="s">
+        <v>362</v>
+      </c>
+      <c r="F92" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>285</v>
+      </c>
+      <c r="B93" t="s">
+        <v>452</v>
+      </c>
+      <c r="C93" t="s">
+        <v>470</v>
+      </c>
+      <c r="D93" t="s">
+        <v>560</v>
+      </c>
+      <c r="E93" t="s">
+        <v>471</v>
+      </c>
+      <c r="F93" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>286</v>
+      </c>
+      <c r="B94" t="s">
+        <v>453</v>
+      </c>
+      <c r="C94" t="s">
+        <v>453</v>
+      </c>
+      <c r="D94" t="s">
+        <v>551</v>
+      </c>
+      <c r="E94" t="s">
+        <v>453</v>
+      </c>
+      <c r="F94" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" t="s">
+        <v>66</v>
+      </c>
+      <c r="E95" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" t="s">
-        <v>98</v>
-      </c>
-      <c r="D80" t="s">
-        <v>471</v>
-      </c>
-      <c r="E80" t="s">
-        <v>499</v>
-      </c>
-      <c r="F80" t="s">
-        <v>500</v>
-      </c>
-      <c r="G80" t="s">
-        <v>501</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="E96" t="s">
+        <v>253</v>
+      </c>
+      <c r="F96" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" t="s">
+        <v>234</v>
+      </c>
+      <c r="E97" t="s">
+        <v>331</v>
+      </c>
+      <c r="F97" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" t="s">
+        <v>445</v>
+      </c>
+      <c r="C98" t="s">
+        <v>472</v>
+      </c>
+      <c r="D98" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" t="s">
-        <v>157</v>
-      </c>
-      <c r="E81" t="s">
-        <v>158</v>
-      </c>
-      <c r="F81" t="s">
-        <v>250</v>
-      </c>
-      <c r="G81" t="s">
-        <v>280</v>
-      </c>
-      <c r="H81" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" t="s">
-        <v>93</v>
-      </c>
-      <c r="D82" t="s">
-        <v>155</v>
-      </c>
-      <c r="E82" t="s">
-        <v>156</v>
-      </c>
-      <c r="F82" t="s">
-        <v>251</v>
-      </c>
-      <c r="G82" t="s">
-        <v>281</v>
-      </c>
-      <c r="H82" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" t="s">
-        <v>96</v>
-      </c>
-      <c r="D83" t="s">
-        <v>159</v>
-      </c>
-      <c r="E83" t="s">
-        <v>160</v>
-      </c>
-      <c r="F83" t="s">
-        <v>252</v>
-      </c>
-      <c r="G83" t="s">
-        <v>282</v>
-      </c>
-      <c r="H83" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>55</v>
-      </c>
-      <c r="C84" t="s">
-        <v>56</v>
-      </c>
-      <c r="D84" t="s">
-        <v>59</v>
-      </c>
-      <c r="E84" t="s">
-        <v>138</v>
-      </c>
-      <c r="F84" t="s">
-        <v>263</v>
-      </c>
-      <c r="G84" t="s">
-        <v>294</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="E98" t="s">
+        <v>473</v>
+      </c>
+      <c r="F98" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" t="s">
+        <v>460</v>
+      </c>
+      <c r="C99" t="s">
+        <v>401</v>
+      </c>
+      <c r="D99" t="s">
+        <v>555</v>
+      </c>
+      <c r="E99" t="s">
+        <v>402</v>
+      </c>
+      <c r="F99" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" t="s">
+        <v>461</v>
+      </c>
+      <c r="C100" t="s">
+        <v>403</v>
+      </c>
+      <c r="D100" t="s">
+        <v>556</v>
+      </c>
+      <c r="E100" t="s">
+        <v>404</v>
+      </c>
+      <c r="F100" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" t="s">
+        <v>358</v>
+      </c>
+      <c r="D101" t="s">
+        <v>247</v>
+      </c>
+      <c r="E101" t="s">
+        <v>274</v>
+      </c>
+      <c r="F101" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" t="s">
+        <v>66</v>
+      </c>
+      <c r="D102" t="s">
+        <v>66</v>
+      </c>
+      <c r="E102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" t="s">
+        <v>359</v>
+      </c>
+      <c r="D103" t="s">
+        <v>246</v>
+      </c>
+      <c r="E103" t="s">
+        <v>275</v>
+      </c>
+      <c r="F103" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>234</v>
+      </c>
+      <c r="E104" t="s">
+        <v>254</v>
+      </c>
+      <c r="F104" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" t="s">
-        <v>58</v>
-      </c>
-      <c r="D85" t="s">
-        <v>348</v>
-      </c>
-      <c r="E85" t="s">
-        <v>349</v>
-      </c>
-      <c r="F85" t="s">
-        <v>350</v>
-      </c>
-      <c r="G85" t="s">
-        <v>351</v>
-      </c>
-      <c r="H85" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
-        <v>55</v>
-      </c>
-      <c r="C86" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" t="s">
-        <v>63</v>
-      </c>
-      <c r="E86" t="s">
-        <v>139</v>
-      </c>
-      <c r="F86" t="s">
-        <v>264</v>
-      </c>
-      <c r="G86" t="s">
-        <v>295</v>
-      </c>
-      <c r="H86" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
-        <v>55</v>
-      </c>
-      <c r="C87" t="s">
-        <v>57</v>
-      </c>
-      <c r="D87" t="s">
-        <v>60</v>
-      </c>
-      <c r="E87" t="s">
-        <v>168</v>
-      </c>
-      <c r="F87" t="s">
-        <v>265</v>
-      </c>
-      <c r="G87" t="s">
-        <v>296</v>
-      </c>
-      <c r="H87" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s">
-        <v>55</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B105" t="s">
+        <v>397</v>
+      </c>
+      <c r="C105" t="s">
+        <v>397</v>
+      </c>
+      <c r="D105" t="s">
+        <v>397</v>
+      </c>
+      <c r="E105" t="s">
+        <v>397</v>
+      </c>
+      <c r="F105" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>372</v>
+      </c>
+      <c r="B106" t="s">
+        <v>446</v>
+      </c>
+      <c r="C106" t="s">
+        <v>448</v>
+      </c>
+      <c r="D106" t="s">
+        <v>447</v>
+      </c>
+      <c r="E106" t="s">
+        <v>449</v>
+      </c>
+      <c r="F106" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>292</v>
+      </c>
+      <c r="B107" t="s">
+        <v>437</v>
+      </c>
+      <c r="C107" t="s">
+        <v>474</v>
+      </c>
+      <c r="D107" t="s">
+        <v>557</v>
+      </c>
+      <c r="E107" t="s">
+        <v>475</v>
+      </c>
+      <c r="F107" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>298</v>
+      </c>
+      <c r="B108" t="s">
+        <v>513</v>
+      </c>
+      <c r="C108" t="s">
+        <v>514</v>
+      </c>
+      <c r="D108" t="s">
+        <v>561</v>
+      </c>
+      <c r="E108" t="s">
+        <v>515</v>
+      </c>
+      <c r="F108" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
         <v>299</v>
       </c>
-      <c r="D88" t="s">
-        <v>301</v>
-      </c>
-      <c r="E88" t="s">
-        <v>301</v>
-      </c>
-      <c r="F88" t="s">
-        <v>301</v>
-      </c>
-      <c r="G88" t="s">
-        <v>301</v>
-      </c>
-      <c r="H88" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" t="s">
-        <v>55</v>
-      </c>
-      <c r="C89" t="s">
-        <v>300</v>
-      </c>
-      <c r="D89" t="s">
-        <v>482</v>
-      </c>
-      <c r="E89" t="s">
-        <v>482</v>
-      </c>
-      <c r="F89" t="s">
-        <v>482</v>
-      </c>
-      <c r="G89" t="s">
-        <v>482</v>
-      </c>
-      <c r="H89" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
-        <v>61</v>
-      </c>
-      <c r="C90" t="s">
-        <v>56</v>
-      </c>
-      <c r="D90" t="s">
-        <v>356</v>
-      </c>
-      <c r="E90" t="s">
-        <v>154</v>
-      </c>
-      <c r="F90" t="s">
-        <v>262</v>
-      </c>
-      <c r="G90" t="s">
-        <v>293</v>
-      </c>
-      <c r="H90" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C91" t="s">
-        <v>58</v>
-      </c>
-      <c r="D91" t="s">
-        <v>357</v>
-      </c>
-      <c r="E91" t="s">
-        <v>358</v>
-      </c>
-      <c r="F91" t="s">
-        <v>359</v>
-      </c>
-      <c r="G91" t="s">
-        <v>360</v>
-      </c>
-      <c r="H91" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
-        <v>61</v>
-      </c>
-      <c r="C92" t="s">
-        <v>62</v>
-      </c>
-      <c r="D92" t="s">
-        <v>469</v>
-      </c>
-      <c r="E92" t="s">
-        <v>380</v>
-      </c>
-      <c r="F92" t="s">
-        <v>381</v>
-      </c>
-      <c r="G92" t="s">
-        <v>382</v>
-      </c>
-      <c r="H92" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93" t="s">
-        <v>455</v>
-      </c>
-      <c r="E93" t="s">
-        <v>456</v>
-      </c>
-      <c r="F93" t="s">
-        <v>457</v>
-      </c>
-      <c r="G93" t="s">
-        <v>383</v>
-      </c>
-      <c r="H93" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94" t="s">
-        <v>299</v>
-      </c>
-      <c r="D94" t="s">
-        <v>480</v>
-      </c>
-      <c r="E94" t="s">
-        <v>502</v>
-      </c>
-      <c r="F94" t="s">
-        <v>503</v>
-      </c>
-      <c r="G94" t="s">
-        <v>504</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="B109" t="s">
+        <v>509</v>
+      </c>
+      <c r="D109" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
-        <v>61</v>
-      </c>
-      <c r="C95" t="s">
-        <v>300</v>
-      </c>
-      <c r="D95" t="s">
-        <v>481</v>
-      </c>
-      <c r="E95" t="s">
-        <v>481</v>
-      </c>
-      <c r="F95" t="s">
-        <v>481</v>
-      </c>
-      <c r="G95" t="s">
-        <v>481</v>
-      </c>
-      <c r="H95" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="s">
-        <v>111</v>
-      </c>
-      <c r="B96" t="s">
-        <v>55</v>
-      </c>
-      <c r="C96" t="s">
-        <v>66</v>
-      </c>
-      <c r="D96" t="s">
-        <v>70</v>
-      </c>
-      <c r="E96" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" t="s">
-        <v>66</v>
-      </c>
-      <c r="G96" t="s">
-        <v>66</v>
-      </c>
-      <c r="H96" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>111</v>
-      </c>
-      <c r="B97" t="s">
-        <v>55</v>
-      </c>
-      <c r="C97" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" t="s">
-        <v>120</v>
-      </c>
-      <c r="E97" t="s">
-        <v>124</v>
-      </c>
-      <c r="F97" t="s">
-        <v>235</v>
-      </c>
-      <c r="G97" t="s">
-        <v>267</v>
-      </c>
-      <c r="H97" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>111</v>
-      </c>
-      <c r="B98" t="s">
-        <v>55</v>
-      </c>
-      <c r="C98" t="s">
-        <v>68</v>
-      </c>
-      <c r="D98" t="s">
-        <v>72</v>
-      </c>
-      <c r="E98" t="s">
-        <v>125</v>
-      </c>
-      <c r="F98" t="s">
-        <v>236</v>
-      </c>
-      <c r="G98" t="s">
-        <v>347</v>
-      </c>
-      <c r="H98" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>111</v>
-      </c>
-      <c r="B99" t="s">
-        <v>61</v>
-      </c>
-      <c r="C99" t="s">
-        <v>117</v>
-      </c>
-      <c r="D99" t="s">
-        <v>473</v>
-      </c>
-      <c r="E99" t="s">
-        <v>505</v>
-      </c>
-      <c r="F99" t="s">
-        <v>507</v>
-      </c>
-      <c r="G99" t="s">
-        <v>506</v>
-      </c>
-      <c r="H99" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>111</v>
-      </c>
-      <c r="B100" t="s">
-        <v>61</v>
-      </c>
-      <c r="C100" t="s">
-        <v>118</v>
-      </c>
-      <c r="D100" t="s">
-        <v>488</v>
-      </c>
-      <c r="E100" t="s">
-        <v>425</v>
-      </c>
-      <c r="F100" t="s">
-        <v>426</v>
-      </c>
-      <c r="G100" t="s">
-        <v>427</v>
-      </c>
-      <c r="H100" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101" t="s">
-        <v>61</v>
-      </c>
-      <c r="C101" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" t="s">
-        <v>489</v>
-      </c>
-      <c r="E101" t="s">
-        <v>428</v>
-      </c>
-      <c r="F101" t="s">
-        <v>429</v>
-      </c>
-      <c r="G101" t="s">
-        <v>430</v>
-      </c>
-      <c r="H101" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>64</v>
-      </c>
-      <c r="B102" t="s">
-        <v>55</v>
-      </c>
-      <c r="C102" t="s">
-        <v>65</v>
-      </c>
-      <c r="D102" t="s">
-        <v>69</v>
-      </c>
-      <c r="E102" t="s">
-        <v>378</v>
-      </c>
-      <c r="F102" t="s">
-        <v>260</v>
-      </c>
-      <c r="G102" t="s">
-        <v>288</v>
-      </c>
-      <c r="H102" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>64</v>
-      </c>
-      <c r="B103" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103" t="s">
-        <v>66</v>
-      </c>
-      <c r="D103" t="s">
-        <v>70</v>
-      </c>
-      <c r="E103" t="s">
-        <v>66</v>
-      </c>
-      <c r="F103" t="s">
-        <v>66</v>
-      </c>
-      <c r="G103" t="s">
-        <v>66</v>
-      </c>
-      <c r="H103" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>64</v>
-      </c>
-      <c r="B104" t="s">
-        <v>55</v>
-      </c>
-      <c r="C104" t="s">
-        <v>67</v>
-      </c>
-      <c r="D104" t="s">
-        <v>71</v>
-      </c>
-      <c r="E104" t="s">
-        <v>379</v>
-      </c>
-      <c r="F104" t="s">
-        <v>259</v>
-      </c>
-      <c r="G104" t="s">
-        <v>289</v>
-      </c>
-      <c r="H104" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>64</v>
-      </c>
-      <c r="B105" t="s">
-        <v>55</v>
-      </c>
-      <c r="C105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D105" t="s">
-        <v>72</v>
-      </c>
-      <c r="E105" t="s">
-        <v>68</v>
-      </c>
-      <c r="F105" t="s">
-        <v>236</v>
-      </c>
-      <c r="G105" t="s">
-        <v>268</v>
-      </c>
-      <c r="H105" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>395</v>
-      </c>
-      <c r="B106" t="s">
-        <v>396</v>
-      </c>
-      <c r="C106" t="s">
-        <v>313</v>
-      </c>
-      <c r="D106" t="s">
-        <v>420</v>
-      </c>
-      <c r="E106" t="s">
-        <v>420</v>
-      </c>
-      <c r="F106" t="s">
-        <v>420</v>
-      </c>
-      <c r="G106" t="s">
-        <v>420</v>
-      </c>
-      <c r="H106" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
-        <v>306</v>
-      </c>
-      <c r="B107" t="s">
-        <v>61</v>
-      </c>
-      <c r="C107" t="s">
-        <v>394</v>
-      </c>
-      <c r="D107" t="s">
-        <v>474</v>
-      </c>
-      <c r="E107" t="s">
-        <v>476</v>
-      </c>
-      <c r="F107" t="s">
-        <v>475</v>
-      </c>
-      <c r="G107" t="s">
-        <v>477</v>
-      </c>
-      <c r="H107" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>306</v>
-      </c>
-      <c r="B108" t="s">
-        <v>61</v>
-      </c>
-      <c r="C108" t="s">
-        <v>307</v>
-      </c>
-      <c r="D108" t="s">
-        <v>465</v>
-      </c>
-      <c r="E108" t="s">
-        <v>508</v>
-      </c>
-      <c r="F108" t="s">
-        <v>509</v>
-      </c>
-      <c r="G108" t="s">
-        <v>510</v>
-      </c>
-      <c r="H108" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>306</v>
-      </c>
-      <c r="B109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C109" t="s">
-        <v>313</v>
-      </c>
-      <c r="D109" t="s">
-        <v>548</v>
-      </c>
-      <c r="E109" t="s">
-        <v>549</v>
-      </c>
       <c r="F109" t="s">
-        <v>550</v>
-      </c>
-      <c r="G109" t="s">
-        <v>551</v>
-      </c>
-      <c r="H109" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>306</v>
-      </c>
-      <c r="B110" t="s">
-        <v>61</v>
-      </c>
-      <c r="C110" t="s">
-        <v>314</v>
-      </c>
-      <c r="D110" t="s">
-        <v>544</v>
-      </c>
-      <c r="H110" t="s">
-        <v>564</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="800" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7400" yWindow="800" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
-    <sheet name="Blatt1" sheetId="7" r:id="rId2"/>
+    <sheet name="Blatt1" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$117</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="566">
   <si>
     <t>typ</t>
   </si>
@@ -1575,10 +1575,6 @@
     <t>Die Digitale Gesellschaft ist ein offener Zusammenschluss netzpolitisch interessierter Kreise. Dem Bündnis angeschlossen sind rund 50 Einzelpersonen und 15 Gruppierungen. Dazu gehören Grundrechtsorganisationen, Parteien, KünstlerInnen-Kollektive, BetreiberInnen von Netzwerkdiensten und weiteren Gruppen, die sich der kritischen, digitalen Zivilgesellschaft verpflichtet fühlen. &lt;br&gt;&lt;br&gt;Weitere Informationen zu netzpolitischen Themen sind im Blog zu finden: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">midar an modi maletg antir
-</t>
-  </si>
-  <si>
     <t>tradiment da la patria, desarar malsongas humanas, abus d'uffezi,
 servetsch d'infurmaziun scumando</t>
   </si>
@@ -1735,6 +1731,18 @@
   </si>
   <si>
     <t>midar an modi maletg antir</t>
+  </si>
+  <si>
+    <t>tradiment da la patria, desarar malsongas humanas, abus d'uffezi,</t>
+  </si>
+  <si>
+    <t>servetsch d'infurmaziun scumando</t>
+  </si>
+  <si>
+    <t>La Societad Digitala Svizzra publitgescha annual igl “Swiss Lawfull Interception Report” tgi sa tracta sur la survigilaziun digl stadi en Svizzra. La visualisaziun cumplettescha igl report interactiv e mossa detaglià, scu tgi igl Cantuns survigileschan. Chatta or, per tge delicts igls voss dretgs fundamentals reivan restranschia. &lt;br&gt;&lt;br&gt;&lt;small&gt;Las datas ainten quella statistica cuntignan sulettamain mesiras da survigilaziun siva urdan da process penal. Exceptà en missiuns digl IMSI-Catcher, trojan digl stadi ni mesiras da survigilaziun digl servetsch da spiunadi.&lt;/small&gt;</t>
+  </si>
+  <si>
+    <t>La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1839,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="261">
+  <cellStyleXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2022,6 +2030,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2133,7 +2143,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="261">
+  <cellStyles count="263">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2272,6 +2282,7 @@
     <cellStyle name="Besuchter Link" xfId="256" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="258" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2394,6 +2405,7 @@
     <cellStyle name="Link" xfId="255" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="257" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -2808,11 +2820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3044,7 +3055,7 @@
         <v>369</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>370</v>
@@ -3106,7 +3117,7 @@
         <v>338</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
@@ -3128,7 +3139,7 @@
         <v>306</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>348</v>
@@ -3184,7 +3195,7 @@
         <v>305</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>351</v>
@@ -3386,7 +3397,7 @@
         <v>482</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
@@ -3440,7 +3451,7 @@
         <v>395</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>396</v>
@@ -4536,7 +4547,7 @@
         <v>130</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>257</v>
@@ -4592,7 +4603,7 @@
         <v>134</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>258</v>
@@ -4620,7 +4631,7 @@
         <v>135</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>259</v>
@@ -4648,7 +4659,7 @@
         <v>289</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>290</v>
@@ -4704,7 +4715,7 @@
         <v>300</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>301</v>
@@ -4760,7 +4771,7 @@
         <v>166</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>311</v>
@@ -4788,7 +4799,7 @@
         <v>164</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>256</v>
@@ -4816,7 +4827,7 @@
         <v>130</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>257</v>
@@ -4844,7 +4855,7 @@
         <v>162</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>162</v>
@@ -4872,13 +4883,13 @@
         <v>462</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>463</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
@@ -4928,7 +4939,7 @@
         <v>399</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>400</v>
@@ -4956,7 +4967,7 @@
         <v>353</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>269</v>
@@ -5040,7 +5051,7 @@
         <v>356</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>272</v>
@@ -5124,7 +5135,7 @@
         <v>464</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>465</v>
@@ -5152,13 +5163,13 @@
         <v>466</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>467</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
@@ -5180,13 +5191,13 @@
         <v>468</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>469</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
@@ -5208,7 +5219,7 @@
         <v>158</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>266</v>
@@ -5236,7 +5247,7 @@
         <v>156</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>267</v>
@@ -5264,7 +5275,7 @@
         <v>160</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>268</v>
@@ -5320,7 +5331,7 @@
         <v>333</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>334</v>
@@ -5464,7 +5475,7 @@
         <v>154</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>279</v>
@@ -5520,13 +5531,13 @@
         <v>360</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>361</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
@@ -5548,7 +5559,7 @@
         <v>430</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>362</v>
@@ -5609,13 +5620,13 @@
         <v>470</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>471</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="1"/>
@@ -5637,7 +5648,7 @@
         <v>453</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>453</v>
@@ -5665,13 +5676,13 @@
         <v>123</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>252</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="1">
@@ -5723,7 +5734,7 @@
         <v>124</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>253</v>
@@ -5779,7 +5790,7 @@
         <v>472</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>473</v>
@@ -5807,13 +5818,13 @@
         <v>401</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>402</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="1"/>
@@ -5835,7 +5846,7 @@
         <v>403</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>404</v>
@@ -6075,7 +6086,7 @@
         <v>474</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>475</v>
@@ -6103,7 +6114,7 @@
         <v>434</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>435</v>
@@ -6232,10 +6243,10 @@
         <v>509</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="1"/>
@@ -6261,43 +6272,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>169</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>170</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>178</v>
-      </c>
-      <c r="B2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>173</v>
       </c>
       <c r="D2" t="s">
         <v>173</v>
@@ -6308,16 +6325,22 @@
       <c r="F2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>179</v>
-      </c>
-      <c r="B3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" t="s">
-        <v>174</v>
       </c>
       <c r="D3" t="s">
         <v>174</v>
@@ -6328,16 +6351,22 @@
       <c r="F3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" t="s">
-        <v>175</v>
       </c>
       <c r="D4" t="s">
         <v>175</v>
@@ -6348,16 +6377,22 @@
       <c r="F4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>180</v>
-      </c>
-      <c r="B5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" t="s">
-        <v>176</v>
       </c>
       <c r="D5" t="s">
         <v>176</v>
@@ -6368,16 +6403,22 @@
       <c r="F5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
         <v>181</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" t="s">
-        <v>177</v>
       </c>
       <c r="D6" t="s">
         <v>177</v>
@@ -6388,136 +6429,178 @@
       <c r="F6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>73</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>153</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>369</v>
       </c>
-      <c r="D7" t="s">
-        <v>524</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G7" t="s">
         <v>370</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
         <v>110</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>393</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>392</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>391</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>390</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>109</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>476</v>
-      </c>
-      <c r="C9" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9" t="s">
-        <v>338</v>
       </c>
       <c r="E9" t="s">
         <v>338</v>
       </c>
       <c r="F9" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>338</v>
+      </c>
+      <c r="G9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>114</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>306</v>
       </c>
-      <c r="D10" t="s">
-        <v>525</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>524</v>
+      </c>
+      <c r="G10" t="s">
         <v>348</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" t="s">
-        <v>304</v>
       </c>
       <c r="D11" t="s">
         <v>113</v>
       </c>
       <c r="E11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
         <v>349</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>112</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>305</v>
       </c>
-      <c r="D12" t="s">
-        <v>526</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>525</v>
+      </c>
+      <c r="G12" t="s">
         <v>351</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
         <v>298</v>
-      </c>
-      <c r="B13" t="s">
-        <v>344</v>
-      </c>
-      <c r="C13" t="s">
-        <v>344</v>
       </c>
       <c r="D13" t="s">
         <v>344</v>
@@ -6528,616 +6611,802 @@
       <c r="F13" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>344</v>
+      </c>
+      <c r="H13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>299</v>
-      </c>
-      <c r="B14" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14" t="s">
-        <v>346</v>
       </c>
       <c r="D14" t="s">
         <v>345</v>
       </c>
       <c r="E14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F14" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>347</v>
+      </c>
+      <c r="H14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>372</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>381</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>382</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>383</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>384</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>115</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>307</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>276</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>277</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
         <v>106</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>107</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>137</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>248</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>278</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
         <v>386</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>387</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>387</v>
-      </c>
-      <c r="D18" t="s">
-        <v>386</v>
-      </c>
-      <c r="E18" t="s">
-        <v>388</v>
       </c>
       <c r="F18" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>388</v>
+      </c>
+      <c r="H18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
         <v>478</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>479</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>480</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>481</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>482</v>
       </c>
-      <c r="F19" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>394</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>431</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>395</v>
       </c>
-      <c r="D20" t="s">
-        <v>527</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>526</v>
+      </c>
+      <c r="G20" t="s">
         <v>396</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
         <v>406</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>411</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>411</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>413</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>412</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
         <v>407</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>409</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>414</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>415</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>416</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>408</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>410</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>418</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>419</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>420</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>140</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>232</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>233</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
         <v>293</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>294</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>295</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>296</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>297</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>185</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>196</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>143</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>182</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>197</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>144</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>183</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>198</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>142</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>184</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>199</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>141</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>141</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>200</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>145</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>186</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>201</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>36</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>36</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>187</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>202</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>146</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>146</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>203</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
         <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
       </c>
       <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
         <v>204</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>39</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>147</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>147</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>205</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
         <v>12</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>40</v>
-      </c>
-      <c r="C36" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" t="s">
-        <v>148</v>
       </c>
       <c r="E36" t="s">
         <v>148</v>
       </c>
       <c r="F36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
         <v>13</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>41</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>41</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>188</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>206</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>42</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>42</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>189</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>207</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
         <v>15</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>43</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>190</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>208</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
         <v>16</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>44</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>44</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>191</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>209</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
         <v>18</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>45</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>45</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>192</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
         <v>17</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>46</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>46</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>193</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>211</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
         <v>19</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>47</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>47</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>194</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>212</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
         <v>20</v>
-      </c>
-      <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" t="s">
-        <v>149</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
@@ -7148,16 +7417,22 @@
       <c r="F44" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
         <v>21</v>
-      </c>
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
       </c>
       <c r="D45" t="s">
         <v>49</v>
@@ -7168,316 +7443,412 @@
       <c r="F45" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
         <v>22</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" t="s">
-        <v>150</v>
       </c>
       <c r="E46" t="s">
         <v>150</v>
       </c>
       <c r="F46" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H46" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
         <v>23</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>51</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>151</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>151</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>213</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>52</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>52</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>195</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>214</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
         <v>25</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>30</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>152</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>152</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>215</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
         <v>82</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>74</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>126</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>235</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>235</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
         <v>83</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>75</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>127</v>
-      </c>
-      <c r="D51" t="s">
-        <v>236</v>
-      </c>
-      <c r="E51" t="s">
-        <v>261</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="s">
+        <v>261</v>
+      </c>
+      <c r="H51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
         <v>84</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>80</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>128</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>237</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>262</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
         <v>85</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>81</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>129</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>238</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
         <v>86</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>76</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>133</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>239</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>263</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
         <v>87</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>77</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>132</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>240</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>264</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
         <v>88</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>104</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>130</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
+        <v>527</v>
+      </c>
+      <c r="G56" t="s">
+        <v>257</v>
+      </c>
+      <c r="H56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" t="s">
+        <v>241</v>
+      </c>
+      <c r="G57" t="s">
+        <v>265</v>
+      </c>
+      <c r="H57" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" t="s">
+        <v>134</v>
+      </c>
+      <c r="F58" t="s">
         <v>528</v>
       </c>
-      <c r="E56" t="s">
-        <v>257</v>
-      </c>
-      <c r="F56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" t="s">
-        <v>241</v>
-      </c>
-      <c r="E57" t="s">
-        <v>265</v>
-      </c>
-      <c r="F57" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="G58" t="s">
+        <v>258</v>
+      </c>
+      <c r="H58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" t="s">
         <v>529</v>
       </c>
-      <c r="E58" t="s">
-        <v>258</v>
-      </c>
-      <c r="F58" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="G59" t="s">
+        <v>259</v>
+      </c>
+      <c r="H59" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" t="s">
+        <v>288</v>
+      </c>
+      <c r="E60" t="s">
+        <v>289</v>
+      </c>
+      <c r="F60" t="s">
         <v>530</v>
       </c>
-      <c r="E59" t="s">
-        <v>259</v>
-      </c>
-      <c r="F59" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" t="s">
-        <v>288</v>
-      </c>
-      <c r="C60" t="s">
-        <v>289</v>
-      </c>
-      <c r="D60" t="s">
-        <v>531</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>290</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
         <v>83</v>
-      </c>
-      <c r="B61" t="s">
-        <v>371</v>
-      </c>
-      <c r="C61" t="s">
-        <v>371</v>
       </c>
       <c r="D61" t="s">
         <v>371</v>
@@ -7488,959 +7859,1258 @@
       <c r="F61" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" t="s">
+        <v>371</v>
+      </c>
+      <c r="H61" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
         <v>84</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" t="s">
         <v>438</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>300</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
+        <v>531</v>
+      </c>
+      <c r="G62" t="s">
+        <v>301</v>
+      </c>
+      <c r="H62" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" t="s">
+        <v>308</v>
+      </c>
+      <c r="E63" t="s">
+        <v>309</v>
+      </c>
+      <c r="F63" t="s">
+        <v>310</v>
+      </c>
+      <c r="G63" t="s">
+        <v>312</v>
+      </c>
+      <c r="H63" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" t="s">
+        <v>166</v>
+      </c>
+      <c r="F64" t="s">
         <v>532</v>
       </c>
-      <c r="E62" t="s">
-        <v>301</v>
-      </c>
-      <c r="F62" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>85</v>
-      </c>
-      <c r="B63" t="s">
-        <v>308</v>
-      </c>
-      <c r="C63" t="s">
-        <v>309</v>
-      </c>
-      <c r="D63" t="s">
-        <v>310</v>
-      </c>
-      <c r="E63" t="s">
-        <v>312</v>
-      </c>
-      <c r="F63" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="G64" t="s">
+        <v>311</v>
+      </c>
+      <c r="H64" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F65" t="s">
         <v>533</v>
       </c>
-      <c r="E64" t="s">
-        <v>311</v>
-      </c>
-      <c r="F64" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>87</v>
-      </c>
-      <c r="B65" t="s">
-        <v>163</v>
-      </c>
-      <c r="C65" t="s">
-        <v>164</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="G65" t="s">
+        <v>256</v>
+      </c>
+      <c r="H65" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>439</v>
+      </c>
+      <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>534</v>
       </c>
-      <c r="E65" t="s">
-        <v>256</v>
-      </c>
-      <c r="F65" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" t="s">
-        <v>439</v>
-      </c>
-      <c r="C66" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" t="s">
-        <v>535</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="G66" t="s">
         <v>257</v>
       </c>
-      <c r="F66" t="s">
+      <c r="H66" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" t="s">
         <v>89</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
         <v>161</v>
-      </c>
-      <c r="C67" t="s">
-        <v>162</v>
-      </c>
-      <c r="D67" t="s">
-        <v>536</v>
       </c>
       <c r="E67" t="s">
         <v>162</v>
       </c>
       <c r="F67" t="s">
+        <v>535</v>
+      </c>
+      <c r="G67" t="s">
+        <v>162</v>
+      </c>
+      <c r="H67" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:8" ht="120" customHeight="1">
       <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
         <v>90</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
         <v>440</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>462</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
+        <v>536</v>
+      </c>
+      <c r="G68" t="s">
+        <v>463</v>
+      </c>
+      <c r="H68" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="H69" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" t="s">
+        <v>319</v>
+      </c>
+      <c r="E70" t="s">
+        <v>320</v>
+      </c>
+      <c r="F70" t="s">
+        <v>321</v>
+      </c>
+      <c r="G70" t="s">
+        <v>322</v>
+      </c>
+      <c r="H70" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" t="s">
+        <v>477</v>
+      </c>
+      <c r="E71" t="s">
+        <v>399</v>
+      </c>
+      <c r="F71" t="s">
         <v>537</v>
       </c>
-      <c r="E68" t="s">
-        <v>463</v>
-      </c>
-      <c r="F68" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" t="s">
-        <v>319</v>
-      </c>
-      <c r="C69" t="s">
-        <v>320</v>
-      </c>
-      <c r="D69" t="s">
-        <v>321</v>
-      </c>
-      <c r="E69" t="s">
-        <v>322</v>
-      </c>
-      <c r="F69" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
+      <c r="G71" t="s">
+        <v>400</v>
+      </c>
+      <c r="H71" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" t="s">
+        <v>353</v>
+      </c>
+      <c r="F72" t="s">
+        <v>538</v>
+      </c>
+      <c r="G72" t="s">
+        <v>269</v>
+      </c>
+      <c r="H72" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" t="s">
+        <v>354</v>
+      </c>
+      <c r="F73" t="s">
+        <v>242</v>
+      </c>
+      <c r="G73" t="s">
+        <v>270</v>
+      </c>
+      <c r="H73" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" t="s">
+        <v>355</v>
+      </c>
+      <c r="F74" t="s">
+        <v>243</v>
+      </c>
+      <c r="G74" t="s">
+        <v>271</v>
+      </c>
+      <c r="H74" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" t="s">
+        <v>356</v>
+      </c>
+      <c r="F75" t="s">
+        <v>539</v>
+      </c>
+      <c r="G75" t="s">
+        <v>272</v>
+      </c>
+      <c r="H75" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" t="s">
+        <v>244</v>
+      </c>
+      <c r="G76" t="s">
+        <v>136</v>
+      </c>
+      <c r="H76" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" t="s">
+        <v>357</v>
+      </c>
+      <c r="F77" t="s">
+        <v>245</v>
+      </c>
+      <c r="G77" t="s">
+        <v>273</v>
+      </c>
+      <c r="H77" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
         <v>61</v>
       </c>
-      <c r="B70" t="s">
-        <v>477</v>
-      </c>
-      <c r="C70" t="s">
-        <v>399</v>
-      </c>
-      <c r="D70" t="s">
-        <v>538</v>
-      </c>
-      <c r="E70" t="s">
-        <v>400</v>
-      </c>
-      <c r="F70" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
+      <c r="C78" t="s">
         <v>101</v>
       </c>
-      <c r="B71" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" t="s">
-        <v>353</v>
-      </c>
-      <c r="D71" t="s">
-        <v>539</v>
-      </c>
-      <c r="E71" t="s">
-        <v>269</v>
-      </c>
-      <c r="F71" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
+      <c r="D78" t="s">
+        <v>451</v>
+      </c>
+      <c r="E78" t="s">
+        <v>464</v>
+      </c>
+      <c r="F78" t="s">
+        <v>540</v>
+      </c>
+      <c r="G78" t="s">
+        <v>465</v>
+      </c>
+      <c r="H78" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" t="s">
         <v>95</v>
       </c>
-      <c r="B72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" t="s">
-        <v>354</v>
-      </c>
-      <c r="D72" t="s">
-        <v>242</v>
-      </c>
-      <c r="E72" t="s">
-        <v>270</v>
-      </c>
-      <c r="F72" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
+      <c r="D79" t="s">
+        <v>508</v>
+      </c>
+      <c r="E79" t="s">
+        <v>466</v>
+      </c>
+      <c r="F79" t="s">
+        <v>541</v>
+      </c>
+      <c r="G79" t="s">
+        <v>467</v>
+      </c>
+      <c r="H79" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" t="s">
         <v>98</v>
       </c>
-      <c r="B73" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" t="s">
-        <v>355</v>
-      </c>
-      <c r="D73" t="s">
-        <v>243</v>
-      </c>
-      <c r="E73" t="s">
-        <v>271</v>
-      </c>
-      <c r="F73" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
+      <c r="D80" t="s">
+        <v>443</v>
+      </c>
+      <c r="E80" t="s">
+        <v>468</v>
+      </c>
+      <c r="F80" t="s">
+        <v>542</v>
+      </c>
+      <c r="G80" t="s">
+        <v>469</v>
+      </c>
+      <c r="H80" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" t="s">
         <v>99</v>
       </c>
-      <c r="B74" t="s">
-        <v>167</v>
-      </c>
-      <c r="C74" t="s">
-        <v>356</v>
-      </c>
-      <c r="D74" t="s">
-        <v>540</v>
-      </c>
-      <c r="E74" t="s">
-        <v>272</v>
-      </c>
-      <c r="F74" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
+      <c r="D81" t="s">
+        <v>157</v>
+      </c>
+      <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
+        <v>543</v>
+      </c>
+      <c r="G81" t="s">
+        <v>266</v>
+      </c>
+      <c r="H81" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" t="s">
         <v>93</v>
       </c>
-      <c r="B75" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" t="s">
-        <v>244</v>
-      </c>
-      <c r="E75" t="s">
-        <v>136</v>
-      </c>
-      <c r="F75" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
+      <c r="D82" t="s">
+        <v>155</v>
+      </c>
+      <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
+        <v>544</v>
+      </c>
+      <c r="G82" t="s">
+        <v>267</v>
+      </c>
+      <c r="H82" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" t="s">
         <v>96</v>
       </c>
-      <c r="B76" t="s">
-        <v>105</v>
-      </c>
-      <c r="C76" t="s">
-        <v>357</v>
-      </c>
-      <c r="D76" t="s">
-        <v>245</v>
-      </c>
-      <c r="E76" t="s">
-        <v>273</v>
-      </c>
-      <c r="F76" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>101</v>
-      </c>
-      <c r="B77" t="s">
-        <v>451</v>
-      </c>
-      <c r="C77" t="s">
-        <v>464</v>
-      </c>
-      <c r="D77" t="s">
-        <v>541</v>
-      </c>
-      <c r="E77" t="s">
-        <v>465</v>
-      </c>
-      <c r="F77" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" t="s">
-        <v>508</v>
-      </c>
-      <c r="C78" t="s">
-        <v>466</v>
-      </c>
-      <c r="D78" t="s">
-        <v>542</v>
-      </c>
-      <c r="E78" t="s">
-        <v>467</v>
-      </c>
-      <c r="F78" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" t="s">
-        <v>443</v>
-      </c>
-      <c r="C79" t="s">
-        <v>468</v>
-      </c>
-      <c r="D79" t="s">
-        <v>543</v>
-      </c>
-      <c r="E79" t="s">
-        <v>469</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="D83" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
+        <v>545</v>
+      </c>
+      <c r="G83" t="s">
+        <v>268</v>
+      </c>
+      <c r="H83" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E84" t="s">
+        <v>138</v>
+      </c>
+      <c r="F84" t="s">
+        <v>249</v>
+      </c>
+      <c r="G84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H84" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" t="s">
+        <v>332</v>
+      </c>
+      <c r="E85" t="s">
+        <v>333</v>
+      </c>
+      <c r="F85" t="s">
+        <v>546</v>
+      </c>
+      <c r="G85" t="s">
+        <v>334</v>
+      </c>
+      <c r="H85" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86" t="s">
+        <v>250</v>
+      </c>
+      <c r="G86" t="s">
+        <v>281</v>
+      </c>
+      <c r="H86" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" t="s">
+        <v>60</v>
+      </c>
+      <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
+        <v>251</v>
+      </c>
+      <c r="G87" t="s">
+        <v>282</v>
+      </c>
+      <c r="H87" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" t="s">
+        <v>285</v>
+      </c>
+      <c r="D88" t="s">
+        <v>287</v>
+      </c>
+      <c r="E88" t="s">
+        <v>287</v>
+      </c>
+      <c r="F88" t="s">
+        <v>287</v>
+      </c>
+      <c r="G88" t="s">
+        <v>287</v>
+      </c>
+      <c r="H88" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" t="s">
+        <v>286</v>
+      </c>
+      <c r="D89" t="s">
+        <v>454</v>
+      </c>
+      <c r="E89" t="s">
+        <v>454</v>
+      </c>
+      <c r="F89" t="s">
+        <v>454</v>
+      </c>
+      <c r="G89" t="s">
+        <v>454</v>
+      </c>
+      <c r="H89" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" t="s">
+        <v>339</v>
+      </c>
+      <c r="E90" t="s">
+        <v>154</v>
+      </c>
+      <c r="F90" t="s">
+        <v>547</v>
+      </c>
+      <c r="G90" t="s">
+        <v>279</v>
+      </c>
+      <c r="H90" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" t="s">
+        <v>340</v>
+      </c>
+      <c r="E91" t="s">
+        <v>341</v>
+      </c>
+      <c r="F91" t="s">
+        <v>342</v>
+      </c>
+      <c r="G91" t="s">
+        <v>343</v>
+      </c>
+      <c r="H91" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" t="s">
+        <v>441</v>
+      </c>
+      <c r="E92" t="s">
+        <v>360</v>
+      </c>
+      <c r="F92" t="s">
+        <v>548</v>
+      </c>
+      <c r="G92" t="s">
+        <v>361</v>
+      </c>
+      <c r="H92" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" t="s">
+        <v>429</v>
+      </c>
+      <c r="E93" t="s">
+        <v>430</v>
+      </c>
+      <c r="F93" t="s">
+        <v>549</v>
+      </c>
+      <c r="G93" t="s">
+        <v>362</v>
+      </c>
+      <c r="H93" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" t="s">
+        <v>285</v>
+      </c>
+      <c r="D94" t="s">
+        <v>452</v>
+      </c>
+      <c r="E94" t="s">
+        <v>470</v>
+      </c>
+      <c r="F94" t="s">
+        <v>559</v>
+      </c>
+      <c r="G94" t="s">
+        <v>471</v>
+      </c>
+      <c r="H94" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" t="s">
-        <v>158</v>
-      </c>
-      <c r="D80" t="s">
-        <v>544</v>
-      </c>
-      <c r="E80" t="s">
-        <v>266</v>
-      </c>
-      <c r="F80" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" t="s">
-        <v>156</v>
-      </c>
-      <c r="D81" t="s">
-        <v>545</v>
-      </c>
-      <c r="E81" t="s">
-        <v>267</v>
-      </c>
-      <c r="F81" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" t="s">
-        <v>159</v>
-      </c>
-      <c r="C82" t="s">
-        <v>160</v>
-      </c>
-      <c r="D82" t="s">
-        <v>546</v>
-      </c>
-      <c r="E82" t="s">
-        <v>268</v>
-      </c>
-      <c r="F82" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" t="s">
-        <v>138</v>
-      </c>
-      <c r="D83" t="s">
-        <v>249</v>
-      </c>
-      <c r="E83" t="s">
-        <v>280</v>
-      </c>
-      <c r="F83" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" t="s">
-        <v>332</v>
-      </c>
-      <c r="C84" t="s">
-        <v>333</v>
-      </c>
-      <c r="D84" t="s">
-        <v>547</v>
-      </c>
-      <c r="E84" t="s">
-        <v>334</v>
-      </c>
-      <c r="F84" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>62</v>
-      </c>
-      <c r="B85" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" t="s">
-        <v>250</v>
-      </c>
-      <c r="E85" t="s">
-        <v>281</v>
-      </c>
-      <c r="F85" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>57</v>
-      </c>
-      <c r="B86" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" t="s">
-        <v>168</v>
-      </c>
-      <c r="D86" t="s">
-        <v>251</v>
-      </c>
-      <c r="E86" t="s">
-        <v>282</v>
-      </c>
-      <c r="F86" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>285</v>
-      </c>
-      <c r="B87" t="s">
-        <v>287</v>
-      </c>
-      <c r="C87" t="s">
-        <v>287</v>
-      </c>
-      <c r="D87" t="s">
-        <v>287</v>
-      </c>
-      <c r="E87" t="s">
-        <v>287</v>
-      </c>
-      <c r="F87" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" t="s">
         <v>286</v>
       </c>
-      <c r="B88" t="s">
-        <v>454</v>
-      </c>
-      <c r="C88" t="s">
-        <v>454</v>
-      </c>
-      <c r="D88" t="s">
-        <v>454</v>
-      </c>
-      <c r="E88" t="s">
-        <v>454</v>
-      </c>
-      <c r="F88" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>56</v>
-      </c>
-      <c r="B89" t="s">
-        <v>339</v>
-      </c>
-      <c r="C89" t="s">
-        <v>154</v>
-      </c>
-      <c r="D89" t="s">
-        <v>548</v>
-      </c>
-      <c r="E89" t="s">
-        <v>279</v>
-      </c>
-      <c r="F89" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>58</v>
-      </c>
-      <c r="B90" t="s">
-        <v>340</v>
-      </c>
-      <c r="C90" t="s">
-        <v>341</v>
-      </c>
-      <c r="D90" t="s">
-        <v>342</v>
-      </c>
-      <c r="E90" t="s">
-        <v>343</v>
-      </c>
-      <c r="F90" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" t="s">
-        <v>441</v>
-      </c>
-      <c r="C91" t="s">
-        <v>360</v>
-      </c>
-      <c r="D91" t="s">
-        <v>549</v>
-      </c>
-      <c r="E91" t="s">
-        <v>361</v>
-      </c>
-      <c r="F91" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>57</v>
-      </c>
-      <c r="B92" t="s">
-        <v>429</v>
-      </c>
-      <c r="C92" t="s">
-        <v>430</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="D95" t="s">
+        <v>453</v>
+      </c>
+      <c r="E95" t="s">
+        <v>453</v>
+      </c>
+      <c r="F95" t="s">
         <v>550</v>
       </c>
-      <c r="E92" t="s">
-        <v>362</v>
-      </c>
-      <c r="F92" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>285</v>
-      </c>
-      <c r="B93" t="s">
-        <v>452</v>
-      </c>
-      <c r="C93" t="s">
-        <v>470</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="G95" t="s">
+        <v>453</v>
+      </c>
+      <c r="H95" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" t="s">
+        <v>70</v>
+      </c>
+      <c r="E96" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" t="s">
+        <v>66</v>
+      </c>
+      <c r="G96" t="s">
+        <v>66</v>
+      </c>
+      <c r="H96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" t="s">
+        <v>124</v>
+      </c>
+      <c r="F97" t="s">
+        <v>552</v>
+      </c>
+      <c r="G97" t="s">
+        <v>253</v>
+      </c>
+      <c r="H97" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>72</v>
+      </c>
+      <c r="E98" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" t="s">
+        <v>234</v>
+      </c>
+      <c r="G98" t="s">
+        <v>331</v>
+      </c>
+      <c r="H98" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" t="s">
+        <v>445</v>
+      </c>
+      <c r="E99" t="s">
+        <v>472</v>
+      </c>
+      <c r="F99" t="s">
+        <v>553</v>
+      </c>
+      <c r="G99" t="s">
+        <v>473</v>
+      </c>
+      <c r="H99" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" t="s">
+        <v>460</v>
+      </c>
+      <c r="E100" t="s">
+        <v>401</v>
+      </c>
+      <c r="F100" t="s">
+        <v>554</v>
+      </c>
+      <c r="G100" t="s">
+        <v>402</v>
+      </c>
+      <c r="H100" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" t="s">
+        <v>61</v>
+      </c>
+      <c r="C101" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" t="s">
+        <v>461</v>
+      </c>
+      <c r="E101" t="s">
+        <v>403</v>
+      </c>
+      <c r="F101" t="s">
+        <v>555</v>
+      </c>
+      <c r="G101" t="s">
+        <v>404</v>
+      </c>
+      <c r="H101" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s">
+        <v>65</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" t="s">
+        <v>358</v>
+      </c>
+      <c r="F102" t="s">
+        <v>247</v>
+      </c>
+      <c r="G102" t="s">
+        <v>274</v>
+      </c>
+      <c r="H102" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" t="s">
+        <v>70</v>
+      </c>
+      <c r="E103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103" t="s">
+        <v>66</v>
+      </c>
+      <c r="G103" t="s">
+        <v>66</v>
+      </c>
+      <c r="H103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D104" t="s">
+        <v>71</v>
+      </c>
+      <c r="E104" t="s">
+        <v>359</v>
+      </c>
+      <c r="F104" t="s">
+        <v>246</v>
+      </c>
+      <c r="G104" t="s">
+        <v>275</v>
+      </c>
+      <c r="H104" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>72</v>
+      </c>
+      <c r="E105" t="s">
+        <v>68</v>
+      </c>
+      <c r="F105" t="s">
+        <v>234</v>
+      </c>
+      <c r="G105" t="s">
+        <v>254</v>
+      </c>
+      <c r="H105" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>373</v>
+      </c>
+      <c r="B106" t="s">
+        <v>374</v>
+      </c>
+      <c r="C106" t="s">
+        <v>298</v>
+      </c>
+      <c r="D106" t="s">
+        <v>397</v>
+      </c>
+      <c r="E106" t="s">
+        <v>397</v>
+      </c>
+      <c r="F106" t="s">
+        <v>397</v>
+      </c>
+      <c r="G106" t="s">
+        <v>397</v>
+      </c>
+      <c r="H106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>291</v>
+      </c>
+      <c r="B107" t="s">
+        <v>61</v>
+      </c>
+      <c r="C107" t="s">
+        <v>372</v>
+      </c>
+      <c r="D107" t="s">
+        <v>446</v>
+      </c>
+      <c r="E107" t="s">
+        <v>448</v>
+      </c>
+      <c r="F107" t="s">
+        <v>447</v>
+      </c>
+      <c r="G107" t="s">
+        <v>449</v>
+      </c>
+      <c r="H107" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>291</v>
+      </c>
+      <c r="B108" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" t="s">
+        <v>292</v>
+      </c>
+      <c r="D108" t="s">
+        <v>437</v>
+      </c>
+      <c r="E108" t="s">
+        <v>474</v>
+      </c>
+      <c r="F108" t="s">
+        <v>556</v>
+      </c>
+      <c r="G108" t="s">
+        <v>475</v>
+      </c>
+      <c r="H108" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>291</v>
+      </c>
+      <c r="B109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" t="s">
+        <v>298</v>
+      </c>
+      <c r="D109" t="s">
+        <v>512</v>
+      </c>
+      <c r="E109" t="s">
+        <v>513</v>
+      </c>
+      <c r="F109" t="s">
         <v>560</v>
       </c>
-      <c r="E93" t="s">
-        <v>471</v>
-      </c>
-      <c r="F93" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>286</v>
-      </c>
-      <c r="B94" t="s">
-        <v>453</v>
-      </c>
-      <c r="C94" t="s">
-        <v>453</v>
-      </c>
-      <c r="D94" t="s">
-        <v>551</v>
-      </c>
-      <c r="E94" t="s">
-        <v>453</v>
-      </c>
-      <c r="F94" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>66</v>
-      </c>
-      <c r="B95" t="s">
-        <v>70</v>
-      </c>
-      <c r="C95" t="s">
-        <v>66</v>
-      </c>
-      <c r="D95" t="s">
-        <v>66</v>
-      </c>
-      <c r="E95" t="s">
-        <v>66</v>
-      </c>
-      <c r="F95" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>119</v>
-      </c>
-      <c r="B96" t="s">
-        <v>120</v>
-      </c>
-      <c r="C96" t="s">
-        <v>124</v>
-      </c>
-      <c r="D96" t="s">
-        <v>553</v>
-      </c>
-      <c r="E96" t="s">
-        <v>253</v>
-      </c>
-      <c r="F96" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>68</v>
-      </c>
-      <c r="B97" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" t="s">
-        <v>125</v>
-      </c>
-      <c r="D97" t="s">
-        <v>234</v>
-      </c>
-      <c r="E97" t="s">
-        <v>331</v>
-      </c>
-      <c r="F97" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>117</v>
-      </c>
-      <c r="B98" t="s">
-        <v>445</v>
-      </c>
-      <c r="C98" t="s">
-        <v>472</v>
-      </c>
-      <c r="D98" t="s">
-        <v>554</v>
-      </c>
-      <c r="E98" t="s">
-        <v>473</v>
-      </c>
-      <c r="F98" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>118</v>
-      </c>
-      <c r="B99" t="s">
-        <v>460</v>
-      </c>
-      <c r="C99" t="s">
-        <v>401</v>
-      </c>
-      <c r="D99" t="s">
-        <v>555</v>
-      </c>
-      <c r="E99" t="s">
-        <v>402</v>
-      </c>
-      <c r="F99" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>119</v>
-      </c>
-      <c r="B100" t="s">
-        <v>461</v>
-      </c>
-      <c r="C100" t="s">
-        <v>403</v>
-      </c>
-      <c r="D100" t="s">
-        <v>556</v>
-      </c>
-      <c r="E100" t="s">
-        <v>404</v>
-      </c>
-      <c r="F100" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>65</v>
-      </c>
-      <c r="B101" t="s">
-        <v>69</v>
-      </c>
-      <c r="C101" t="s">
-        <v>358</v>
-      </c>
-      <c r="D101" t="s">
-        <v>247</v>
-      </c>
-      <c r="E101" t="s">
-        <v>274</v>
-      </c>
-      <c r="F101" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>66</v>
-      </c>
-      <c r="B102" t="s">
-        <v>70</v>
-      </c>
-      <c r="C102" t="s">
-        <v>66</v>
-      </c>
-      <c r="D102" t="s">
-        <v>66</v>
-      </c>
-      <c r="E102" t="s">
-        <v>66</v>
-      </c>
-      <c r="F102" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>67</v>
-      </c>
-      <c r="B103" t="s">
-        <v>71</v>
-      </c>
-      <c r="C103" t="s">
-        <v>359</v>
-      </c>
-      <c r="D103" t="s">
-        <v>246</v>
-      </c>
-      <c r="E103" t="s">
-        <v>275</v>
-      </c>
-      <c r="F103" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B104" t="s">
-        <v>72</v>
-      </c>
-      <c r="C104" t="s">
-        <v>68</v>
-      </c>
-      <c r="D104" t="s">
-        <v>234</v>
-      </c>
-      <c r="E104" t="s">
-        <v>254</v>
-      </c>
-      <c r="F104" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
-        <v>298</v>
-      </c>
-      <c r="B105" t="s">
-        <v>397</v>
-      </c>
-      <c r="C105" t="s">
-        <v>397</v>
-      </c>
-      <c r="D105" t="s">
-        <v>397</v>
-      </c>
-      <c r="E105" t="s">
-        <v>397</v>
-      </c>
-      <c r="F105" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
-        <v>372</v>
-      </c>
-      <c r="B106" t="s">
-        <v>446</v>
-      </c>
-      <c r="C106" t="s">
-        <v>448</v>
-      </c>
-      <c r="D106" t="s">
-        <v>447</v>
-      </c>
-      <c r="E106" t="s">
-        <v>449</v>
-      </c>
-      <c r="F106" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
-        <v>292</v>
-      </c>
-      <c r="B107" t="s">
-        <v>437</v>
-      </c>
-      <c r="C107" t="s">
-        <v>474</v>
-      </c>
-      <c r="D107" t="s">
-        <v>557</v>
-      </c>
-      <c r="E107" t="s">
-        <v>475</v>
-      </c>
-      <c r="F107" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>298</v>
-      </c>
-      <c r="B108" t="s">
-        <v>513</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="G109" t="s">
         <v>514</v>
       </c>
-      <c r="D108" t="s">
-        <v>561</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="H109" t="s">
         <v>515</v>
       </c>
-      <c r="F108" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>291</v>
+      </c>
+      <c r="B110" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" t="s">
         <v>299</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D110" t="s">
         <v>509</v>
       </c>
-      <c r="D109" t="s">
-        <v>559</v>
-      </c>
-      <c r="F109" t="s">
-        <v>523</v>
+      <c r="F110" t="s">
+        <v>558</v>
+      </c>
+      <c r="H110" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="800" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4760" yWindow="320" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="571">
   <si>
     <t>typ</t>
   </si>
@@ -1743,6 +1743,21 @@
   </si>
   <si>
     <t>La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/de' target='_blank'&gt;Dienst Überwachung Post- und Fernmeldeverkehr&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Microsoft / Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/en' target='_blank'&gt;Post and Telecommunications Surveillance Service&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Base map: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Federal Office of Topography swisstopo &lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/fr' target='_blank'&gt;Service Surveillance de la correspondance par poste et télécommunication&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;plan de base: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Office fédéral de topographie swisstopo&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/it' target='_blank'&gt;Servizio Sorveglianza della corrispondenza postale e del traffico delle telecomunicazioni&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt; Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;carta di base: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Ufficio federale di topografia swisstopo&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/rm' target='_blank'&gt;Servetsch da surveglianza dal traffic da posta e da telecommunicaziun&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
 </sst>
 </file>
@@ -2820,10 +2835,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection sqref="A1:H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6050,19 +6066,19 @@
         <v>372</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>446</v>
+        <v>566</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>448</v>
+        <v>567</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>447</v>
+        <v>568</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>449</v>
+        <v>569</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
@@ -6274,8 +6290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H110"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="320" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="21780" yWindow="4480" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
-    <sheet name="Blatt1" sheetId="8" r:id="rId2"/>
+    <sheet name="Blatt1" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$117</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="566">
   <si>
     <t>typ</t>
   </si>
@@ -1380,21 +1380,6 @@
   </si>
   <si>
     <t>Normale Telefonüberwachung</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/de' target='_blank'&gt;Dienst Überwachung Post- und Fernmeldeverkehr&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Microsoft / Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/fr' target='_blank'&gt;Service Surveillance de la correspondance par poste et télécommunication&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;plan de base: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Office fédéral de topographie swisstopo&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/en' target='_blank'&gt;Post and Telecommunications Surveillance Service&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Base map: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Federal Office of Topography swisstopo &lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/it' target='_blank'&gt;Servizio Sorveglianza della corrispondenza postale e del traffico delle telecomunicazioni&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt; Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;carta di base: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Ufficio federale di topografia swisstopo&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/rm' target='_blank'&gt;Servetsch da surveglianza dal traffic da posta e da telecommunicaziun&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Geldwäscherei bedeutet, die Ermittlung der Herkunft, die Auffindung oder die Einziehung von Vermögenswerten zu vereiteln.</t>
@@ -1612,152 +1597,152 @@
     <t>Tschertga d'antennas, er numno dumandada da cellas radiofonicas ni persecuziun en schema, tschiffa tot igls telefons mobils an ena regiun.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;
+    <t>Groupes de délits</t>
+  </si>
+  <si>
+    <t>Délits graves</t>
+  </si>
+  <si>
+    <t>Genre de surveillance</t>
+  </si>
+  <si>
+    <t>pas de délits graves</t>
+  </si>
+  <si>
+    <t>trouble de l'ordre public</t>
+  </si>
+  <si>
+    <t>sécurité et défense nationale</t>
+  </si>
+  <si>
+    <t>atteintes aux biens</t>
+  </si>
+  <si>
+    <t>surveillance hors procédure pénale, localisation de personnes disparues</t>
+  </si>
+  <si>
+    <t>fabrication, trafic ou consommation de drogue</t>
+  </si>
+  <si>
+    <t>blanchiment d'argent, corruption passive, fraude à la carte de crédit</t>
+  </si>
+  <si>
+    <t>Atteinte à l'intégrité corporelle, assassinat, meurtre, homicide, représentation de la violence</t>
+  </si>
+  <si>
+    <t>trouble de l'ordre public, manifestation, organisations criminelles, mise en danger avec des armes</t>
+  </si>
+  <si>
+    <t>agression sexuelle, viol, prostitution illégale, pornographie</t>
+  </si>
+  <si>
+    <t>trahison, dissémination de maladies humaines, abus d'autorité, espionnage</t>
+  </si>
+  <si>
+    <t>Les délits graves sont considérés comme des crimes, ce qui permet de justifier la surveillance.</t>
+  </si>
+  <si>
+    <t>blanchiment d'argent</t>
+  </si>
+  <si>
+    <t>espionnage</t>
+  </si>
+  <si>
+    <t>Le blanchiment d'argent est l'action de dissimuler l'origine de fonds ou d'empêcher la découverte ou la saisie de fonds.</t>
+  </si>
+  <si>
+    <t>Groupe structuré enrichi par la violence ou par les revenus d'activités criminelles, par exemple la mafia ou les voyageurs du Jihad.</t>
+  </si>
+  <si>
+    <t>Recruter, proposer, servir d'intermédiaire ou héberger des personnes via des moyens illégaux comme la tromperie, la menace ou la contrainte aux fins d'exploitation humaine.</t>
+  </si>
+  <si>
+    <t>espionnage politique ou économique</t>
+  </si>
+  <si>
+    <t>exploitation sexuelle des enfants, pornographie juvénile</t>
+  </si>
+  <si>
+    <t>menace pour la sécurité publique, financement du terrorisme</t>
+  </si>
+  <si>
+    <t>demandes administratives</t>
+  </si>
+  <si>
+    <t>Surveillance en temps réel, p.ex. écoute téléphonique, localisation de téléphones mobiles</t>
+  </si>
+  <si>
+    <t>à qui appartient un numéro de téléphone ou une adresse IP à un moment donné</t>
+  </si>
+  <si>
+    <t>conservation des métadonnées des derniers six mois, qui a communiqué avec qui</t>
+  </si>
+  <si>
+    <t>Comptes Microsoft/Skype (Skype, Hotmail, Outlook, XBOX etc.)</t>
+  </si>
+  <si>
+    <t>analyse de localisation d'un téléphone mobile</t>
+  </si>
+  <si>
+    <t>localisation d'urgence</t>
+  </si>
+  <si>
+    <t>la surveillance téléphonique normale</t>
+  </si>
+  <si>
+    <t>Analyse de localisation des téléphones mobiles basée sur le trafic de la cellule, aussi appelée quadrillage. Indique tous les téléphones mobiles enregistrés dans une certaine zone.</t>
+  </si>
+  <si>
+    <t>localisation d'urgence : activée en cas de recherche de personnes disparues ou en fuite.</t>
+  </si>
+  <si>
+    <t>Société numérique Suisse publie annuellement un rapport sur la situation de l'interception légale en Suisse. Cette visualisation interactive complète le rapport et montre en détail la surveillance effectuée dans chaque canton. Découvrez avec quels délits on justifie la limitation de vos libertés fondamentales. &lt;br&gt; &lt;small&gt; Les données de cette statistique ne comprennent que les mesures de surveillance conformes au Code de procédure pénale à l'exclusion des scanners IMSI, des chevaux de Troie gouvernementales ou de la surveillance effectuée par le service de renseignement de la Confédération (SRC). &lt;/small&gt;</t>
+  </si>
+  <si>
+    <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.</t>
+  </si>
+  <si>
+    <t>Société numérique est un regroupement de cercles intéressés par les questions de politique numérique. Elle est formée d'une cinquantaine de personnes et quinze groupements. Cela inclut les organisations de défense des droits fondamentaux, des partis politiques, des collectifs d'artistes, des opérateurs de services réseaux et d'autres groupes qui, au sein de la société civile numérique, se sentent appelés à une vision critique de celle-ci. &lt;br&gt; dans la même ligne, des sujets de politique des réseaux sont développés dans le blog: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comptes Facebook : &lt;a href='https://fr-fr.facebook.com/help/405183566203254' target='_blank'&gt;cette liste montre les informations récoltées.&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>midar an modi maletg antir</t>
+  </si>
+  <si>
+    <t>tradiment da la patria, desarar malsongas humanas, abus d'uffezi,</t>
+  </si>
+  <si>
+    <t>servetsch d'infurmaziun scumando</t>
+  </si>
+  <si>
+    <t>La Societad Digitala Svizzra publitgescha annual igl “Swiss Lawfull Interception Report” tgi sa tracta sur la survigilaziun digl stadi en Svizzra. La visualisaziun cumplettescha igl report interactiv e mossa detaglià, scu tgi igl Cantuns survigileschan. Chatta or, per tge delicts igls voss dretgs fundamentals reivan restranschia. &lt;br&gt;&lt;br&gt;&lt;small&gt;Las datas ainten quella statistica cuntignan sulettamain mesiras da survigilaziun siva urdan da process penal. Exceptà en missiuns digl IMSI-Catcher, trojan digl stadi ni mesiras da survigilaziun digl servetsch da spiunadi.&lt;/small&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/de' target='_blank'&gt;Dienst Überwachung Post- und Fernmeldeverkehr&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Microsoft / Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/en' target='_blank'&gt;Post and Telecommunications Surveillance Service&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Base map: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Federal Office of Topography swisstopo &lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/fr' target='_blank'&gt;Service Surveillance de la correspondance par poste et télécommunication&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;plan de base: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Office fédéral de topographie swisstopo&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/it' target='_blank'&gt;Servizio Sorveglianza della corrispondenza postale e del traffico delle telecomunicazioni&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt; Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;carta di base: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Ufficio federale di topografia swisstopo&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/rm' target='_blank'&gt;Servetsch da surveglianza dal traffic da posta e da telecommunicaziun&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;
 </t>
   </si>
   <si>
-    <t>Groupes de délits</t>
-  </si>
-  <si>
-    <t>Délits graves</t>
-  </si>
-  <si>
-    <t>Genre de surveillance</t>
-  </si>
-  <si>
-    <t>pas de délits graves</t>
-  </si>
-  <si>
-    <t>trouble de l'ordre public</t>
-  </si>
-  <si>
-    <t>sécurité et défense nationale</t>
-  </si>
-  <si>
-    <t>atteintes aux biens</t>
-  </si>
-  <si>
-    <t>surveillance hors procédure pénale, localisation de personnes disparues</t>
-  </si>
-  <si>
-    <t>fabrication, trafic ou consommation de drogue</t>
-  </si>
-  <si>
-    <t>blanchiment d'argent, corruption passive, fraude à la carte de crédit</t>
-  </si>
-  <si>
-    <t>Atteinte à l'intégrité corporelle, assassinat, meurtre, homicide, représentation de la violence</t>
-  </si>
-  <si>
-    <t>trouble de l'ordre public, manifestation, organisations criminelles, mise en danger avec des armes</t>
-  </si>
-  <si>
-    <t>agression sexuelle, viol, prostitution illégale, pornographie</t>
-  </si>
-  <si>
-    <t>trahison, dissémination de maladies humaines, abus d'autorité, espionnage</t>
-  </si>
-  <si>
-    <t>Les délits graves sont considérés comme des crimes, ce qui permet de justifier la surveillance.</t>
-  </si>
-  <si>
-    <t>blanchiment d'argent</t>
-  </si>
-  <si>
-    <t>espionnage</t>
-  </si>
-  <si>
-    <t>Le blanchiment d'argent est l'action de dissimuler l'origine de fonds ou d'empêcher la découverte ou la saisie de fonds.</t>
-  </si>
-  <si>
-    <t>Groupe structuré enrichi par la violence ou par les revenus d'activités criminelles, par exemple la mafia ou les voyageurs du Jihad.</t>
-  </si>
-  <si>
-    <t>Recruter, proposer, servir d'intermédiaire ou héberger des personnes via des moyens illégaux comme la tromperie, la menace ou la contrainte aux fins d'exploitation humaine.</t>
-  </si>
-  <si>
-    <t>espionnage politique ou économique</t>
-  </si>
-  <si>
-    <t>exploitation sexuelle des enfants, pornographie juvénile</t>
-  </si>
-  <si>
-    <t>menace pour la sécurité publique, financement du terrorisme</t>
-  </si>
-  <si>
-    <t>demandes administratives</t>
-  </si>
-  <si>
-    <t>Surveillance en temps réel, p.ex. écoute téléphonique, localisation de téléphones mobiles</t>
-  </si>
-  <si>
-    <t>à qui appartient un numéro de téléphone ou une adresse IP à un moment donné</t>
-  </si>
-  <si>
-    <t>conservation des métadonnées des derniers six mois, qui a communiqué avec qui</t>
-  </si>
-  <si>
-    <t>Comptes Microsoft/Skype (Skype, Hotmail, Outlook, XBOX etc.)</t>
-  </si>
-  <si>
-    <t>analyse de localisation d'un téléphone mobile</t>
-  </si>
-  <si>
-    <t>localisation d'urgence</t>
-  </si>
-  <si>
-    <t>la surveillance téléphonique normale</t>
-  </si>
-  <si>
-    <t>Analyse de localisation des téléphones mobiles basée sur le trafic de la cellule, aussi appelée quadrillage. Indique tous les téléphones mobiles enregistrés dans une certaine zone.</t>
-  </si>
-  <si>
-    <t>localisation d'urgence : activée en cas de recherche de personnes disparues ou en fuite.</t>
-  </si>
-  <si>
-    <t>Société numérique Suisse publie annuellement un rapport sur la situation de l'interception légale en Suisse. Cette visualisation interactive complète le rapport et montre en détail la surveillance effectuée dans chaque canton. Découvrez avec quels délits on justifie la limitation de vos libertés fondamentales. &lt;br&gt; &lt;small&gt; Les données de cette statistique ne comprennent que les mesures de surveillance conformes au Code de procédure pénale à l'exclusion des scanners IMSI, des chevaux de Troie gouvernementales ou de la surveillance effectuée par le service de renseignement de la Confédération (SRC). &lt;/small&gt;</t>
-  </si>
-  <si>
-    <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.</t>
-  </si>
-  <si>
-    <t>Société numérique est un regroupement de cercles intéressés par les questions de politique numérique. Elle est formée d'une cinquantaine de personnes et quinze groupements. Cela inclut les organisations de défense des droits fondamentaux, des partis politiques, des collectifs d'artistes, des opérateurs de services réseaux et d'autres groupes qui, au sein de la société civile numérique, se sentent appelés à une vision critique de celle-ci. &lt;br&gt; dans la même ligne, des sujets de politique des réseaux sont développés dans le blog: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comptes Facebook : &lt;a href='https://fr-fr.facebook.com/help/405183566203254' target='_blank'&gt;cette liste montre les informations récoltées.&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>midar an modi maletg antir</t>
-  </si>
-  <si>
-    <t>tradiment da la patria, desarar malsongas humanas, abus d'uffezi,</t>
-  </si>
-  <si>
-    <t>servetsch d'infurmaziun scumando</t>
-  </si>
-  <si>
-    <t>La Societad Digitala Svizzra publitgescha annual igl “Swiss Lawfull Interception Report” tgi sa tracta sur la survigilaziun digl stadi en Svizzra. La visualisaziun cumplettescha igl report interactiv e mossa detaglià, scu tgi igl Cantuns survigileschan. Chatta or, per tge delicts igls voss dretgs fundamentals reivan restranschia. &lt;br&gt;&lt;br&gt;&lt;small&gt;Las datas ainten quella statistica cuntignan sulettamain mesiras da survigilaziun siva urdan da process penal. Exceptà en missiuns digl IMSI-Catcher, trojan digl stadi ni mesiras da survigilaziun digl servetsch da spiunadi.&lt;/small&gt;</t>
-  </si>
-  <si>
-    <t>La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;span class="glyphicon glyphicon glyphicon-menu-right" aria-hidden="true"&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/de' target='_blank'&gt;Dienst Überwachung Post- und Fernmeldeverkehr&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Microsoft / Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/en' target='_blank'&gt;Post and Telecommunications Surveillance Service&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Base map: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Federal Office of Topography swisstopo &lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/fr' target='_blank'&gt;Service Surveillance de la correspondance par poste et télécommunication&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;plan de base: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Office fédéral de topographie swisstopo&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/it' target='_blank'&gt;Servizio Sorveglianza della corrispondenza postale e del traffico delle telecomunicazioni&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt; Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;carta di base: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Ufficio federale di topografia swisstopo&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/rm' target='_blank'&gt;Servetsch da surveglianza dal traffic da posta e da telecommunicaziun&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1839,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="263">
+  <cellStyleXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2045,6 +2030,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2158,7 +2145,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="263">
+  <cellStyles count="265">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2298,6 +2285,7 @@
     <cellStyle name="Besuchter Link" xfId="258" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2421,6 +2409,7 @@
     <cellStyle name="Link" xfId="257" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -2835,11 +2824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection sqref="A1:H117"/>
+    <sheetView topLeftCell="C117" workbookViewId="0">
+      <selection activeCell="H117" sqref="C1:H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3071,13 +3059,13 @@
         <v>369</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>370</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
@@ -3121,7 +3109,7 @@
         <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>338</v>
@@ -3133,7 +3121,7 @@
         <v>338</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
@@ -3155,13 +3143,13 @@
         <v>306</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
@@ -3211,7 +3199,7 @@
         <v>305</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>351</v>
@@ -3398,22 +3386,22 @@
         <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
@@ -3467,13 +3455,13 @@
         <v>395</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>396</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
@@ -4457,7 +4445,7 @@
         <v>262</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
@@ -4513,7 +4501,7 @@
         <v>263</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
@@ -4541,7 +4529,7 @@
         <v>264</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
@@ -4563,7 +4551,7 @@
         <v>130</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>257</v>
@@ -4619,13 +4607,13 @@
         <v>134</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>258</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="1"/>
@@ -4647,13 +4635,13 @@
         <v>135</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>259</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="1"/>
@@ -4675,7 +4663,7 @@
         <v>289</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>290</v>
@@ -4731,13 +4719,13 @@
         <v>300</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>301</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="1"/>
@@ -4787,7 +4775,7 @@
         <v>166</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>311</v>
@@ -4815,13 +4803,13 @@
         <v>164</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>256</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="1"/>
@@ -4843,13 +4831,13 @@
         <v>130</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>257</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="1"/>
@@ -4871,13 +4859,13 @@
         <v>162</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>162</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="1"/>
@@ -4896,16 +4884,16 @@
         <v>440</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
@@ -4949,19 +4937,19 @@
         <v>61</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>399</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>400</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="1"/>
@@ -4983,7 +4971,7 @@
         <v>353</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>269</v>
@@ -5067,7 +5055,7 @@
         <v>356</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>272</v>
@@ -5145,19 +5133,19 @@
         <v>101</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="1"/>
@@ -5173,19 +5161,19 @@
         <v>95</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
@@ -5204,16 +5192,16 @@
         <v>443</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
@@ -5235,13 +5223,13 @@
         <v>158</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>266</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="1"/>
@@ -5263,7 +5251,7 @@
         <v>156</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>267</v>
@@ -5291,7 +5279,7 @@
         <v>160</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>268</v>
@@ -5347,7 +5335,7 @@
         <v>333</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>334</v>
@@ -5381,7 +5369,7 @@
         <v>281</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="1"/>
@@ -5409,7 +5397,7 @@
         <v>282</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="1"/>
@@ -5453,7 +5441,7 @@
         <v>286</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E90" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5491,13 +5479,13 @@
         <v>154</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>279</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="1"/>
@@ -5525,7 +5513,7 @@
         <v>343</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="1"/>
@@ -5547,13 +5535,13 @@
         <v>360</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>361</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
@@ -5575,13 +5563,13 @@
         <v>430</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>362</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
@@ -5630,19 +5618,19 @@
         <v>285</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="1"/>
@@ -5658,19 +5646,19 @@
         <v>286</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="1"/>
@@ -5692,13 +5680,13 @@
         <v>123</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>252</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="1">
@@ -5750,7 +5738,7 @@
         <v>124</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>253</v>
@@ -5803,16 +5791,16 @@
         <v>445</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="1"/>
@@ -5828,19 +5816,19 @@
         <v>118</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>401</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>402</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="1"/>
@@ -5856,19 +5844,19 @@
         <v>119</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>403</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>404</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="1"/>
@@ -6066,19 +6054,19 @@
         <v>372</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
@@ -6099,16 +6087,16 @@
         <v>437</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="1"/>
@@ -6130,13 +6118,13 @@
         <v>434</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>435</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="1">
@@ -6151,22 +6139,22 @@
         <v>61</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="1">
@@ -6256,13 +6244,13 @@
         <v>299</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>522</v>
+        <v>564</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="1"/>
@@ -6288,49 +6276,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
         <v>173</v>
@@ -6341,22 +6323,16 @@
       <c r="F2" t="s">
         <v>173</v>
       </c>
-      <c r="G2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
         <v>174</v>
@@ -6367,22 +6343,16 @@
       <c r="F3" t="s">
         <v>174</v>
       </c>
-      <c r="G3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
         <v>175</v>
@@ -6393,22 +6363,16 @@
       <c r="F4" t="s">
         <v>175</v>
       </c>
-      <c r="G4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
         <v>176</v>
@@ -6419,22 +6383,16 @@
       <c r="F5" t="s">
         <v>176</v>
       </c>
-      <c r="G5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
         <v>177</v>
@@ -6445,178 +6403,136 @@
       <c r="F6" t="s">
         <v>177</v>
       </c>
-      <c r="G6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>517</v>
       </c>
       <c r="E7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>393</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>392</v>
       </c>
       <c r="D8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F8" t="s">
-        <v>391</v>
-      </c>
-      <c r="G8" t="s">
-        <v>390</v>
-      </c>
-      <c r="H8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>471</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>338</v>
       </c>
       <c r="D9" t="s">
-        <v>476</v>
+        <v>338</v>
       </c>
       <c r="E9" t="s">
         <v>338</v>
       </c>
       <c r="F9" t="s">
-        <v>338</v>
-      </c>
-      <c r="G9" t="s">
-        <v>338</v>
-      </c>
-      <c r="H9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>306</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>518</v>
       </c>
       <c r="E10" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="F10" t="s">
-        <v>524</v>
-      </c>
-      <c r="G10" t="s">
-        <v>348</v>
-      </c>
-      <c r="H10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>304</v>
       </c>
       <c r="D11" t="s">
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" t="s">
         <v>349</v>
       </c>
-      <c r="H11" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>519</v>
       </c>
       <c r="E12" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="F12" t="s">
-        <v>525</v>
-      </c>
-      <c r="G12" t="s">
-        <v>351</v>
-      </c>
-      <c r="H12" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="C13" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="D13" t="s">
         <v>344</v>
@@ -6627,802 +6543,616 @@
       <c r="F13" t="s">
         <v>344</v>
       </c>
-      <c r="G13" t="s">
-        <v>344</v>
-      </c>
-      <c r="H13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>345</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="D14" t="s">
         <v>345</v>
       </c>
       <c r="E14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F14" t="s">
         <v>345</v>
       </c>
-      <c r="G14" t="s">
-        <v>347</v>
-      </c>
-      <c r="H14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>372</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>381</v>
       </c>
       <c r="C15" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D15" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E15" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F15" t="s">
-        <v>383</v>
-      </c>
-      <c r="G15" t="s">
-        <v>384</v>
-      </c>
-      <c r="H15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="E16" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="F16" t="s">
-        <v>276</v>
-      </c>
-      <c r="G16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H16" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="F17" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>386</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>387</v>
       </c>
       <c r="C18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D18" t="s">
         <v>386</v>
       </c>
-      <c r="D18" t="s">
-        <v>387</v>
-      </c>
       <c r="E18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F18" t="s">
         <v>386</v>
       </c>
-      <c r="G18" t="s">
-        <v>388</v>
-      </c>
-      <c r="H18" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>473</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>474</v>
       </c>
       <c r="C19" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D19" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E19" t="s">
+        <v>477</v>
+      </c>
+      <c r="F19" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>394</v>
+      </c>
+      <c r="B20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" t="s">
+        <v>520</v>
+      </c>
+      <c r="E20" t="s">
+        <v>396</v>
+      </c>
+      <c r="F20" t="s">
         <v>480</v>
       </c>
-      <c r="F19" t="s">
-        <v>481</v>
-      </c>
-      <c r="G19" t="s">
-        <v>482</v>
-      </c>
-      <c r="H19" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>394</v>
-      </c>
-      <c r="D20" t="s">
-        <v>431</v>
-      </c>
-      <c r="E20" t="s">
-        <v>395</v>
-      </c>
-      <c r="F20" t="s">
-        <v>526</v>
-      </c>
-      <c r="G20" t="s">
-        <v>396</v>
-      </c>
-      <c r="H20" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="C21" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F21" t="s">
-        <v>413</v>
-      </c>
-      <c r="G21" t="s">
         <v>412</v>
       </c>
-      <c r="H21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>407</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="C22" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D22" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="E22" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F22" t="s">
-        <v>415</v>
-      </c>
-      <c r="G22" t="s">
-        <v>416</v>
-      </c>
-      <c r="H22" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>408</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="C23" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D23" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E23" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F23" t="s">
-        <v>419</v>
-      </c>
-      <c r="G23" t="s">
-        <v>420</v>
-      </c>
-      <c r="H23" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" t="s">
-        <v>233</v>
-      </c>
-      <c r="H24" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>294</v>
       </c>
       <c r="C25" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D25" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E25" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F25" t="s">
-        <v>296</v>
-      </c>
-      <c r="G25" t="s">
-        <v>297</v>
-      </c>
-      <c r="H25" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" t="s">
         <v>196</v>
       </c>
-      <c r="H26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="F27" t="s">
-        <v>182</v>
-      </c>
-      <c r="G27" t="s">
-        <v>197</v>
-      </c>
-      <c r="H27" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28" t="s">
-        <v>198</v>
-      </c>
-      <c r="H28" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="F29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" t="s">
-        <v>200</v>
-      </c>
-      <c r="H30" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="F31" t="s">
-        <v>186</v>
-      </c>
-      <c r="G31" t="s">
-        <v>201</v>
-      </c>
-      <c r="H31" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="F32" t="s">
-        <v>187</v>
-      </c>
-      <c r="G32" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
-      </c>
-      <c r="G33" t="s">
-        <v>203</v>
-      </c>
-      <c r="H33" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" t="s">
         <v>204</v>
       </c>
-      <c r="H34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="F35" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" t="s">
         <v>205</v>
       </c>
-      <c r="H35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
         <v>148</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" t="s">
-        <v>148</v>
-      </c>
-      <c r="H36" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
-      </c>
-      <c r="G37" t="s">
-        <v>206</v>
-      </c>
-      <c r="H37" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
-      </c>
-      <c r="G38" t="s">
-        <v>207</v>
-      </c>
-      <c r="H38" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
-      </c>
-      <c r="G39" t="s">
-        <v>208</v>
-      </c>
-      <c r="H39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
-      </c>
-      <c r="G40" t="s">
-        <v>209</v>
-      </c>
-      <c r="H40" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
-        <v>192</v>
-      </c>
-      <c r="G41" t="s">
-        <v>210</v>
-      </c>
-      <c r="H41" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="F42" t="s">
-        <v>193</v>
-      </c>
-      <c r="G42" t="s">
-        <v>211</v>
-      </c>
-      <c r="H42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
-        <v>194</v>
-      </c>
-      <c r="G43" t="s">
         <v>212</v>
       </c>
-      <c r="H43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
@@ -7433,22 +7163,16 @@
       <c r="F44" t="s">
         <v>48</v>
       </c>
-      <c r="G44" t="s">
-        <v>149</v>
-      </c>
-      <c r="H44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
         <v>49</v>
@@ -7459,412 +7183,316 @@
       <c r="F45" t="s">
         <v>49</v>
       </c>
-      <c r="G45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
         <v>150</v>
       </c>
       <c r="F46" t="s">
-        <v>150</v>
-      </c>
-      <c r="G46" t="s">
-        <v>150</v>
-      </c>
-      <c r="H46" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="F47" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" t="s">
-        <v>213</v>
-      </c>
-      <c r="H47" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" t="s">
+        <v>214</v>
+      </c>
+      <c r="F48" t="s">
         <v>52</v>
       </c>
-      <c r="E48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" t="s">
-        <v>195</v>
-      </c>
-      <c r="G48" t="s">
-        <v>214</v>
-      </c>
-      <c r="H48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" t="s">
-        <v>215</v>
-      </c>
-      <c r="H49" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="F50" t="s">
-        <v>235</v>
-      </c>
-      <c r="G50" t="s">
-        <v>235</v>
-      </c>
-      <c r="H50" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>127</v>
+        <v>261</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
       </c>
-      <c r="G51" t="s">
-        <v>261</v>
-      </c>
-      <c r="H51" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="F52" t="s">
-        <v>237</v>
-      </c>
-      <c r="G52" t="s">
-        <v>262</v>
-      </c>
-      <c r="H52" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="F53" t="s">
-        <v>238</v>
-      </c>
-      <c r="G53" t="s">
-        <v>255</v>
-      </c>
-      <c r="H53" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
+        <v>263</v>
       </c>
       <c r="F54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G54" t="s">
-        <v>263</v>
-      </c>
-      <c r="H54" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="E55" t="s">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="F55" t="s">
-        <v>240</v>
-      </c>
-      <c r="G55" t="s">
-        <v>264</v>
-      </c>
-      <c r="H55" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>521</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="F56" t="s">
-        <v>527</v>
-      </c>
-      <c r="G56" t="s">
-        <v>257</v>
-      </c>
-      <c r="H56" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="F57" t="s">
-        <v>241</v>
-      </c>
-      <c r="G57" t="s">
-        <v>265</v>
-      </c>
-      <c r="H57" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>522</v>
       </c>
       <c r="E58" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="F58" t="s">
-        <v>528</v>
-      </c>
-      <c r="G58" t="s">
-        <v>258</v>
-      </c>
-      <c r="H58" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="F59" t="s">
-        <v>529</v>
-      </c>
-      <c r="G59" t="s">
-        <v>259</v>
-      </c>
-      <c r="H59" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>288</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="D60" t="s">
-        <v>288</v>
+        <v>524</v>
       </c>
       <c r="E60" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F60" t="s">
-        <v>530</v>
-      </c>
-      <c r="G60" t="s">
-        <v>290</v>
-      </c>
-      <c r="H60" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>371</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>371</v>
       </c>
       <c r="D61" t="s">
         <v>371</v>
@@ -7875,677 +7503,521 @@
       <c r="F61" t="s">
         <v>371</v>
       </c>
-      <c r="G61" t="s">
-        <v>371</v>
-      </c>
-      <c r="H61" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>438</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="D62" t="s">
-        <v>438</v>
+        <v>525</v>
       </c>
       <c r="E62" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F62" t="s">
-        <v>531</v>
-      </c>
-      <c r="G62" t="s">
-        <v>301</v>
-      </c>
-      <c r="H62" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>309</v>
       </c>
       <c r="D63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E63" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F63" t="s">
-        <v>310</v>
-      </c>
-      <c r="G63" t="s">
-        <v>312</v>
-      </c>
-      <c r="H63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>526</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
+        <v>311</v>
       </c>
       <c r="F64" t="s">
-        <v>532</v>
-      </c>
-      <c r="G64" t="s">
-        <v>311</v>
-      </c>
-      <c r="H64" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>527</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="F65" t="s">
-        <v>533</v>
-      </c>
-      <c r="G65" t="s">
-        <v>256</v>
-      </c>
-      <c r="H65" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>439</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="D66" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="F66" t="s">
-        <v>534</v>
-      </c>
-      <c r="G66" t="s">
-        <v>257</v>
-      </c>
-      <c r="H66" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>529</v>
       </c>
       <c r="E67" t="s">
         <v>162</v>
       </c>
       <c r="F67" t="s">
-        <v>535</v>
-      </c>
-      <c r="G67" t="s">
-        <v>162</v>
-      </c>
-      <c r="H67" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="120" customHeight="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="120" customHeight="1">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
+        <v>440</v>
+      </c>
+      <c r="C68" t="s">
+        <v>457</v>
+      </c>
+      <c r="D68" t="s">
+        <v>530</v>
+      </c>
+      <c r="E68" t="s">
+        <v>458</v>
+      </c>
+      <c r="F68" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="F69" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" t="s">
+        <v>319</v>
+      </c>
+      <c r="C70" t="s">
+        <v>320</v>
+      </c>
+      <c r="D70" t="s">
+        <v>321</v>
+      </c>
+      <c r="E70" t="s">
+        <v>322</v>
+      </c>
+      <c r="F70" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
         <v>61</v>
       </c>
-      <c r="C68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D68" t="s">
-        <v>440</v>
-      </c>
-      <c r="E68" t="s">
-        <v>462</v>
-      </c>
-      <c r="F68" t="s">
-        <v>536</v>
-      </c>
-      <c r="G68" t="s">
-        <v>463</v>
-      </c>
-      <c r="H68" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="H69" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" t="s">
-        <v>319</v>
-      </c>
-      <c r="E70" t="s">
-        <v>320</v>
-      </c>
-      <c r="F70" t="s">
-        <v>321</v>
-      </c>
-      <c r="G70" t="s">
-        <v>322</v>
-      </c>
-      <c r="H70" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>92</v>
-      </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>472</v>
       </c>
       <c r="C71" t="s">
-        <v>61</v>
+        <v>399</v>
       </c>
       <c r="D71" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="E71" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F71" t="s">
-        <v>537</v>
-      </c>
-      <c r="G71" t="s">
-        <v>400</v>
-      </c>
-      <c r="H71" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>532</v>
       </c>
       <c r="E72" t="s">
-        <v>353</v>
+        <v>269</v>
       </c>
       <c r="F72" t="s">
-        <v>538</v>
-      </c>
-      <c r="G72" t="s">
-        <v>269</v>
-      </c>
-      <c r="H72" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>354</v>
       </c>
       <c r="D73" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="E73" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="F73" t="s">
-        <v>242</v>
-      </c>
-      <c r="G73" t="s">
-        <v>270</v>
-      </c>
-      <c r="H73" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>355</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="E74" t="s">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="F74" t="s">
-        <v>243</v>
-      </c>
-      <c r="G74" t="s">
-        <v>271</v>
-      </c>
-      <c r="H74" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>356</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>533</v>
       </c>
       <c r="E75" t="s">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="F75" t="s">
-        <v>539</v>
-      </c>
-      <c r="G75" t="s">
-        <v>272</v>
-      </c>
-      <c r="H75" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="E76" t="s">
         <v>136</v>
       </c>
       <c r="F76" t="s">
-        <v>244</v>
-      </c>
-      <c r="G76" t="s">
-        <v>136</v>
-      </c>
-      <c r="H76" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C77" t="s">
+        <v>357</v>
+      </c>
+      <c r="D77" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77" t="s">
+        <v>273</v>
+      </c>
+      <c r="F77" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" t="s">
+        <v>446</v>
+      </c>
+      <c r="C78" t="s">
+        <v>459</v>
+      </c>
+      <c r="D78" t="s">
+        <v>534</v>
+      </c>
+      <c r="E78" t="s">
+        <v>460</v>
+      </c>
+      <c r="F78" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" t="s">
+        <v>503</v>
+      </c>
+      <c r="C79" t="s">
+        <v>461</v>
+      </c>
+      <c r="D79" t="s">
+        <v>535</v>
+      </c>
+      <c r="E79" t="s">
+        <v>462</v>
+      </c>
+      <c r="F79" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>443</v>
+      </c>
+      <c r="C80" t="s">
+        <v>463</v>
+      </c>
+      <c r="D80" t="s">
+        <v>536</v>
+      </c>
+      <c r="E80" t="s">
+        <v>464</v>
+      </c>
+      <c r="F80" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" t="s">
+        <v>537</v>
+      </c>
+      <c r="E81" t="s">
+        <v>266</v>
+      </c>
+      <c r="F81" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" t="s">
+        <v>538</v>
+      </c>
+      <c r="E82" t="s">
+        <v>267</v>
+      </c>
+      <c r="F82" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
         <v>96</v>
       </c>
-      <c r="D77" t="s">
-        <v>105</v>
-      </c>
-      <c r="E77" t="s">
-        <v>357</v>
-      </c>
-      <c r="F77" t="s">
-        <v>245</v>
-      </c>
-      <c r="G77" t="s">
-        <v>273</v>
-      </c>
-      <c r="H77" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" t="s">
-        <v>101</v>
-      </c>
-      <c r="D78" t="s">
-        <v>451</v>
-      </c>
-      <c r="E78" t="s">
-        <v>464</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" t="s">
+        <v>539</v>
+      </c>
+      <c r="E83" t="s">
+        <v>268</v>
+      </c>
+      <c r="F83" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" t="s">
+        <v>249</v>
+      </c>
+      <c r="E84" t="s">
+        <v>280</v>
+      </c>
+      <c r="F84" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" t="s">
+        <v>332</v>
+      </c>
+      <c r="C85" t="s">
+        <v>333</v>
+      </c>
+      <c r="D85" t="s">
         <v>540</v>
       </c>
-      <c r="G78" t="s">
-        <v>465</v>
-      </c>
-      <c r="H78" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D79" t="s">
-        <v>508</v>
-      </c>
-      <c r="E79" t="s">
-        <v>466</v>
-      </c>
-      <c r="F79" t="s">
-        <v>541</v>
-      </c>
-      <c r="G79" t="s">
-        <v>467</v>
-      </c>
-      <c r="H79" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" t="s">
-        <v>98</v>
-      </c>
-      <c r="D80" t="s">
-        <v>443</v>
-      </c>
-      <c r="E80" t="s">
-        <v>468</v>
-      </c>
-      <c r="F80" t="s">
-        <v>542</v>
-      </c>
-      <c r="G80" t="s">
-        <v>469</v>
-      </c>
-      <c r="H80" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" t="s">
-        <v>157</v>
-      </c>
-      <c r="E81" t="s">
-        <v>158</v>
-      </c>
-      <c r="F81" t="s">
-        <v>543</v>
-      </c>
-      <c r="G81" t="s">
-        <v>266</v>
-      </c>
-      <c r="H81" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" t="s">
-        <v>93</v>
-      </c>
-      <c r="D82" t="s">
-        <v>155</v>
-      </c>
-      <c r="E82" t="s">
-        <v>156</v>
-      </c>
-      <c r="F82" t="s">
-        <v>544</v>
-      </c>
-      <c r="G82" t="s">
-        <v>267</v>
-      </c>
-      <c r="H82" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" t="s">
-        <v>96</v>
-      </c>
-      <c r="D83" t="s">
-        <v>159</v>
-      </c>
-      <c r="E83" t="s">
-        <v>160</v>
-      </c>
-      <c r="F83" t="s">
-        <v>545</v>
-      </c>
-      <c r="G83" t="s">
-        <v>268</v>
-      </c>
-      <c r="H83" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>55</v>
-      </c>
-      <c r="C84" t="s">
-        <v>56</v>
-      </c>
-      <c r="D84" t="s">
-        <v>59</v>
-      </c>
-      <c r="E84" t="s">
-        <v>138</v>
-      </c>
-      <c r="F84" t="s">
-        <v>249</v>
-      </c>
-      <c r="G84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" t="s">
-        <v>58</v>
-      </c>
-      <c r="D85" t="s">
-        <v>332</v>
-      </c>
       <c r="E85" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F85" t="s">
-        <v>546</v>
-      </c>
-      <c r="G85" t="s">
-        <v>334</v>
-      </c>
-      <c r="H85" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C86" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="D86" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="E86" t="s">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c r="F86" t="s">
-        <v>250</v>
-      </c>
-      <c r="G86" t="s">
-        <v>281</v>
-      </c>
-      <c r="H86" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="D87" t="s">
-        <v>60</v>
+        <v>251</v>
       </c>
       <c r="E87" t="s">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="F87" t="s">
-        <v>251</v>
-      </c>
-      <c r="G87" t="s">
-        <v>282</v>
-      </c>
-      <c r="H87" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>287</v>
       </c>
       <c r="C88" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D88" t="s">
         <v>287</v>
@@ -8556,207 +8028,159 @@
       <c r="F88" t="s">
         <v>287</v>
       </c>
-      <c r="G88" t="s">
-        <v>287</v>
-      </c>
-      <c r="H88" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="C89" t="s">
+        <v>449</v>
+      </c>
+      <c r="D89" t="s">
+        <v>449</v>
+      </c>
+      <c r="E89" t="s">
+        <v>449</v>
+      </c>
+      <c r="F89" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" t="s">
+        <v>339</v>
+      </c>
+      <c r="C90" t="s">
+        <v>154</v>
+      </c>
+      <c r="D90" t="s">
+        <v>541</v>
+      </c>
+      <c r="E90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F90" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" t="s">
+        <v>340</v>
+      </c>
+      <c r="C91" t="s">
+        <v>341</v>
+      </c>
+      <c r="D91" t="s">
+        <v>342</v>
+      </c>
+      <c r="E91" t="s">
+        <v>343</v>
+      </c>
+      <c r="F91" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" t="s">
+        <v>441</v>
+      </c>
+      <c r="C92" t="s">
+        <v>360</v>
+      </c>
+      <c r="D92" t="s">
+        <v>542</v>
+      </c>
+      <c r="E92" t="s">
+        <v>361</v>
+      </c>
+      <c r="F92" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" t="s">
+        <v>429</v>
+      </c>
+      <c r="C93" t="s">
+        <v>430</v>
+      </c>
+      <c r="D93" t="s">
+        <v>543</v>
+      </c>
+      <c r="E93" t="s">
+        <v>362</v>
+      </c>
+      <c r="F93" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>285</v>
+      </c>
+      <c r="B94" t="s">
+        <v>447</v>
+      </c>
+      <c r="C94" t="s">
+        <v>465</v>
+      </c>
+      <c r="D94" t="s">
+        <v>553</v>
+      </c>
+      <c r="E94" t="s">
+        <v>466</v>
+      </c>
+      <c r="F94" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
         <v>286</v>
       </c>
-      <c r="D89" t="s">
-        <v>454</v>
-      </c>
-      <c r="E89" t="s">
-        <v>454</v>
-      </c>
-      <c r="F89" t="s">
-        <v>454</v>
-      </c>
-      <c r="G89" t="s">
-        <v>454</v>
-      </c>
-      <c r="H89" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
-        <v>61</v>
-      </c>
-      <c r="C90" t="s">
-        <v>56</v>
-      </c>
-      <c r="D90" t="s">
-        <v>339</v>
-      </c>
-      <c r="E90" t="s">
-        <v>154</v>
-      </c>
-      <c r="F90" t="s">
-        <v>547</v>
-      </c>
-      <c r="G90" t="s">
-        <v>279</v>
-      </c>
-      <c r="H90" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C91" t="s">
-        <v>58</v>
-      </c>
-      <c r="D91" t="s">
-        <v>340</v>
-      </c>
-      <c r="E91" t="s">
-        <v>341</v>
-      </c>
-      <c r="F91" t="s">
-        <v>342</v>
-      </c>
-      <c r="G91" t="s">
-        <v>343</v>
-      </c>
-      <c r="H91" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
-        <v>61</v>
-      </c>
-      <c r="C92" t="s">
-        <v>62</v>
-      </c>
-      <c r="D92" t="s">
-        <v>441</v>
-      </c>
-      <c r="E92" t="s">
-        <v>360</v>
-      </c>
-      <c r="F92" t="s">
-        <v>548</v>
-      </c>
-      <c r="G92" t="s">
-        <v>361</v>
-      </c>
-      <c r="H92" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93" t="s">
-        <v>429</v>
-      </c>
-      <c r="E93" t="s">
-        <v>430</v>
-      </c>
-      <c r="F93" t="s">
-        <v>549</v>
-      </c>
-      <c r="G93" t="s">
-        <v>362</v>
-      </c>
-      <c r="H93" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94" t="s">
-        <v>285</v>
-      </c>
-      <c r="D94" t="s">
-        <v>452</v>
-      </c>
-      <c r="E94" t="s">
-        <v>470</v>
-      </c>
-      <c r="F94" t="s">
-        <v>559</v>
-      </c>
-      <c r="G94" t="s">
-        <v>471</v>
-      </c>
-      <c r="H94" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>448</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
+        <v>448</v>
       </c>
       <c r="D95" t="s">
-        <v>453</v>
+        <v>544</v>
       </c>
       <c r="E95" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F95" t="s">
-        <v>550</v>
-      </c>
-      <c r="G95" t="s">
-        <v>453</v>
-      </c>
-      <c r="H95" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C96" t="s">
         <v>66</v>
       </c>
       <c r="D96" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E96" t="s">
         <v>66</v>
@@ -8764,181 +8188,139 @@
       <c r="F96" t="s">
         <v>66</v>
       </c>
-      <c r="G96" t="s">
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" t="s">
+        <v>546</v>
+      </c>
+      <c r="E97" t="s">
+        <v>253</v>
+      </c>
+      <c r="F97" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" t="s">
+        <v>234</v>
+      </c>
+      <c r="E98" t="s">
+        <v>331</v>
+      </c>
+      <c r="F98" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" t="s">
+        <v>445</v>
+      </c>
+      <c r="C99" t="s">
+        <v>467</v>
+      </c>
+      <c r="D99" t="s">
+        <v>547</v>
+      </c>
+      <c r="E99" t="s">
+        <v>468</v>
+      </c>
+      <c r="F99" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" t="s">
+        <v>455</v>
+      </c>
+      <c r="C100" t="s">
+        <v>401</v>
+      </c>
+      <c r="D100" t="s">
+        <v>548</v>
+      </c>
+      <c r="E100" t="s">
+        <v>402</v>
+      </c>
+      <c r="F100" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>119</v>
+      </c>
+      <c r="B101" t="s">
+        <v>456</v>
+      </c>
+      <c r="C101" t="s">
+        <v>403</v>
+      </c>
+      <c r="D101" t="s">
+        <v>549</v>
+      </c>
+      <c r="E101" t="s">
+        <v>404</v>
+      </c>
+      <c r="F101" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" t="s">
+        <v>358</v>
+      </c>
+      <c r="D102" t="s">
+        <v>247</v>
+      </c>
+      <c r="E102" t="s">
+        <v>274</v>
+      </c>
+      <c r="F102" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
         <v>66</v>
       </c>
-      <c r="H96" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>111</v>
-      </c>
-      <c r="B97" t="s">
-        <v>55</v>
-      </c>
-      <c r="C97" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" t="s">
-        <v>120</v>
-      </c>
-      <c r="E97" t="s">
-        <v>124</v>
-      </c>
-      <c r="F97" t="s">
-        <v>552</v>
-      </c>
-      <c r="G97" t="s">
-        <v>253</v>
-      </c>
-      <c r="H97" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>111</v>
-      </c>
-      <c r="B98" t="s">
-        <v>55</v>
-      </c>
-      <c r="C98" t="s">
-        <v>68</v>
-      </c>
-      <c r="D98" t="s">
-        <v>72</v>
-      </c>
-      <c r="E98" t="s">
-        <v>125</v>
-      </c>
-      <c r="F98" t="s">
-        <v>234</v>
-      </c>
-      <c r="G98" t="s">
-        <v>331</v>
-      </c>
-      <c r="H98" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>111</v>
-      </c>
-      <c r="B99" t="s">
-        <v>61</v>
-      </c>
-      <c r="C99" t="s">
-        <v>117</v>
-      </c>
-      <c r="D99" t="s">
-        <v>445</v>
-      </c>
-      <c r="E99" t="s">
-        <v>472</v>
-      </c>
-      <c r="F99" t="s">
-        <v>553</v>
-      </c>
-      <c r="G99" t="s">
-        <v>473</v>
-      </c>
-      <c r="H99" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>111</v>
-      </c>
-      <c r="B100" t="s">
-        <v>61</v>
-      </c>
-      <c r="C100" t="s">
-        <v>118</v>
-      </c>
-      <c r="D100" t="s">
-        <v>460</v>
-      </c>
-      <c r="E100" t="s">
-        <v>401</v>
-      </c>
-      <c r="F100" t="s">
-        <v>554</v>
-      </c>
-      <c r="G100" t="s">
-        <v>402</v>
-      </c>
-      <c r="H100" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101" t="s">
-        <v>61</v>
-      </c>
-      <c r="C101" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" t="s">
-        <v>461</v>
-      </c>
-      <c r="E101" t="s">
-        <v>403</v>
-      </c>
-      <c r="F101" t="s">
-        <v>555</v>
-      </c>
-      <c r="G101" t="s">
-        <v>404</v>
-      </c>
-      <c r="H101" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>64</v>
-      </c>
-      <c r="B102" t="s">
-        <v>55</v>
-      </c>
-      <c r="C102" t="s">
-        <v>65</v>
-      </c>
-      <c r="D102" t="s">
-        <v>69</v>
-      </c>
-      <c r="E102" t="s">
-        <v>358</v>
-      </c>
-      <c r="F102" t="s">
-        <v>247</v>
-      </c>
-      <c r="G102" t="s">
-        <v>274</v>
-      </c>
-      <c r="H102" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>64</v>
-      </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C103" t="s">
         <v>66</v>
       </c>
       <c r="D103" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E103" t="s">
         <v>66</v>
@@ -8946,74 +8328,56 @@
       <c r="F103" t="s">
         <v>66</v>
       </c>
-      <c r="G103" t="s">
-        <v>66</v>
-      </c>
-      <c r="H103" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C104" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="D104" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="E104" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="F104" t="s">
-        <v>246</v>
-      </c>
-      <c r="G104" t="s">
-        <v>275</v>
-      </c>
-      <c r="H104" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="E105" t="s">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="F105" t="s">
-        <v>234</v>
-      </c>
-      <c r="G105" t="s">
-        <v>254</v>
-      </c>
-      <c r="H105" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="B106" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="C106" t="s">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="D106" t="s">
         <v>397</v>
@@ -9024,108 +8388,78 @@
       <c r="F106" t="s">
         <v>397</v>
       </c>
-      <c r="G106" t="s">
-        <v>397</v>
-      </c>
-      <c r="H106" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>559</v>
       </c>
       <c r="C107" t="s">
-        <v>372</v>
+        <v>560</v>
       </c>
       <c r="D107" t="s">
-        <v>446</v>
+        <v>561</v>
       </c>
       <c r="E107" t="s">
-        <v>448</v>
+        <v>562</v>
       </c>
       <c r="F107" t="s">
-        <v>447</v>
-      </c>
-      <c r="G107" t="s">
-        <v>449</v>
-      </c>
-      <c r="H107" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>437</v>
       </c>
       <c r="C108" t="s">
-        <v>292</v>
+        <v>469</v>
       </c>
       <c r="D108" t="s">
-        <v>437</v>
+        <v>550</v>
       </c>
       <c r="E108" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F108" t="s">
-        <v>556</v>
-      </c>
-      <c r="G108" t="s">
-        <v>475</v>
-      </c>
-      <c r="H108" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>507</v>
       </c>
       <c r="C109" t="s">
-        <v>298</v>
+        <v>508</v>
       </c>
       <c r="D109" t="s">
-        <v>512</v>
+        <v>554</v>
       </c>
       <c r="E109" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F109" t="s">
-        <v>560</v>
-      </c>
-      <c r="G109" t="s">
-        <v>514</v>
-      </c>
-      <c r="H109" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B110" t="s">
-        <v>61</v>
-      </c>
-      <c r="C110" t="s">
-        <v>299</v>
+        <v>504</v>
       </c>
       <c r="D110" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="F110" t="s">
-        <v>558</v>
-      </c>
-      <c r="H110" t="s">
         <v>565</v>
       </c>
     </row>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="4480" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1880" yWindow="5440" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
-    <sheet name="Blatt1" sheetId="9" r:id="rId2"/>
+    <sheet name="Blatt1" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="slirv_translations" localSheetId="1">Blatt1!$A$2:$H$117</definedName>
     <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$117</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="562">
   <si>
     <t>typ</t>
   </si>
@@ -1714,15 +1715,6 @@
     <t>midar an modi maletg antir</t>
   </si>
   <si>
-    <t>tradiment da la patria, desarar malsongas humanas, abus d'uffezi,</t>
-  </si>
-  <si>
-    <t>servetsch d'infurmaziun scumando</t>
-  </si>
-  <si>
-    <t>La Societad Digitala Svizzra publitgescha annual igl “Swiss Lawfull Interception Report” tgi sa tracta sur la survigilaziun digl stadi en Svizzra. La visualisaziun cumplettescha igl report interactiv e mossa detaglià, scu tgi igl Cantuns survigileschan. Chatta or, per tge delicts igls voss dretgs fundamentals reivan restranschia. &lt;br&gt;&lt;br&gt;&lt;small&gt;Las datas ainten quella statistica cuntignan sulettamain mesiras da survigilaziun siva urdan da process penal. Exceptà en missiuns digl IMSI-Catcher, trojan digl stadi ni mesiras da survigilaziun digl servetsch da spiunadi.&lt;/small&gt;</t>
-  </si>
-  <si>
     <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/de' target='_blank'&gt;Dienst Überwachung Post- und Fernmeldeverkehr&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Microsoft / Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
@@ -1740,9 +1732,6 @@
   <si>
     <t xml:space="preserve">La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;
 </t>
-  </si>
-  <si>
-    <t>La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1828,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="265">
+  <cellStyleXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2030,6 +2019,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2145,7 +2136,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="265">
+  <cellStyles count="267">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2286,6 +2277,7 @@
     <cellStyle name="Besuchter Link" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2410,6 +2402,7 @@
     <cellStyle name="Link" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -2476,6 +2469,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -2826,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView topLeftCell="C117" workbookViewId="0">
-      <selection activeCell="H117" sqref="C1:H117"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="H117" sqref="A1:H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6054,19 +6051,19 @@
         <v>372</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
@@ -6250,7 +6247,7 @@
         <v>552</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="1"/>
@@ -6276,43 +6273,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F110"/>
+      <selection sqref="A1:H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>169</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>170</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>178</v>
-      </c>
-      <c r="B2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>173</v>
       </c>
       <c r="D2" t="s">
         <v>173</v>
@@ -6323,16 +6326,22 @@
       <c r="F2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>179</v>
-      </c>
-      <c r="B3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" t="s">
-        <v>174</v>
       </c>
       <c r="D3" t="s">
         <v>174</v>
@@ -6343,16 +6352,22 @@
       <c r="F3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" t="s">
-        <v>175</v>
       </c>
       <c r="D4" t="s">
         <v>175</v>
@@ -6363,16 +6378,22 @@
       <c r="F4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>180</v>
-      </c>
-      <c r="B5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" t="s">
-        <v>176</v>
       </c>
       <c r="D5" t="s">
         <v>176</v>
@@ -6383,16 +6404,22 @@
       <c r="F5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
         <v>181</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" t="s">
-        <v>177</v>
       </c>
       <c r="D6" t="s">
         <v>177</v>
@@ -6403,136 +6430,178 @@
       <c r="F6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>73</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>153</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>369</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>517</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>370</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
         <v>110</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>393</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>392</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>391</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>390</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>109</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>471</v>
-      </c>
-      <c r="C9" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9" t="s">
-        <v>338</v>
       </c>
       <c r="E9" t="s">
         <v>338</v>
       </c>
       <c r="F9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>114</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>306</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>518</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>348</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" t="s">
-        <v>304</v>
       </c>
       <c r="D11" t="s">
         <v>113</v>
       </c>
       <c r="E11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
         <v>349</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>112</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>305</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>519</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>351</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
         <v>298</v>
-      </c>
-      <c r="B13" t="s">
-        <v>344</v>
-      </c>
-      <c r="C13" t="s">
-        <v>344</v>
       </c>
       <c r="D13" t="s">
         <v>344</v>
@@ -6543,616 +6612,802 @@
       <c r="F13" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>344</v>
+      </c>
+      <c r="H13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>299</v>
-      </c>
-      <c r="B14" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14" t="s">
-        <v>346</v>
       </c>
       <c r="D14" t="s">
         <v>345</v>
       </c>
       <c r="E14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F14" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>347</v>
+      </c>
+      <c r="H14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>372</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>381</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>382</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>383</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>384</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>115</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>307</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>276</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>277</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
         <v>106</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>107</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>137</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>248</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>278</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
         <v>386</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>387</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>387</v>
-      </c>
-      <c r="D18" t="s">
-        <v>386</v>
-      </c>
-      <c r="E18" t="s">
-        <v>388</v>
       </c>
       <c r="F18" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>388</v>
+      </c>
+      <c r="H18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
         <v>473</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>474</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>475</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>476</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>477</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>394</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>431</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>395</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>520</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>396</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
         <v>406</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>411</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>411</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>413</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>412</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
         <v>407</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>409</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>414</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>415</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>416</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>408</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>410</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>418</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>419</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>420</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>140</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>232</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>233</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
         <v>293</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>294</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>295</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>296</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>297</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>185</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>196</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>143</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>182</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>197</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>144</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>183</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>198</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>142</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>184</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>199</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>141</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>141</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>200</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>145</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>186</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>201</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>36</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>36</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>187</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>202</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>146</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>146</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>203</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
         <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
       </c>
       <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
         <v>204</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>39</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>147</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>147</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>205</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
         <v>12</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>40</v>
-      </c>
-      <c r="C36" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" t="s">
-        <v>148</v>
       </c>
       <c r="E36" t="s">
         <v>148</v>
       </c>
       <c r="F36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
         <v>13</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>41</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>41</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>188</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>206</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>42</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>42</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>189</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>207</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
         <v>15</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>43</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>190</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>208</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
         <v>16</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>44</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>44</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>191</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>209</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
         <v>18</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>45</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>45</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>192</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
         <v>17</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>46</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>46</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>193</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>211</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
         <v>19</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>47</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>47</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>194</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>212</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
         <v>20</v>
-      </c>
-      <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" t="s">
-        <v>149</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
@@ -7163,16 +7418,22 @@
       <c r="F44" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
         <v>21</v>
-      </c>
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
       </c>
       <c r="D45" t="s">
         <v>49</v>
@@ -7183,316 +7444,412 @@
       <c r="F45" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
         <v>22</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" t="s">
-        <v>150</v>
       </c>
       <c r="E46" t="s">
         <v>150</v>
       </c>
       <c r="F46" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H46" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
         <v>23</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>51</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>151</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>151</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>213</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>52</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>52</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>195</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>214</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
         <v>25</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>30</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>152</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>152</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>215</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
         <v>82</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>74</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>126</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>235</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>235</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
         <v>83</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>75</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>127</v>
-      </c>
-      <c r="D51" t="s">
-        <v>236</v>
-      </c>
-      <c r="E51" t="s">
-        <v>261</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="s">
+        <v>261</v>
+      </c>
+      <c r="H51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
         <v>84</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>80</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>128</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>237</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>262</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
         <v>85</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>81</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>129</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>238</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
         <v>86</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>76</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>133</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>239</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>263</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
         <v>87</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>77</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>132</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>240</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>264</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
         <v>88</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>104</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>130</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>521</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>257</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
         <v>89</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>78</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>131</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
         <v>241</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>265</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
         <v>90</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>103</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>134</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
         <v>522</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>258</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
         <v>91</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>79</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>135</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>523</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>259</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
         <v>82</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="s">
         <v>288</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>289</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>524</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>290</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
         <v>83</v>
-      </c>
-      <c r="B61" t="s">
-        <v>371</v>
-      </c>
-      <c r="C61" t="s">
-        <v>371</v>
       </c>
       <c r="D61" t="s">
         <v>371</v>
@@ -7503,964 +7860,1253 @@
       <c r="F61" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" t="s">
+        <v>371</v>
+      </c>
+      <c r="H61" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
         <v>84</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" t="s">
         <v>438</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>300</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>525</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" t="s">
         <v>301</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
         <v>85</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>308</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>309</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>310</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>312</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
         <v>86</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
         <v>165</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>166</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>526</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>311</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" t="s">
         <v>87</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
         <v>163</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>164</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
         <v>527</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>256</v>
       </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
         <v>88</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
         <v>439</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
         <v>130</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
         <v>528</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" t="s">
         <v>257</v>
       </c>
-      <c r="F66" t="s">
+      <c r="H66" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" t="s">
         <v>89</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
         <v>161</v>
-      </c>
-      <c r="C67" t="s">
-        <v>162</v>
-      </c>
-      <c r="D67" t="s">
-        <v>529</v>
       </c>
       <c r="E67" t="s">
         <v>162</v>
       </c>
       <c r="F67" t="s">
+        <v>529</v>
+      </c>
+      <c r="G67" t="s">
+        <v>162</v>
+      </c>
+      <c r="H67" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="120" customHeight="1">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
         <v>90</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
         <v>440</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>457</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
         <v>530</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G68" t="s">
         <v>458</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" t="s">
+        <v>319</v>
+      </c>
+      <c r="E69" t="s">
+        <v>320</v>
+      </c>
+      <c r="F69" t="s">
+        <v>321</v>
+      </c>
+      <c r="G69" t="s">
+        <v>322</v>
+      </c>
+      <c r="H69" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" t="s">
+        <v>472</v>
+      </c>
+      <c r="E70" t="s">
+        <v>399</v>
+      </c>
+      <c r="F70" t="s">
+        <v>531</v>
+      </c>
+      <c r="G70" t="s">
+        <v>400</v>
+      </c>
+      <c r="H70" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" t="s">
+        <v>353</v>
+      </c>
+      <c r="F71" t="s">
+        <v>532</v>
+      </c>
+      <c r="G71" t="s">
+        <v>269</v>
+      </c>
+      <c r="H71" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" t="s">
+        <v>354</v>
+      </c>
+      <c r="F72" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72" t="s">
+        <v>270</v>
+      </c>
+      <c r="H72" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" t="s">
+        <v>355</v>
+      </c>
+      <c r="F73" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73" t="s">
+        <v>271</v>
+      </c>
+      <c r="H73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" t="s">
+        <v>356</v>
+      </c>
+      <c r="F74" t="s">
+        <v>533</v>
+      </c>
+      <c r="G74" t="s">
+        <v>272</v>
+      </c>
+      <c r="H74" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
+        <v>244</v>
+      </c>
+      <c r="G75" t="s">
+        <v>136</v>
+      </c>
+      <c r="H75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76" t="s">
+        <v>357</v>
+      </c>
+      <c r="F76" t="s">
+        <v>245</v>
+      </c>
+      <c r="G76" t="s">
+        <v>273</v>
+      </c>
+      <c r="H76" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" t="s">
+        <v>446</v>
+      </c>
+      <c r="E77" t="s">
+        <v>459</v>
+      </c>
+      <c r="F77" t="s">
+        <v>534</v>
+      </c>
+      <c r="G77" t="s">
+        <v>460</v>
+      </c>
+      <c r="H77" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" t="s">
+        <v>503</v>
+      </c>
+      <c r="E78" t="s">
+        <v>461</v>
+      </c>
+      <c r="F78" t="s">
+        <v>535</v>
+      </c>
+      <c r="G78" t="s">
+        <v>462</v>
+      </c>
+      <c r="H78" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" t="s">
+        <v>443</v>
+      </c>
+      <c r="E79" t="s">
+        <v>463</v>
+      </c>
+      <c r="F79" t="s">
+        <v>536</v>
+      </c>
+      <c r="G79" t="s">
+        <v>464</v>
+      </c>
+      <c r="H79" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
+        <v>537</v>
+      </c>
+      <c r="G80" t="s">
+        <v>266</v>
+      </c>
+      <c r="H80" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
+        <v>538</v>
+      </c>
+      <c r="G81" t="s">
+        <v>267</v>
+      </c>
+      <c r="H81" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
+        <v>539</v>
+      </c>
+      <c r="G82" t="s">
+        <v>268</v>
+      </c>
+      <c r="H82" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" t="s">
+        <v>138</v>
+      </c>
+      <c r="F83" t="s">
+        <v>249</v>
+      </c>
+      <c r="G83" t="s">
+        <v>280</v>
+      </c>
+      <c r="H83" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" t="s">
+        <v>332</v>
+      </c>
+      <c r="E84" t="s">
+        <v>333</v>
+      </c>
+      <c r="F84" t="s">
+        <v>540</v>
+      </c>
+      <c r="G84" t="s">
+        <v>334</v>
+      </c>
+      <c r="H84" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G85" t="s">
+        <v>281</v>
+      </c>
+      <c r="H85" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
+        <v>251</v>
+      </c>
+      <c r="G86" t="s">
+        <v>282</v>
+      </c>
+      <c r="H86" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" t="s">
+        <v>285</v>
+      </c>
+      <c r="D87" t="s">
+        <v>287</v>
+      </c>
+      <c r="E87" t="s">
+        <v>287</v>
+      </c>
+      <c r="F87" t="s">
+        <v>287</v>
+      </c>
+      <c r="G87" t="s">
+        <v>287</v>
+      </c>
+      <c r="H87" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" t="s">
+        <v>286</v>
+      </c>
+      <c r="D88" t="s">
+        <v>449</v>
+      </c>
+      <c r="E88" t="s">
+        <v>449</v>
+      </c>
+      <c r="F88" t="s">
+        <v>449</v>
+      </c>
+      <c r="G88" t="s">
+        <v>449</v>
+      </c>
+      <c r="H88" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" t="s">
+        <v>339</v>
+      </c>
+      <c r="E89" t="s">
+        <v>154</v>
+      </c>
+      <c r="F89" t="s">
+        <v>541</v>
+      </c>
+      <c r="G89" t="s">
+        <v>279</v>
+      </c>
+      <c r="H89" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90" t="s">
+        <v>340</v>
+      </c>
+      <c r="E90" t="s">
+        <v>341</v>
+      </c>
+      <c r="F90" t="s">
+        <v>342</v>
+      </c>
+      <c r="G90" t="s">
+        <v>343</v>
+      </c>
+      <c r="H90" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" t="s">
+        <v>441</v>
+      </c>
+      <c r="E91" t="s">
+        <v>360</v>
+      </c>
+      <c r="F91" t="s">
+        <v>542</v>
+      </c>
+      <c r="G91" t="s">
+        <v>361</v>
+      </c>
+      <c r="H91" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" t="s">
+        <v>429</v>
+      </c>
+      <c r="E92" t="s">
+        <v>430</v>
+      </c>
+      <c r="F92" t="s">
+        <v>543</v>
+      </c>
+      <c r="G92" t="s">
+        <v>362</v>
+      </c>
+      <c r="H92" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" t="s">
+        <v>285</v>
+      </c>
+      <c r="D93" t="s">
+        <v>447</v>
+      </c>
+      <c r="E93" t="s">
+        <v>465</v>
+      </c>
+      <c r="F93" t="s">
+        <v>553</v>
+      </c>
+      <c r="G93" t="s">
+        <v>466</v>
+      </c>
+      <c r="H93" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" t="s">
+        <v>286</v>
+      </c>
+      <c r="D94" t="s">
+        <v>448</v>
+      </c>
+      <c r="E94" t="s">
+        <v>448</v>
+      </c>
+      <c r="F94" t="s">
+        <v>544</v>
+      </c>
+      <c r="G94" t="s">
+        <v>448</v>
+      </c>
+      <c r="H94" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" t="s">
+        <v>70</v>
+      </c>
+      <c r="E95" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" t="s">
+        <v>66</v>
+      </c>
+      <c r="G95" t="s">
+        <v>66</v>
+      </c>
+      <c r="H95" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" t="s">
+        <v>124</v>
+      </c>
+      <c r="F96" t="s">
+        <v>546</v>
+      </c>
+      <c r="G96" t="s">
+        <v>253</v>
+      </c>
+      <c r="H96" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>72</v>
+      </c>
+      <c r="E97" t="s">
+        <v>125</v>
+      </c>
+      <c r="F97" t="s">
+        <v>234</v>
+      </c>
+      <c r="G97" t="s">
+        <v>331</v>
+      </c>
+      <c r="H97" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" t="s">
+        <v>445</v>
+      </c>
+      <c r="E98" t="s">
+        <v>467</v>
+      </c>
+      <c r="F98" t="s">
+        <v>547</v>
+      </c>
+      <c r="G98" t="s">
+        <v>468</v>
+      </c>
+      <c r="H98" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" t="s">
+        <v>455</v>
+      </c>
+      <c r="E99" t="s">
+        <v>401</v>
+      </c>
+      <c r="F99" t="s">
+        <v>548</v>
+      </c>
+      <c r="G99" t="s">
+        <v>402</v>
+      </c>
+      <c r="H99" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D100" t="s">
+        <v>456</v>
+      </c>
+      <c r="E100" t="s">
+        <v>403</v>
+      </c>
+      <c r="F100" t="s">
+        <v>549</v>
+      </c>
+      <c r="G100" t="s">
+        <v>404</v>
+      </c>
+      <c r="H100" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" t="s">
+        <v>358</v>
+      </c>
+      <c r="F101" t="s">
+        <v>247</v>
+      </c>
+      <c r="G101" t="s">
+        <v>274</v>
+      </c>
+      <c r="H101" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s">
+        <v>66</v>
+      </c>
+      <c r="D102" t="s">
+        <v>70</v>
+      </c>
+      <c r="E102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" t="s">
+        <v>66</v>
+      </c>
+      <c r="G102" t="s">
+        <v>66</v>
+      </c>
+      <c r="H102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" t="s">
+        <v>67</v>
+      </c>
+      <c r="D103" t="s">
+        <v>71</v>
+      </c>
+      <c r="E103" t="s">
+        <v>359</v>
+      </c>
+      <c r="F103" t="s">
+        <v>246</v>
+      </c>
+      <c r="G103" t="s">
+        <v>275</v>
+      </c>
+      <c r="H103" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>72</v>
+      </c>
+      <c r="E104" t="s">
+        <v>68</v>
+      </c>
+      <c r="F104" t="s">
+        <v>234</v>
+      </c>
+      <c r="G104" t="s">
+        <v>254</v>
+      </c>
+      <c r="H104" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>373</v>
+      </c>
+      <c r="B105" t="s">
+        <v>374</v>
+      </c>
+      <c r="C105" t="s">
+        <v>298</v>
+      </c>
+      <c r="D105" t="s">
+        <v>397</v>
+      </c>
+      <c r="E105" t="s">
+        <v>397</v>
+      </c>
+      <c r="F105" t="s">
+        <v>397</v>
+      </c>
+      <c r="G105" t="s">
+        <v>397</v>
+      </c>
+      <c r="H105" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>291</v>
+      </c>
+      <c r="B106" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" t="s">
+        <v>372</v>
+      </c>
+      <c r="D106" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="F69" t="s">
+      <c r="E106" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" t="s">
-        <v>319</v>
-      </c>
-      <c r="C70" t="s">
-        <v>320</v>
-      </c>
-      <c r="D70" t="s">
-        <v>321</v>
-      </c>
-      <c r="E70" t="s">
-        <v>322</v>
-      </c>
-      <c r="F70" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
+      <c r="F106" t="s">
+        <v>558</v>
+      </c>
+      <c r="G106" t="s">
+        <v>559</v>
+      </c>
+      <c r="H106" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>291</v>
+      </c>
+      <c r="B107" t="s">
         <v>61</v>
       </c>
-      <c r="B71" t="s">
-        <v>472</v>
-      </c>
-      <c r="C71" t="s">
-        <v>399</v>
-      </c>
-      <c r="D71" t="s">
-        <v>531</v>
-      </c>
-      <c r="E71" t="s">
-        <v>400</v>
-      </c>
-      <c r="F71" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" t="s">
-        <v>353</v>
-      </c>
-      <c r="D72" t="s">
-        <v>532</v>
-      </c>
-      <c r="E72" t="s">
-        <v>269</v>
-      </c>
-      <c r="F72" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B73" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" t="s">
-        <v>354</v>
-      </c>
-      <c r="D73" t="s">
-        <v>242</v>
-      </c>
-      <c r="E73" t="s">
-        <v>270</v>
-      </c>
-      <c r="F73" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" t="s">
-        <v>97</v>
-      </c>
-      <c r="C74" t="s">
-        <v>355</v>
-      </c>
-      <c r="D74" t="s">
-        <v>243</v>
-      </c>
-      <c r="E74" t="s">
-        <v>271</v>
-      </c>
-      <c r="F74" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>99</v>
-      </c>
-      <c r="B75" t="s">
-        <v>167</v>
-      </c>
-      <c r="C75" t="s">
-        <v>356</v>
-      </c>
-      <c r="D75" t="s">
-        <v>533</v>
-      </c>
-      <c r="E75" t="s">
-        <v>272</v>
-      </c>
-      <c r="F75" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B76" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" t="s">
-        <v>244</v>
-      </c>
-      <c r="E76" t="s">
-        <v>136</v>
-      </c>
-      <c r="F76" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>96</v>
-      </c>
-      <c r="B77" t="s">
-        <v>105</v>
-      </c>
-      <c r="C77" t="s">
-        <v>357</v>
-      </c>
-      <c r="D77" t="s">
-        <v>245</v>
-      </c>
-      <c r="E77" t="s">
-        <v>273</v>
-      </c>
-      <c r="F77" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>101</v>
-      </c>
-      <c r="B78" t="s">
-        <v>446</v>
-      </c>
-      <c r="C78" t="s">
-        <v>459</v>
-      </c>
-      <c r="D78" t="s">
-        <v>534</v>
-      </c>
-      <c r="E78" t="s">
-        <v>460</v>
-      </c>
-      <c r="F78" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" t="s">
-        <v>503</v>
-      </c>
-      <c r="C79" t="s">
-        <v>461</v>
-      </c>
-      <c r="D79" t="s">
-        <v>535</v>
-      </c>
-      <c r="E79" t="s">
-        <v>462</v>
-      </c>
-      <c r="F79" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" t="s">
-        <v>443</v>
-      </c>
-      <c r="C80" t="s">
-        <v>463</v>
-      </c>
-      <c r="D80" t="s">
-        <v>536</v>
-      </c>
-      <c r="E80" t="s">
-        <v>464</v>
-      </c>
-      <c r="F80" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>99</v>
-      </c>
-      <c r="B81" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" t="s">
-        <v>158</v>
-      </c>
-      <c r="D81" t="s">
-        <v>537</v>
-      </c>
-      <c r="E81" t="s">
-        <v>266</v>
-      </c>
-      <c r="F81" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" t="s">
-        <v>155</v>
-      </c>
-      <c r="C82" t="s">
-        <v>156</v>
-      </c>
-      <c r="D82" t="s">
-        <v>538</v>
-      </c>
-      <c r="E82" t="s">
-        <v>267</v>
-      </c>
-      <c r="F82" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" t="s">
-        <v>539</v>
-      </c>
-      <c r="E83" t="s">
-        <v>268</v>
-      </c>
-      <c r="F83" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>56</v>
-      </c>
-      <c r="B84" t="s">
-        <v>59</v>
-      </c>
-      <c r="C84" t="s">
-        <v>138</v>
-      </c>
-      <c r="D84" t="s">
-        <v>249</v>
-      </c>
-      <c r="E84" t="s">
-        <v>280</v>
-      </c>
-      <c r="F84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>58</v>
-      </c>
-      <c r="B85" t="s">
-        <v>332</v>
-      </c>
-      <c r="C85" t="s">
-        <v>333</v>
-      </c>
-      <c r="D85" t="s">
-        <v>540</v>
-      </c>
-      <c r="E85" t="s">
-        <v>334</v>
-      </c>
-      <c r="F85" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>62</v>
-      </c>
-      <c r="B86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" t="s">
-        <v>139</v>
-      </c>
-      <c r="D86" t="s">
-        <v>250</v>
-      </c>
-      <c r="E86" t="s">
-        <v>281</v>
-      </c>
-      <c r="F86" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>57</v>
-      </c>
-      <c r="B87" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" t="s">
-        <v>168</v>
-      </c>
-      <c r="D87" t="s">
-        <v>251</v>
-      </c>
-      <c r="E87" t="s">
-        <v>282</v>
-      </c>
-      <c r="F87" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>285</v>
-      </c>
-      <c r="B88" t="s">
-        <v>287</v>
-      </c>
-      <c r="C88" t="s">
-        <v>287</v>
-      </c>
-      <c r="D88" t="s">
-        <v>287</v>
-      </c>
-      <c r="E88" t="s">
-        <v>287</v>
-      </c>
-      <c r="F88" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>286</v>
-      </c>
-      <c r="B89" t="s">
-        <v>449</v>
-      </c>
-      <c r="C89" t="s">
-        <v>449</v>
-      </c>
-      <c r="D89" t="s">
-        <v>449</v>
-      </c>
-      <c r="E89" t="s">
-        <v>449</v>
-      </c>
-      <c r="F89" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>56</v>
-      </c>
-      <c r="B90" t="s">
-        <v>339</v>
-      </c>
-      <c r="C90" t="s">
-        <v>154</v>
-      </c>
-      <c r="D90" t="s">
-        <v>541</v>
-      </c>
-      <c r="E90" t="s">
-        <v>279</v>
-      </c>
-      <c r="F90" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>58</v>
-      </c>
-      <c r="B91" t="s">
-        <v>340</v>
-      </c>
-      <c r="C91" t="s">
-        <v>341</v>
-      </c>
-      <c r="D91" t="s">
-        <v>342</v>
-      </c>
-      <c r="E91" t="s">
-        <v>343</v>
-      </c>
-      <c r="F91" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92" t="s">
-        <v>441</v>
-      </c>
-      <c r="C92" t="s">
-        <v>360</v>
-      </c>
-      <c r="D92" t="s">
-        <v>542</v>
-      </c>
-      <c r="E92" t="s">
-        <v>361</v>
-      </c>
-      <c r="F92" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>57</v>
-      </c>
-      <c r="B93" t="s">
-        <v>429</v>
-      </c>
-      <c r="C93" t="s">
-        <v>430</v>
-      </c>
-      <c r="D93" t="s">
-        <v>543</v>
-      </c>
-      <c r="E93" t="s">
-        <v>362</v>
-      </c>
-      <c r="F93" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>285</v>
-      </c>
-      <c r="B94" t="s">
-        <v>447</v>
-      </c>
-      <c r="C94" t="s">
-        <v>465</v>
-      </c>
-      <c r="D94" t="s">
-        <v>553</v>
-      </c>
-      <c r="E94" t="s">
-        <v>466</v>
-      </c>
-      <c r="F94" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>286</v>
-      </c>
-      <c r="B95" t="s">
-        <v>448</v>
-      </c>
-      <c r="C95" t="s">
-        <v>448</v>
-      </c>
-      <c r="D95" t="s">
-        <v>544</v>
-      </c>
-      <c r="E95" t="s">
-        <v>448</v>
-      </c>
-      <c r="F95" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>66</v>
-      </c>
-      <c r="B96" t="s">
-        <v>70</v>
-      </c>
-      <c r="C96" t="s">
-        <v>66</v>
-      </c>
-      <c r="D96" t="s">
-        <v>66</v>
-      </c>
-      <c r="E96" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>119</v>
-      </c>
-      <c r="B97" t="s">
-        <v>120</v>
-      </c>
-      <c r="C97" t="s">
-        <v>124</v>
-      </c>
-      <c r="D97" t="s">
-        <v>546</v>
-      </c>
-      <c r="E97" t="s">
-        <v>253</v>
-      </c>
-      <c r="F97" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>68</v>
-      </c>
-      <c r="B98" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" t="s">
-        <v>234</v>
-      </c>
-      <c r="E98" t="s">
-        <v>331</v>
-      </c>
-      <c r="F98" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>117</v>
-      </c>
-      <c r="B99" t="s">
-        <v>445</v>
-      </c>
-      <c r="C99" t="s">
-        <v>467</v>
-      </c>
-      <c r="D99" t="s">
-        <v>547</v>
-      </c>
-      <c r="E99" t="s">
-        <v>468</v>
-      </c>
-      <c r="F99" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>118</v>
-      </c>
-      <c r="B100" t="s">
-        <v>455</v>
-      </c>
-      <c r="C100" t="s">
-        <v>401</v>
-      </c>
-      <c r="D100" t="s">
-        <v>548</v>
-      </c>
-      <c r="E100" t="s">
-        <v>402</v>
-      </c>
-      <c r="F100" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>119</v>
-      </c>
-      <c r="B101" t="s">
-        <v>456</v>
-      </c>
-      <c r="C101" t="s">
-        <v>403</v>
-      </c>
-      <c r="D101" t="s">
-        <v>549</v>
-      </c>
-      <c r="E101" t="s">
-        <v>404</v>
-      </c>
-      <c r="F101" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>65</v>
-      </c>
-      <c r="B102" t="s">
-        <v>69</v>
-      </c>
-      <c r="C102" t="s">
-        <v>358</v>
-      </c>
-      <c r="D102" t="s">
-        <v>247</v>
-      </c>
-      <c r="E102" t="s">
-        <v>274</v>
-      </c>
-      <c r="F102" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>66</v>
-      </c>
-      <c r="B103" t="s">
-        <v>70</v>
-      </c>
-      <c r="C103" t="s">
-        <v>66</v>
-      </c>
-      <c r="D103" t="s">
-        <v>66</v>
-      </c>
-      <c r="E103" t="s">
-        <v>66</v>
-      </c>
-      <c r="F103" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>67</v>
-      </c>
-      <c r="B104" t="s">
-        <v>71</v>
-      </c>
-      <c r="C104" t="s">
-        <v>359</v>
-      </c>
-      <c r="D104" t="s">
-        <v>246</v>
-      </c>
-      <c r="E104" t="s">
-        <v>275</v>
-      </c>
-      <c r="F104" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
-        <v>68</v>
-      </c>
-      <c r="B105" t="s">
-        <v>72</v>
-      </c>
-      <c r="C105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D105" t="s">
-        <v>234</v>
-      </c>
-      <c r="E105" t="s">
-        <v>254</v>
-      </c>
-      <c r="F105" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
+      <c r="C107" t="s">
+        <v>292</v>
+      </c>
+      <c r="D107" t="s">
+        <v>437</v>
+      </c>
+      <c r="E107" t="s">
+        <v>469</v>
+      </c>
+      <c r="F107" t="s">
+        <v>550</v>
+      </c>
+      <c r="G107" t="s">
+        <v>470</v>
+      </c>
+      <c r="H107" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>291</v>
+      </c>
+      <c r="B108" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" t="s">
         <v>298</v>
       </c>
-      <c r="B106" t="s">
-        <v>397</v>
-      </c>
-      <c r="C106" t="s">
-        <v>397</v>
-      </c>
-      <c r="D106" t="s">
-        <v>397</v>
-      </c>
-      <c r="E106" t="s">
-        <v>397</v>
-      </c>
-      <c r="F106" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
-        <v>372</v>
-      </c>
-      <c r="B107" t="s">
-        <v>559</v>
-      </c>
-      <c r="C107" t="s">
-        <v>560</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
+        <v>507</v>
+      </c>
+      <c r="E108" t="s">
+        <v>508</v>
+      </c>
+      <c r="F108" t="s">
+        <v>554</v>
+      </c>
+      <c r="G108" t="s">
+        <v>509</v>
+      </c>
+      <c r="H108" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>291</v>
+      </c>
+      <c r="B109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" t="s">
+        <v>299</v>
+      </c>
+      <c r="D109" t="s">
+        <v>504</v>
+      </c>
+      <c r="F109" t="s">
+        <v>552</v>
+      </c>
+      <c r="H109" t="s">
         <v>561</v>
-      </c>
-      <c r="E107" t="s">
-        <v>562</v>
-      </c>
-      <c r="F107" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>292</v>
-      </c>
-      <c r="B108" t="s">
-        <v>437</v>
-      </c>
-      <c r="C108" t="s">
-        <v>469</v>
-      </c>
-      <c r="D108" t="s">
-        <v>550</v>
-      </c>
-      <c r="E108" t="s">
-        <v>470</v>
-      </c>
-      <c r="F108" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>298</v>
-      </c>
-      <c r="B109" t="s">
-        <v>507</v>
-      </c>
-      <c r="C109" t="s">
-        <v>508</v>
-      </c>
-      <c r="D109" t="s">
-        <v>554</v>
-      </c>
-      <c r="E109" t="s">
-        <v>509</v>
-      </c>
-      <c r="F109" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>299</v>
-      </c>
-      <c r="B110" t="s">
-        <v>504</v>
-      </c>
-      <c r="D110" t="s">
-        <v>552</v>
-      </c>
-      <c r="F110" t="s">
-        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="5440" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="22580" yWindow="5920" windowWidth="27800" windowHeight="19160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
-    <sheet name="Blatt1" sheetId="10" r:id="rId2"/>
+    <sheet name="Blatt1" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="slirv_translations" localSheetId="1">Blatt1!$A$2:$H$117</definedName>
-    <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$117</definedName>
+    <definedName name="slirv_translations" localSheetId="1">Blatt1!$A$2:$H$119</definedName>
+    <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$119</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="570">
   <si>
     <t>typ</t>
   </si>
@@ -1236,9 +1236,6 @@
     <t>no retati gravi</t>
   </si>
   <si>
-    <t>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</t>
-  </si>
-  <si>
     <t>delicts sexual</t>
   </si>
   <si>
@@ -1386,9 +1383,6 @@
     <t>Geldwäscherei bedeutet, die Ermittlung der Herkunft, die Auffindung oder die Einziehung von Vermögenswerten zu vereiteln.</t>
   </si>
   <si>
-    <t>Facebook Accounts. Diese Liste der Facebook Daten zeigt den Umfang auf.</t>
-  </si>
-  <si>
     <t>Microsoft/Skype Accounts (Skype, Hotmail, Outlook, XBOX etc.)</t>
   </si>
   <si>
@@ -1405,9 +1399,6 @@
   </si>
   <si>
     <t>&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>Nur in Deutsch verfügbar</t>
   </si>
   <si>
     <t>Antennensuchlauf auch Funkzellenabfrage oder Rasterfahndung genannt, erfasst alle Mobiltelefone in einem Gebiet.</t>
@@ -1558,9 +1549,6 @@
     <t>Strukturierte Gruppe, welche sich mittels Gewaltverbrechen oder sich durch verbrecherische Mittel um Einkünfte bereichert. Bsp. Mafia oder Djihad-Reisende</t>
   </si>
   <si>
-    <t>Die Digitale Gesellschaft ist ein offener Zusammenschluss netzpolitisch interessierter Kreise. Dem Bündnis angeschlossen sind rund 50 Einzelpersonen und 15 Gruppierungen. Dazu gehören Grundrechtsorganisationen, Parteien, KünstlerInnen-Kollektive, BetreiberInnen von Netzwerkdiensten und weiteren Gruppen, die sich der kritischen, digitalen Zivilgesellschaft verpflichtet fühlen. &lt;br&gt;&lt;br&gt;Weitere Informationen zu netzpolitischen Themen sind im Blog zu finden: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>tradiment da la patria, desarar malsongas humanas, abus d'uffezi,
 servetsch d'infurmaziun scumando</t>
   </si>
@@ -1568,18 +1556,6 @@
     <t>Visualisaziun digl Spiunadi digl Stadi an Svizzra</t>
   </si>
   <si>
-    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</t>
-  </si>
-  <si>
     <t>Gruppas structuradas, che sa enritgeschan cun crims da violenza ni oter metels criminals  p.Ex. la mafia ni viagiaturs digl Djihad.</t>
   </si>
   <si>
@@ -1703,15 +1679,9 @@
     <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.</t>
   </si>
   <si>
-    <t>Société numérique est un regroupement de cercles intéressés par les questions de politique numérique. Elle est formée d'une cinquantaine de personnes et quinze groupements. Cela inclut les organisations de défense des droits fondamentaux, des partis politiques, des collectifs d'artistes, des opérateurs de services réseaux et d'autres groupes qui, au sein de la société civile numérique, se sentent appelés à une vision critique de celle-ci. &lt;br&gt; dans la même ligne, des sujets de politique des réseaux sont développés dans le blog: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">comptes Facebook : &lt;a href='https://fr-fr.facebook.com/help/405183566203254' target='_blank'&gt;cette liste montre les informations récoltées.&lt;/a&gt; </t>
   </si>
   <si>
-    <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
-  </si>
-  <si>
     <t>midar an modi maletg antir</t>
   </si>
   <si>
@@ -1730,8 +1700,62 @@
     <t>&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.li.admin.ch/rm' target='_blank'&gt;Servetsch da surveglianza dal traffic da posta e da telecommunicaziun&lt;/a&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Facebook: &lt;a href='https://govtrequests.facebook.com/country/Switzerland' target='_blank'&gt;Facebook Government Requests&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Microsoft/Skype: &lt;a href='https://www.microsoft.com/about/corporatecitizenship/en-us/reporting/transparency' target='_blank'&gt;Microsoft Transparency Report&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Basiskarte: &lt;a href='http://www.swisstopo.ch' target='_blank'&gt;Bundesamt für Landestopografie&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>Kosten</t>
+  </si>
+  <si>
+    <t>Entstandene Kosten für Überwachungsmassnahmen in CHF</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Costs for surveillance activities in CHF</t>
+  </si>
+  <si>
+    <t>Le coût des activités de surveillance en CHF</t>
+  </si>
+  <si>
+    <t>Coûts</t>
+  </si>
+  <si>
+    <t>Costi</t>
+  </si>
+  <si>
+    <t>Costi per le attività di sorveglianza in CHF</t>
+  </si>
+  <si>
+    <t>Facebook Accounts. Diese &lt;a href='https://de-de.facebook.com/help/405183566203254' target='_blank'&gt;Liste der Facebook Daten&lt;/a&gt; zeigt den Umfang auf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;
 </t>
+  </si>
+  <si>
+    <t>Société numérique est un regroupement de cercles intéressés par les questions de politique numérique. Elle est formée d'une cinquantaine de personnes et quinze groupements. Cela inclut les organisations de défense des droits fondamentaux, des partis politiques, des collectifs d'artistes, des opérateurs de services réseaux et d'autres groupes qui, au sein de la société civile numérique, se sentent appelés à une vision critique de celle-ci. &lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;dans la même ligne, des sujets de politique des réseaux sont développés dans le blog: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Die Digitale Gesellschaft ist ein offener Zusammenschluss netzpolitisch interessierter Kreise. Dem Bündnis angeschlossen sind rund 50 Einzelpersonen und 15 Gruppierungen. Dazu gehören Grundrechtsorganisationen, Parteien, KünstlerInnen-Kollektive, BetreiberInnen von Netzwerkdiensten und weiteren Gruppen, die sich der kritischen, digitalen Zivilgesellschaft verpflichtet fühlen. &lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Weitere Informationen zu netzpolitischen Themen sind im Blog zu finden: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</t>
+  </si>
+  <si>
+    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1852,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="267">
+  <cellStyleXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2019,6 +2043,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2136,7 +2166,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="267">
+  <cellStyles count="273">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2278,6 +2308,9 @@
     <cellStyle name="Besuchter Link" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2403,9 +2436,22 @@
     <cellStyle name="Link" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="271" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2453,16 +2499,6 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
@@ -2477,23 +2513,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J117" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J119" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:J119">
     <filterColumn colId="9">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="group" dataDxfId="9"/>
-    <tableColumn id="2" name="typ" dataDxfId="8"/>
-    <tableColumn id="3" name="detail" dataDxfId="7"/>
-    <tableColumn id="4" name="de" dataDxfId="6"/>
-    <tableColumn id="5" name="en" dataDxfId="5"/>
-    <tableColumn id="6" name="fr" dataDxfId="4"/>
-    <tableColumn id="7" name="it" dataDxfId="3"/>
-    <tableColumn id="8" name="rm" dataDxfId="2"/>
-    <tableColumn id="9" name="nfTrans" dataDxfId="1"/>
-    <tableColumn id="10" name="notEXport" dataDxfId="0"/>
+    <tableColumn id="1" name="group" dataDxfId="10"/>
+    <tableColumn id="2" name="typ" dataDxfId="9"/>
+    <tableColumn id="3" name="detail" dataDxfId="8"/>
+    <tableColumn id="4" name="de" dataDxfId="7"/>
+    <tableColumn id="5" name="en" dataDxfId="6"/>
+    <tableColumn id="6" name="fr" dataDxfId="5"/>
+    <tableColumn id="7" name="it" dataDxfId="4"/>
+    <tableColumn id="8" name="rm" dataDxfId="3"/>
+    <tableColumn id="9" name="nfTrans" dataDxfId="2"/>
+    <tableColumn id="10" name="notEXport" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2821,10 +2857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="H117" sqref="A1:H117"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2863,10 +2899,10 @@
         <v>171</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3056,13 +3092,13 @@
         <v>369</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>370</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
@@ -3106,7 +3142,7 @@
         <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>338</v>
@@ -3118,7 +3154,7 @@
         <v>338</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
@@ -3140,13 +3176,13 @@
         <v>306</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
@@ -3196,7 +3232,7 @@
         <v>305</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>351</v>
@@ -3314,7 +3350,7 @@
         <v>277</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
@@ -3383,22 +3419,22 @@
         <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
@@ -3446,114 +3482,104 @@
         <v>394</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>396</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="45" hidden="1">
-      <c r="A22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="5" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="30">
+      <c r="A23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="45" hidden="1">
+      <c r="A24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="I23" s="6">
-        <v>1</v>
-      </c>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5" t="s">
@@ -3563,142 +3589,142 @@
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>410</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="I25" s="6">
         <v>1</v>
       </c>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="30">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="30">
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F28" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="4" t="s">
+      <c r="I28" s="6"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I28" s="6">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I29" s="6">
-        <v>1</v>
-      </c>
+      <c r="I29" s="6"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10">
@@ -3709,22 +3735,22 @@
         <v>55</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="I30" s="6">
         <v>1</v>
@@ -3739,22 +3765,22 @@
         <v>55</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="I31" s="6">
         <v>1</v>
@@ -3769,22 +3795,22 @@
         <v>55</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I32" s="6">
         <v>1</v>
@@ -3799,22 +3825,22 @@
         <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="I33" s="6">
         <v>1</v>
@@ -3829,22 +3855,22 @@
         <v>55</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I34" s="6">
         <v>1</v>
@@ -3859,22 +3885,22 @@
         <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I35" s="6">
         <v>1</v>
@@ -3889,22 +3915,22 @@
         <v>55</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I36" s="6">
         <v>1</v>
@@ -3919,22 +3945,22 @@
         <v>55</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="I37" s="6">
         <v>1</v>
@@ -3949,22 +3975,22 @@
         <v>55</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="I38" s="6">
         <v>1</v>
@@ -3979,22 +4005,22 @@
         <v>55</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="I39" s="6">
         <v>1</v>
@@ -4009,22 +4035,22 @@
         <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I40" s="6">
         <v>1</v>
@@ -4039,22 +4065,22 @@
         <v>55</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I41" s="6">
         <v>1</v>
@@ -4069,22 +4095,22 @@
         <v>55</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I42" s="6">
         <v>1</v>
@@ -4099,22 +4125,22 @@
         <v>55</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I43" s="6">
         <v>1</v>
@@ -4129,22 +4155,22 @@
         <v>55</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I44" s="6">
         <v>1</v>
@@ -4159,22 +4185,22 @@
         <v>55</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="I45" s="6">
         <v>1</v>
@@ -4189,22 +4215,22 @@
         <v>55</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="I46" s="6">
         <v>1</v>
@@ -4219,22 +4245,22 @@
         <v>55</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="I47" s="6">
         <v>1</v>
@@ -4249,22 +4275,22 @@
         <v>55</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>229</v>
+        <v>48</v>
       </c>
       <c r="I48" s="6">
         <v>1</v>
@@ -4279,22 +4305,22 @@
         <v>55</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="I49" s="6">
         <v>1</v>
@@ -4309,22 +4335,22 @@
         <v>55</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="I50" s="6">
         <v>1</v>
@@ -4339,22 +4365,22 @@
         <v>55</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I51" s="6">
         <v>1</v>
@@ -4363,28 +4389,28 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="5" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -4392,59 +4418,63 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I53" s="6">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I53" s="6"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="I54" s="6"/>
+      <c r="B54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I54" s="6">
+        <v>1</v>
+      </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10">
@@ -4455,22 +4485,22 @@
         <v>55</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>238</v>
+        <v>127</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
@@ -4483,22 +4513,22 @@
         <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>239</v>
+        <v>128</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>482</v>
+        <v>262</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
@@ -4511,22 +4541,22 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>240</v>
+        <v>129</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>483</v>
+        <v>255</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
@@ -4539,22 +4569,22 @@
         <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>521</v>
+        <v>133</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>318</v>
+        <v>263</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>479</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
@@ -4567,22 +4597,22 @@
         <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>398</v>
+        <v>264</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>480</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
@@ -4595,22 +4625,22 @@
         <v>55</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>484</v>
+        <v>318</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="1"/>
@@ -4623,50 +4653,50 @@
         <v>55</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>523</v>
+        <v>131</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>485</v>
+        <v>265</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" ht="30">
+    <row r="62" spans="1:10">
       <c r="A62" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>288</v>
+        <v>103</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>317</v>
+        <v>481</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="1"/>
@@ -4676,25 +4706,25 @@
         <v>73</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>371</v>
+        <v>135</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>515</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>371</v>
+        <v>259</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>482</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="1"/>
@@ -4707,27 +4737,27 @@
         <v>61</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>438</v>
+        <v>288</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>489</v>
+        <v>290</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" ht="30">
+    <row r="65" spans="1:10">
       <c r="A65" s="4" t="s">
         <v>73</v>
       </c>
@@ -4735,27 +4765,27 @@
         <v>61</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>310</v>
+        <v>371</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" ht="45">
+    <row r="66" spans="1:10" ht="30">
       <c r="A66" s="4" t="s">
         <v>73</v>
       </c>
@@ -4763,27 +4793,27 @@
         <v>61</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>165</v>
+        <v>437</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>166</v>
+        <v>300</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>315</v>
+        <v>301</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>486</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" ht="45">
+    <row r="67" spans="1:10" ht="30">
       <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
@@ -4791,27 +4821,27 @@
         <v>61</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>527</v>
+        <v>310</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>486</v>
+        <v>312</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" ht="60">
+    <row r="68" spans="1:10" ht="45">
       <c r="A68" s="4" t="s">
         <v>73</v>
       </c>
@@ -4819,22 +4849,22 @@
         <v>61</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>439</v>
+        <v>165</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>488</v>
+        <v>311</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="1"/>
@@ -4847,22 +4877,22 @@
         <v>61</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="1"/>
@@ -4875,27 +4905,27 @@
         <v>61</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>457</v>
+        <v>130</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>505</v>
+        <v>257</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>485</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" ht="30">
+    <row r="71" spans="1:10" ht="45">
       <c r="A71" s="4" t="s">
         <v>73</v>
       </c>
@@ -4903,106 +4933,106 @@
         <v>61</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>321</v>
+        <v>162</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>521</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>323</v>
+        <v>162</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>484</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" ht="60">
       <c r="A72" s="4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>490</v>
+        <v>455</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>501</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" ht="30">
       <c r="A73" s="4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>100</v>
+        <v>319</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>532</v>
+        <v>320</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" ht="60">
       <c r="A74" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>94</v>
+        <v>469</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>242</v>
+        <v>523</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>270</v>
+        <v>399</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>325</v>
+        <v>487</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="1"/>
@@ -5015,22 +5045,22 @@
         <v>55</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>243</v>
+        <v>524</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="1"/>
@@ -5043,22 +5073,22 @@
         <v>55</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>533</v>
+        <v>242</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="1"/>
@@ -5071,22 +5101,22 @@
         <v>55</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>136</v>
+        <v>355</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>136</v>
+        <v>271</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="1"/>
@@ -5099,83 +5129,83 @@
         <v>55</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>245</v>
+        <v>525</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" ht="60">
+    <row r="79" spans="1:10">
       <c r="A79" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>446</v>
+        <v>102</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>459</v>
+        <v>136</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>534</v>
+        <v>244</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>460</v>
+        <v>136</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>491</v>
+        <v>326</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" ht="75">
+    <row r="80" spans="1:10">
       <c r="A80" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>503</v>
+        <v>105</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>461</v>
+        <v>357</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>535</v>
+        <v>245</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>511</v>
+        <v>273</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" ht="90">
+    <row r="81" spans="1:10" ht="60">
       <c r="A81" s="4" t="s">
         <v>92</v>
       </c>
@@ -5183,27 +5213,27 @@
         <v>61</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>512</v>
+        <v>457</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" ht="45">
+    <row r="82" spans="1:10" ht="75">
       <c r="A82" s="4" t="s">
         <v>92</v>
       </c>
@@ -5211,27 +5241,27 @@
         <v>61</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>157</v>
+        <v>500</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>158</v>
+        <v>458</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>492</v>
+        <v>459</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>503</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" ht="30">
+    <row r="83" spans="1:10" ht="90">
       <c r="A83" s="4" t="s">
         <v>92</v>
       </c>
@@ -5239,27 +5269,27 @@
         <v>61</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>155</v>
+        <v>442</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>156</v>
+        <v>460</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>324</v>
+        <v>461</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>504</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" ht="30">
+    <row r="84" spans="1:10" ht="45">
       <c r="A84" s="4" t="s">
         <v>92</v>
       </c>
@@ -5267,78 +5297,78 @@
         <v>61</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>330</v>
+        <v>266</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>489</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" ht="30">
       <c r="A85" s="4" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>249</v>
+        <v>156</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>530</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" ht="30">
       <c r="A86" s="4" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>332</v>
+        <v>159</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>334</v>
+        <v>268</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="1"/>
@@ -5351,22 +5381,22 @@
         <v>55</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>250</v>
+        <v>138</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>493</v>
+        <v>284</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="1"/>
@@ -5379,22 +5409,22 @@
         <v>55</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>60</v>
+        <v>332</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>168</v>
+        <v>333</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>251</v>
+        <v>532</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>494</v>
+        <v>335</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="1"/>
@@ -5407,22 +5437,22 @@
         <v>55</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>285</v>
+        <v>62</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>287</v>
+        <v>63</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>287</v>
+        <v>139</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>287</v>
+        <v>490</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="1"/>
@@ -5435,82 +5465,82 @@
         <v>55</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I90" s="6"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I91" s="6"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E90" s="1" t="str">
+      <c r="D92" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E92" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
         <v>Microsoft &amp; Skype</v>
       </c>
-      <c r="F90" s="1" t="str">
+      <c r="F92" s="1" t="str">
         <f>Tabelle2[[#This Row],[en]]</f>
         <v>Microsoft &amp; Skype</v>
       </c>
-      <c r="G90" s="1" t="str">
+      <c r="G92" s="1" t="str">
         <f>Tabelle2[[#This Row],[fr]]</f>
         <v>Microsoft &amp; Skype</v>
       </c>
-      <c r="H90" s="1" t="str">
+      <c r="H92" s="1" t="str">
         <f>Tabelle2[[#This Row],[it]]</f>
         <v>Microsoft &amp; Skype</v>
-      </c>
-      <c r="I90" s="6"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="1:10" ht="45">
-      <c r="A91" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="I91" s="6"/>
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="1:10" ht="30">
-      <c r="A92" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="1"/>
@@ -5523,27 +5553,27 @@
         <v>61</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>441</v>
+        <v>339</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>360</v>
+        <v>154</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>361</v>
+        <v>279</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" ht="60">
+    <row r="94" spans="1:10" ht="30">
       <c r="A94" s="4" t="s">
         <v>0</v>
       </c>
@@ -5551,174 +5581,172 @@
         <v>61</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>430</v>
+        <v>341</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>543</v>
+        <v>342</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" ht="45" hidden="1">
+    <row r="95" spans="1:10" ht="45">
       <c r="A95" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I95" s="6"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:10" ht="60">
+      <c r="A96" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I96" s="6"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:10" ht="45" hidden="1">
+      <c r="A97" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D95" s="4" t="s">
+      <c r="E97" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F97" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H95" s="1" t="str">
+      <c r="H97" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
         <v>https://de-de.facebook.com/help/405183566203254</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I97" s="6">
         <v>1</v>
       </c>
-      <c r="J95" s="1">
+      <c r="J97" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="90">
-      <c r="A96" s="4" t="s">
+    <row r="98" spans="1:10" ht="90">
+      <c r="A98" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>553</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I96" s="6"/>
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="1:10" ht="30">
-      <c r="A97" s="4" t="s">
+      <c r="D98" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I98" s="6"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="1:10" ht="30">
+      <c r="A99" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B99" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="I97" s="6"/>
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="1:10" ht="30" hidden="1">
-      <c r="A98" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="I98" s="6"/>
-      <c r="J98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="D99" s="1" t="s">
-        <v>70</v>
+        <v>446</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>66</v>
+        <v>446</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" ht="30" hidden="1">
       <c r="A100" s="4" t="s">
         <v>111</v>
       </c>
@@ -5726,25 +5754,27 @@
         <v>55</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>316</v>
+        <v>507</v>
       </c>
       <c r="I100" s="6"/>
-      <c r="J100" s="1"/>
+      <c r="J100" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="4" t="s">
@@ -5754,22 +5784,22 @@
         <v>55</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>331</v>
+        <v>66</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>331</v>
+        <v>66</v>
       </c>
       <c r="I101" s="6"/>
       <c r="J101" s="1"/>
@@ -5779,58 +5809,58 @@
         <v>111</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>445</v>
+        <v>120</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>467</v>
+        <v>124</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>468</v>
+        <v>253</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>498</v>
+        <v>316</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" ht="90">
+    <row r="103" spans="1:10">
       <c r="A103" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>455</v>
+        <v>72</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>548</v>
+        <v>125</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>402</v>
+        <v>331</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>516</v>
+        <v>331</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" ht="45">
+    <row r="104" spans="1:10">
       <c r="A104" s="4" t="s">
         <v>111</v>
       </c>
@@ -5838,78 +5868,78 @@
         <v>61</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" ht="90">
       <c r="A105" s="4" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>69</v>
+        <v>452</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>247</v>
+        <v>400</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>540</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>274</v>
+        <v>401</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>328</v>
+        <v>508</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" ht="45">
       <c r="A106" s="4" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>70</v>
+        <v>453</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>66</v>
+        <v>402</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>541</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>66</v>
+        <v>403</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>66</v>
+        <v>496</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="1"/>
@@ -5922,22 +5952,22 @@
         <v>55</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>246</v>
+        <v>358</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="1"/>
@@ -5950,185 +5980,183 @@
         <v>55</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>331</v>
+        <v>66</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" s="1" customFormat="1" hidden="1">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:10">
+      <c r="A109" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I109" s="6"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I110" s="6"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="1:10" s="1" customFormat="1" hidden="1">
+      <c r="A111" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="B111" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E109" s="1" t="str">
+      <c r="D111" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E111" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
         <v>Swiss Lawful Interception Report 2015</v>
       </c>
-      <c r="F109" s="1" t="str">
+      <c r="F111" s="1" t="str">
         <f>Tabelle2[[#This Row],[en]]</f>
         <v>Swiss Lawful Interception Report 2015</v>
       </c>
-      <c r="G109" s="1" t="str">
+      <c r="G111" s="1" t="str">
         <f>Tabelle2[[#This Row],[fr]]</f>
         <v>Swiss Lawful Interception Report 2015</v>
       </c>
-      <c r="H109" s="1" t="str">
+      <c r="H111" s="1" t="str">
         <f>Tabelle2[[#This Row],[it]]</f>
         <v>Swiss Lawful Interception Report 2015</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I111" s="1">
         <v>1</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J111" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="45">
-      <c r="A110" s="4" t="s">
+    <row r="112" spans="1:10" ht="45">
+      <c r="A112" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B112" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E110" s="1" t="str">
+      <c r="D112" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E112" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
-      </c>
-      <c r="F110" s="1" t="str">
+        <v>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</v>
+      </c>
+      <c r="F112" s="1" t="str">
         <f>Tabelle2[[#This Row],[en]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
-      </c>
-      <c r="G110" s="1" t="str">
+        <v>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</v>
+      </c>
+      <c r="G112" s="1" t="str">
         <f>Tabelle2[[#This Row],[fr]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
-      </c>
-      <c r="H110" s="1" t="str">
+        <v>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</v>
+      </c>
+      <c r="H112" s="1" t="str">
         <f>Tabelle2[[#This Row],[it]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf</v>
-      </c>
-      <c r="I110" s="6">
+        <v>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</v>
+      </c>
+      <c r="I112" s="6">
         <v>1</v>
       </c>
-      <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="1:10" ht="409">
-      <c r="A111" s="5" t="s">
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="1:10" ht="409">
+      <c r="A113" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B113" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C113" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="I111" s="6">
+      <c r="D113" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I113" s="6">
         <v>1</v>
       </c>
-      <c r="J111" s="1"/>
-    </row>
-    <row r="112" spans="1:10" ht="270">
-      <c r="A112" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="I112" s="6"/>
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="1:10" ht="120" hidden="1">
-      <c r="A113" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I113" s="6"/>
-      <c r="J113" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="30" hidden="1">
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="1:10" ht="270">
       <c r="A114" s="4" t="s">
         <v>291</v>
       </c>
@@ -6136,29 +6164,27 @@
         <v>61</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>452</v>
+        <v>292</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>453</v>
+        <v>542</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="I114" s="6"/>
-      <c r="J114" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="135" hidden="1">
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="1:10" ht="120" hidden="1">
       <c r="A115" s="4" t="s">
         <v>291</v>
       </c>
@@ -6166,36 +6192,29 @@
         <v>61</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D115" s="1" t="str">
-        <f>CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",D110,"' title='",D109,"' target='_blank'&gt;",D109,"&lt;/a&gt;")</f>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
-      </c>
-      <c r="E115" s="1" t="str">
-        <f t="shared" ref="E115:H115" si="0">CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",E110,"' title='",E109,"' target='_blank'&gt;",E109,"&lt;/a&gt;")</f>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
-      </c>
-      <c r="F115" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
-      </c>
-      <c r="G115" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
-      </c>
-      <c r="H115" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
-      </c>
-      <c r="I115" s="6">
-        <v>1</v>
-      </c>
+      <c r="F115" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I115" s="6"/>
       <c r="J115" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="285">
+    <row r="116" spans="1:10" ht="30" hidden="1">
       <c r="A116" s="4" t="s">
         <v>291</v>
       </c>
@@ -6203,34 +6222,26 @@
         <v>61</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D116" s="1" t="str">
-        <f>CONCATENATE(D113,D115)</f>
-        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
-      </c>
-      <c r="E116" s="1" t="str">
-        <f t="shared" ref="E116:G116" si="1">CONCATENATE(E113,E115,E114)</f>
-        <v>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</v>
-      </c>
-      <c r="F116" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
-      </c>
-      <c r="G116" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
-      </c>
-      <c r="H116" s="1" t="str">
-        <f>CONCATENATE(H113,H115,H114)</f>
-        <v>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2014/03/SLIR_2014.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</v>
-      </c>
-      <c r="I116" s="6">
+        <v>450</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I116" s="6"/>
+      <c r="J116" s="1">
         <v>1</v>
       </c>
-      <c r="J116" s="1"/>
-    </row>
-    <row r="117" spans="1:10" ht="315">
+    </row>
+    <row r="117" spans="1:10" ht="135" hidden="1">
       <c r="A117" s="4" t="s">
         <v>291</v>
       </c>
@@ -6238,23 +6249,95 @@
         <v>61</v>
       </c>
       <c r="C117" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D117" s="1" t="str">
+        <f>CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",D112,"' title='",D111,"' target='_blank'&gt;",D111,"&lt;/a&gt;")</f>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="E117" s="1" t="str">
+        <f t="shared" ref="E117:H117" si="0">CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",E112,"' title='",E111,"' target='_blank'&gt;",E111,"&lt;/a&gt;")</f>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="F117" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="G117" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="H117" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="I117" s="6">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="285">
+      <c r="A118" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D118" s="1" t="str">
+        <f>CONCATENATE(D115,D117)</f>
+        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+      </c>
+      <c r="E118" s="1" t="str">
+        <f t="shared" ref="E118:G118" si="1">CONCATENATE(E115,E117,E116)</f>
+        <v>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</v>
+      </c>
+      <c r="F118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
+      </c>
+      <c r="G118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
+      </c>
+      <c r="H118" s="1" t="str">
+        <f>CONCATENATE(H115,H117,H116)</f>
+        <v>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</v>
+      </c>
+      <c r="I118" s="6">
+        <v>1</v>
+      </c>
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="1:10" ht="315">
+      <c r="A119" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="H117" s="1" t="s">
+      <c r="D119" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H119" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="I117" s="6"/>
-      <c r="J117" s="1"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I110:I1048576 I1:I108">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="1">
+  <conditionalFormatting sqref="I112:I1048576 I1:I110">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6273,10 +6356,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H109"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6454,13 +6537,13 @@
         <v>369</v>
       </c>
       <c r="F7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="G7" t="s">
         <v>370</v>
       </c>
       <c r="H7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6500,7 +6583,7 @@
         <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E9" t="s">
         <v>338</v>
@@ -6512,7 +6595,7 @@
         <v>338</v>
       </c>
       <c r="H9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6532,13 +6615,13 @@
         <v>306</v>
       </c>
       <c r="F10" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G10" t="s">
         <v>348</v>
       </c>
       <c r="H10" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6584,7 +6667,7 @@
         <v>305</v>
       </c>
       <c r="F12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G12" t="s">
         <v>351</v>
@@ -6694,7 +6777,7 @@
         <v>277</v>
       </c>
       <c r="H16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6757,22 +6840,22 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
+        <v>470</v>
+      </c>
+      <c r="D19" t="s">
+        <v>471</v>
+      </c>
+      <c r="E19" t="s">
+        <v>472</v>
+      </c>
+      <c r="F19" t="s">
         <v>473</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>474</v>
       </c>
-      <c r="E19" t="s">
-        <v>475</v>
-      </c>
-      <c r="F19" t="s">
-        <v>476</v>
-      </c>
-      <c r="G19" t="s">
-        <v>477</v>
-      </c>
       <c r="H19" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6786,71 +6869,65 @@
         <v>394</v>
       </c>
       <c r="D20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E20" t="s">
         <v>395</v>
       </c>
       <c r="F20" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G20" t="s">
         <v>396</v>
       </c>
       <c r="H20" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>406</v>
+        <v>551</v>
       </c>
       <c r="D21" t="s">
-        <v>411</v>
+        <v>552</v>
       </c>
       <c r="E21" t="s">
-        <v>411</v>
+        <v>554</v>
       </c>
       <c r="F21" t="s">
-        <v>413</v>
+        <v>557</v>
       </c>
       <c r="G21" t="s">
-        <v>412</v>
-      </c>
-      <c r="H21" t="s">
-        <v>412</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>407</v>
+        <v>551</v>
       </c>
       <c r="D22" t="s">
-        <v>409</v>
+        <v>553</v>
       </c>
       <c r="E22" t="s">
-        <v>414</v>
+        <v>555</v>
       </c>
       <c r="F22" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="G22" t="s">
-        <v>416</v>
-      </c>
-      <c r="H22" t="s">
-        <v>417</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6861,22 +6938,22 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D23" t="s">
         <v>410</v>
       </c>
       <c r="E23" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F23" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G23" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H23" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6887,22 +6964,22 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>406</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>408</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>413</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>414</v>
       </c>
       <c r="G24" t="s">
-        <v>233</v>
+        <v>415</v>
       </c>
       <c r="H24" t="s">
-        <v>336</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6913,22 +6990,22 @@
         <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>293</v>
+        <v>407</v>
       </c>
       <c r="D25" t="s">
-        <v>294</v>
+        <v>409</v>
       </c>
       <c r="E25" t="s">
-        <v>295</v>
+        <v>417</v>
       </c>
       <c r="F25" t="s">
-        <v>296</v>
+        <v>418</v>
       </c>
       <c r="G25" t="s">
-        <v>297</v>
+        <v>419</v>
       </c>
       <c r="H25" t="s">
-        <v>337</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6939,22 +7016,22 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="H26" t="s">
-        <v>196</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6965,22 +7042,22 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="F27" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="G27" t="s">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="H27" t="s">
-        <v>216</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6991,22 +7068,22 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H28" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7017,22 +7094,22 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H29" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -7043,22 +7120,22 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="G30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7069,22 +7146,22 @@
         <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H31" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -7095,22 +7172,22 @@
         <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="G32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7121,22 +7198,22 @@
         <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7147,22 +7224,22 @@
         <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="G34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -7173,22 +7250,22 @@
         <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7199,22 +7276,22 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="H36" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7225,22 +7302,22 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H37" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7251,22 +7328,22 @@
         <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="G38" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="H38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7277,22 +7354,22 @@
         <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7303,22 +7380,22 @@
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7329,22 +7406,22 @@
         <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7355,22 +7432,22 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7381,22 +7458,22 @@
         <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H43" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7407,22 +7484,22 @@
         <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="G44" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7433,22 +7510,22 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="H45" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7459,22 +7536,22 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F46" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H46" t="s">
-        <v>229</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7485,22 +7562,22 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s">
-        <v>230</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7511,22 +7588,22 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="G48" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7537,74 +7614,74 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G49" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="G50" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="H50" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="F51" t="s">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="G51" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="H51" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7615,22 +7692,22 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G52" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="H52" t="s">
-        <v>481</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7641,22 +7718,22 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G53" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H53" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7667,22 +7744,22 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F54" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H54" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7693,22 +7770,22 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F55" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G55" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="H55" t="s">
-        <v>483</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7719,22 +7796,22 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F56" t="s">
-        <v>521</v>
+        <v>239</v>
       </c>
       <c r="G56" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H56" t="s">
-        <v>318</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7745,22 +7822,22 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H57" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7771,22 +7848,22 @@
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F58" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H58" t="s">
-        <v>484</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7797,22 +7874,22 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>523</v>
+        <v>241</v>
       </c>
       <c r="G59" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H59" t="s">
-        <v>485</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7820,25 +7897,25 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D60" t="s">
-        <v>288</v>
+        <v>103</v>
       </c>
       <c r="E60" t="s">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="F60" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G60" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="H60" t="s">
-        <v>317</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7846,25 +7923,25 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D61" t="s">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="E61" t="s">
-        <v>371</v>
+        <v>135</v>
       </c>
       <c r="F61" t="s">
-        <v>371</v>
+        <v>515</v>
       </c>
       <c r="G61" t="s">
-        <v>371</v>
+        <v>259</v>
       </c>
       <c r="H61" t="s">
-        <v>371</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7875,22 +7952,22 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
-        <v>438</v>
+        <v>288</v>
       </c>
       <c r="E62" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F62" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="G62" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H62" t="s">
-        <v>489</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7901,22 +7978,22 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="E63" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="F63" t="s">
-        <v>310</v>
+        <v>371</v>
       </c>
       <c r="G63" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="H63" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7927,22 +8004,22 @@
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>437</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
+        <v>300</v>
       </c>
       <c r="F64" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G64" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H64" t="s">
-        <v>315</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7953,22 +8030,22 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="F65" t="s">
-        <v>527</v>
+        <v>310</v>
       </c>
       <c r="G65" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="H65" t="s">
-        <v>486</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7979,22 +8056,22 @@
         <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
-        <v>439</v>
+        <v>165</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="F66" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G66" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="H66" t="s">
-        <v>488</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -8005,22 +8082,22 @@
         <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E67" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F67" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="G67" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="H67" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -8031,22 +8108,22 @@
         <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E68" t="s">
-        <v>457</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G68" t="s">
-        <v>458</v>
+        <v>257</v>
       </c>
       <c r="H68" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -8057,74 +8134,74 @@
         <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="E69" t="s">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="F69" t="s">
-        <v>321</v>
+        <v>521</v>
       </c>
       <c r="G69" t="s">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="H69" t="s">
-        <v>323</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
         <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D70" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="E70" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="F70" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="G70" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="H70" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>319</v>
       </c>
       <c r="E71" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="F71" t="s">
-        <v>532</v>
+        <v>321</v>
       </c>
       <c r="G71" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="H71" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -8132,25 +8209,25 @@
         <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D72" t="s">
-        <v>94</v>
+        <v>469</v>
       </c>
       <c r="E72" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="F72" t="s">
-        <v>242</v>
+        <v>523</v>
       </c>
       <c r="G72" t="s">
-        <v>270</v>
+        <v>399</v>
       </c>
       <c r="H72" t="s">
-        <v>325</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -8161,22 +8238,22 @@
         <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F73" t="s">
-        <v>243</v>
+        <v>524</v>
       </c>
       <c r="G73" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H73" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -8187,22 +8264,22 @@
         <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="E74" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F74" t="s">
-        <v>533</v>
+        <v>242</v>
       </c>
       <c r="G74" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H74" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -8213,22 +8290,22 @@
         <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E75" t="s">
-        <v>136</v>
+        <v>355</v>
       </c>
       <c r="F75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G75" t="s">
-        <v>136</v>
+        <v>271</v>
       </c>
       <c r="H75" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -8239,22 +8316,22 @@
         <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="E76" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F76" t="s">
-        <v>245</v>
+        <v>525</v>
       </c>
       <c r="G76" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H76" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8262,25 +8339,25 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D77" t="s">
-        <v>446</v>
+        <v>102</v>
       </c>
       <c r="E77" t="s">
-        <v>459</v>
+        <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>534</v>
+        <v>244</v>
       </c>
       <c r="G77" t="s">
-        <v>460</v>
+        <v>136</v>
       </c>
       <c r="H77" t="s">
-        <v>491</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8288,25 +8365,25 @@
         <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>503</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
-        <v>461</v>
+        <v>357</v>
       </c>
       <c r="F78" t="s">
-        <v>535</v>
+        <v>245</v>
       </c>
       <c r="G78" t="s">
-        <v>462</v>
+        <v>273</v>
       </c>
       <c r="H78" t="s">
-        <v>511</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -8317,22 +8394,22 @@
         <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D79" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E79" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F79" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G79" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="H79" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8343,22 +8420,22 @@
         <v>61</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>500</v>
       </c>
       <c r="E80" t="s">
-        <v>158</v>
+        <v>458</v>
       </c>
       <c r="F80" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="G80" t="s">
-        <v>266</v>
+        <v>459</v>
       </c>
       <c r="H80" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8369,22 +8446,22 @@
         <v>61</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D81" t="s">
-        <v>155</v>
+        <v>442</v>
       </c>
       <c r="E81" t="s">
-        <v>156</v>
+        <v>460</v>
       </c>
       <c r="F81" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G81" t="s">
-        <v>267</v>
+        <v>461</v>
       </c>
       <c r="H81" t="s">
-        <v>324</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8395,74 +8472,74 @@
         <v>61</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="G82" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H82" t="s">
-        <v>330</v>
+        <v>489</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="E83" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>249</v>
+        <v>530</v>
       </c>
       <c r="G83" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H83" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C84" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D84" t="s">
-        <v>332</v>
+        <v>159</v>
       </c>
       <c r="E84" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G84" t="s">
-        <v>334</v>
+        <v>268</v>
       </c>
       <c r="H84" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8473,22 +8550,22 @@
         <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D85" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H85" t="s">
-        <v>493</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8499,22 +8576,22 @@
         <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>60</v>
+        <v>332</v>
       </c>
       <c r="E86" t="s">
-        <v>168</v>
+        <v>333</v>
       </c>
       <c r="F86" t="s">
-        <v>251</v>
+        <v>532</v>
       </c>
       <c r="G86" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="H86" t="s">
-        <v>494</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8525,22 +8602,22 @@
         <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>285</v>
+        <v>62</v>
       </c>
       <c r="D87" t="s">
-        <v>287</v>
+        <v>63</v>
       </c>
       <c r="E87" t="s">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="F87" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="G87" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H87" t="s">
-        <v>287</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8551,22 +8628,22 @@
         <v>55</v>
       </c>
       <c r="C88" t="s">
-        <v>286</v>
+        <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>449</v>
+        <v>60</v>
       </c>
       <c r="E88" t="s">
-        <v>449</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>449</v>
+        <v>251</v>
       </c>
       <c r="G88" t="s">
-        <v>449</v>
+        <v>282</v>
       </c>
       <c r="H88" t="s">
-        <v>449</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8574,25 +8651,25 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c r="D89" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="E89" t="s">
-        <v>154</v>
+        <v>287</v>
       </c>
       <c r="F89" t="s">
-        <v>541</v>
+        <v>287</v>
       </c>
       <c r="G89" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H89" t="s">
-        <v>495</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8600,25 +8677,25 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>58</v>
+        <v>286</v>
       </c>
       <c r="D90" t="s">
-        <v>340</v>
+        <v>447</v>
       </c>
       <c r="E90" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="F90" t="s">
-        <v>342</v>
+        <v>447</v>
       </c>
       <c r="G90" t="s">
-        <v>343</v>
+        <v>447</v>
       </c>
       <c r="H90" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8629,22 +8706,22 @@
         <v>61</v>
       </c>
       <c r="C91" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D91" t="s">
-        <v>441</v>
+        <v>339</v>
       </c>
       <c r="E91" t="s">
-        <v>360</v>
+        <v>154</v>
       </c>
       <c r="F91" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G91" t="s">
-        <v>361</v>
+        <v>279</v>
       </c>
       <c r="H91" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8655,22 +8732,22 @@
         <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D92" t="s">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="E92" t="s">
-        <v>430</v>
+        <v>341</v>
       </c>
       <c r="F92" t="s">
-        <v>543</v>
+        <v>342</v>
       </c>
       <c r="G92" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="H92" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8681,22 +8758,22 @@
         <v>61</v>
       </c>
       <c r="C93" t="s">
-        <v>285</v>
+        <v>62</v>
       </c>
       <c r="D93" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E93" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="F93" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="G93" t="s">
-        <v>466</v>
+        <v>361</v>
       </c>
       <c r="H93" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8707,74 +8784,74 @@
         <v>61</v>
       </c>
       <c r="C94" t="s">
-        <v>286</v>
+        <v>57</v>
       </c>
       <c r="D94" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="E94" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="F94" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G94" t="s">
-        <v>448</v>
+        <v>362</v>
       </c>
       <c r="H94" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
+        <v>285</v>
       </c>
       <c r="D95" t="s">
-        <v>70</v>
+        <v>560</v>
       </c>
       <c r="E95" t="s">
-        <v>66</v>
+        <v>462</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>544</v>
       </c>
       <c r="G95" t="s">
-        <v>66</v>
+        <v>463</v>
       </c>
       <c r="H95" t="s">
-        <v>66</v>
+        <v>505</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="D96" t="s">
-        <v>120</v>
+        <v>446</v>
       </c>
       <c r="E96" t="s">
-        <v>124</v>
+        <v>446</v>
       </c>
       <c r="F96" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G96" t="s">
-        <v>253</v>
+        <v>446</v>
       </c>
       <c r="H96" t="s">
-        <v>316</v>
+        <v>446</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8785,22 +8862,22 @@
         <v>55</v>
       </c>
       <c r="C97" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D97" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E97" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="F97" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="G97" t="s">
-        <v>331</v>
+        <v>66</v>
       </c>
       <c r="H97" t="s">
-        <v>331</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8808,25 +8885,25 @@
         <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D98" t="s">
-        <v>445</v>
+        <v>120</v>
       </c>
       <c r="E98" t="s">
-        <v>467</v>
+        <v>124</v>
       </c>
       <c r="F98" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="G98" t="s">
-        <v>468</v>
+        <v>253</v>
       </c>
       <c r="H98" t="s">
-        <v>498</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8834,25 +8911,25 @@
         <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="D99" t="s">
-        <v>455</v>
+        <v>72</v>
       </c>
       <c r="E99" t="s">
-        <v>401</v>
+        <v>125</v>
       </c>
       <c r="F99" t="s">
-        <v>548</v>
+        <v>234</v>
       </c>
       <c r="G99" t="s">
-        <v>402</v>
+        <v>331</v>
       </c>
       <c r="H99" t="s">
-        <v>516</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8863,74 +8940,74 @@
         <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D100" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E100" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="F100" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="G100" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="H100" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="D101" t="s">
-        <v>69</v>
+        <v>452</v>
       </c>
       <c r="E101" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="F101" t="s">
-        <v>247</v>
+        <v>540</v>
       </c>
       <c r="G101" t="s">
-        <v>274</v>
+        <v>401</v>
       </c>
       <c r="H101" t="s">
-        <v>328</v>
+        <v>508</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="D102" t="s">
-        <v>70</v>
+        <v>453</v>
       </c>
       <c r="E102" t="s">
-        <v>66</v>
+        <v>402</v>
       </c>
       <c r="F102" t="s">
-        <v>66</v>
+        <v>541</v>
       </c>
       <c r="G102" t="s">
-        <v>66</v>
+        <v>403</v>
       </c>
       <c r="H102" t="s">
-        <v>66</v>
+        <v>496</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8941,22 +9018,22 @@
         <v>55</v>
       </c>
       <c r="C103" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E103" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H103" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8967,100 +9044,100 @@
         <v>55</v>
       </c>
       <c r="C104" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D104" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E104" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F104" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="G104" t="s">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="H104" t="s">
-        <v>331</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>373</v>
+        <v>64</v>
       </c>
       <c r="B105" t="s">
-        <v>374</v>
+        <v>55</v>
       </c>
       <c r="C105" t="s">
-        <v>298</v>
+        <v>67</v>
       </c>
       <c r="D105" t="s">
-        <v>397</v>
+        <v>71</v>
       </c>
       <c r="E105" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="F105" t="s">
-        <v>397</v>
+        <v>246</v>
       </c>
       <c r="G105" t="s">
-        <v>397</v>
+        <v>275</v>
       </c>
       <c r="H105" t="s">
-        <v>397</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C106" t="s">
-        <v>372</v>
+        <v>68</v>
       </c>
       <c r="D106" t="s">
-        <v>556</v>
+        <v>72</v>
       </c>
       <c r="E106" t="s">
-        <v>557</v>
+        <v>68</v>
       </c>
       <c r="F106" t="s">
-        <v>558</v>
+        <v>234</v>
       </c>
       <c r="G106" t="s">
-        <v>559</v>
+        <v>254</v>
       </c>
       <c r="H106" t="s">
-        <v>560</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>374</v>
       </c>
       <c r="C107" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D107" t="s">
-        <v>437</v>
+        <v>564</v>
       </c>
       <c r="E107" t="s">
-        <v>469</v>
+        <v>564</v>
       </c>
       <c r="F107" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="G107" t="s">
-        <v>470</v>
+        <v>564</v>
       </c>
       <c r="H107" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -9071,22 +9148,22 @@
         <v>61</v>
       </c>
       <c r="C108" t="s">
-        <v>298</v>
+        <v>372</v>
       </c>
       <c r="D108" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="E108" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="F108" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G108" t="s">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="H108" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -9097,15 +9174,67 @@
         <v>61</v>
       </c>
       <c r="C109" t="s">
+        <v>292</v>
+      </c>
+      <c r="D109" t="s">
+        <v>436</v>
+      </c>
+      <c r="E109" t="s">
+        <v>466</v>
+      </c>
+      <c r="F109" t="s">
+        <v>542</v>
+      </c>
+      <c r="G109" t="s">
+        <v>467</v>
+      </c>
+      <c r="H109" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>291</v>
+      </c>
+      <c r="B110" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D110" t="s">
+        <v>565</v>
+      </c>
+      <c r="E110" t="s">
+        <v>566</v>
+      </c>
+      <c r="F110" t="s">
+        <v>567</v>
+      </c>
+      <c r="G110" t="s">
+        <v>568</v>
+      </c>
+      <c r="H110" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>291</v>
+      </c>
+      <c r="B111" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" t="s">
         <v>299</v>
       </c>
-      <c r="D109" t="s">
-        <v>504</v>
-      </c>
-      <c r="F109" t="s">
-        <v>552</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="D111" t="s">
+        <v>563</v>
+      </c>
+      <c r="F111" t="s">
+        <v>562</v>
+      </c>
+      <c r="H111" t="s">
         <v>561</v>
       </c>
     </row>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22580" yWindow="5920" windowWidth="27800" windowHeight="19160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="22580" yWindow="5920" windowWidth="27800" windowHeight="19160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
-    <sheet name="Blatt1" sheetId="11" r:id="rId2"/>
+    <sheet name="Blatt1" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="slirv_translations" localSheetId="1">Blatt1!$A$2:$H$119</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="564">
   <si>
     <t>typ</t>
   </si>
@@ -1158,9 +1158,6 @@
     <t>Gruppi di Reati</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>quellen</t>
   </si>
   <si>
@@ -1353,9 +1350,6 @@
     <t>slir_intro</t>
   </si>
   <si>
-    <t>Die Digitale Gesellschaft Schweiz veröffentlicht jährlich den Swiss Lawful Interception Report über die staatliche Überwachung in der Schweiz. Diese Visualiserung ergänzt den Report interaktiv und zeigt detailiert auf, wie in den Kantonen überwacht wird. Finden Sie heraus, für welche Delikte Ihre Grundrechte eingeschränkt werden.&lt;br&gt;&lt;br&gt;&lt;small&gt;Die Daten in dieser Statistik beinhalten nur Überwachungmassnahmen nach Strafprozessordnung. Ausgenommen sind Einsätze von IMSI-Catcher, Staatstrojanern oder Überwachungsmassnahmen des Nachrichtendienstes.&lt;/small&gt;</t>
-  </si>
-  <si>
     <t>Herstellen, Handel oder Konsum  von Drogen</t>
   </si>
   <si>
@@ -1443,12 +1437,6 @@
     <t>sorveglianza del telefono normale</t>
   </si>
   <si>
-    <t>The Digital Society Switzerland annually publishes the Swiss Lawful Interception Report on the cantons of Switzerland. This Visualization complements the report interactively and shows in detail, how many people are affected in the cantons. Find out what crimes are limiting your basic liberties. &lt;br&gt; &lt;small&gt;The data in these statistics only include surveillance measures in accordance with the Criminal Procedure Code. Except for operations of IMSI catchers, governmental trojans or surveillance of intelligence agencies.&lt;/small&gt;</t>
-  </si>
-  <si>
-    <t>Il Digital Society Switzerland pubblica annualmente l'intercettazione legale Relazione svizzera sui cantoni della Svizzera. Questa visualizzazione completa il rapporto interattivo e mostra in dettaglio, quante persone sono interessate nei Cantoni. Scopri quali crimini stanno limitando le vostre libertà fondamentali. &lt;br&gt;&lt;small&gt;I dati di queste statistiche includono soltanto misure di vigilanza in conformità con il codice di procedura penale. Fatta eccezione per le operazioni di cacciatori IMSI, trojan governative o di sorveglianza delle agenzie di intelligence.&lt;/small&gt;</t>
-  </si>
-  <si>
     <t>Visualisierung zur staatlichen Überwachung in der Schweiz</t>
   </si>
   <si>
@@ -1534,10 +1522,6 @@
   </si>
   <si>
     <t>Tschertga neccessitada, per la tschertga e salvamaint da persunas sparidas ni persunas fugitivas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Societad Digitala Svizzra publitgescha annual igl “Swiss Lawfull Interception Report” tgi sa tracta sur la survigilaziun digl stadi en Svizzra. La visualisaziun cumplettescha igl report interactiv e mossa detaglià, scu tgi igl Cantuns survigileschan. Chatta or, per tge delicts igls voss dretgs fundamentals reivan restranschia. &lt;br&gt;&lt;br&gt;&lt;small&gt;Las datas ainten quella statistica cuntignan sulettamain mesiras da survigilaziun siva urdan da process penal. Exceptà en missiuns digl IMSI-Catcher, trojan digl stadi ni mesiras da survigilaziun digl servetsch da spiunadi.&lt;/small&gt;
-</t>
   </si>
   <si>
     <t>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.</t>
@@ -1673,9 +1657,6 @@
     <t>localisation d'urgence : activée en cas de recherche de personnes disparues ou en fuite.</t>
   </si>
   <si>
-    <t>Société numérique Suisse publie annuellement un rapport sur la situation de l'interception légale en Suisse. Cette visualisation interactive complète le rapport et montre en détail la surveillance effectuée dans chaque canton. Découvrez avec quels délits on justifie la limitation de vos libertés fondamentales. &lt;br&gt; &lt;small&gt; Les données de cette statistique ne comprennent que les mesures de surveillance conformes au Code de procédure pénale à l'exclusion des scanners IMSI, des chevaux de Troie gouvernementales ou de la surveillance effectuée par le service de renseignement de la Confédération (SRC). &lt;/small&gt;</t>
-  </si>
-  <si>
     <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.</t>
   </si>
   <si>
@@ -1740,22 +1721,22 @@
     <t>Die Digitale Gesellschaft ist ein offener Zusammenschluss netzpolitisch interessierter Kreise. Dem Bündnis angeschlossen sind rund 50 Einzelpersonen und 15 Gruppierungen. Dazu gehören Grundrechtsorganisationen, Parteien, KünstlerInnen-Kollektive, BetreiberInnen von Netzwerkdiensten und weiteren Gruppen, die sich der kritischen, digitalen Zivilgesellschaft verpflichtet fühlen. &lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Weitere Informationen zu netzpolitischen Themen sind im Blog zu finden: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
   </si>
   <si>
-    <t>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</t>
-  </si>
-  <si>
-    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</t>
+    <t>Die Digitale Gesellschaft Schweiz veröffentlicht jährlich den Swiss Lawful Interception Report über die staatliche Überwachung in der Schweiz. Diese Visualiserung ergänzt den Report interaktiv und zeigt detailiert auf, wie in den Kantonen überwacht wird. Finden Sie heraus, für welche Delikte Ihre Grundrechte eingeschränkt werden.&lt;br&gt;&lt;br&gt;Die Daten in dieser Statistik beinhalten nur Überwachungmassnahmen nach Strafprozessordnung. Ausgenommen sind Einsätze von IMSI-Catcher, Staatstrojanern oder Überwachungsmassnahmen des Nachrichtendienstes.</t>
+  </si>
+  <si>
+    <t>The Digital Society Switzerland annually publishes the Swiss Lawful Interception Report on the cantons of Switzerland. This Visualization complements the report interactively and shows in detail, how many people are affected in the cantons. Find out what crimes are limiting your basic liberties. &lt;br&gt;&lt;br&gt; The data in these statistics only include surveillance measures in accordance with the Criminal Procedure Code. Except for operations of IMSI catchers, governmental trojans or surveillance of intelligence agencies.</t>
+  </si>
+  <si>
+    <t>Société numérique Suisse publie annuellement un rapport sur la situation de l'interception légale en Suisse. Cette visualisation interactive complète le rapport et montre en détail la surveillance effectuée dans chaque canton. Découvrez avec quels délits on justifie la limitation de vos libertés fondamentales. &lt;br&gt; &lt;br&gt; Les données de cette statistique ne comprennent que les mesures de surveillance conformes au Code de procédure pénale à l'exclusion des scanners IMSI, des chevaux de Troie gouvernementales ou de la surveillance effectuée par le service de renseignement de la Confédération (SRC).</t>
+  </si>
+  <si>
+    <t>Il Digital Society Switzerland pubblica annualmente l'intercettazione legale Relazione svizzera sui cantoni della Svizzera. Questa visualizzazione completa il rapporto interattivo e mostra in dettaglio, quante persone sono interessate nei Cantoni. Scopri quali crimini stanno limitando le vostre libertà fondamentali. &lt;br&gt;&lt;br&gt;I dati di queste statistiche includono soltanto misure di vigilanza in conformità con il codice di procedura penale. Fatta eccezione per le operazioni di cacciatori IMSI, trojan governative o di sorveglianza delle agenzie di intelligence.</t>
+  </si>
+  <si>
+    <t>La Societad Digitala Svizzra publitgescha annual igl “Swiss Lawfull Interception Report” tgi sa tracta sur la survigilaziun digl stadi en Svizzra. La visualisaziun cumplettescha igl report interactiv e mossa detaglià, scu tgi igl Cantuns survigileschan. Chatta or, per tge delicts igls voss dretgs fundamentals reivan restranschia. &lt;br&gt;&lt;br&gt;&lt;small&gt;Las datas ainten quella statistica cuntignan sulettamain mesiras da survigilaziun siva urdan da process penal. Exceptà en missiuns digl IMSI-Catcher, trojan digl stadi ni mesiras da survigilaziun digl servetsch da spiunadi.</t>
+  </si>
+  <si>
+    <t>https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf</t>
   </si>
 </sst>
 </file>
@@ -2443,16 +2424,6 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2499,6 +2470,16 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
@@ -2513,23 +2494,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J119" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J119" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J119">
     <filterColumn colId="9">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="group" dataDxfId="10"/>
-    <tableColumn id="2" name="typ" dataDxfId="9"/>
-    <tableColumn id="3" name="detail" dataDxfId="8"/>
-    <tableColumn id="4" name="de" dataDxfId="7"/>
-    <tableColumn id="5" name="en" dataDxfId="6"/>
-    <tableColumn id="6" name="fr" dataDxfId="5"/>
-    <tableColumn id="7" name="it" dataDxfId="4"/>
-    <tableColumn id="8" name="rm" dataDxfId="3"/>
-    <tableColumn id="9" name="nfTrans" dataDxfId="2"/>
-    <tableColumn id="10" name="notEXport" dataDxfId="1"/>
+    <tableColumn id="1" name="group" dataDxfId="9"/>
+    <tableColumn id="2" name="typ" dataDxfId="8"/>
+    <tableColumn id="3" name="detail" dataDxfId="7"/>
+    <tableColumn id="4" name="de" dataDxfId="6"/>
+    <tableColumn id="5" name="en" dataDxfId="5"/>
+    <tableColumn id="6" name="fr" dataDxfId="4"/>
+    <tableColumn id="7" name="it" dataDxfId="3"/>
+    <tableColumn id="8" name="rm" dataDxfId="2"/>
+    <tableColumn id="9" name="nfTrans" dataDxfId="1"/>
+    <tableColumn id="10" name="notEXport" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2857,10 +2838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2899,10 +2881,10 @@
         <v>171</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3092,13 +3074,13 @@
         <v>369</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>370</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
@@ -3114,19 +3096,19 @@
         <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="1"/>
@@ -3142,7 +3124,7 @@
         <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>338</v>
@@ -3154,7 +3136,7 @@
         <v>338</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
@@ -3176,13 +3158,13 @@
         <v>306</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
@@ -3232,7 +3214,7 @@
         <v>305</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>351</v>
@@ -3307,22 +3289,22 @@
         <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
@@ -3350,7 +3332,7 @@
         <v>277</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
@@ -3391,22 +3373,22 @@
         <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
@@ -3419,22 +3401,22 @@
         <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
@@ -3447,22 +3429,22 @@
         <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="I20" s="6">
         <v>1</v>
@@ -3479,72 +3461,72 @@
         <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="30">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="1"/>
@@ -3589,22 +3571,22 @@
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="I25" s="6">
         <v>1</v>
@@ -3619,22 +3601,22 @@
         <v>55</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="I26" s="6">
         <v>1</v>
@@ -3649,22 +3631,22 @@
         <v>55</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="I27" s="6">
         <v>1</v>
@@ -4528,7 +4510,7 @@
         <v>262</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
@@ -4584,7 +4566,7 @@
         <v>263</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
@@ -4612,7 +4594,7 @@
         <v>264</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
@@ -4634,7 +4616,7 @@
         <v>130</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>257</v>
@@ -4668,7 +4650,7 @@
         <v>265</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="1"/>
@@ -4690,13 +4672,13 @@
         <v>134</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>258</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="1"/>
@@ -4718,13 +4700,13 @@
         <v>135</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>259</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="1"/>
@@ -4746,7 +4728,7 @@
         <v>289</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>290</v>
@@ -4767,20 +4749,25 @@
       <c r="C65" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>371</v>
+      <c r="D65" s="1" t="str">
+        <f>D55</f>
+        <v>Diverse</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f t="shared" ref="E65:H65" si="0">E55</f>
+        <v>miscellaneous</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>divers</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>miscellaneo</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>divers</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="1"/>
@@ -4796,19 +4783,19 @@
         <v>84</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>300</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>301</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="1"/>
@@ -4836,7 +4823,7 @@
         <v>312</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="1"/>
@@ -4858,7 +4845,7 @@
         <v>166</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>311</v>
@@ -4886,13 +4873,13 @@
         <v>164</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>256</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="1"/>
@@ -4908,19 +4895,19 @@
         <v>88</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>257</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
@@ -4942,13 +4929,13 @@
         <v>162</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>162</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="1"/>
@@ -4964,19 +4951,19 @@
         <v>90</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="1"/>
@@ -5020,19 +5007,19 @@
         <v>61</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F74" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="H74" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="1"/>
@@ -5054,7 +5041,7 @@
         <v>353</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>269</v>
@@ -5138,7 +5125,7 @@
         <v>356</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>272</v>
@@ -5216,19 +5203,19 @@
         <v>101</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
@@ -5244,19 +5231,19 @@
         <v>95</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="1"/>
@@ -5272,19 +5259,19 @@
         <v>98</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="1"/>
@@ -5306,13 +5293,13 @@
         <v>158</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>266</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="1"/>
@@ -5334,7 +5321,7 @@
         <v>156</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>267</v>
@@ -5362,7 +5349,7 @@
         <v>160</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>268</v>
@@ -5418,7 +5405,7 @@
         <v>333</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>334</v>
@@ -5452,7 +5439,7 @@
         <v>281</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="1"/>
@@ -5480,7 +5467,7 @@
         <v>282</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="1"/>
@@ -5524,7 +5511,7 @@
         <v>286</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E92" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5562,13 +5549,13 @@
         <v>154</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>279</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
@@ -5596,7 +5583,7 @@
         <v>343</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
@@ -5612,19 +5599,19 @@
         <v>62</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>360</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>361</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="1"/>
@@ -5640,19 +5627,19 @@
         <v>57</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="F96" s="12" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>362</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="1"/>
@@ -5662,22 +5649,22 @@
         <v>0</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>285</v>
       </c>
       <c r="D97" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="F97" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="H97" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5701,19 +5688,19 @@
         <v>285</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="1"/>
@@ -5729,19 +5716,19 @@
         <v>286</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="1"/>
@@ -5763,13 +5750,13 @@
         <v>123</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>252</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="1">
@@ -5821,7 +5808,7 @@
         <v>124</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>253</v>
@@ -5871,19 +5858,19 @@
         <v>117</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="1"/>
@@ -5899,19 +5886,19 @@
         <v>118</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F105" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="H105" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="1"/>
@@ -5927,19 +5914,19 @@
         <v>119</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F106" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="H106" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="1"/>
@@ -6058,7 +6045,7 @@
     </row>
     <row r="111" spans="1:10" s="1" customFormat="1" hidden="1">
       <c r="A111" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>55</v>
@@ -6067,7 +6054,7 @@
         <v>298</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E111" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -6094,32 +6081,32 @@
     </row>
     <row r="112" spans="1:10" ht="45">
       <c r="A112" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>298</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E112" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</v>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf</v>
       </c>
       <c r="F112" s="1" t="str">
         <f>Tabelle2[[#This Row],[en]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</v>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf</v>
       </c>
       <c r="G112" s="1" t="str">
         <f>Tabelle2[[#This Row],[fr]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</v>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf</v>
       </c>
       <c r="H112" s="1" t="str">
         <f>Tabelle2[[#This Row],[it]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</v>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf</v>
       </c>
       <c r="I112" s="6">
         <v>1</v>
@@ -6134,22 +6121,22 @@
         <v>61</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="I113" s="6">
         <v>1</v>
@@ -6167,19 +6154,19 @@
         <v>292</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>436</v>
+        <v>558</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>466</v>
+        <v>559</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>467</v>
+        <v>561</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="1"/>
@@ -6192,22 +6179,22 @@
         <v>61</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F115" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="H115" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="1">
@@ -6222,19 +6209,19 @@
         <v>61</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="1">
@@ -6249,27 +6236,27 @@
         <v>61</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D117" s="1" t="str">
         <f>CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",D112,"' title='",D111,"' target='_blank'&gt;",D111,"&lt;/a&gt;")</f>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="E117" s="1" t="str">
-        <f t="shared" ref="E117:H117" si="0">CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",E112,"' title='",E111,"' target='_blank'&gt;",E111,"&lt;/a&gt;")</f>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <f t="shared" ref="E117:H117" si="1">CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",E112,"' title='",E111,"' target='_blank'&gt;",E111,"&lt;/a&gt;")</f>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="G117" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="H117" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="I117" s="6">
         <v>1</v>
@@ -6290,23 +6277,23 @@
       </c>
       <c r="D118" s="1" t="str">
         <f>CONCATENATE(D115,D117)</f>
-        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="E118" s="1" t="str">
-        <f t="shared" ref="E118:G118" si="1">CONCATENATE(E115,E117,E116)</f>
-        <v>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</v>
+        <f t="shared" ref="E118:G118" si="2">CONCATENATE(E115,E117,E116)</f>
+        <v>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</v>
       </c>
       <c r="F118" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
+        <f t="shared" si="2"/>
+        <v>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
       </c>
       <c r="G118" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
+        <f t="shared" si="2"/>
+        <v>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
       </c>
       <c r="H118" s="1" t="str">
         <f>CONCATENATE(H115,H117,H116)</f>
-        <v>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</v>
+        <v>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</v>
       </c>
       <c r="I118" s="6">
         <v>1</v>
@@ -6324,20 +6311,20 @@
         <v>299</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I112:I1048576 I1:I110">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6356,2889 +6343,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F7" t="s">
-        <v>509</v>
-      </c>
-      <c r="G7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" t="s">
-        <v>393</v>
-      </c>
-      <c r="E8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F8" t="s">
-        <v>391</v>
-      </c>
-      <c r="G8" t="s">
-        <v>390</v>
-      </c>
-      <c r="H8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" t="s">
-        <v>468</v>
-      </c>
-      <c r="E9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F9" t="s">
-        <v>338</v>
-      </c>
-      <c r="G9" t="s">
-        <v>338</v>
-      </c>
-      <c r="H9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" t="s">
-        <v>306</v>
-      </c>
-      <c r="F10" t="s">
-        <v>510</v>
-      </c>
-      <c r="G10" t="s">
-        <v>348</v>
-      </c>
-      <c r="H10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" t="s">
-        <v>304</v>
-      </c>
-      <c r="F11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" t="s">
-        <v>349</v>
-      </c>
-      <c r="H11" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" t="s">
-        <v>305</v>
-      </c>
-      <c r="F12" t="s">
-        <v>511</v>
-      </c>
-      <c r="G12" t="s">
-        <v>351</v>
-      </c>
-      <c r="H12" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E13" t="s">
-        <v>344</v>
-      </c>
-      <c r="F13" t="s">
-        <v>344</v>
-      </c>
-      <c r="G13" t="s">
-        <v>344</v>
-      </c>
-      <c r="H13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14" t="s">
-        <v>345</v>
-      </c>
-      <c r="E14" t="s">
-        <v>346</v>
-      </c>
-      <c r="F14" t="s">
-        <v>345</v>
-      </c>
-      <c r="G14" t="s">
-        <v>347</v>
-      </c>
-      <c r="H14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>372</v>
-      </c>
-      <c r="D15" t="s">
-        <v>381</v>
-      </c>
-      <c r="E15" t="s">
-        <v>382</v>
-      </c>
-      <c r="F15" t="s">
-        <v>383</v>
-      </c>
-      <c r="G15" t="s">
-        <v>384</v>
-      </c>
-      <c r="H15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" t="s">
-        <v>307</v>
-      </c>
-      <c r="F16" t="s">
-        <v>276</v>
-      </c>
-      <c r="G16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H16" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>386</v>
-      </c>
-      <c r="D18" t="s">
-        <v>387</v>
-      </c>
-      <c r="E18" t="s">
-        <v>387</v>
-      </c>
-      <c r="F18" t="s">
-        <v>386</v>
-      </c>
-      <c r="G18" t="s">
-        <v>388</v>
-      </c>
-      <c r="H18" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>470</v>
-      </c>
-      <c r="D19" t="s">
-        <v>471</v>
-      </c>
-      <c r="E19" t="s">
-        <v>472</v>
-      </c>
-      <c r="F19" t="s">
-        <v>473</v>
-      </c>
-      <c r="G19" t="s">
-        <v>474</v>
-      </c>
-      <c r="H19" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>394</v>
-      </c>
-      <c r="D20" t="s">
-        <v>430</v>
-      </c>
-      <c r="E20" t="s">
-        <v>395</v>
-      </c>
-      <c r="F20" t="s">
-        <v>512</v>
-      </c>
-      <c r="G20" t="s">
-        <v>396</v>
-      </c>
-      <c r="H20" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>551</v>
-      </c>
-      <c r="D21" t="s">
-        <v>552</v>
-      </c>
-      <c r="E21" t="s">
-        <v>554</v>
-      </c>
-      <c r="F21" t="s">
-        <v>557</v>
-      </c>
-      <c r="G21" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>551</v>
-      </c>
-      <c r="D22" t="s">
-        <v>553</v>
-      </c>
-      <c r="E22" t="s">
-        <v>555</v>
-      </c>
-      <c r="F22" t="s">
-        <v>556</v>
-      </c>
-      <c r="G22" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>405</v>
-      </c>
-      <c r="D23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E23" t="s">
-        <v>410</v>
-      </c>
-      <c r="F23" t="s">
-        <v>412</v>
-      </c>
-      <c r="G23" t="s">
-        <v>411</v>
-      </c>
-      <c r="H23" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
-        <v>406</v>
-      </c>
-      <c r="D24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E24" t="s">
-        <v>413</v>
-      </c>
-      <c r="F24" t="s">
-        <v>414</v>
-      </c>
-      <c r="G24" t="s">
-        <v>415</v>
-      </c>
-      <c r="H24" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>407</v>
-      </c>
-      <c r="D25" t="s">
-        <v>409</v>
-      </c>
-      <c r="E25" t="s">
-        <v>417</v>
-      </c>
-      <c r="F25" t="s">
-        <v>418</v>
-      </c>
-      <c r="G25" t="s">
-        <v>419</v>
-      </c>
-      <c r="H25" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" t="s">
-        <v>232</v>
-      </c>
-      <c r="G26" t="s">
-        <v>233</v>
-      </c>
-      <c r="H26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>293</v>
-      </c>
-      <c r="D27" t="s">
-        <v>294</v>
-      </c>
-      <c r="E27" t="s">
-        <v>295</v>
-      </c>
-      <c r="F27" t="s">
-        <v>296</v>
-      </c>
-      <c r="G27" t="s">
-        <v>297</v>
-      </c>
-      <c r="H27" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28" t="s">
-        <v>196</v>
-      </c>
-      <c r="H28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" t="s">
-        <v>199</v>
-      </c>
-      <c r="H31" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" t="s">
-        <v>200</v>
-      </c>
-      <c r="H32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" t="s">
-        <v>186</v>
-      </c>
-      <c r="G33" t="s">
-        <v>201</v>
-      </c>
-      <c r="H33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34" t="s">
-        <v>202</v>
-      </c>
-      <c r="H34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" t="s">
-        <v>203</v>
-      </c>
-      <c r="H35" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" t="s">
-        <v>204</v>
-      </c>
-      <c r="H36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37" t="s">
-        <v>205</v>
-      </c>
-      <c r="H37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F38" t="s">
-        <v>148</v>
-      </c>
-      <c r="G38" t="s">
-        <v>148</v>
-      </c>
-      <c r="H38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" t="s">
-        <v>188</v>
-      </c>
-      <c r="G39" t="s">
-        <v>206</v>
-      </c>
-      <c r="H39" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" t="s">
-        <v>189</v>
-      </c>
-      <c r="G40" t="s">
-        <v>207</v>
-      </c>
-      <c r="H40" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" t="s">
-        <v>190</v>
-      </c>
-      <c r="G41" t="s">
-        <v>208</v>
-      </c>
-      <c r="H41" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" t="s">
-        <v>191</v>
-      </c>
-      <c r="G42" t="s">
-        <v>209</v>
-      </c>
-      <c r="H42" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" t="s">
-        <v>192</v>
-      </c>
-      <c r="G43" t="s">
-        <v>210</v>
-      </c>
-      <c r="H43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" t="s">
-        <v>193</v>
-      </c>
-      <c r="G44" t="s">
-        <v>211</v>
-      </c>
-      <c r="H44" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" t="s">
-        <v>194</v>
-      </c>
-      <c r="G45" t="s">
-        <v>212</v>
-      </c>
-      <c r="H45" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" t="s">
-        <v>149</v>
-      </c>
-      <c r="H46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" t="s">
-        <v>150</v>
-      </c>
-      <c r="G48" t="s">
-        <v>150</v>
-      </c>
-      <c r="H48" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" t="s">
-        <v>151</v>
-      </c>
-      <c r="G49" t="s">
-        <v>213</v>
-      </c>
-      <c r="H49" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" t="s">
-        <v>195</v>
-      </c>
-      <c r="G50" t="s">
-        <v>214</v>
-      </c>
-      <c r="H50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" t="s">
-        <v>152</v>
-      </c>
-      <c r="F51" t="s">
-        <v>152</v>
-      </c>
-      <c r="G51" t="s">
-        <v>215</v>
-      </c>
-      <c r="H51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" t="s">
-        <v>235</v>
-      </c>
-      <c r="G52" t="s">
-        <v>235</v>
-      </c>
-      <c r="H52" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" t="s">
-        <v>127</v>
-      </c>
-      <c r="F53" t="s">
-        <v>236</v>
-      </c>
-      <c r="G53" t="s">
-        <v>261</v>
-      </c>
-      <c r="H53" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" t="s">
-        <v>237</v>
-      </c>
-      <c r="G54" t="s">
-        <v>262</v>
-      </c>
-      <c r="H54" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" t="s">
-        <v>238</v>
-      </c>
-      <c r="G55" t="s">
-        <v>255</v>
-      </c>
-      <c r="H55" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" t="s">
-        <v>133</v>
-      </c>
-      <c r="F56" t="s">
-        <v>239</v>
-      </c>
-      <c r="G56" t="s">
-        <v>263</v>
-      </c>
-      <c r="H56" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" t="s">
-        <v>240</v>
-      </c>
-      <c r="G57" t="s">
-        <v>264</v>
-      </c>
-      <c r="H57" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" t="s">
-        <v>130</v>
-      </c>
-      <c r="F58" t="s">
-        <v>513</v>
-      </c>
-      <c r="G58" t="s">
-        <v>257</v>
-      </c>
-      <c r="H58" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" t="s">
-        <v>78</v>
-      </c>
-      <c r="E59" t="s">
-        <v>131</v>
-      </c>
-      <c r="F59" t="s">
-        <v>241</v>
-      </c>
-      <c r="G59" t="s">
-        <v>265</v>
-      </c>
-      <c r="H59" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" t="s">
-        <v>514</v>
-      </c>
-      <c r="G60" t="s">
-        <v>258</v>
-      </c>
-      <c r="H60" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" t="s">
-        <v>135</v>
-      </c>
-      <c r="F61" t="s">
-        <v>515</v>
-      </c>
-      <c r="G61" t="s">
-        <v>259</v>
-      </c>
-      <c r="H61" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" t="s">
-        <v>288</v>
-      </c>
-      <c r="E62" t="s">
-        <v>289</v>
-      </c>
-      <c r="F62" t="s">
-        <v>516</v>
-      </c>
-      <c r="G62" t="s">
-        <v>290</v>
-      </c>
-      <c r="H62" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" t="s">
-        <v>371</v>
-      </c>
-      <c r="E63" t="s">
-        <v>371</v>
-      </c>
-      <c r="F63" t="s">
-        <v>371</v>
-      </c>
-      <c r="G63" t="s">
-        <v>371</v>
-      </c>
-      <c r="H63" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" t="s">
-        <v>437</v>
-      </c>
-      <c r="E64" t="s">
-        <v>300</v>
-      </c>
-      <c r="F64" t="s">
-        <v>517</v>
-      </c>
-      <c r="G64" t="s">
-        <v>301</v>
-      </c>
-      <c r="H64" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" t="s">
-        <v>308</v>
-      </c>
-      <c r="E65" t="s">
-        <v>309</v>
-      </c>
-      <c r="F65" t="s">
-        <v>310</v>
-      </c>
-      <c r="G65" t="s">
-        <v>312</v>
-      </c>
-      <c r="H65" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" t="s">
-        <v>165</v>
-      </c>
-      <c r="E66" t="s">
-        <v>166</v>
-      </c>
-      <c r="F66" t="s">
-        <v>518</v>
-      </c>
-      <c r="G66" t="s">
-        <v>311</v>
-      </c>
-      <c r="H66" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" t="s">
-        <v>163</v>
-      </c>
-      <c r="E67" t="s">
-        <v>164</v>
-      </c>
-      <c r="F67" t="s">
-        <v>519</v>
-      </c>
-      <c r="G67" t="s">
-        <v>256</v>
-      </c>
-      <c r="H67" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" t="s">
-        <v>438</v>
-      </c>
-      <c r="E68" t="s">
-        <v>130</v>
-      </c>
-      <c r="F68" t="s">
-        <v>520</v>
-      </c>
-      <c r="G68" t="s">
-        <v>257</v>
-      </c>
-      <c r="H68" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" t="s">
-        <v>161</v>
-      </c>
-      <c r="E69" t="s">
-        <v>162</v>
-      </c>
-      <c r="F69" t="s">
-        <v>521</v>
-      </c>
-      <c r="G69" t="s">
-        <v>162</v>
-      </c>
-      <c r="H69" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" t="s">
-        <v>439</v>
-      </c>
-      <c r="E70" t="s">
-        <v>454</v>
-      </c>
-      <c r="F70" t="s">
-        <v>522</v>
-      </c>
-      <c r="G70" t="s">
-        <v>455</v>
-      </c>
-      <c r="H70" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" t="s">
-        <v>319</v>
-      </c>
-      <c r="E71" t="s">
-        <v>320</v>
-      </c>
-      <c r="F71" t="s">
-        <v>321</v>
-      </c>
-      <c r="G71" t="s">
-        <v>322</v>
-      </c>
-      <c r="H71" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" t="s">
-        <v>469</v>
-      </c>
-      <c r="E72" t="s">
-        <v>398</v>
-      </c>
-      <c r="F72" t="s">
-        <v>523</v>
-      </c>
-      <c r="G72" t="s">
-        <v>399</v>
-      </c>
-      <c r="H72" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" t="s">
-        <v>353</v>
-      </c>
-      <c r="F73" t="s">
-        <v>524</v>
-      </c>
-      <c r="G73" t="s">
-        <v>269</v>
-      </c>
-      <c r="H73" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" t="s">
-        <v>94</v>
-      </c>
-      <c r="E74" t="s">
-        <v>354</v>
-      </c>
-      <c r="F74" t="s">
-        <v>242</v>
-      </c>
-      <c r="G74" t="s">
-        <v>270</v>
-      </c>
-      <c r="H74" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" t="s">
-        <v>97</v>
-      </c>
-      <c r="E75" t="s">
-        <v>355</v>
-      </c>
-      <c r="F75" t="s">
-        <v>243</v>
-      </c>
-      <c r="G75" t="s">
-        <v>271</v>
-      </c>
-      <c r="H75" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" t="s">
-        <v>167</v>
-      </c>
-      <c r="E76" t="s">
-        <v>356</v>
-      </c>
-      <c r="F76" t="s">
-        <v>525</v>
-      </c>
-      <c r="G76" t="s">
-        <v>272</v>
-      </c>
-      <c r="H76" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" t="s">
-        <v>55</v>
-      </c>
-      <c r="C77" t="s">
-        <v>93</v>
-      </c>
-      <c r="D77" t="s">
-        <v>102</v>
-      </c>
-      <c r="E77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F77" t="s">
-        <v>244</v>
-      </c>
-      <c r="G77" t="s">
-        <v>136</v>
-      </c>
-      <c r="H77" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" t="s">
-        <v>55</v>
-      </c>
-      <c r="C78" t="s">
-        <v>96</v>
-      </c>
-      <c r="D78" t="s">
-        <v>105</v>
-      </c>
-      <c r="E78" t="s">
-        <v>357</v>
-      </c>
-      <c r="F78" t="s">
-        <v>245</v>
-      </c>
-      <c r="G78" t="s">
-        <v>273</v>
-      </c>
-      <c r="H78" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" t="s">
-        <v>101</v>
-      </c>
-      <c r="D79" t="s">
-        <v>445</v>
-      </c>
-      <c r="E79" t="s">
-        <v>456</v>
-      </c>
-      <c r="F79" t="s">
-        <v>526</v>
-      </c>
-      <c r="G79" t="s">
-        <v>457</v>
-      </c>
-      <c r="H79" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" t="s">
-        <v>95</v>
-      </c>
-      <c r="D80" t="s">
-        <v>500</v>
-      </c>
-      <c r="E80" t="s">
-        <v>458</v>
-      </c>
-      <c r="F80" t="s">
-        <v>527</v>
-      </c>
-      <c r="G80" t="s">
-        <v>459</v>
-      </c>
-      <c r="H80" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" t="s">
-        <v>442</v>
-      </c>
-      <c r="E81" t="s">
-        <v>460</v>
-      </c>
-      <c r="F81" t="s">
-        <v>528</v>
-      </c>
-      <c r="G81" t="s">
-        <v>461</v>
-      </c>
-      <c r="H81" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" t="s">
-        <v>99</v>
-      </c>
-      <c r="D82" t="s">
-        <v>157</v>
-      </c>
-      <c r="E82" t="s">
-        <v>158</v>
-      </c>
-      <c r="F82" t="s">
-        <v>529</v>
-      </c>
-      <c r="G82" t="s">
-        <v>266</v>
-      </c>
-      <c r="H82" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D83" t="s">
-        <v>155</v>
-      </c>
-      <c r="E83" t="s">
-        <v>156</v>
-      </c>
-      <c r="F83" t="s">
-        <v>530</v>
-      </c>
-      <c r="G83" t="s">
-        <v>267</v>
-      </c>
-      <c r="H83" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" t="s">
-        <v>159</v>
-      </c>
-      <c r="E84" t="s">
-        <v>160</v>
-      </c>
-      <c r="F84" t="s">
-        <v>531</v>
-      </c>
-      <c r="G84" t="s">
-        <v>268</v>
-      </c>
-      <c r="H84" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85" t="s">
-        <v>59</v>
-      </c>
-      <c r="E85" t="s">
-        <v>138</v>
-      </c>
-      <c r="F85" t="s">
-        <v>249</v>
-      </c>
-      <c r="G85" t="s">
-        <v>280</v>
-      </c>
-      <c r="H85" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
-        <v>55</v>
-      </c>
-      <c r="C86" t="s">
-        <v>58</v>
-      </c>
-      <c r="D86" t="s">
-        <v>332</v>
-      </c>
-      <c r="E86" t="s">
-        <v>333</v>
-      </c>
-      <c r="F86" t="s">
-        <v>532</v>
-      </c>
-      <c r="G86" t="s">
-        <v>334</v>
-      </c>
-      <c r="H86" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
-        <v>55</v>
-      </c>
-      <c r="C87" t="s">
-        <v>62</v>
-      </c>
-      <c r="D87" t="s">
-        <v>63</v>
-      </c>
-      <c r="E87" t="s">
-        <v>139</v>
-      </c>
-      <c r="F87" t="s">
-        <v>250</v>
-      </c>
-      <c r="G87" t="s">
-        <v>281</v>
-      </c>
-      <c r="H87" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s">
-        <v>55</v>
-      </c>
-      <c r="C88" t="s">
-        <v>57</v>
-      </c>
-      <c r="D88" t="s">
-        <v>60</v>
-      </c>
-      <c r="E88" t="s">
-        <v>168</v>
-      </c>
-      <c r="F88" t="s">
-        <v>251</v>
-      </c>
-      <c r="G88" t="s">
-        <v>282</v>
-      </c>
-      <c r="H88" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" t="s">
-        <v>55</v>
-      </c>
-      <c r="C89" t="s">
-        <v>285</v>
-      </c>
-      <c r="D89" t="s">
-        <v>287</v>
-      </c>
-      <c r="E89" t="s">
-        <v>287</v>
-      </c>
-      <c r="F89" t="s">
-        <v>287</v>
-      </c>
-      <c r="G89" t="s">
-        <v>287</v>
-      </c>
-      <c r="H89" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
-        <v>55</v>
-      </c>
-      <c r="C90" t="s">
-        <v>286</v>
-      </c>
-      <c r="D90" t="s">
-        <v>447</v>
-      </c>
-      <c r="E90" t="s">
-        <v>447</v>
-      </c>
-      <c r="F90" t="s">
-        <v>447</v>
-      </c>
-      <c r="G90" t="s">
-        <v>447</v>
-      </c>
-      <c r="H90" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C91" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91" t="s">
-        <v>339</v>
-      </c>
-      <c r="E91" t="s">
-        <v>154</v>
-      </c>
-      <c r="F91" t="s">
-        <v>533</v>
-      </c>
-      <c r="G91" t="s">
-        <v>279</v>
-      </c>
-      <c r="H91" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
-        <v>61</v>
-      </c>
-      <c r="C92" t="s">
-        <v>58</v>
-      </c>
-      <c r="D92" t="s">
-        <v>340</v>
-      </c>
-      <c r="E92" t="s">
-        <v>341</v>
-      </c>
-      <c r="F92" t="s">
-        <v>342</v>
-      </c>
-      <c r="G92" t="s">
-        <v>343</v>
-      </c>
-      <c r="H92" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" t="s">
-        <v>440</v>
-      </c>
-      <c r="E93" t="s">
-        <v>360</v>
-      </c>
-      <c r="F93" t="s">
-        <v>534</v>
-      </c>
-      <c r="G93" t="s">
-        <v>361</v>
-      </c>
-      <c r="H93" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" t="s">
-        <v>428</v>
-      </c>
-      <c r="E94" t="s">
-        <v>429</v>
-      </c>
-      <c r="F94" t="s">
-        <v>535</v>
-      </c>
-      <c r="G94" t="s">
-        <v>362</v>
-      </c>
-      <c r="H94" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
-        <v>61</v>
-      </c>
-      <c r="C95" t="s">
-        <v>285</v>
-      </c>
-      <c r="D95" t="s">
-        <v>560</v>
-      </c>
-      <c r="E95" t="s">
-        <v>462</v>
-      </c>
-      <c r="F95" t="s">
-        <v>544</v>
-      </c>
-      <c r="G95" t="s">
-        <v>463</v>
-      </c>
-      <c r="H95" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" t="s">
-        <v>61</v>
-      </c>
-      <c r="C96" t="s">
-        <v>286</v>
-      </c>
-      <c r="D96" t="s">
-        <v>446</v>
-      </c>
-      <c r="E96" t="s">
-        <v>446</v>
-      </c>
-      <c r="F96" t="s">
-        <v>536</v>
-      </c>
-      <c r="G96" t="s">
-        <v>446</v>
-      </c>
-      <c r="H96" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>111</v>
-      </c>
-      <c r="B97" t="s">
-        <v>55</v>
-      </c>
-      <c r="C97" t="s">
-        <v>66</v>
-      </c>
-      <c r="D97" t="s">
-        <v>70</v>
-      </c>
-      <c r="E97" t="s">
-        <v>66</v>
-      </c>
-      <c r="F97" t="s">
-        <v>66</v>
-      </c>
-      <c r="G97" t="s">
-        <v>66</v>
-      </c>
-      <c r="H97" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>111</v>
-      </c>
-      <c r="B98" t="s">
-        <v>55</v>
-      </c>
-      <c r="C98" t="s">
-        <v>119</v>
-      </c>
-      <c r="D98" t="s">
-        <v>120</v>
-      </c>
-      <c r="E98" t="s">
-        <v>124</v>
-      </c>
-      <c r="F98" t="s">
-        <v>538</v>
-      </c>
-      <c r="G98" t="s">
-        <v>253</v>
-      </c>
-      <c r="H98" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>111</v>
-      </c>
-      <c r="B99" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" t="s">
-        <v>72</v>
-      </c>
-      <c r="E99" t="s">
-        <v>125</v>
-      </c>
-      <c r="F99" t="s">
-        <v>234</v>
-      </c>
-      <c r="G99" t="s">
-        <v>331</v>
-      </c>
-      <c r="H99" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>111</v>
-      </c>
-      <c r="B100" t="s">
-        <v>61</v>
-      </c>
-      <c r="C100" t="s">
-        <v>117</v>
-      </c>
-      <c r="D100" t="s">
-        <v>444</v>
-      </c>
-      <c r="E100" t="s">
-        <v>464</v>
-      </c>
-      <c r="F100" t="s">
-        <v>539</v>
-      </c>
-      <c r="G100" t="s">
-        <v>465</v>
-      </c>
-      <c r="H100" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101" t="s">
-        <v>61</v>
-      </c>
-      <c r="C101" t="s">
-        <v>118</v>
-      </c>
-      <c r="D101" t="s">
-        <v>452</v>
-      </c>
-      <c r="E101" t="s">
-        <v>400</v>
-      </c>
-      <c r="F101" t="s">
-        <v>540</v>
-      </c>
-      <c r="G101" t="s">
-        <v>401</v>
-      </c>
-      <c r="H101" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>111</v>
-      </c>
-      <c r="B102" t="s">
-        <v>61</v>
-      </c>
-      <c r="C102" t="s">
-        <v>119</v>
-      </c>
-      <c r="D102" t="s">
-        <v>453</v>
-      </c>
-      <c r="E102" t="s">
-        <v>402</v>
-      </c>
-      <c r="F102" t="s">
-        <v>541</v>
-      </c>
-      <c r="G102" t="s">
-        <v>403</v>
-      </c>
-      <c r="H102" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>64</v>
-      </c>
-      <c r="B103" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103" t="s">
-        <v>65</v>
-      </c>
-      <c r="D103" t="s">
-        <v>69</v>
-      </c>
-      <c r="E103" t="s">
-        <v>358</v>
-      </c>
-      <c r="F103" t="s">
-        <v>247</v>
-      </c>
-      <c r="G103" t="s">
-        <v>274</v>
-      </c>
-      <c r="H103" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>64</v>
-      </c>
-      <c r="B104" t="s">
-        <v>55</v>
-      </c>
-      <c r="C104" t="s">
-        <v>66</v>
-      </c>
-      <c r="D104" t="s">
-        <v>70</v>
-      </c>
-      <c r="E104" t="s">
-        <v>66</v>
-      </c>
-      <c r="F104" t="s">
-        <v>66</v>
-      </c>
-      <c r="G104" t="s">
-        <v>66</v>
-      </c>
-      <c r="H104" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>64</v>
-      </c>
-      <c r="B105" t="s">
-        <v>55</v>
-      </c>
-      <c r="C105" t="s">
-        <v>67</v>
-      </c>
-      <c r="D105" t="s">
-        <v>71</v>
-      </c>
-      <c r="E105" t="s">
-        <v>359</v>
-      </c>
-      <c r="F105" t="s">
-        <v>246</v>
-      </c>
-      <c r="G105" t="s">
-        <v>275</v>
-      </c>
-      <c r="H105" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>64</v>
-      </c>
-      <c r="B106" t="s">
-        <v>55</v>
-      </c>
-      <c r="C106" t="s">
-        <v>68</v>
-      </c>
-      <c r="D106" t="s">
-        <v>72</v>
-      </c>
-      <c r="E106" t="s">
-        <v>68</v>
-      </c>
-      <c r="F106" t="s">
-        <v>234</v>
-      </c>
-      <c r="G106" t="s">
-        <v>254</v>
-      </c>
-      <c r="H106" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
-        <v>373</v>
-      </c>
-      <c r="B107" t="s">
-        <v>374</v>
-      </c>
-      <c r="C107" t="s">
-        <v>298</v>
-      </c>
-      <c r="D107" t="s">
-        <v>564</v>
-      </c>
-      <c r="E107" t="s">
-        <v>564</v>
-      </c>
-      <c r="F107" t="s">
-        <v>564</v>
-      </c>
-      <c r="G107" t="s">
-        <v>564</v>
-      </c>
-      <c r="H107" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>291</v>
-      </c>
-      <c r="B108" t="s">
-        <v>61</v>
-      </c>
-      <c r="C108" t="s">
-        <v>372</v>
-      </c>
-      <c r="D108" t="s">
-        <v>546</v>
-      </c>
-      <c r="E108" t="s">
-        <v>547</v>
-      </c>
-      <c r="F108" t="s">
-        <v>548</v>
-      </c>
-      <c r="G108" t="s">
-        <v>549</v>
-      </c>
-      <c r="H108" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>291</v>
-      </c>
-      <c r="B109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C109" t="s">
-        <v>292</v>
-      </c>
-      <c r="D109" t="s">
-        <v>436</v>
-      </c>
-      <c r="E109" t="s">
-        <v>466</v>
-      </c>
-      <c r="F109" t="s">
-        <v>542</v>
-      </c>
-      <c r="G109" t="s">
-        <v>467</v>
-      </c>
-      <c r="H109" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>291</v>
-      </c>
-      <c r="B110" t="s">
-        <v>61</v>
-      </c>
-      <c r="C110" t="s">
-        <v>298</v>
-      </c>
-      <c r="D110" t="s">
-        <v>565</v>
-      </c>
-      <c r="E110" t="s">
-        <v>566</v>
-      </c>
-      <c r="F110" t="s">
-        <v>567</v>
-      </c>
-      <c r="G110" t="s">
-        <v>568</v>
-      </c>
-      <c r="H110" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>291</v>
-      </c>
-      <c r="B111" t="s">
-        <v>61</v>
-      </c>
-      <c r="C111" t="s">
-        <v>299</v>
-      </c>
-      <c r="D111" t="s">
-        <v>563</v>
-      </c>
-      <c r="F111" t="s">
-        <v>562</v>
-      </c>
-      <c r="H111" t="s">
-        <v>561</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22580" yWindow="5920" windowWidth="27800" windowHeight="19160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="17920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName name="slirv_translations" localSheetId="1">Blatt1!$A$2:$H$119</definedName>
     <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$119</definedName>
+    <definedName name="slirv_translations_1" localSheetId="1">Blatt1!$A$2:$H$119</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="574">
   <si>
     <t>typ</t>
   </si>
@@ -804,24 +805,6 @@
     <t>ricerca abbonato mobile</t>
   </si>
   <si>
-    <t>salvataggio di emergenza</t>
-  </si>
-  <si>
-    <t>postale</t>
-  </si>
-  <si>
-    <t>minacce e sequestro di persona</t>
-  </si>
-  <si>
-    <t>Assault, omicidio, omicidio, omicidio colposo, violenza</t>
-  </si>
-  <si>
-    <t>inquietante pace pubblica</t>
-  </si>
-  <si>
-    <t>sicurezza e la difesa nazionale</t>
-  </si>
-  <si>
     <t>reati contro la proprietà</t>
   </si>
   <si>
@@ -837,33 +820,9 @@
     <t>reati finanziari</t>
   </si>
   <si>
-    <t>crimini violenti</t>
-  </si>
-  <si>
-    <t>crimini sessuali</t>
-  </si>
-  <si>
-    <t>attività di intelligence politici o economici illegali</t>
-  </si>
-  <si>
-    <t>abusi sessuali sui minori, la pedopornografia</t>
-  </si>
-  <si>
-    <t>minaccia per la sicurezza pubblica, il finanziamento del terrorismo</t>
-  </si>
-  <si>
-    <t>il riciclaggio di denaro</t>
-  </si>
-  <si>
     <t>organizzazione criminale</t>
   </si>
   <si>
-    <t>tratta di esseri umani</t>
-  </si>
-  <si>
-    <t>attività di intelligence illegali</t>
-  </si>
-  <si>
     <t>terrorismo</t>
   </si>
   <si>
@@ -879,12 +838,6 @@
     <t>numero di richieste</t>
   </si>
   <si>
-    <t>n.i.</t>
-  </si>
-  <si>
-    <t>Monitoraggio in tempo reale a.e. ascoltare le chiamate del cellulare, tenere traccia del cellulare</t>
-  </si>
-  <si>
     <t>attivo</t>
   </si>
   <si>
@@ -915,9 +868,6 @@
     <t>requests without criminal proceedings, emergency rescue</t>
   </si>
   <si>
-    <t>richieste senza un procedimento penale, salvataggio di emergenza</t>
-  </si>
-  <si>
     <t>longtext</t>
   </si>
   <si>
@@ -936,9 +886,6 @@
     <t>Min. Public</t>
   </si>
   <si>
-    <t>M. pubblico</t>
-  </si>
-  <si>
     <t>slir</t>
   </si>
   <si>
@@ -978,9 +925,6 @@
     <t>menace, enlèvement, prise d'otage, traite des êtres humains</t>
   </si>
   <si>
-    <t>riciclaggio di denaro, essere corrotto, frodi con carta di credito</t>
-  </si>
-  <si>
     <t>minaccia, sequestro di persona, presa di ostaggi, tratta di esseri umani</t>
   </si>
   <si>
@@ -1047,9 +991,6 @@
     <t>administrative requests</t>
   </si>
   <si>
-    <t>richieste amministrativo</t>
-  </si>
-  <si>
     <t>dumonda administrativ</t>
   </si>
   <si>
@@ -1074,9 +1015,6 @@
     <t>contrat, informations de facturation</t>
   </si>
   <si>
-    <t>contratto, informazioni di fatturazione</t>
-  </si>
-  <si>
     <t>Swiss Lawful Interception Report</t>
   </si>
   <si>
@@ -1086,9 +1024,6 @@
     <t>Imprint</t>
   </si>
   <si>
-    <t>Impronta</t>
-  </si>
-  <si>
     <t>Reati Gravi</t>
   </si>
   <si>
@@ -1128,12 +1063,6 @@
     <t>simple basic information, ex. who used a certrain cell number or who used an IP adress at a certain time</t>
   </si>
   <si>
-    <t>semplice le informazioni di base, es. chi usano un numero di cellule o ha usato indirizzo IP</t>
-  </si>
-  <si>
-    <t>conservazione dei dati degli ultimi sei mesi es. Chi ha utilizzato negli ultimi mesi quali indirizzi IP o quali cellulari e dove</t>
-  </si>
-  <si>
     <t>dienstuepf</t>
   </si>
   <si>
@@ -1230,9 +1159,6 @@
     <t>No Serious Crimes</t>
   </si>
   <si>
-    <t>no retati gravi</t>
-  </si>
-  <si>
     <t>delicts sexual</t>
   </si>
   <si>
@@ -1245,15 +1171,9 @@
     <t>A mobile subscriber scan,  radiocell-inquiry or dragnet. All mobile phones registered in a certain area</t>
   </si>
   <si>
-    <t>Un abbonato mobile scansione, inchiesta cellulare o rete a strascico. Tutti i telefoni cellulari registrati in una certa area</t>
-  </si>
-  <si>
     <t>Emergency rescue is used for search and rescue of missing or absconded.</t>
   </si>
   <si>
-    <t>salvataggio di emergenza viene utilizzato per la ricerca e il salvataggio di mancanti o fuggito.</t>
-  </si>
-  <si>
     <t>smanatscha, rapinament, rapiment d'ostagis,  commerzi cun umans</t>
   </si>
   <si>
@@ -1344,9 +1264,6 @@
     <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.</t>
   </si>
   <si>
-    <t>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.</t>
-  </si>
-  <si>
     <t>slir_intro</t>
   </si>
   <si>
@@ -1410,21 +1327,12 @@
     <t>Money laundering means to thwart the identification of the origin, the discovery or the confiscation of assets.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Il riciclaggio di denaro significa contrastare l'identificazione dell'origine, il ritrovamento o la confisca dei beni.</t>
-  </si>
-  <si>
     <t>Structured group enriched by violence or by criminal means income. Ex. Mafia or jihad travelers</t>
   </si>
   <si>
-    <t>Gruppo strutturato arricchito con la violenza o con mezzi criminali reddito. Es. Mafia o viaggiatori di jihad</t>
-  </si>
-  <si>
     <t xml:space="preserve"> People recruit, offer, give or host application by unauthorized agents such as deception, threat or coercion for the purpose of exploitation.</t>
   </si>
   <si>
-    <t>Persone reclutare, offrire, dare o applicazione host da agenti non autorizzati, come inganno, minaccia o coercizione a scopo di sfruttamento.</t>
-  </si>
-  <si>
     <t>Facebook accounts. This list of Facebook data points to the perimeter.</t>
   </si>
   <si>
@@ -1432,9 +1340,6 @@
   </si>
   <si>
     <t>Regular phone surveillance</t>
-  </si>
-  <si>
-    <t>sorveglianza del telefono normale</t>
   </si>
   <si>
     <t>Visualisierung zur staatlichen Überwachung in der Schweiz</t>
@@ -1730,13 +1635,140 @@
     <t>Société numérique Suisse publie annuellement un rapport sur la situation de l'interception légale en Suisse. Cette visualisation interactive complète le rapport et montre en détail la surveillance effectuée dans chaque canton. Découvrez avec quels délits on justifie la limitation de vos libertés fondamentales. &lt;br&gt; &lt;br&gt; Les données de cette statistique ne comprennent que les mesures de surveillance conformes au Code de procédure pénale à l'exclusion des scanners IMSI, des chevaux de Troie gouvernementales ou de la surveillance effectuée par le service de renseignement de la Confédération (SRC).</t>
   </si>
   <si>
-    <t>Il Digital Society Switzerland pubblica annualmente l'intercettazione legale Relazione svizzera sui cantoni della Svizzera. Questa visualizzazione completa il rapporto interattivo e mostra in dettaglio, quante persone sono interessate nei Cantoni. Scopri quali crimini stanno limitando le vostre libertà fondamentali. &lt;br&gt;&lt;br&gt;I dati di queste statistiche includono soltanto misure di vigilanza in conformità con il codice di procedura penale. Fatta eccezione per le operazioni di cacciatori IMSI, trojan governative o di sorveglianza delle agenzie di intelligence.</t>
-  </si>
-  <si>
     <t>La Societad Digitala Svizzra publitgescha annual igl “Swiss Lawfull Interception Report” tgi sa tracta sur la survigilaziun digl stadi en Svizzra. La visualisaziun cumplettescha igl report interactiv e mossa detaglià, scu tgi igl Cantuns survigileschan. Chatta or, per tge delicts igls voss dretgs fundamentals reivan restranschia. &lt;br&gt;&lt;br&gt;&lt;small&gt;Las datas ainten quella statistica cuntignan sulettamain mesiras da survigilaziun siva urdan da process penal. Exceptà en missiuns digl IMSI-Catcher, trojan digl stadi ni mesiras da survigilaziun digl servetsch da spiunadi.</t>
   </si>
   <si>
     <t>https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf</t>
+  </si>
+  <si>
+    <t>Visualisazzione della sorveglianza governativa in Svizzera</t>
+  </si>
+  <si>
+    <t>Note legali</t>
+  </si>
+  <si>
+    <t>n.d.</t>
+  </si>
+  <si>
+    <t>Reati meno gravi</t>
+  </si>
+  <si>
+    <t>Min. pubblico</t>
+  </si>
+  <si>
+    <t>minacca e sequestro di persona</t>
+  </si>
+  <si>
+    <t>reati violenti</t>
+  </si>
+  <si>
+    <t>pertubazione della pace pubblica</t>
+  </si>
+  <si>
+    <t>reati sessuali</t>
+  </si>
+  <si>
+    <t>diffesa dello stato e nazionale</t>
+  </si>
+  <si>
+    <t>sorveglianza senza un procedimento penale, ricerca di emergenza</t>
+  </si>
+  <si>
+    <t>riciclaggio di denaro, lasciarsi corrempere, frodi con carta di credito</t>
+  </si>
+  <si>
+    <t>Lesioni personali, omicidio, assassinio, rappresentazione di atti di cruda violenza</t>
+  </si>
+  <si>
+    <t>pertubazione della pace pubblica, dimostrazioni, organizzazione criminosa, messa in pericolo con arme</t>
+  </si>
+  <si>
+    <t>coazione sessuale, violenza carnale, prostituzione illegale, pornografia</t>
+  </si>
+  <si>
+    <t>riciclaggio di denaro</t>
+  </si>
+  <si>
+    <t>tratta di persone</t>
+  </si>
+  <si>
+    <t>spionaggio</t>
+  </si>
+  <si>
+    <t>pedocriminalità</t>
+  </si>
+  <si>
+    <t>Il riciclaggio di denaro significa contrastare l'identificazione dell'origine, il ritrovamento o la confisca dei beni.</t>
+  </si>
+  <si>
+    <t>Gruppo strutturato arricchito con la violenza o con mezzi criminali. Es. Mafia o viaggiatori di jihad.</t>
+  </si>
+  <si>
+    <t>Reclutare persone, offrire, mediare o albergare con misure non autorizzati, come inganno, minaccia o coercizione a scopo di sfruttamento.</t>
+  </si>
+  <si>
+    <t>spionaggio politico o economico</t>
+  </si>
+  <si>
+    <t>abusi sessuali sui minori, pornografia minorile</t>
+  </si>
+  <si>
+    <t>pertubazione della sicurezza pubblica, finanziamento del terrorismo</t>
+  </si>
+  <si>
+    <t>richieste amministrative</t>
+  </si>
+  <si>
+    <t>Sorveglianza in tempo reale. Intercettazione delle telefonate, localizzazione dei cellulari</t>
+  </si>
+  <si>
+    <t>copie dei contratti o copie delle fatture</t>
+  </si>
+  <si>
+    <t>a chi appartiene un certo numero di telefono o un indirizzo IP specifico in un determinato momento.</t>
+  </si>
+  <si>
+    <t>conservazione dei dati degli ultimi sei mesi.</t>
+  </si>
+  <si>
+    <t>Microsoft/Skype Accounts (Skype, Hotmail, Outlook, XBOX ecc.)</t>
+  </si>
+  <si>
+    <t>sorveglianza regulare del telefono</t>
+  </si>
+  <si>
+    <t>ricerca di emergenza</t>
+  </si>
+  <si>
+    <t>Una ricerca per zona di copertura dell'antenna registra tutti i cellulari in una zona particolare.</t>
+  </si>
+  <si>
+    <t>Ricerca di emergenza, utilizzato per la ricerca e il salvataggio di persone mancanti o fuggiti.</t>
+  </si>
+  <si>
+    <t>La Società Digitale svizzera pubblica annualmente il rapporto „Swiss Lawful Interception Report“ sui cantoni della Svizzera. Questa visualizzazione completa il rapporto interattivamente e mostra in dettaglio come vanno sorvegliati le persone nei cantoni. Scoprete per quali crimini stanno limitando le vostre diritti fondamentali. &lt;br&gt;&lt;br&gt;I dati di queste statistiche includono soltanto misure di sorveglianza in conformità con il codice di procedura penale. Chi sono anche misure che includono cacciatori IMSI, trojan statali o la sorveglianza del servizio delle attività informative.</t>
+  </si>
+  <si>
+    <t>La Società Digitale è una fusione aperta per tutti interessati in materie di reti. L'alleanza consiste di circa 50 persone e 15 gruppi.  Esse comprendeno organizzazioni di base per i diritti fondamentali, collettivi di artisti, fornitori di servizi internet e altri gruppi che si sentono obbligati alla società civile digitale critica . &lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;Piu informazioni su argomenti in materie di reti si possono trovare nel blog:
+&lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>In aggiunta a questa visualizzazione della sorveglianza la Società Digitale pubblica un rapporto annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Il rapporto „Swiss Lawful Interception Report“ può essere scaricato qui.</t>
+  </si>
+  <si>
+    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>In aggiunta a questa visualizzazione della sorveglianza la Società Digitale pubblica un rapporto annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Il rapporto „Swiss Lawful Interception Report“ può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1865,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="273">
+  <cellStyleXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2024,6 +2056,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2147,7 +2181,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="273">
+  <cellStyles count="275">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2292,6 +2326,7 @@
     <cellStyle name="Besuchter Link" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2420,6 +2455,7 @@
     <cellStyle name="Link" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -2490,6 +2526,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -2838,11 +2878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2881,10 +2920,10 @@
         <v>171</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3071,16 +3110,16 @@
         <v>153</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
@@ -3096,19 +3135,19 @@
         <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="1"/>
@@ -3124,19 +3163,19 @@
         <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>338</v>
+        <v>531</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
@@ -3155,16 +3194,16 @@
         <v>114</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
@@ -3183,16 +3222,16 @@
         <v>113</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>113</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="1"/>
@@ -3211,16 +3250,16 @@
         <v>112</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="1"/>
@@ -3233,22 +3272,22 @@
         <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
@@ -3261,22 +3300,22 @@
         <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>347</v>
+        <v>532</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
@@ -3289,22 +3328,22 @@
         <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
@@ -3323,16 +3362,16 @@
         <v>115</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
@@ -3357,10 +3396,10 @@
         <v>248</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>278</v>
+        <v>533</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="1"/>
@@ -3373,22 +3412,22 @@
         <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
@@ -3401,22 +3440,22 @@
         <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
@@ -3429,22 +3468,22 @@
         <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="I20" s="6">
         <v>1</v>
@@ -3461,22 +3500,22 @@
         <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>395</v>
+        <v>534</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
@@ -3489,19 +3528,19 @@
         <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
@@ -3514,19 +3553,19 @@
         <v>61</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="1"/>
@@ -3539,22 +3578,22 @@
         <v>55</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -3571,22 +3610,22 @@
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="I25" s="6">
         <v>1</v>
@@ -3601,22 +3640,22 @@
         <v>55</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="I26" s="6">
         <v>1</v>
@@ -3631,22 +3670,22 @@
         <v>55</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="I27" s="6">
         <v>1</v>
@@ -3676,7 +3715,7 @@
         <v>233</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="1"/>
@@ -3689,22 +3728,22 @@
         <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>297</v>
+        <v>535</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="1"/>
@@ -3822,7 +3861,7 @@
         <v>199</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="I33" s="6">
         <v>1</v>
@@ -4452,7 +4491,7 @@
         <v>235</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I54" s="6">
         <v>1</v>
@@ -4479,7 +4518,7 @@
         <v>236</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>236</v>
@@ -4507,10 +4546,10 @@
         <v>237</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
@@ -4535,10 +4574,10 @@
         <v>238</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>255</v>
+        <v>536</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
@@ -4563,10 +4602,10 @@
         <v>239</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
@@ -4591,10 +4630,10 @@
         <v>240</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>264</v>
+        <v>537</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
@@ -4616,13 +4655,13 @@
         <v>130</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>257</v>
+        <v>538</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="1"/>
@@ -4647,10 +4686,10 @@
         <v>241</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>265</v>
+        <v>539</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="1"/>
@@ -4672,13 +4711,13 @@
         <v>134</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>258</v>
+        <v>540</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="1"/>
@@ -4700,13 +4739,13 @@
         <v>135</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="1"/>
@@ -4722,19 +4761,19 @@
         <v>82</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>290</v>
+        <v>541</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="1"/>
@@ -4783,19 +4822,19 @@
         <v>84</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="1"/>
@@ -4811,19 +4850,19 @@
         <v>85</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="1"/>
@@ -4845,13 +4884,13 @@
         <v>166</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>311</v>
+        <v>542</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="1"/>
@@ -4873,13 +4912,13 @@
         <v>164</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>256</v>
+        <v>543</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="1"/>
@@ -4895,19 +4934,19 @@
         <v>88</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>257</v>
+        <v>544</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
@@ -4929,13 +4968,13 @@
         <v>162</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>162</v>
+        <v>545</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="1"/>
@@ -4951,19 +4990,19 @@
         <v>90</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="1"/>
@@ -4979,19 +5018,19 @@
         <v>91</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="1"/>
@@ -5007,19 +5046,19 @@
         <v>61</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="1"/>
@@ -5038,16 +5077,16 @@
         <v>100</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>269</v>
+        <v>546</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="1"/>
@@ -5066,16 +5105,16 @@
         <v>94</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>242</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="1"/>
@@ -5094,16 +5133,16 @@
         <v>97</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>243</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>271</v>
+        <v>547</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="1"/>
@@ -5122,16 +5161,16 @@
         <v>167</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>272</v>
+        <v>548</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="1"/>
@@ -5156,10 +5195,10 @@
         <v>244</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>136</v>
+        <v>549</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="1"/>
@@ -5178,16 +5217,16 @@
         <v>105</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
@@ -5203,19 +5242,19 @@
         <v>101</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>455</v>
+        <v>550</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
@@ -5231,19 +5270,19 @@
         <v>95</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>457</v>
+        <v>551</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="1"/>
@@ -5259,19 +5298,19 @@
         <v>98</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>459</v>
+        <v>552</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="1"/>
@@ -5293,13 +5332,13 @@
         <v>158</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>266</v>
+        <v>553</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="1"/>
@@ -5321,13 +5360,13 @@
         <v>156</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>267</v>
+        <v>554</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="1"/>
@@ -5349,13 +5388,13 @@
         <v>160</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>268</v>
+        <v>555</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="1"/>
@@ -5380,10 +5419,10 @@
         <v>249</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="1"/>
@@ -5399,19 +5438,19 @@
         <v>58</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>334</v>
+        <v>556</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="1"/>
@@ -5436,10 +5475,10 @@
         <v>250</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="1"/>
@@ -5464,10 +5503,10 @@
         <v>251</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="1"/>
@@ -5480,22 +5519,22 @@
         <v>55</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="1"/>
@@ -5508,10 +5547,10 @@
         <v>55</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="E92" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5543,19 +5582,19 @@
         <v>56</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>279</v>
+        <v>557</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
@@ -5571,19 +5610,19 @@
         <v>58</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>343</v>
+        <v>558</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
@@ -5599,19 +5638,19 @@
         <v>62</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>361</v>
+        <v>559</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="1"/>
@@ -5627,19 +5666,19 @@
         <v>57</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>362</v>
+        <v>560</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="1"/>
@@ -5649,22 +5688,22 @@
         <v>0</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="H97" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5685,22 +5724,22 @@
         <v>61</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="1"/>
@@ -5713,22 +5752,22 @@
         <v>61</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>444</v>
+        <v>561</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="1"/>
@@ -5750,13 +5789,13 @@
         <v>123</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>252</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="1">
@@ -5808,13 +5847,13 @@
         <v>124</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>253</v>
+        <v>563</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="1"/>
@@ -5839,10 +5878,10 @@
         <v>234</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="1"/>
@@ -5858,19 +5897,19 @@
         <v>117</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>463</v>
+        <v>562</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="1"/>
@@ -5886,19 +5925,19 @@
         <v>118</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>400</v>
+        <v>564</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="1"/>
@@ -5914,19 +5953,19 @@
         <v>119</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>402</v>
+        <v>565</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="1"/>
@@ -5945,16 +5984,16 @@
         <v>69</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>247</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="1"/>
@@ -6001,16 +6040,16 @@
         <v>71</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>246</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="1"/>
@@ -6035,26 +6074,26 @@
         <v>234</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="1"/>
     </row>
     <row r="111" spans="1:10" s="1" customFormat="1" hidden="1">
       <c r="A111" s="1" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="E111" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -6081,16 +6120,16 @@
     </row>
     <row r="112" spans="1:10" ht="45">
       <c r="A112" s="4" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="E112" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -6115,28 +6154,28 @@
     </row>
     <row r="113" spans="1:10" ht="409">
       <c r="A113" s="5" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="I113" s="6">
         <v>1</v>
@@ -6145,56 +6184,56 @@
     </row>
     <row r="114" spans="1:10" ht="270">
       <c r="A114" s="4" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="1"/>
     </row>
     <row r="115" spans="1:10" ht="120" hidden="1">
       <c r="A115" s="4" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>433</v>
+        <v>568</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="1">
@@ -6203,25 +6242,25 @@
     </row>
     <row r="116" spans="1:10" ht="30" hidden="1">
       <c r="A116" s="4" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="1">
@@ -6230,13 +6269,13 @@
     </row>
     <row r="117" spans="1:10" ht="135" hidden="1">
       <c r="A117" s="4" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="D117" s="1" t="str">
         <f>CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",D112,"' title='",D111,"' target='_blank'&gt;",D111,"&lt;/a&gt;")</f>
@@ -6267,13 +6306,13 @@
     </row>
     <row r="118" spans="1:10" ht="285">
       <c r="A118" s="4" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="D118" s="1" t="str">
         <f>CONCATENATE(D115,D117)</f>
@@ -6289,7 +6328,7 @@
       </c>
       <c r="G118" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>In aggiunta a questa visualizzazione della sorveglianza. La società digitale pubblica una relazione annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Le Swiss Lawful Interception Report può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
+        <v>In aggiunta a questa visualizzazione della sorveglianza la Società Digitale pubblica un rapporto annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Il rapporto „Swiss Lawful Interception Report“ può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
       </c>
       <c r="H118" s="1" t="str">
         <f>CONCATENATE(H115,H117,H116)</f>
@@ -6302,22 +6341,25 @@
     </row>
     <row r="119" spans="1:10" ht="315">
       <c r="A119" s="4" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>556</v>
+        <v>524</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="1"/>
@@ -6343,14 +6385,2892 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F8" t="s">
+        <v>366</v>
+      </c>
+      <c r="G8" t="s">
+        <v>365</v>
+      </c>
+      <c r="H8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G9" t="s">
+        <v>531</v>
+      </c>
+      <c r="H9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" t="s">
+        <v>473</v>
+      </c>
+      <c r="G10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" t="s">
+        <v>474</v>
+      </c>
+      <c r="G12" t="s">
+        <v>329</v>
+      </c>
+      <c r="H12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" t="s">
+        <v>323</v>
+      </c>
+      <c r="E13" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G14" t="s">
+        <v>532</v>
+      </c>
+      <c r="H14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E15" t="s">
+        <v>357</v>
+      </c>
+      <c r="F15" t="s">
+        <v>358</v>
+      </c>
+      <c r="G15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" t="s">
+        <v>533</v>
+      </c>
+      <c r="H17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" t="s">
+        <v>362</v>
+      </c>
+      <c r="E18" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G18" t="s">
+        <v>363</v>
+      </c>
+      <c r="H18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>434</v>
+      </c>
+      <c r="D19" t="s">
+        <v>435</v>
+      </c>
+      <c r="E19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F19" t="s">
+        <v>437</v>
+      </c>
+      <c r="G19" t="s">
+        <v>438</v>
+      </c>
+      <c r="H19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>369</v>
+      </c>
+      <c r="D20" t="s">
+        <v>402</v>
+      </c>
+      <c r="E20" t="s">
+        <v>370</v>
+      </c>
+      <c r="F20" t="s">
+        <v>475</v>
+      </c>
+      <c r="G20" t="s">
+        <v>534</v>
+      </c>
+      <c r="H20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>513</v>
+      </c>
+      <c r="D21" t="s">
+        <v>514</v>
+      </c>
+      <c r="E21" t="s">
+        <v>516</v>
+      </c>
+      <c r="F21" t="s">
+        <v>519</v>
+      </c>
+      <c r="G21" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>513</v>
+      </c>
+      <c r="D22" t="s">
+        <v>515</v>
+      </c>
+      <c r="E22" t="s">
+        <v>517</v>
+      </c>
+      <c r="F22" t="s">
+        <v>518</v>
+      </c>
+      <c r="G22" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>377</v>
+      </c>
+      <c r="D23" t="s">
+        <v>382</v>
+      </c>
+      <c r="E23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F23" t="s">
+        <v>384</v>
+      </c>
+      <c r="G23" t="s">
+        <v>383</v>
+      </c>
+      <c r="H23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>378</v>
+      </c>
+      <c r="D24" t="s">
+        <v>380</v>
+      </c>
+      <c r="E24" t="s">
+        <v>385</v>
+      </c>
+      <c r="F24" t="s">
+        <v>386</v>
+      </c>
+      <c r="G24" t="s">
+        <v>387</v>
+      </c>
+      <c r="H24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25" t="s">
+        <v>381</v>
+      </c>
+      <c r="E25" t="s">
+        <v>389</v>
+      </c>
+      <c r="F25" t="s">
+        <v>390</v>
+      </c>
+      <c r="G25" t="s">
+        <v>391</v>
+      </c>
+      <c r="H25" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" t="s">
+        <v>233</v>
+      </c>
+      <c r="H26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" t="s">
+        <v>278</v>
+      </c>
+      <c r="F27" t="s">
+        <v>279</v>
+      </c>
+      <c r="G27" t="s">
+        <v>535</v>
+      </c>
+      <c r="H27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" t="s">
+        <v>200</v>
+      </c>
+      <c r="H32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" t="s">
+        <v>206</v>
+      </c>
+      <c r="H39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" t="s">
+        <v>189</v>
+      </c>
+      <c r="G40" t="s">
+        <v>207</v>
+      </c>
+      <c r="H40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>190</v>
+      </c>
+      <c r="G41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" t="s">
+        <v>209</v>
+      </c>
+      <c r="H42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
+        <v>192</v>
+      </c>
+      <c r="G43" t="s">
+        <v>210</v>
+      </c>
+      <c r="H43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" t="s">
+        <v>193</v>
+      </c>
+      <c r="G44" t="s">
+        <v>211</v>
+      </c>
+      <c r="H44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" t="s">
+        <v>212</v>
+      </c>
+      <c r="H45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" t="s">
+        <v>149</v>
+      </c>
+      <c r="H46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" t="s">
+        <v>150</v>
+      </c>
+      <c r="H48" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" t="s">
+        <v>213</v>
+      </c>
+      <c r="H49" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G50" t="s">
+        <v>214</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51" t="s">
+        <v>215</v>
+      </c>
+      <c r="H51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" t="s">
+        <v>235</v>
+      </c>
+      <c r="G52" t="s">
+        <v>235</v>
+      </c>
+      <c r="H52" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53" t="s">
+        <v>255</v>
+      </c>
+      <c r="H53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" t="s">
+        <v>237</v>
+      </c>
+      <c r="G54" t="s">
+        <v>256</v>
+      </c>
+      <c r="H54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" t="s">
+        <v>238</v>
+      </c>
+      <c r="G55" t="s">
+        <v>536</v>
+      </c>
+      <c r="H55" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" t="s">
+        <v>239</v>
+      </c>
+      <c r="G56" t="s">
+        <v>257</v>
+      </c>
+      <c r="H56" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" t="s">
+        <v>240</v>
+      </c>
+      <c r="G57" t="s">
+        <v>537</v>
+      </c>
+      <c r="H57" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" t="s">
+        <v>476</v>
+      </c>
+      <c r="G58" t="s">
+        <v>538</v>
+      </c>
+      <c r="H58" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" t="s">
+        <v>241</v>
+      </c>
+      <c r="G59" t="s">
+        <v>539</v>
+      </c>
+      <c r="H59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" t="s">
+        <v>477</v>
+      </c>
+      <c r="G60" t="s">
+        <v>540</v>
+      </c>
+      <c r="H60" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" t="s">
+        <v>478</v>
+      </c>
+      <c r="G61" t="s">
+        <v>253</v>
+      </c>
+      <c r="H61" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" t="s">
+        <v>272</v>
+      </c>
+      <c r="E62" t="s">
+        <v>273</v>
+      </c>
+      <c r="F62" t="s">
+        <v>479</v>
+      </c>
+      <c r="G62" t="s">
+        <v>541</v>
+      </c>
+      <c r="H62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" t="s">
+        <v>236</v>
+      </c>
+      <c r="G63" t="s">
+        <v>255</v>
+      </c>
+      <c r="H63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>407</v>
+      </c>
+      <c r="E64" t="s">
+        <v>282</v>
+      </c>
+      <c r="F64" t="s">
+        <v>480</v>
+      </c>
+      <c r="G64" t="s">
+        <v>283</v>
+      </c>
+      <c r="H64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" t="s">
+        <v>290</v>
+      </c>
+      <c r="E65" t="s">
+        <v>291</v>
+      </c>
+      <c r="F65" t="s">
+        <v>292</v>
+      </c>
+      <c r="G65" t="s">
+        <v>293</v>
+      </c>
+      <c r="H65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" t="s">
+        <v>166</v>
+      </c>
+      <c r="F66" t="s">
+        <v>481</v>
+      </c>
+      <c r="G66" t="s">
+        <v>542</v>
+      </c>
+      <c r="H66" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" t="s">
+        <v>164</v>
+      </c>
+      <c r="F67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G67" t="s">
+        <v>543</v>
+      </c>
+      <c r="H67" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>408</v>
+      </c>
+      <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
+        <v>483</v>
+      </c>
+      <c r="G68" t="s">
+        <v>544</v>
+      </c>
+      <c r="H68" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" t="s">
+        <v>484</v>
+      </c>
+      <c r="G69" t="s">
+        <v>545</v>
+      </c>
+      <c r="H69" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" t="s">
+        <v>409</v>
+      </c>
+      <c r="E70" t="s">
+        <v>424</v>
+      </c>
+      <c r="F70" t="s">
+        <v>485</v>
+      </c>
+      <c r="G70" t="s">
+        <v>425</v>
+      </c>
+      <c r="H70" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" t="s">
+        <v>300</v>
+      </c>
+      <c r="E71" t="s">
+        <v>301</v>
+      </c>
+      <c r="F71" t="s">
+        <v>302</v>
+      </c>
+      <c r="G71" t="s">
+        <v>303</v>
+      </c>
+      <c r="H71" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" t="s">
+        <v>433</v>
+      </c>
+      <c r="E72" t="s">
+        <v>372</v>
+      </c>
+      <c r="F72" t="s">
+        <v>486</v>
+      </c>
+      <c r="G72" t="s">
+        <v>373</v>
+      </c>
+      <c r="H72" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" t="s">
+        <v>331</v>
+      </c>
+      <c r="F73" t="s">
+        <v>487</v>
+      </c>
+      <c r="G73" t="s">
+        <v>546</v>
+      </c>
+      <c r="H73" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" t="s">
+        <v>332</v>
+      </c>
+      <c r="F74" t="s">
+        <v>242</v>
+      </c>
+      <c r="G74" t="s">
+        <v>258</v>
+      </c>
+      <c r="H74" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" t="s">
+        <v>333</v>
+      </c>
+      <c r="F75" t="s">
+        <v>243</v>
+      </c>
+      <c r="G75" t="s">
+        <v>547</v>
+      </c>
+      <c r="H75" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" t="s">
+        <v>334</v>
+      </c>
+      <c r="F76" t="s">
+        <v>488</v>
+      </c>
+      <c r="G76" t="s">
+        <v>548</v>
+      </c>
+      <c r="H76" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77" t="s">
+        <v>136</v>
+      </c>
+      <c r="F77" t="s">
+        <v>244</v>
+      </c>
+      <c r="G77" t="s">
+        <v>549</v>
+      </c>
+      <c r="H77" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" t="s">
+        <v>335</v>
+      </c>
+      <c r="F78" t="s">
+        <v>245</v>
+      </c>
+      <c r="G78" t="s">
+        <v>259</v>
+      </c>
+      <c r="H78" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" t="s">
+        <v>415</v>
+      </c>
+      <c r="E79" t="s">
+        <v>426</v>
+      </c>
+      <c r="F79" t="s">
+        <v>489</v>
+      </c>
+      <c r="G79" t="s">
+        <v>550</v>
+      </c>
+      <c r="H79" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" t="s">
+        <v>463</v>
+      </c>
+      <c r="E80" t="s">
+        <v>427</v>
+      </c>
+      <c r="F80" t="s">
+        <v>490</v>
+      </c>
+      <c r="G80" t="s">
+        <v>551</v>
+      </c>
+      <c r="H80" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" t="s">
+        <v>412</v>
+      </c>
+      <c r="E81" t="s">
+        <v>428</v>
+      </c>
+      <c r="F81" t="s">
+        <v>491</v>
+      </c>
+      <c r="G81" t="s">
+        <v>552</v>
+      </c>
+      <c r="H81" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
+        <v>492</v>
+      </c>
+      <c r="G82" t="s">
+        <v>553</v>
+      </c>
+      <c r="H82" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" t="s">
+        <v>155</v>
+      </c>
+      <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
+        <v>493</v>
+      </c>
+      <c r="G83" t="s">
+        <v>554</v>
+      </c>
+      <c r="H83" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
+        <v>494</v>
+      </c>
+      <c r="G84" t="s">
+        <v>555</v>
+      </c>
+      <c r="H84" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" t="s">
+        <v>249</v>
+      </c>
+      <c r="G85" t="s">
+        <v>264</v>
+      </c>
+      <c r="H85" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" t="s">
+        <v>313</v>
+      </c>
+      <c r="E86" t="s">
+        <v>314</v>
+      </c>
+      <c r="F86" t="s">
+        <v>495</v>
+      </c>
+      <c r="G86" t="s">
+        <v>556</v>
+      </c>
+      <c r="H86" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87" t="s">
+        <v>250</v>
+      </c>
+      <c r="G87" t="s">
+        <v>265</v>
+      </c>
+      <c r="H87" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
+        <v>251</v>
+      </c>
+      <c r="G88" t="s">
+        <v>266</v>
+      </c>
+      <c r="H88" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89" t="s">
+        <v>271</v>
+      </c>
+      <c r="E89" t="s">
+        <v>271</v>
+      </c>
+      <c r="F89" t="s">
+        <v>271</v>
+      </c>
+      <c r="G89" t="s">
+        <v>271</v>
+      </c>
+      <c r="H89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" t="s">
+        <v>270</v>
+      </c>
+      <c r="D90" t="s">
+        <v>417</v>
+      </c>
+      <c r="E90" t="s">
+        <v>417</v>
+      </c>
+      <c r="F90" t="s">
+        <v>417</v>
+      </c>
+      <c r="G90" t="s">
+        <v>417</v>
+      </c>
+      <c r="H90" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" t="s">
+        <v>319</v>
+      </c>
+      <c r="E91" t="s">
+        <v>154</v>
+      </c>
+      <c r="F91" t="s">
+        <v>496</v>
+      </c>
+      <c r="G91" t="s">
+        <v>557</v>
+      </c>
+      <c r="H91" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" t="s">
+        <v>320</v>
+      </c>
+      <c r="E92" t="s">
+        <v>321</v>
+      </c>
+      <c r="F92" t="s">
+        <v>322</v>
+      </c>
+      <c r="G92" t="s">
+        <v>558</v>
+      </c>
+      <c r="H92" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" t="s">
+        <v>410</v>
+      </c>
+      <c r="E93" t="s">
+        <v>338</v>
+      </c>
+      <c r="F93" t="s">
+        <v>497</v>
+      </c>
+      <c r="G93" t="s">
+        <v>559</v>
+      </c>
+      <c r="H93" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" t="s">
+        <v>400</v>
+      </c>
+      <c r="E94" t="s">
+        <v>401</v>
+      </c>
+      <c r="F94" t="s">
+        <v>498</v>
+      </c>
+      <c r="G94" t="s">
+        <v>560</v>
+      </c>
+      <c r="H94" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" t="s">
+        <v>269</v>
+      </c>
+      <c r="D95" t="s">
+        <v>522</v>
+      </c>
+      <c r="E95" t="s">
+        <v>429</v>
+      </c>
+      <c r="F95" t="s">
+        <v>506</v>
+      </c>
+      <c r="G95" t="s">
+        <v>430</v>
+      </c>
+      <c r="H95" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96" t="s">
+        <v>416</v>
+      </c>
+      <c r="E96" t="s">
+        <v>416</v>
+      </c>
+      <c r="F96" t="s">
+        <v>499</v>
+      </c>
+      <c r="G96" t="s">
+        <v>561</v>
+      </c>
+      <c r="H96" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" t="s">
+        <v>70</v>
+      </c>
+      <c r="E97" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" t="s">
+        <v>66</v>
+      </c>
+      <c r="G97" t="s">
+        <v>66</v>
+      </c>
+      <c r="H97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" t="s">
+        <v>120</v>
+      </c>
+      <c r="E98" t="s">
+        <v>124</v>
+      </c>
+      <c r="F98" t="s">
+        <v>501</v>
+      </c>
+      <c r="G98" t="s">
+        <v>563</v>
+      </c>
+      <c r="H98" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" t="s">
+        <v>125</v>
+      </c>
+      <c r="F99" t="s">
+        <v>234</v>
+      </c>
+      <c r="G99" t="s">
+        <v>312</v>
+      </c>
+      <c r="H99" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" t="s">
+        <v>414</v>
+      </c>
+      <c r="E100" t="s">
+        <v>431</v>
+      </c>
+      <c r="F100" t="s">
+        <v>502</v>
+      </c>
+      <c r="G100" t="s">
+        <v>562</v>
+      </c>
+      <c r="H100" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" t="s">
+        <v>61</v>
+      </c>
+      <c r="C101" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" t="s">
+        <v>422</v>
+      </c>
+      <c r="E101" t="s">
+        <v>374</v>
+      </c>
+      <c r="F101" t="s">
+        <v>503</v>
+      </c>
+      <c r="G101" t="s">
+        <v>564</v>
+      </c>
+      <c r="H101" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" t="s">
+        <v>119</v>
+      </c>
+      <c r="D102" t="s">
+        <v>423</v>
+      </c>
+      <c r="E102" t="s">
+        <v>375</v>
+      </c>
+      <c r="F102" t="s">
+        <v>504</v>
+      </c>
+      <c r="G102" t="s">
+        <v>565</v>
+      </c>
+      <c r="H102" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" t="s">
+        <v>336</v>
+      </c>
+      <c r="F103" t="s">
+        <v>247</v>
+      </c>
+      <c r="G103" t="s">
+        <v>260</v>
+      </c>
+      <c r="H103" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" t="s">
+        <v>70</v>
+      </c>
+      <c r="E104" t="s">
+        <v>66</v>
+      </c>
+      <c r="F104" t="s">
+        <v>66</v>
+      </c>
+      <c r="G104" t="s">
+        <v>66</v>
+      </c>
+      <c r="H104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105" t="s">
+        <v>71</v>
+      </c>
+      <c r="E105" t="s">
+        <v>337</v>
+      </c>
+      <c r="F105" t="s">
+        <v>246</v>
+      </c>
+      <c r="G105" t="s">
+        <v>261</v>
+      </c>
+      <c r="H105" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>72</v>
+      </c>
+      <c r="E106" t="s">
+        <v>68</v>
+      </c>
+      <c r="F106" t="s">
+        <v>234</v>
+      </c>
+      <c r="G106" t="s">
+        <v>312</v>
+      </c>
+      <c r="H106" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>348</v>
+      </c>
+      <c r="B107" t="s">
+        <v>349</v>
+      </c>
+      <c r="C107" t="s">
+        <v>280</v>
+      </c>
+      <c r="D107" t="s">
+        <v>530</v>
+      </c>
+      <c r="E107" t="s">
+        <v>530</v>
+      </c>
+      <c r="F107" t="s">
+        <v>530</v>
+      </c>
+      <c r="G107" t="s">
+        <v>530</v>
+      </c>
+      <c r="H107" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>274</v>
+      </c>
+      <c r="B108" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" t="s">
+        <v>347</v>
+      </c>
+      <c r="D108" t="s">
+        <v>508</v>
+      </c>
+      <c r="E108" t="s">
+        <v>509</v>
+      </c>
+      <c r="F108" t="s">
+        <v>510</v>
+      </c>
+      <c r="G108" t="s">
+        <v>511</v>
+      </c>
+      <c r="H108" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>274</v>
+      </c>
+      <c r="B109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" t="s">
+        <v>275</v>
+      </c>
+      <c r="D109" t="s">
+        <v>526</v>
+      </c>
+      <c r="E109" t="s">
+        <v>527</v>
+      </c>
+      <c r="F109" t="s">
+        <v>528</v>
+      </c>
+      <c r="G109" t="s">
+        <v>566</v>
+      </c>
+      <c r="H109" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>274</v>
+      </c>
+      <c r="B110" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" t="s">
+        <v>280</v>
+      </c>
+      <c r="D110" t="s">
+        <v>569</v>
+      </c>
+      <c r="E110" t="s">
+        <v>570</v>
+      </c>
+      <c r="F110" t="s">
+        <v>571</v>
+      </c>
+      <c r="G110" t="s">
+        <v>572</v>
+      </c>
+      <c r="H110" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>274</v>
+      </c>
+      <c r="B111" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" t="s">
+        <v>281</v>
+      </c>
+      <c r="D111" t="s">
+        <v>525</v>
+      </c>
+      <c r="F111" t="s">
+        <v>524</v>
+      </c>
+      <c r="G111" t="s">
+        <v>567</v>
+      </c>
+      <c r="H111" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="17920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="21060" yWindow="2820" windowWidth="30000" windowHeight="17920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="575">
   <si>
     <t>typ</t>
   </si>
@@ -1328,9 +1328,6 @@
   </si>
   <si>
     <t>Structured group enriched by violence or by criminal means income. Ex. Mafia or jihad travelers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> People recruit, offer, give or host application by unauthorized agents such as deception, threat or coercion for the purpose of exploitation.</t>
   </si>
   <si>
     <t>Facebook accounts. This list of Facebook data points to the perimeter.</t>
@@ -1638,9 +1635,6 @@
     <t>La Societad Digitala Svizzra publitgescha annual igl “Swiss Lawfull Interception Report” tgi sa tracta sur la survigilaziun digl stadi en Svizzra. La visualisaziun cumplettescha igl report interactiv e mossa detaglià, scu tgi igl Cantuns survigileschan. Chatta or, per tge delicts igls voss dretgs fundamentals reivan restranschia. &lt;br&gt;&lt;br&gt;&lt;small&gt;Las datas ainten quella statistica cuntignan sulettamain mesiras da survigilaziun siva urdan da process penal. Exceptà en missiuns digl IMSI-Catcher, trojan digl stadi ni mesiras da survigilaziun digl servetsch da spiunadi.</t>
   </si>
   <si>
-    <t>https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf</t>
-  </si>
-  <si>
     <t>Visualisazzione della sorveglianza governativa in Svizzera</t>
   </si>
   <si>
@@ -1756,19 +1750,28 @@
     <t>In aggiunta a questa visualizzazione della sorveglianza la Società Digitale pubblica un rapporto annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Il rapporto „Swiss Lawful Interception Report“ può essere scaricato qui.</t>
   </si>
   <si>
-    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>In aggiunta a questa visualizzazione della sorveglianza la Società Digitale pubblica un rapporto annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Il rapporto „Swiss Lawful Interception Report“ può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</t>
+    <t>People recruit, offer, give or host application by unauthorized agents such as deception, threat or coercion for the purpose of exploitation.</t>
+  </si>
+  <si>
+    <t>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</t>
+  </si>
+  <si>
+    <t>The Digital Society is an open network of politically interested parties. Joined the alliance are approximately 50 individuals and 15 groups. This includes basic rights organizations, political parties, artist collectives, operators of network services and other groups who feel committed to a the critical digital civil society.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;For more information on Internet policy topics visit our blog: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>In aggiunta a questa visualizzazione della sorveglianza la Società Digitale pubblica un rapporto annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Il rapporto „Swiss Lawful Interception Report“ può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1868,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="275">
+  <cellStyleXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2140,6 +2143,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
@@ -2181,7 +2188,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="275">
+  <cellStyles count="279">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2327,6 +2334,10 @@
     <cellStyle name="Besuchter Link" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2526,11 +2537,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2880,8 +2891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H119"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3113,13 +3124,13 @@
         <v>345</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>346</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
@@ -3163,7 +3174,7 @@
         <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>318</v>
@@ -3172,10 +3183,10 @@
         <v>318</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
@@ -3197,13 +3208,13 @@
         <v>288</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>326</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
@@ -3253,7 +3264,7 @@
         <v>287</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>329</v>
@@ -3312,7 +3323,7 @@
         <v>324</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>324</v>
@@ -3396,7 +3407,7 @@
         <v>248</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>285</v>
@@ -3440,22 +3451,22 @@
         <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
@@ -3509,13 +3520,13 @@
         <v>370</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
@@ -3528,19 +3539,19 @@
         <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>514</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
@@ -3553,19 +3564,19 @@
         <v>61</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="1"/>
@@ -3740,7 +3751,7 @@
         <v>279</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>317</v>
@@ -4549,7 +4560,7 @@
         <v>256</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
@@ -4574,7 +4585,7 @@
         <v>238</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>284</v>
@@ -4605,7 +4616,7 @@
         <v>257</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
@@ -4630,10 +4641,10 @@
         <v>240</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
@@ -4655,10 +4666,10 @@
         <v>130</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>299</v>
@@ -4686,7 +4697,7 @@
         <v>241</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>371</v>
@@ -4711,13 +4722,13 @@
         <v>134</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="1"/>
@@ -4739,13 +4750,13 @@
         <v>135</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>253</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="1"/>
@@ -4767,10 +4778,10 @@
         <v>273</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>298</v>
@@ -4828,13 +4839,13 @@
         <v>282</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>283</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="1"/>
@@ -4884,10 +4895,10 @@
         <v>166</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>296</v>
@@ -4912,13 +4923,13 @@
         <v>164</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="1"/>
@@ -4940,13 +4951,13 @@
         <v>130</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
@@ -4968,13 +4979,13 @@
         <v>162</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="1"/>
@@ -4996,13 +5007,13 @@
         <v>424</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>425</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="1"/>
@@ -5046,19 +5057,19 @@
         <v>61</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>372</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>373</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="1"/>
@@ -5080,10 +5091,10 @@
         <v>331</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>295</v>
@@ -5139,7 +5150,7 @@
         <v>243</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>294</v>
@@ -5164,10 +5175,10 @@
         <v>334</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>328</v>
@@ -5195,7 +5206,7 @@
         <v>244</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>307</v>
@@ -5248,13 +5259,13 @@
         <v>426</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
@@ -5270,19 +5281,19 @@
         <v>95</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>427</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="1"/>
@@ -5301,16 +5312,16 @@
         <v>412</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>428</v>
+        <v>567</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="1"/>
@@ -5332,13 +5343,13 @@
         <v>158</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="1"/>
@@ -5360,10 +5371,10 @@
         <v>156</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>305</v>
@@ -5388,10 +5399,10 @@
         <v>160</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>311</v>
@@ -5444,10 +5455,10 @@
         <v>314</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>315</v>
@@ -5478,7 +5489,7 @@
         <v>265</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="1"/>
@@ -5506,7 +5517,7 @@
         <v>266</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="1"/>
@@ -5588,13 +5599,13 @@
         <v>154</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
@@ -5619,10 +5630,10 @@
         <v>322</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
@@ -5644,13 +5655,13 @@
         <v>338</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="1"/>
@@ -5672,13 +5683,13 @@
         <v>401</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="1"/>
@@ -5727,19 +5738,19 @@
         <v>269</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F98" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="H98" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="1"/>
@@ -5761,10 +5772,10 @@
         <v>416</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>416</v>
@@ -5789,13 +5800,13 @@
         <v>123</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>252</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="1">
@@ -5847,10 +5858,10 @@
         <v>124</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>297</v>
@@ -5900,16 +5911,16 @@
         <v>414</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="1"/>
@@ -5931,13 +5942,13 @@
         <v>374</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="1"/>
@@ -5959,13 +5970,13 @@
         <v>375</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="1"/>
@@ -6128,24 +6139,24 @@
       <c r="C112" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>530</v>
+      <c r="D112" t="s">
+        <v>568</v>
       </c>
       <c r="E112" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf</v>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</v>
       </c>
       <c r="F112" s="1" t="str">
         <f>Tabelle2[[#This Row],[en]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf</v>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</v>
       </c>
       <c r="G112" s="1" t="str">
         <f>Tabelle2[[#This Row],[fr]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf</v>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</v>
       </c>
       <c r="H112" s="1" t="str">
         <f>Tabelle2[[#This Row],[it]]</f>
-        <v>https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf</v>
+        <v>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</v>
       </c>
       <c r="I112" s="6">
         <v>1</v>
@@ -6163,19 +6174,19 @@
         <v>347</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="I113" s="6">
         <v>1</v>
@@ -6193,19 +6204,19 @@
         <v>275</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="F114" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="F114" s="12" t="s">
+      <c r="G114" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="1"/>
@@ -6227,13 +6238,13 @@
         <v>405</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="1">
@@ -6260,7 +6271,7 @@
         <v>419</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="1">
@@ -6279,23 +6290,23 @@
       </c>
       <c r="D117" s="1" t="str">
         <f>CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",D112,"' title='",D111,"' target='_blank'&gt;",D111,"&lt;/a&gt;")</f>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="E117" s="1" t="str">
         <f t="shared" ref="E117:H117" si="1">CONCATENATE("&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='",E112,"' title='",E111,"' target='_blank'&gt;",E111,"&lt;/a&gt;")</f>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="F117" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="G117" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="H117" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="I117" s="6">
         <v>1</v>
@@ -6316,23 +6327,23 @@
       </c>
       <c r="D118" s="1" t="str">
         <f>CONCATENATE(D115,D117)</f>
-        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
+        <v>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</v>
       </c>
       <c r="E118" s="1" t="str">
         <f t="shared" ref="E118:G118" si="2">CONCATENATE(E115,E117,E116)</f>
-        <v>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</v>
+        <v>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</v>
       </c>
       <c r="F118" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
+        <v>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
       </c>
       <c r="G118" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>In aggiunta a questa visualizzazione della sorveglianza la Società Digitale pubblica un rapporto annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Il rapporto „Swiss Lawful Interception Report“ può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
+        <v>In aggiunta a questa visualizzazione della sorveglianza la Società Digitale pubblica un rapporto annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Il rapporto „Swiss Lawful Interception Report“ può essere scaricato qui.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</v>
       </c>
       <c r="H118" s="1" t="str">
         <f>CONCATENATE(H115,H117,H116)</f>
-        <v>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/02/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</v>
+        <v>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</v>
       </c>
       <c r="I118" s="6">
         <v>1</v>
@@ -6350,16 +6361,19 @@
         <v>281</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="1"/>
@@ -6385,49 +6399,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection sqref="A1:G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
         <v>173</v>
@@ -6441,19 +6452,16 @@
       <c r="G2" t="s">
         <v>173</v>
       </c>
-      <c r="H2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
         <v>174</v>
@@ -6467,19 +6475,16 @@
       <c r="G3" t="s">
         <v>174</v>
       </c>
-      <c r="H3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
         <v>175</v>
@@ -6493,19 +6498,16 @@
       <c r="G4" t="s">
         <v>175</v>
       </c>
-      <c r="H4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
         <v>176</v>
@@ -6519,19 +6521,16 @@
       <c r="G5" t="s">
         <v>176</v>
       </c>
-      <c r="H5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
         <v>177</v>
@@ -6545,175 +6544,154 @@
       <c r="G6" t="s">
         <v>177</v>
       </c>
-      <c r="H6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>345</v>
       </c>
       <c r="E7" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="F7" t="s">
-        <v>472</v>
+        <v>346</v>
       </c>
       <c r="G7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>368</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G8" t="s">
-        <v>365</v>
-      </c>
-      <c r="H8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>431</v>
       </c>
       <c r="D9" t="s">
-        <v>432</v>
+        <v>318</v>
       </c>
       <c r="E9" t="s">
         <v>318</v>
       </c>
       <c r="F9" t="s">
-        <v>318</v>
+        <v>529</v>
       </c>
       <c r="G9" t="s">
-        <v>531</v>
-      </c>
-      <c r="H9" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>288</v>
       </c>
       <c r="E10" t="s">
-        <v>288</v>
+        <v>472</v>
       </c>
       <c r="F10" t="s">
-        <v>473</v>
+        <v>326</v>
       </c>
       <c r="G10" t="s">
-        <v>326</v>
-      </c>
-      <c r="H10" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" t="s">
         <v>113</v>
       </c>
-      <c r="E11" t="s">
-        <v>286</v>
-      </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>327</v>
       </c>
       <c r="G11" t="s">
         <v>327</v>
       </c>
-      <c r="H11" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
       <c r="E12" t="s">
-        <v>287</v>
+        <v>473</v>
       </c>
       <c r="F12" t="s">
-        <v>474</v>
+        <v>329</v>
       </c>
       <c r="G12" t="s">
-        <v>329</v>
-      </c>
-      <c r="H12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="D13" t="s">
         <v>323</v>
@@ -6727,146 +6705,128 @@
       <c r="G13" t="s">
         <v>323</v>
       </c>
-      <c r="H13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="D14" t="s">
+        <v>325</v>
+      </c>
+      <c r="E14" t="s">
         <v>324</v>
       </c>
-      <c r="E14" t="s">
-        <v>325</v>
-      </c>
       <c r="F14" t="s">
+        <v>530</v>
+      </c>
+      <c r="G14" t="s">
         <v>324</v>
       </c>
-      <c r="G14" t="s">
-        <v>532</v>
-      </c>
-      <c r="H14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>347</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G15" t="s">
-        <v>359</v>
-      </c>
-      <c r="H15" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="E16" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="F16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G16" t="s">
-        <v>263</v>
-      </c>
-      <c r="H16" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="F17" t="s">
-        <v>248</v>
+        <v>531</v>
       </c>
       <c r="G17" t="s">
-        <v>533</v>
-      </c>
-      <c r="H17" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>361</v>
       </c>
       <c r="C18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D18" t="s">
         <v>362</v>
       </c>
       <c r="E18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F18" t="s">
+        <v>363</v>
+      </c>
+      <c r="G18" t="s">
         <v>361</v>
       </c>
-      <c r="G18" t="s">
-        <v>363</v>
-      </c>
-      <c r="H18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>433</v>
       </c>
       <c r="C19" t="s">
         <v>434</v>
@@ -6881,431 +6841,380 @@
         <v>437</v>
       </c>
       <c r="G19" t="s">
-        <v>438</v>
-      </c>
-      <c r="H19" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>369</v>
       </c>
       <c r="C20" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="D20" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="E20" t="s">
-        <v>370</v>
+        <v>474</v>
       </c>
       <c r="F20" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="G20" t="s">
-        <v>534</v>
-      </c>
-      <c r="H20" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>512</v>
       </c>
       <c r="C21" t="s">
         <v>513</v>
       </c>
       <c r="D21" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E21" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F21" t="s">
         <v>519</v>
       </c>
-      <c r="G21" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="C22" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D22" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E22" t="s">
         <v>517</v>
       </c>
       <c r="F22" t="s">
-        <v>518</v>
-      </c>
-      <c r="G22" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>377</v>
       </c>
       <c r="C23" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D23" t="s">
         <v>382</v>
       </c>
       <c r="E23" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G23" t="s">
         <v>383</v>
       </c>
-      <c r="H23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>378</v>
       </c>
       <c r="C24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D24" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F24" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G24" t="s">
-        <v>387</v>
-      </c>
-      <c r="H24" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>379</v>
       </c>
       <c r="C25" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D25" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E25" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G25" t="s">
-        <v>391</v>
-      </c>
-      <c r="H25" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G26" t="s">
-        <v>233</v>
-      </c>
-      <c r="H26" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F27" t="s">
-        <v>279</v>
+        <v>533</v>
       </c>
       <c r="G27" t="s">
-        <v>535</v>
-      </c>
-      <c r="H27" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="F28" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="G28" t="s">
         <v>196</v>
       </c>
-      <c r="H28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="F29" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="G29" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="G30" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G31" t="s">
-        <v>199</v>
-      </c>
-      <c r="H31" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s">
         <v>141</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="G32" t="s">
-        <v>200</v>
-      </c>
-      <c r="H32" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="F33" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G33" t="s">
-        <v>201</v>
-      </c>
-      <c r="H33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G34" t="s">
-        <v>202</v>
-      </c>
-      <c r="H34" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s">
         <v>146</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="G35" t="s">
-        <v>203</v>
-      </c>
-      <c r="H35" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -7314,53 +7223,47 @@
         <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="G36" t="s">
         <v>204</v>
       </c>
-      <c r="H36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="E37" t="s">
         <v>147</v>
       </c>
       <c r="F37" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="G37" t="s">
         <v>205</v>
       </c>
-      <c r="H37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="E38" t="s">
         <v>148</v>
@@ -7369,229 +7272,202 @@
         <v>148</v>
       </c>
       <c r="G38" t="s">
-        <v>148</v>
-      </c>
-      <c r="H38" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="F39" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="G39" t="s">
-        <v>206</v>
-      </c>
-      <c r="H39" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G40" t="s">
-        <v>207</v>
-      </c>
-      <c r="H40" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="F41" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G41" t="s">
-        <v>208</v>
-      </c>
-      <c r="H41" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="F42" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G42" t="s">
-        <v>209</v>
-      </c>
-      <c r="H42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="F43" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G43" t="s">
-        <v>210</v>
-      </c>
-      <c r="H43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="F44" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="G44" t="s">
-        <v>211</v>
-      </c>
-      <c r="H44" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="F45" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="G45" t="s">
         <v>212</v>
       </c>
-      <c r="H45" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" t="s">
         <v>48</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>149</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>48</v>
       </c>
-      <c r="G46" t="s">
-        <v>149</v>
-      </c>
-      <c r="H46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -7605,22 +7481,19 @@
       <c r="G47" t="s">
         <v>49</v>
       </c>
-      <c r="H47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
         <v>150</v>
@@ -7629,1061 +7502,938 @@
         <v>150</v>
       </c>
       <c r="G48" t="s">
-        <v>150</v>
-      </c>
-      <c r="H48" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="E49" t="s">
         <v>151</v>
       </c>
       <c r="F49" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="G49" t="s">
-        <v>213</v>
-      </c>
-      <c r="H49" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
       </c>
       <c r="E50" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" t="s">
+        <v>214</v>
+      </c>
+      <c r="G50" t="s">
         <v>52</v>
       </c>
-      <c r="F50" t="s">
-        <v>195</v>
-      </c>
-      <c r="G50" t="s">
-        <v>214</v>
-      </c>
-      <c r="H50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="E51" t="s">
         <v>152</v>
       </c>
       <c r="F51" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="G51" t="s">
-        <v>215</v>
-      </c>
-      <c r="H51" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="F52" t="s">
         <v>235</v>
       </c>
       <c r="G52" t="s">
-        <v>235</v>
-      </c>
-      <c r="H52" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" t="s">
+        <v>255</v>
+      </c>
+      <c r="G53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" t="s">
+        <v>256</v>
+      </c>
+      <c r="G54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" t="s">
+        <v>534</v>
+      </c>
+      <c r="G55" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" t="s">
+        <v>257</v>
+      </c>
+      <c r="G56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" t="s">
+        <v>240</v>
+      </c>
+      <c r="F57" t="s">
+        <v>535</v>
+      </c>
+      <c r="G57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" t="s">
+        <v>475</v>
+      </c>
+      <c r="F58" t="s">
+        <v>536</v>
+      </c>
+      <c r="G58" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>241</v>
+      </c>
+      <c r="F59" t="s">
+        <v>537</v>
+      </c>
+      <c r="G59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" t="s">
+        <v>476</v>
+      </c>
+      <c r="F60" t="s">
+        <v>538</v>
+      </c>
+      <c r="G60" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" t="s">
+        <v>477</v>
+      </c>
+      <c r="F61" t="s">
+        <v>253</v>
+      </c>
+      <c r="G61" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" t="s">
+        <v>272</v>
+      </c>
+      <c r="D62" t="s">
+        <v>273</v>
+      </c>
+      <c r="E62" t="s">
+        <v>478</v>
+      </c>
+      <c r="F62" t="s">
+        <v>539</v>
+      </c>
+      <c r="G62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>83</v>
       </c>
-      <c r="D53" t="s">
+      <c r="C63" t="s">
         <v>75</v>
       </c>
-      <c r="E53" t="s">
+      <c r="D63" t="s">
         <v>127</v>
       </c>
-      <c r="F53" t="s">
+      <c r="E63" t="s">
         <v>236</v>
       </c>
-      <c r="G53" t="s">
+      <c r="F63" t="s">
         <v>255</v>
       </c>
-      <c r="H53" t="s">
+      <c r="G63" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
         <v>84</v>
       </c>
-      <c r="D54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" t="s">
-        <v>237</v>
-      </c>
-      <c r="G54" t="s">
-        <v>256</v>
-      </c>
-      <c r="H54" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="C64" t="s">
+        <v>407</v>
+      </c>
+      <c r="D64" t="s">
+        <v>282</v>
+      </c>
+      <c r="E64" t="s">
+        <v>479</v>
+      </c>
+      <c r="F64" t="s">
+        <v>283</v>
+      </c>
+      <c r="G64" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
         <v>85</v>
       </c>
-      <c r="D55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" t="s">
-        <v>238</v>
-      </c>
-      <c r="G55" t="s">
-        <v>536</v>
-      </c>
-      <c r="H55" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="C65" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" t="s">
+        <v>291</v>
+      </c>
+      <c r="E65" t="s">
+        <v>292</v>
+      </c>
+      <c r="F65" t="s">
+        <v>293</v>
+      </c>
+      <c r="G65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
         <v>86</v>
       </c>
-      <c r="D56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" t="s">
-        <v>133</v>
-      </c>
-      <c r="F56" t="s">
-        <v>239</v>
-      </c>
-      <c r="G56" t="s">
-        <v>257</v>
-      </c>
-      <c r="H56" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" t="s">
+        <v>480</v>
+      </c>
+      <c r="F66" t="s">
+        <v>540</v>
+      </c>
+      <c r="G66" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
         <v>87</v>
       </c>
-      <c r="D57" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" t="s">
-        <v>240</v>
-      </c>
-      <c r="G57" t="s">
-        <v>537</v>
-      </c>
-      <c r="H57" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="C67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" t="s">
+        <v>481</v>
+      </c>
+      <c r="F67" t="s">
+        <v>541</v>
+      </c>
+      <c r="G67" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" t="s">
         <v>88</v>
       </c>
-      <c r="D58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="C68" t="s">
+        <v>408</v>
+      </c>
+      <c r="D68" t="s">
         <v>130</v>
       </c>
-      <c r="F58" t="s">
-        <v>476</v>
-      </c>
-      <c r="G58" t="s">
-        <v>538</v>
-      </c>
-      <c r="H58" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E68" t="s">
+        <v>482</v>
+      </c>
+      <c r="F68" t="s">
+        <v>542</v>
+      </c>
+      <c r="G68" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" t="s">
         <v>89</v>
       </c>
-      <c r="D59" t="s">
-        <v>78</v>
-      </c>
-      <c r="E59" t="s">
-        <v>131</v>
-      </c>
-      <c r="F59" t="s">
-        <v>241</v>
-      </c>
-      <c r="G59" t="s">
-        <v>539</v>
-      </c>
-      <c r="H59" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="C69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" t="s">
+        <v>483</v>
+      </c>
+      <c r="F69" t="s">
+        <v>543</v>
+      </c>
+      <c r="G69" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" t="s">
         <v>90</v>
       </c>
-      <c r="D60" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" t="s">
-        <v>477</v>
-      </c>
-      <c r="G60" t="s">
-        <v>540</v>
-      </c>
-      <c r="H60" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="C70" t="s">
+        <v>409</v>
+      </c>
+      <c r="D70" t="s">
+        <v>424</v>
+      </c>
+      <c r="E70" t="s">
+        <v>484</v>
+      </c>
+      <c r="F70" t="s">
+        <v>425</v>
+      </c>
+      <c r="G70" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" t="s">
         <v>91</v>
       </c>
-      <c r="D61" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" t="s">
-        <v>135</v>
-      </c>
-      <c r="F61" t="s">
-        <v>478</v>
-      </c>
-      <c r="G61" t="s">
-        <v>253</v>
-      </c>
-      <c r="H61" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C71" t="s">
+        <v>300</v>
+      </c>
+      <c r="D71" t="s">
+        <v>301</v>
+      </c>
+      <c r="E71" t="s">
+        <v>302</v>
+      </c>
+      <c r="F71" t="s">
+        <v>303</v>
+      </c>
+      <c r="G71" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
         <v>61</v>
-      </c>
-      <c r="C62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" t="s">
-        <v>272</v>
-      </c>
-      <c r="E62" t="s">
-        <v>273</v>
-      </c>
-      <c r="F62" t="s">
-        <v>479</v>
-      </c>
-      <c r="G62" t="s">
-        <v>541</v>
-      </c>
-      <c r="H62" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" t="s">
-        <v>127</v>
-      </c>
-      <c r="F63" t="s">
-        <v>236</v>
-      </c>
-      <c r="G63" t="s">
-        <v>255</v>
-      </c>
-      <c r="H63" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" t="s">
-        <v>407</v>
-      </c>
-      <c r="E64" t="s">
-        <v>282</v>
-      </c>
-      <c r="F64" t="s">
-        <v>480</v>
-      </c>
-      <c r="G64" t="s">
-        <v>283</v>
-      </c>
-      <c r="H64" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" t="s">
-        <v>290</v>
-      </c>
-      <c r="E65" t="s">
-        <v>291</v>
-      </c>
-      <c r="F65" t="s">
-        <v>292</v>
-      </c>
-      <c r="G65" t="s">
-        <v>293</v>
-      </c>
-      <c r="H65" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" t="s">
-        <v>165</v>
-      </c>
-      <c r="E66" t="s">
-        <v>166</v>
-      </c>
-      <c r="F66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G66" t="s">
-        <v>542</v>
-      </c>
-      <c r="H66" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" t="s">
-        <v>163</v>
-      </c>
-      <c r="E67" t="s">
-        <v>164</v>
-      </c>
-      <c r="F67" t="s">
-        <v>482</v>
-      </c>
-      <c r="G67" t="s">
-        <v>543</v>
-      </c>
-      <c r="H67" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" t="s">
-        <v>408</v>
-      </c>
-      <c r="E68" t="s">
-        <v>130</v>
-      </c>
-      <c r="F68" t="s">
-        <v>483</v>
-      </c>
-      <c r="G68" t="s">
-        <v>544</v>
-      </c>
-      <c r="H68" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" t="s">
-        <v>161</v>
-      </c>
-      <c r="E69" t="s">
-        <v>162</v>
-      </c>
-      <c r="F69" t="s">
-        <v>484</v>
-      </c>
-      <c r="G69" t="s">
-        <v>545</v>
-      </c>
-      <c r="H69" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" t="s">
-        <v>409</v>
-      </c>
-      <c r="E70" t="s">
-        <v>424</v>
-      </c>
-      <c r="F70" t="s">
-        <v>485</v>
-      </c>
-      <c r="G70" t="s">
-        <v>425</v>
-      </c>
-      <c r="H70" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" t="s">
-        <v>300</v>
-      </c>
-      <c r="E71" t="s">
-        <v>301</v>
-      </c>
-      <c r="F71" t="s">
-        <v>302</v>
-      </c>
-      <c r="G71" t="s">
-        <v>303</v>
-      </c>
-      <c r="H71" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>92</v>
       </c>
       <c r="B72" t="s">
         <v>61</v>
       </c>
       <c r="C72" t="s">
+        <v>432</v>
+      </c>
+      <c r="D72" t="s">
+        <v>372</v>
+      </c>
+      <c r="E72" t="s">
+        <v>485</v>
+      </c>
+      <c r="F72" t="s">
+        <v>373</v>
+      </c>
+      <c r="G72" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" t="s">
+        <v>331</v>
+      </c>
+      <c r="E73" t="s">
+        <v>486</v>
+      </c>
+      <c r="F73" t="s">
+        <v>544</v>
+      </c>
+      <c r="G73" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" t="s">
+        <v>332</v>
+      </c>
+      <c r="E74" t="s">
+        <v>242</v>
+      </c>
+      <c r="F74" t="s">
+        <v>258</v>
+      </c>
+      <c r="G74" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" t="s">
+        <v>333</v>
+      </c>
+      <c r="E75" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" t="s">
+        <v>545</v>
+      </c>
+      <c r="G75" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" t="s">
+        <v>334</v>
+      </c>
+      <c r="E76" t="s">
+        <v>487</v>
+      </c>
+      <c r="F76" t="s">
+        <v>546</v>
+      </c>
+      <c r="G76" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" t="s">
+        <v>244</v>
+      </c>
+      <c r="F77" t="s">
+        <v>547</v>
+      </c>
+      <c r="G77" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" t="s">
+        <v>335</v>
+      </c>
+      <c r="E78" t="s">
+        <v>245</v>
+      </c>
+      <c r="F78" t="s">
+        <v>259</v>
+      </c>
+      <c r="G78" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
         <v>61</v>
       </c>
-      <c r="D72" t="s">
-        <v>433</v>
-      </c>
-      <c r="E72" t="s">
-        <v>372</v>
-      </c>
-      <c r="F72" t="s">
-        <v>486</v>
-      </c>
-      <c r="G72" t="s">
-        <v>373</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="B79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" t="s">
+        <v>415</v>
+      </c>
+      <c r="D79" t="s">
+        <v>426</v>
+      </c>
+      <c r="E79" t="s">
+        <v>488</v>
+      </c>
+      <c r="F79" t="s">
+        <v>548</v>
+      </c>
+      <c r="G79" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" t="s">
-        <v>331</v>
-      </c>
-      <c r="F73" t="s">
-        <v>487</v>
-      </c>
-      <c r="G73" t="s">
-        <v>546</v>
-      </c>
-      <c r="H73" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" t="s">
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" t="s">
         <v>95</v>
       </c>
-      <c r="D74" t="s">
-        <v>94</v>
-      </c>
-      <c r="E74" t="s">
-        <v>332</v>
-      </c>
-      <c r="F74" t="s">
-        <v>242</v>
-      </c>
-      <c r="G74" t="s">
-        <v>258</v>
-      </c>
-      <c r="H74" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="C80" t="s">
+        <v>462</v>
+      </c>
+      <c r="D80" t="s">
+        <v>427</v>
+      </c>
+      <c r="E80" t="s">
+        <v>489</v>
+      </c>
+      <c r="F80" t="s">
+        <v>549</v>
+      </c>
+      <c r="G80" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" t="s">
         <v>98</v>
       </c>
-      <c r="D75" t="s">
-        <v>97</v>
-      </c>
-      <c r="E75" t="s">
-        <v>333</v>
-      </c>
-      <c r="F75" t="s">
-        <v>243</v>
-      </c>
-      <c r="G75" t="s">
-        <v>547</v>
-      </c>
-      <c r="H75" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="C81" t="s">
+        <v>412</v>
+      </c>
+      <c r="D81" t="s">
+        <v>567</v>
+      </c>
+      <c r="E81" t="s">
+        <v>490</v>
+      </c>
+      <c r="F81" t="s">
+        <v>550</v>
+      </c>
+      <c r="G81" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" t="s">
         <v>99</v>
       </c>
-      <c r="D76" t="s">
-        <v>167</v>
-      </c>
-      <c r="E76" t="s">
-        <v>334</v>
-      </c>
-      <c r="F76" t="s">
-        <v>488</v>
-      </c>
-      <c r="G76" t="s">
-        <v>548</v>
-      </c>
-      <c r="H76" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" t="s">
-        <v>55</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" t="s">
+        <v>491</v>
+      </c>
+      <c r="F82" t="s">
+        <v>551</v>
+      </c>
+      <c r="G82" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" t="s">
         <v>93</v>
       </c>
-      <c r="D77" t="s">
-        <v>102</v>
-      </c>
-      <c r="E77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F77" t="s">
-        <v>244</v>
-      </c>
-      <c r="G77" t="s">
-        <v>549</v>
-      </c>
-      <c r="H77" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" t="s">
-        <v>55</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="C83" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" t="s">
+        <v>156</v>
+      </c>
+      <c r="E83" t="s">
+        <v>492</v>
+      </c>
+      <c r="F83" t="s">
+        <v>552</v>
+      </c>
+      <c r="G83" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" t="s">
         <v>96</v>
       </c>
-      <c r="D78" t="s">
-        <v>105</v>
-      </c>
-      <c r="E78" t="s">
-        <v>335</v>
-      </c>
-      <c r="F78" t="s">
-        <v>245</v>
-      </c>
-      <c r="G78" t="s">
-        <v>259</v>
-      </c>
-      <c r="H78" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" t="s">
-        <v>101</v>
-      </c>
-      <c r="D79" t="s">
-        <v>415</v>
-      </c>
-      <c r="E79" t="s">
-        <v>426</v>
-      </c>
-      <c r="F79" t="s">
-        <v>489</v>
-      </c>
-      <c r="G79" t="s">
-        <v>550</v>
-      </c>
-      <c r="H79" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" t="s">
-        <v>95</v>
-      </c>
-      <c r="D80" t="s">
-        <v>463</v>
-      </c>
-      <c r="E80" t="s">
-        <v>427</v>
-      </c>
-      <c r="F80" t="s">
-        <v>490</v>
-      </c>
-      <c r="G80" t="s">
-        <v>551</v>
-      </c>
-      <c r="H80" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" t="s">
-        <v>412</v>
-      </c>
-      <c r="E81" t="s">
-        <v>428</v>
-      </c>
-      <c r="F81" t="s">
-        <v>491</v>
-      </c>
-      <c r="G81" t="s">
-        <v>552</v>
-      </c>
-      <c r="H81" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" t="s">
-        <v>99</v>
-      </c>
-      <c r="D82" t="s">
-        <v>157</v>
-      </c>
-      <c r="E82" t="s">
-        <v>158</v>
-      </c>
-      <c r="F82" t="s">
-        <v>492</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="C84" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" t="s">
+        <v>160</v>
+      </c>
+      <c r="E84" t="s">
+        <v>493</v>
+      </c>
+      <c r="F84" t="s">
         <v>553</v>
       </c>
-      <c r="H82" t="s">
+      <c r="G84" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" t="s">
+        <v>249</v>
+      </c>
+      <c r="F85" t="s">
+        <v>264</v>
+      </c>
+      <c r="G85" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" t="s">
+        <v>313</v>
+      </c>
+      <c r="D86" t="s">
+        <v>314</v>
+      </c>
+      <c r="E86" t="s">
+        <v>494</v>
+      </c>
+      <c r="F86" t="s">
+        <v>554</v>
+      </c>
+      <c r="G86" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" t="s">
+        <v>250</v>
+      </c>
+      <c r="F87" t="s">
+        <v>265</v>
+      </c>
+      <c r="G87" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D83" t="s">
-        <v>155</v>
-      </c>
-      <c r="E83" t="s">
-        <v>156</v>
-      </c>
-      <c r="F83" t="s">
-        <v>493</v>
-      </c>
-      <c r="G83" t="s">
-        <v>554</v>
-      </c>
-      <c r="H83" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" t="s">
-        <v>159</v>
-      </c>
-      <c r="E84" t="s">
-        <v>160</v>
-      </c>
-      <c r="F84" t="s">
-        <v>494</v>
-      </c>
-      <c r="G84" t="s">
-        <v>555</v>
-      </c>
-      <c r="H84" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85" t="s">
-        <v>59</v>
-      </c>
-      <c r="E85" t="s">
-        <v>138</v>
-      </c>
-      <c r="F85" t="s">
-        <v>249</v>
-      </c>
-      <c r="G85" t="s">
-        <v>264</v>
-      </c>
-      <c r="H85" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
-        <v>55</v>
-      </c>
-      <c r="C86" t="s">
-        <v>58</v>
-      </c>
-      <c r="D86" t="s">
-        <v>313</v>
-      </c>
-      <c r="E86" t="s">
-        <v>314</v>
-      </c>
-      <c r="F86" t="s">
-        <v>495</v>
-      </c>
-      <c r="G86" t="s">
-        <v>556</v>
-      </c>
-      <c r="H86" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
-        <v>55</v>
-      </c>
-      <c r="C87" t="s">
-        <v>62</v>
-      </c>
-      <c r="D87" t="s">
-        <v>63</v>
-      </c>
-      <c r="E87" t="s">
-        <v>139</v>
-      </c>
-      <c r="F87" t="s">
-        <v>250</v>
-      </c>
-      <c r="G87" t="s">
-        <v>265</v>
-      </c>
-      <c r="H87" t="s">
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" t="s">
+        <v>168</v>
+      </c>
+      <c r="E88" t="s">
+        <v>251</v>
+      </c>
+      <c r="F88" t="s">
+        <v>266</v>
+      </c>
+      <c r="G88" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s">
-        <v>55</v>
-      </c>
-      <c r="C88" t="s">
-        <v>57</v>
-      </c>
-      <c r="D88" t="s">
-        <v>60</v>
-      </c>
-      <c r="E88" t="s">
-        <v>168</v>
-      </c>
-      <c r="F88" t="s">
-        <v>251</v>
-      </c>
-      <c r="G88" t="s">
-        <v>266</v>
-      </c>
-      <c r="H88" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="C89" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D89" t="s">
         <v>271</v>
@@ -8697,19 +8447,16 @@
       <c r="G89" t="s">
         <v>271</v>
       </c>
-      <c r="H89" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="C90" t="s">
-        <v>270</v>
+        <v>417</v>
       </c>
       <c r="D90" t="s">
         <v>417</v>
@@ -8723,178 +8470,157 @@
       <c r="G90" t="s">
         <v>417</v>
       </c>
-      <c r="H90" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" t="s">
+        <v>319</v>
+      </c>
+      <c r="D91" t="s">
+        <v>154</v>
+      </c>
+      <c r="E91" t="s">
+        <v>495</v>
+      </c>
+      <c r="F91" t="s">
+        <v>555</v>
+      </c>
+      <c r="G91" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
         <v>61</v>
       </c>
-      <c r="C91" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91" t="s">
-        <v>319</v>
-      </c>
-      <c r="E91" t="s">
-        <v>154</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="B92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" t="s">
+        <v>320</v>
+      </c>
+      <c r="D92" t="s">
+        <v>321</v>
+      </c>
+      <c r="E92" t="s">
+        <v>322</v>
+      </c>
+      <c r="F92" t="s">
+        <v>556</v>
+      </c>
+      <c r="G92" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" t="s">
+        <v>410</v>
+      </c>
+      <c r="D93" t="s">
+        <v>338</v>
+      </c>
+      <c r="E93" t="s">
         <v>496</v>
       </c>
-      <c r="G91" t="s">
+      <c r="F93" t="s">
         <v>557</v>
       </c>
-      <c r="H91" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="G93" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
         <v>61</v>
       </c>
-      <c r="C92" t="s">
-        <v>58</v>
-      </c>
-      <c r="D92" t="s">
-        <v>320</v>
-      </c>
-      <c r="E92" t="s">
-        <v>321</v>
-      </c>
-      <c r="F92" t="s">
-        <v>322</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="B94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" t="s">
+        <v>400</v>
+      </c>
+      <c r="D94" t="s">
+        <v>401</v>
+      </c>
+      <c r="E94" t="s">
+        <v>497</v>
+      </c>
+      <c r="F94" t="s">
         <v>558</v>
       </c>
-      <c r="H92" t="s">
+      <c r="G94" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
         <v>61</v>
       </c>
-      <c r="C93" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" t="s">
-        <v>410</v>
-      </c>
-      <c r="E93" t="s">
-        <v>338</v>
-      </c>
-      <c r="F93" t="s">
-        <v>497</v>
-      </c>
-      <c r="G93" t="s">
-        <v>559</v>
-      </c>
-      <c r="H93" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
+        <v>269</v>
+      </c>
+      <c r="C95" t="s">
+        <v>521</v>
+      </c>
+      <c r="D95" t="s">
+        <v>428</v>
+      </c>
+      <c r="E95" t="s">
+        <v>505</v>
+      </c>
+      <c r="F95" t="s">
+        <v>429</v>
+      </c>
+      <c r="G95" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
         <v>61</v>
       </c>
-      <c r="C94" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" t="s">
-        <v>400</v>
-      </c>
-      <c r="E94" t="s">
-        <v>401</v>
-      </c>
-      <c r="F94" t="s">
-        <v>498</v>
-      </c>
-      <c r="G94" t="s">
-        <v>560</v>
-      </c>
-      <c r="H94" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
-        <v>61</v>
-      </c>
-      <c r="C95" t="s">
-        <v>269</v>
-      </c>
-      <c r="D95" t="s">
-        <v>522</v>
-      </c>
-      <c r="E95" t="s">
-        <v>429</v>
-      </c>
-      <c r="F95" t="s">
-        <v>506</v>
-      </c>
-      <c r="G95" t="s">
-        <v>430</v>
-      </c>
-      <c r="H95" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="s">
-        <v>0</v>
-      </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="C96" t="s">
-        <v>270</v>
+        <v>416</v>
       </c>
       <c r="D96" t="s">
         <v>416</v>
       </c>
       <c r="E96" t="s">
+        <v>498</v>
+      </c>
+      <c r="F96" t="s">
+        <v>559</v>
+      </c>
+      <c r="G96" t="s">
         <v>416</v>
       </c>
-      <c r="F96" t="s">
-        <v>499</v>
-      </c>
-      <c r="G96" t="s">
-        <v>561</v>
-      </c>
-      <c r="H96" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B97" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C97" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" t="s">
         <v>66</v>
-      </c>
-      <c r="D97" t="s">
-        <v>70</v>
       </c>
       <c r="E97" t="s">
         <v>66</v>
@@ -8905,178 +8631,157 @@
       <c r="G97" t="s">
         <v>66</v>
       </c>
-      <c r="H97" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D98" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E98" t="s">
-        <v>124</v>
+        <v>500</v>
       </c>
       <c r="F98" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="G98" t="s">
-        <v>563</v>
-      </c>
-      <c r="H98" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C99" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D99" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="E99" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="F99" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="G99" t="s">
         <v>312</v>
       </c>
-      <c r="H99" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" t="s">
+        <v>414</v>
+      </c>
+      <c r="D100" t="s">
+        <v>430</v>
+      </c>
+      <c r="E100" t="s">
+        <v>501</v>
+      </c>
+      <c r="F100" t="s">
+        <v>560</v>
+      </c>
+      <c r="G100" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
         <v>61</v>
       </c>
-      <c r="C100" t="s">
-        <v>117</v>
-      </c>
-      <c r="D100" t="s">
-        <v>414</v>
-      </c>
-      <c r="E100" t="s">
-        <v>431</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="B101" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" t="s">
+        <v>422</v>
+      </c>
+      <c r="D101" t="s">
+        <v>374</v>
+      </c>
+      <c r="E101" t="s">
         <v>502</v>
       </c>
-      <c r="G100" t="s">
+      <c r="F101" t="s">
         <v>562</v>
       </c>
-      <c r="H100" t="s">
+      <c r="G101" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" t="s">
+        <v>423</v>
+      </c>
+      <c r="D102" t="s">
+        <v>375</v>
+      </c>
+      <c r="E102" t="s">
+        <v>503</v>
+      </c>
+      <c r="F102" t="s">
+        <v>563</v>
+      </c>
+      <c r="G102" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101" t="s">
-        <v>61</v>
-      </c>
-      <c r="C101" t="s">
-        <v>118</v>
-      </c>
-      <c r="D101" t="s">
-        <v>422</v>
-      </c>
-      <c r="E101" t="s">
-        <v>374</v>
-      </c>
-      <c r="F101" t="s">
-        <v>503</v>
-      </c>
-      <c r="G101" t="s">
-        <v>564</v>
-      </c>
-      <c r="H101" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>111</v>
-      </c>
-      <c r="B102" t="s">
-        <v>61</v>
-      </c>
-      <c r="C102" t="s">
-        <v>119</v>
-      </c>
-      <c r="D102" t="s">
-        <v>423</v>
-      </c>
-      <c r="E102" t="s">
-        <v>375</v>
-      </c>
-      <c r="F102" t="s">
-        <v>504</v>
-      </c>
-      <c r="G102" t="s">
-        <v>565</v>
-      </c>
-      <c r="H102" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C103" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D103" t="s">
-        <v>69</v>
+        <v>336</v>
       </c>
       <c r="E103" t="s">
-        <v>336</v>
+        <v>247</v>
       </c>
       <c r="F103" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="G103" t="s">
-        <v>260</v>
-      </c>
-      <c r="H103" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C104" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" t="s">
         <v>66</v>
-      </c>
-      <c r="D104" t="s">
-        <v>70</v>
       </c>
       <c r="E104" t="s">
         <v>66</v>
@@ -9087,97 +8792,85 @@
       <c r="G104" t="s">
         <v>66</v>
       </c>
-      <c r="H104" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D105" t="s">
-        <v>71</v>
+        <v>337</v>
       </c>
       <c r="E105" t="s">
-        <v>337</v>
+        <v>246</v>
       </c>
       <c r="F105" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G105" t="s">
-        <v>261</v>
-      </c>
-      <c r="H105" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D106" t="s">
         <v>68</v>
       </c>
-      <c r="D106" t="s">
-        <v>72</v>
-      </c>
       <c r="E106" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="F106" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="G106" t="s">
         <v>312</v>
       </c>
-      <c r="H106" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B107" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="C107" t="s">
-        <v>280</v>
+        <v>568</v>
       </c>
       <c r="D107" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="E107" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="F107" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="G107" t="s">
-        <v>530</v>
-      </c>
-      <c r="H107" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>274</v>
+        <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>347</v>
       </c>
       <c r="C108" t="s">
-        <v>347</v>
+        <v>507</v>
       </c>
       <c r="D108" t="s">
         <v>508</v>
@@ -9191,19 +8884,16 @@
       <c r="G108" t="s">
         <v>511</v>
       </c>
-      <c r="H108" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>274</v>
+        <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>275</v>
       </c>
       <c r="C109" t="s">
-        <v>275</v>
+        <v>525</v>
       </c>
       <c r="D109" t="s">
         <v>526</v>
@@ -9212,62 +8902,56 @@
         <v>527</v>
       </c>
       <c r="F109" t="s">
+        <v>564</v>
+      </c>
+      <c r="G109" t="s">
         <v>528</v>
       </c>
-      <c r="G109" t="s">
-        <v>566</v>
-      </c>
-      <c r="H109" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>274</v>
+        <v>61</v>
       </c>
       <c r="B110" t="s">
+        <v>280</v>
+      </c>
+      <c r="C110" t="s">
+        <v>570</v>
+      </c>
+      <c r="D110" t="s">
+        <v>571</v>
+      </c>
+      <c r="E110" t="s">
+        <v>572</v>
+      </c>
+      <c r="F110" t="s">
+        <v>573</v>
+      </c>
+      <c r="G110" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
         <v>61</v>
       </c>
-      <c r="C110" t="s">
-        <v>280</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="B111" t="s">
+        <v>281</v>
+      </c>
+      <c r="C111" t="s">
+        <v>524</v>
+      </c>
+      <c r="D111" t="s">
         <v>569</v>
       </c>
-      <c r="E110" t="s">
-        <v>570</v>
-      </c>
-      <c r="F110" t="s">
-        <v>571</v>
-      </c>
-      <c r="G110" t="s">
-        <v>572</v>
-      </c>
-      <c r="H110" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>274</v>
-      </c>
-      <c r="B111" t="s">
-        <v>61</v>
-      </c>
-      <c r="C111" t="s">
-        <v>281</v>
-      </c>
-      <c r="D111" t="s">
-        <v>525</v>
+      <c r="E111" t="s">
+        <v>523</v>
       </c>
       <c r="F111" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="G111" t="s">
-        <v>567</v>
-      </c>
-      <c r="H111" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -14,6 +14,7 @@
     <definedName name="slirv_translations" localSheetId="1">Blatt1!$A$2:$H$119</definedName>
     <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$119</definedName>
     <definedName name="slirv_translations_1" localSheetId="1">Blatt1!$A$2:$H$119</definedName>
+    <definedName name="slirv_translations_2" localSheetId="1">Blatt1!$A$2:$H$119</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="575">
   <si>
     <t>typ</t>
   </si>
@@ -1868,7 +1869,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="279">
+  <cellStyleXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2147,6 +2148,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
@@ -2188,7 +2193,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="279">
+  <cellStyles count="283">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2338,6 +2343,8 @@
     <cellStyle name="Besuchter Link" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="277" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2467,6 +2474,8 @@
     <cellStyle name="Link" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="271" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -2537,10 +2546,14 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations_2" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="slirv_translations_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -2891,8 +2904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H119"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6399,46 +6412,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G111"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>170</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>178</v>
-      </c>
-      <c r="C2" t="s">
-        <v>173</v>
       </c>
       <c r="D2" t="s">
         <v>173</v>
@@ -6452,16 +6468,19 @@
       <c r="G2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>179</v>
-      </c>
-      <c r="C3" t="s">
-        <v>174</v>
       </c>
       <c r="D3" t="s">
         <v>174</v>
@@ -6475,16 +6494,19 @@
       <c r="G3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>175</v>
       </c>
       <c r="D4" t="s">
         <v>175</v>
@@ -6498,16 +6520,19 @@
       <c r="G4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>180</v>
-      </c>
-      <c r="C5" t="s">
-        <v>176</v>
       </c>
       <c r="D5" t="s">
         <v>176</v>
@@ -6521,16 +6546,19 @@
       <c r="G5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
         <v>181</v>
-      </c>
-      <c r="C6" t="s">
-        <v>177</v>
       </c>
       <c r="D6" t="s">
         <v>177</v>
@@ -6544,154 +6572,175 @@
       <c r="G6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>153</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>345</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>471</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>346</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
         <v>110</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>368</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>367</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>366</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>365</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>109</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>431</v>
-      </c>
-      <c r="D9" t="s">
-        <v>318</v>
       </c>
       <c r="E9" t="s">
         <v>318</v>
       </c>
       <c r="F9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G9" t="s">
         <v>529</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
         <v>92</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>114</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>288</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>472</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>326</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>113</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>286</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>113</v>
-      </c>
-      <c r="F11" t="s">
-        <v>327</v>
       </c>
       <c r="G11" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>112</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>287</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>473</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>329</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
         <v>280</v>
-      </c>
-      <c r="C13" t="s">
-        <v>323</v>
       </c>
       <c r="D13" t="s">
         <v>323</v>
@@ -6705,516 +6754,585 @@
       <c r="G13" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>281</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>324</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>325</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>324</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>530</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>347</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>356</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>357</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>358</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>359</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>55</v>
       </c>
       <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
         <v>116</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>115</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>289</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>262</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>263</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>55</v>
       </c>
       <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
         <v>106</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>107</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>137</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>248</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>531</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>55</v>
       </c>
       <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
         <v>361</v>
-      </c>
-      <c r="C18" t="s">
-        <v>362</v>
       </c>
       <c r="D18" t="s">
         <v>362</v>
       </c>
       <c r="E18" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18" t="s">
         <v>361</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>363</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>55</v>
       </c>
       <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
         <v>433</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>434</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>435</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>436</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>437</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>55</v>
       </c>
       <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>369</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>402</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>370</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>474</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>532</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
         <v>512</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>513</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>515</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>518</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>512</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>514</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>516</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>517</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>377</v>
-      </c>
-      <c r="C23" t="s">
-        <v>382</v>
       </c>
       <c r="D23" t="s">
         <v>382</v>
       </c>
       <c r="E23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F23" t="s">
         <v>384</v>
-      </c>
-      <c r="F23" t="s">
-        <v>383</v>
       </c>
       <c r="G23" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
         <v>378</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>380</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>385</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>386</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>387</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
         <v>379</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>381</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>389</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>390</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>391</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>140</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>232</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>233</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
         <v>276</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>277</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>278</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>279</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>533</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
         <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
       </c>
       <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
         <v>185</v>
-      </c>
-      <c r="F28" t="s">
-        <v>196</v>
       </c>
       <c r="G28" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>143</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>182</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>197</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>32</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>144</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>183</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>198</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
         <v>27</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>28</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>142</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>184</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>199</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>141</v>
       </c>
       <c r="E32" t="s">
         <v>141</v>
       </c>
       <c r="F32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" t="s">
         <v>200</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>35</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>145</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>186</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>201</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
         <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
       </c>
       <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
         <v>187</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>202</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>146</v>
       </c>
       <c r="E35" t="s">
         <v>146</v>
       </c>
       <c r="F35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" t="s">
         <v>203</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
         <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -7223,47 +7341,53 @@
         <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
         <v>11</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>39</v>
-      </c>
-      <c r="D37" t="s">
-        <v>147</v>
       </c>
       <c r="E37" t="s">
         <v>147</v>
       </c>
       <c r="F37" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="G37" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
         <v>12</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>40</v>
-      </c>
-      <c r="D38" t="s">
-        <v>148</v>
       </c>
       <c r="E38" t="s">
         <v>148</v>
@@ -7272,202 +7396,229 @@
         <v>148</v>
       </c>
       <c r="G38" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
         <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
       </c>
       <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
         <v>188</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>206</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
         <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
       </c>
       <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" t="s">
         <v>189</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>207</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
         <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
       </c>
       <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
         <v>190</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
         <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
       </c>
       <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
         <v>191</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>209</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
         <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>45</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
       </c>
       <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
         <v>192</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>210</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
         <v>17</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
       </c>
       <c r="E44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" t="s">
         <v>193</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>211</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
         <v>19</v>
-      </c>
-      <c r="C45" t="s">
-        <v>47</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
       </c>
       <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
         <v>194</v>
-      </c>
-      <c r="F45" t="s">
-        <v>212</v>
       </c>
       <c r="G45" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
         <v>20</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>48</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>149</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>48</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>149</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" t="s">
-        <v>49</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -7481,19 +7632,22 @@
       <c r="G47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
         <v>22</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>50</v>
-      </c>
-      <c r="D48" t="s">
-        <v>150</v>
       </c>
       <c r="E48" t="s">
         <v>150</v>
@@ -7502,938 +7656,1061 @@
         <v>150</v>
       </c>
       <c r="G48" t="s">
+        <v>150</v>
+      </c>
+      <c r="H48" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
         <v>23</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>51</v>
-      </c>
-      <c r="D49" t="s">
-        <v>151</v>
       </c>
       <c r="E49" t="s">
         <v>151</v>
       </c>
       <c r="F49" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" t="s">
         <v>213</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
         <v>24</v>
-      </c>
-      <c r="C50" t="s">
-        <v>52</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
       </c>
       <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" t="s">
         <v>195</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>214</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
         <v>25</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>30</v>
-      </c>
-      <c r="D51" t="s">
-        <v>152</v>
       </c>
       <c r="E51" t="s">
         <v>152</v>
       </c>
       <c r="F51" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51" t="s">
         <v>215</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
         <v>82</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>74</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>126</v>
-      </c>
-      <c r="E52" t="s">
-        <v>235</v>
       </c>
       <c r="F52" t="s">
         <v>235</v>
       </c>
       <c r="G52" t="s">
+        <v>235</v>
+      </c>
+      <c r="H52" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
         <v>83</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>75</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>127</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>236</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
         <v>84</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>80</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>128</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>237</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>256</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
         <v>85</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>81</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>129</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>238</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>534</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
         <v>86</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>76</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>133</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>239</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>257</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
         <v>87</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>77</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>132</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>240</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>535</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
         <v>88</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>104</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>130</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>475</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>536</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
         <v>89</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>78</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>131</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>241</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>537</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
         <v>90</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>103</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>134</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>476</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>538</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
         <v>91</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>79</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>135</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>477</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>253</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>82</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>272</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>273</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>478</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>539</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>83</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>75</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>127</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>236</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>255</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
         <v>61</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>84</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>407</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>282</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>479</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>283</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
         <v>61</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>85</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>290</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>291</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>292</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>293</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
         <v>61</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>86</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>165</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>166</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>480</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>540</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
         <v>61</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>87</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>163</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>164</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>481</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>541</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
         <v>61</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>88</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>408</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>130</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>482</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>542</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
         <v>61</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>89</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>161</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>162</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>483</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>543</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
         <v>61</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>90</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>409</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>424</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>484</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>425</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
         <v>61</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>91</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>300</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>301</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>302</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>303</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
         <v>61</v>
       </c>
       <c r="C72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" t="s">
         <v>432</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>372</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>485</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>373</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
         <v>101</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>100</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>331</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>486</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>544</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s">
         <v>95</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>94</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>332</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>242</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>258</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
         <v>98</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>97</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>333</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>243</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>545</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
         <v>99</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>167</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>334</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>487</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>546</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
         <v>93</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>102</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>136</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>244</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>547</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" t="s">
         <v>96</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>105</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>335</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>245</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>259</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
         <v>61</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>101</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>415</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>426</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>488</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>548</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
         <v>61</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>95</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>462</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>427</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>489</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>549</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
         <v>61</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>98</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>412</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>567</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>490</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>550</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
         <v>61</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>99</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>157</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>158</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>491</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>551</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
         <v>61</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>93</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>155</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>156</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>492</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>552</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" t="s">
         <v>61</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>96</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>159</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>160</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>493</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>553</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
         <v>56</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>59</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>138</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>249</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>264</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
         <v>58</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>313</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>314</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>494</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>554</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" t="s">
         <v>62</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>63</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>139</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>250</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>265</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" t="s">
         <v>57</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>60</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>168</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>251</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>266</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" t="s">
         <v>269</v>
-      </c>
-      <c r="C89" t="s">
-        <v>271</v>
       </c>
       <c r="D89" t="s">
         <v>271</v>
@@ -8447,16 +8724,19 @@
       <c r="G89" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" t="s">
         <v>270</v>
-      </c>
-      <c r="C90" t="s">
-        <v>417</v>
       </c>
       <c r="D90" t="s">
         <v>417</v>
@@ -8470,157 +8750,178 @@
       <c r="G90" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
         <v>61</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>56</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>319</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>154</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>495</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>555</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
         <v>61</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>58</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>320</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>321</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>322</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>556</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
         <v>61</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>62</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>410</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>338</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>496</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>557</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
         <v>61</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>57</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>400</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>401</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>497</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>558</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
         <v>61</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>269</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>521</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>428</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>505</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>429</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
         <v>61</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>270</v>
-      </c>
-      <c r="C96" t="s">
-        <v>416</v>
       </c>
       <c r="D96" t="s">
         <v>416</v>
       </c>
       <c r="E96" t="s">
+        <v>416</v>
+      </c>
+      <c r="F96" t="s">
         <v>498</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>559</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" t="s">
         <v>66</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>70</v>
-      </c>
-      <c r="D97" t="s">
-        <v>66</v>
       </c>
       <c r="E97" t="s">
         <v>66</v>
@@ -8631,157 +8932,178 @@
       <c r="G97" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" t="s">
         <v>119</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>120</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>124</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>500</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>561</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="s">
         <v>68</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>72</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>125</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>234</v>
-      </c>
-      <c r="F99" t="s">
-        <v>312</v>
       </c>
       <c r="G99" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" t="s">
         <v>61</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>117</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>414</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>430</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>501</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>560</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" t="s">
         <v>61</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>118</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>422</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>374</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>502</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>562</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
         <v>61</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>119</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>423</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>375</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>503</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>563</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" t="s">
         <v>65</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>69</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>336</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>247</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>260</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" t="s">
         <v>66</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>70</v>
-      </c>
-      <c r="D104" t="s">
-        <v>66</v>
       </c>
       <c r="E104" t="s">
         <v>66</v>
@@ -8792,62 +9114,71 @@
       <c r="G104" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" t="s">
         <v>67</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>71</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>337</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>246</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>261</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" t="s">
         <v>68</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>72</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>68</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>234</v>
-      </c>
-      <c r="F106" t="s">
-        <v>312</v>
       </c>
       <c r="G106" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
+        <v>348</v>
+      </c>
+      <c r="B107" t="s">
         <v>349</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>280</v>
-      </c>
-      <c r="C107" t="s">
-        <v>568</v>
       </c>
       <c r="D107" t="s">
         <v>568</v>
@@ -8861,96 +9192,111 @@
       <c r="G107" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
+        <v>274</v>
+      </c>
+      <c r="B108" t="s">
         <v>61</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>347</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>507</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>508</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>509</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>510</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
+        <v>274</v>
+      </c>
+      <c r="B109" t="s">
         <v>61</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>275</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>525</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>526</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>527</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>564</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
+        <v>274</v>
+      </c>
+      <c r="B110" t="s">
         <v>61</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>280</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>570</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>571</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>572</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>573</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
+        <v>274</v>
+      </c>
+      <c r="B111" t="s">
         <v>61</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>281</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>524</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>569</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>523</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>565</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>522</v>
       </c>
     </row>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17920" yWindow="4440" windowWidth="29960" windowHeight="22500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="24660" yWindow="3500" windowWidth="25220" windowHeight="22500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
@@ -1256,9 +1256,6 @@
     <t>Money laundering means to thwart the identification of the origin, the discovery or the confiscation of assets.</t>
   </si>
   <si>
-    <t>Structured group enriched by violence or by criminal means income. Ex. Mafia or jihad travelers</t>
-  </si>
-  <si>
     <t>Facebook accounts. This list of Facebook data points to the perimeter.</t>
   </si>
   <si>
@@ -1350,9 +1347,6 @@
   </si>
   <si>
     <t>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.</t>
-  </si>
-  <si>
-    <t>Strukturierte Gruppe, welche sich mittels Gewaltverbrechen oder sich durch verbrecherische Mittel um Einkünfte bereichert. Bsp. Mafia oder Djihad-Reisende</t>
   </si>
   <si>
     <t>tradiment da la patria, desarar malsongas humanas, abus d'uffezi,
@@ -1362,9 +1356,6 @@
     <t>Visualisaziun digl Spiunadi digl Stadi an Svizzra</t>
   </si>
   <si>
-    <t>Gruppas structuradas, che sa enritgeschan cun crims da violenza ni oter metels criminals  p.Ex. la mafia ni viagiaturs digl Djihad.</t>
-  </si>
-  <si>
     <t>Recrutar, porscher, intermediar, ni dar albiert a glieud cun utilisaziun da mettels nunlubias scu fintas, smanatschas ni sforz cun la fignamira d'explotaziun.</t>
   </si>
   <si>
@@ -1434,9 +1425,6 @@
     <t>Le blanchiment d'argent est l'action de dissimuler l'origine de fonds ou d'empêcher la découverte ou la saisie de fonds.</t>
   </si>
   <si>
-    <t>Groupe structuré enrichi par la violence ou par les revenus d'activités criminelles, par exemple la mafia ou les voyageurs du Jihad.</t>
-  </si>
-  <si>
     <t>Recruter, proposer, servir d'intermédiaire ou héberger des personnes via des moyens illégaux comme la tromperie, la menace ou la contrainte aux fins d'exploitation humaine.</t>
   </si>
   <si>
@@ -1597,9 +1585,6 @@
   </si>
   <si>
     <t>Il riciclaggio di denaro significa contrastare l'identificazione dell'origine, il ritrovamento o la confisca dei beni.</t>
-  </si>
-  <si>
-    <t>Gruppo strutturato arricchito con la violenza o con mezzi criminali. Es. Mafia o viaggiatori di jihad.</t>
   </si>
   <si>
     <t>Reclutare persone, offrire, mediare o albergare con misure non autorizzati, come inganno, minaccia o coercizione a scopo di sfruttamento.</t>
@@ -1836,6 +1821,21 @@
   <si>
     <t>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</t>
   </si>
+  <si>
+    <t>Strukturierte Gruppe, welche sich mittels Gewaltverbrechen oder sich durch verbrecherische Mittel um Einkünfte bereichert.</t>
+  </si>
+  <si>
+    <t>Structured group enriched by violence or by criminal means income.</t>
+  </si>
+  <si>
+    <t>Groupe structuré enrichi par la violence ou par les revenus d'activités criminelles</t>
+  </si>
+  <si>
+    <t>Gruppo strutturato arricchito con la violenza o con mezzi criminali.</t>
+  </si>
+  <si>
+    <t>Gruppas structuradas, che sa enritgeschan cun crims da violenza ni oter metels criminals .</t>
+  </si>
 </sst>
 </file>
 
@@ -1898,7 +1898,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="291">
+  <cellStyleXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2185,6 +2185,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2200,7 +2202,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="291">
+  <cellStyles count="293">
     <cellStyle name="Besuchter Link" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -2358,6 +2360,7 @@
     <cellStyle name="Besuchter Link" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="288" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -2491,6 +2494,7 @@
     <cellStyle name="Link" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="287" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -3085,13 +3089,13 @@
         <v>331</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>332</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3131,19 +3135,19 @@
         <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>308</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3163,13 +3167,13 @@
         <v>278</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3215,7 +3219,7 @@
         <v>277</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>316</v>
@@ -3274,7 +3278,7 @@
         <v>311</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>311</v>
@@ -3352,7 +3356,7 @@
         <v>241</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>275</v>
@@ -3392,22 +3396,22 @@
         <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:9" hidden="1">
@@ -3456,13 +3460,13 @@
         <v>356</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3473,22 +3477,22 @@
         <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30">
@@ -3499,19 +3503,19 @@
         <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="H23" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -3671,7 +3675,7 @@
         <v>269</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>307</v>
@@ -4376,7 +4380,7 @@
         <v>248</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4399,7 +4403,7 @@
         <v>231</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>274</v>
@@ -4428,7 +4432,7 @@
         <v>249</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4451,10 +4455,10 @@
         <v>233</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4474,10 +4478,10 @@
         <v>128</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>289</v>
@@ -4497,13 +4501,13 @@
         <v>77</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>234</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>357</v>
@@ -4526,13 +4530,13 @@
         <v>131</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4552,13 +4556,13 @@
         <v>132</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30">
@@ -4578,10 +4582,10 @@
         <v>263</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>288</v>
@@ -4635,13 +4639,13 @@
         <v>272</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>273</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30">
@@ -4684,13 +4688,13 @@
         <v>159</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>286</v>
@@ -4710,16 +4714,16 @@
         <v>158</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="60">
@@ -4736,16 +4740,16 @@
         <v>391</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="45">
@@ -4765,13 +4769,13 @@
         <v>157</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="60">
@@ -4788,16 +4792,16 @@
         <v>392</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>402</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30">
@@ -4837,19 +4841,19 @@
         <v>60</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>358</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4869,10 +4873,10 @@
         <v>318</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>285</v>
@@ -4924,7 +4928,7 @@
         <v>236</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>284</v>
@@ -4947,10 +4951,10 @@
         <v>321</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>315</v>
@@ -4976,7 +4980,7 @@
         <v>237</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>297</v>
@@ -5025,16 +5029,16 @@
         <v>403</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="75">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="60">
       <c r="A82" s="2" t="s">
         <v>91</v>
       </c>
@@ -5045,19 +5049,19 @@
         <v>94</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>436</v>
+        <v>571</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>404</v>
+        <v>572</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>463</v>
+        <v>573</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>439</v>
+        <v>575</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="90">
@@ -5074,16 +5078,16 @@
         <v>394</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="45">
@@ -5103,13 +5107,13 @@
         <v>153</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="30">
@@ -5129,10 +5133,10 @@
         <v>151</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>295</v>
@@ -5155,10 +5159,10 @@
         <v>155</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>301</v>
@@ -5175,19 +5179,19 @@
         <v>56</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5207,10 +5211,10 @@
         <v>304</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>305</v>
@@ -5239,7 +5243,7 @@
         <v>256</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5265,7 +5269,7 @@
         <v>257</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5335,19 +5339,19 @@
         <v>56</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="30">
@@ -5364,16 +5368,16 @@
         <v>309</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="45">
@@ -5387,19 +5391,19 @@
         <v>61</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="60">
@@ -5413,19 +5417,19 @@
         <v>57</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>384</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="45" hidden="1">
@@ -5469,19 +5473,19 @@
         <v>259</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="H98" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="30">
@@ -5501,10 +5505,10 @@
         <v>397</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>397</v>
@@ -5527,13 +5531,13 @@
         <v>122</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>244</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -5582,10 +5586,10 @@
         <v>123</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>287</v>
@@ -5605,7 +5609,7 @@
         <v>71</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>227</v>
@@ -5631,16 +5635,16 @@
         <v>395</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="90">
@@ -5660,13 +5664,13 @@
         <v>359</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="45">
@@ -5686,13 +5690,13 @@
         <v>360</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5843,7 +5847,7 @@
         <v>270</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E112" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5873,19 +5877,19 @@
         <v>333</v>
       </c>
       <c r="D113" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H113" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="270">
@@ -5899,19 +5903,19 @@
         <v>265</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="120" hidden="1">
@@ -5925,19 +5929,19 @@
         <v>389</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -5954,16 +5958,16 @@
         <v>399</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -6045,19 +6049,19 @@
         <v>271</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -6236,13 +6240,13 @@
         <v>331</v>
       </c>
       <c r="E7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F7" t="s">
         <v>332</v>
       </c>
       <c r="G7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6276,19 +6280,19 @@
         <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D9" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E9" t="s">
         <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6305,13 +6309,13 @@
         <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F10" t="s">
         <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6351,7 +6355,7 @@
         <v>277</v>
       </c>
       <c r="E12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F12" t="s">
         <v>316</v>
@@ -6400,7 +6404,7 @@
         <v>311</v>
       </c>
       <c r="F14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G14" t="s">
         <v>311</v>
@@ -6469,7 +6473,7 @@
         <v>241</v>
       </c>
       <c r="F17" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G17" t="s">
         <v>275</v>
@@ -6503,22 +6507,22 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C19" t="s">
         <v>410</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>533</v>
+      </c>
+      <c r="E19" t="s">
         <v>411</v>
       </c>
-      <c r="D19" t="s">
-        <v>538</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>412</v>
       </c>
-      <c r="F19" t="s">
-        <v>413</v>
-      </c>
       <c r="G19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6535,13 +6539,13 @@
         <v>356</v>
       </c>
       <c r="E20" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F20" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6549,22 +6553,22 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C21" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D21" t="s">
+        <v>484</v>
+      </c>
+      <c r="E21" t="s">
+        <v>487</v>
+      </c>
+      <c r="F21" t="s">
         <v>488</v>
       </c>
-      <c r="E21" t="s">
-        <v>491</v>
-      </c>
-      <c r="F21" t="s">
-        <v>492</v>
-      </c>
       <c r="G21" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6572,22 +6576,22 @@
         <v>60</v>
       </c>
       <c r="B22" t="s">
+        <v>481</v>
+      </c>
+      <c r="C22" t="s">
+        <v>483</v>
+      </c>
+      <c r="D22" t="s">
         <v>485</v>
       </c>
-      <c r="C22" t="s">
-        <v>487</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>486</v>
+      </c>
+      <c r="F22" t="s">
         <v>489</v>
       </c>
-      <c r="E22" t="s">
-        <v>490</v>
-      </c>
-      <c r="F22" t="s">
-        <v>493</v>
-      </c>
       <c r="G22" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6699,7 +6703,7 @@
         <v>269</v>
       </c>
       <c r="F27" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G27" t="s">
         <v>307</v>
@@ -7323,7 +7327,7 @@
         <v>248</v>
       </c>
       <c r="G54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -7343,7 +7347,7 @@
         <v>231</v>
       </c>
       <c r="F55" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G55" t="s">
         <v>274</v>
@@ -7369,7 +7373,7 @@
         <v>249</v>
       </c>
       <c r="G56" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -7389,10 +7393,10 @@
         <v>233</v>
       </c>
       <c r="F57" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G57" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -7409,10 +7413,10 @@
         <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F58" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G58" t="s">
         <v>289</v>
@@ -7429,13 +7433,13 @@
         <v>77</v>
       </c>
       <c r="D59" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E59" t="s">
         <v>234</v>
       </c>
       <c r="F59" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G59" t="s">
         <v>357</v>
@@ -7455,13 +7459,13 @@
         <v>131</v>
       </c>
       <c r="E60" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F60" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G60" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -7478,13 +7482,13 @@
         <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F61" t="s">
         <v>245</v>
       </c>
       <c r="G61" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -7501,10 +7505,10 @@
         <v>263</v>
       </c>
       <c r="E62" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F62" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G62" t="s">
         <v>288</v>
@@ -7547,13 +7551,13 @@
         <v>272</v>
       </c>
       <c r="E64" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F64" t="s">
         <v>273</v>
       </c>
       <c r="G64" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -7590,13 +7594,13 @@
         <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E66" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F66" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G66" t="s">
         <v>286</v>
@@ -7613,16 +7617,16 @@
         <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E67" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F67" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G67" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -7636,16 +7640,16 @@
         <v>391</v>
       </c>
       <c r="D68" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E68" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F68" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G68" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -7662,13 +7666,13 @@
         <v>157</v>
       </c>
       <c r="E69" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F69" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -7682,16 +7686,16 @@
         <v>392</v>
       </c>
       <c r="D70" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E70" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F70" t="s">
         <v>402</v>
       </c>
       <c r="G70" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -7725,19 +7729,19 @@
         <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D72" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E72" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F72" t="s">
         <v>358</v>
       </c>
       <c r="G72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -7754,10 +7758,10 @@
         <v>318</v>
       </c>
       <c r="E73" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F73" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G73" t="s">
         <v>285</v>
@@ -7803,7 +7807,7 @@
         <v>236</v>
       </c>
       <c r="F75" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G75" t="s">
         <v>284</v>
@@ -7823,10 +7827,10 @@
         <v>321</v>
       </c>
       <c r="E76" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F76" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G76" t="s">
         <v>315</v>
@@ -7849,7 +7853,7 @@
         <v>237</v>
       </c>
       <c r="F77" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G77" t="s">
         <v>297</v>
@@ -7892,13 +7896,13 @@
         <v>403</v>
       </c>
       <c r="E79" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F79" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -7909,19 +7913,19 @@
         <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>436</v>
+        <v>571</v>
       </c>
       <c r="D80" t="s">
-        <v>404</v>
+        <v>572</v>
       </c>
       <c r="E80" t="s">
-        <v>463</v>
+        <v>573</v>
       </c>
       <c r="F80" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
       <c r="G80" t="s">
-        <v>439</v>
+        <v>575</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -7935,16 +7939,16 @@
         <v>394</v>
       </c>
       <c r="D81" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E81" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F81" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G81" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -7961,13 +7965,13 @@
         <v>153</v>
       </c>
       <c r="E82" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F82" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G82" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -7984,10 +7988,10 @@
         <v>151</v>
       </c>
       <c r="E83" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F83" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G83" t="s">
         <v>295</v>
@@ -8007,10 +8011,10 @@
         <v>155</v>
       </c>
       <c r="E84" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F84" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G84" t="s">
         <v>301</v>
@@ -8024,19 +8028,19 @@
         <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D85" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E85" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F85" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G85" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -8053,10 +8057,10 @@
         <v>304</v>
       </c>
       <c r="E86" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F86" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G86" t="s">
         <v>305</v>
@@ -8082,7 +8086,7 @@
         <v>256</v>
       </c>
       <c r="G87" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -8105,7 +8109,7 @@
         <v>257</v>
       </c>
       <c r="G88" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -8162,19 +8166,19 @@
         <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D91" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E91" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F91" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G91" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -8188,16 +8192,16 @@
         <v>309</v>
       </c>
       <c r="D92" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E92" t="s">
         <v>310</v>
       </c>
       <c r="F92" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G92" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -8208,19 +8212,19 @@
         <v>61</v>
       </c>
       <c r="C93" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D93" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E93" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F93" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G93" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -8231,19 +8235,19 @@
         <v>57</v>
       </c>
       <c r="C94" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D94" t="s">
         <v>384</v>
       </c>
       <c r="E94" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F94" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G94" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -8254,19 +8258,19 @@
         <v>259</v>
       </c>
       <c r="C95" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D95" t="s">
+        <v>404</v>
+      </c>
+      <c r="E95" t="s">
+        <v>474</v>
+      </c>
+      <c r="F95" t="s">
         <v>405</v>
       </c>
-      <c r="E95" t="s">
-        <v>478</v>
-      </c>
-      <c r="F95" t="s">
-        <v>406</v>
-      </c>
       <c r="G95" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -8283,10 +8287,10 @@
         <v>397</v>
       </c>
       <c r="E96" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F96" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G96" t="s">
         <v>397</v>
@@ -8329,10 +8333,10 @@
         <v>123</v>
       </c>
       <c r="E98" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F98" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G98" t="s">
         <v>287</v>
@@ -8349,7 +8353,7 @@
         <v>71</v>
       </c>
       <c r="D99" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E99" t="s">
         <v>227</v>
@@ -8372,16 +8376,16 @@
         <v>395</v>
       </c>
       <c r="D100" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E100" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F100" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G100" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -8398,13 +8402,13 @@
         <v>359</v>
       </c>
       <c r="E101" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F101" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G101" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -8421,13 +8425,13 @@
         <v>360</v>
       </c>
       <c r="E102" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F102" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G102" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -8530,19 +8534,19 @@
         <v>270</v>
       </c>
       <c r="C107" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D107" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E107" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F107" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G107" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -8553,19 +8557,19 @@
         <v>333</v>
       </c>
       <c r="C108" t="s">
+        <v>476</v>
+      </c>
+      <c r="D108" t="s">
+        <v>477</v>
+      </c>
+      <c r="E108" t="s">
+        <v>478</v>
+      </c>
+      <c r="F108" t="s">
+        <v>479</v>
+      </c>
+      <c r="G108" t="s">
         <v>480</v>
-      </c>
-      <c r="D108" t="s">
-        <v>481</v>
-      </c>
-      <c r="E108" t="s">
-        <v>482</v>
-      </c>
-      <c r="F108" t="s">
-        <v>483</v>
-      </c>
-      <c r="G108" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -8576,19 +8580,19 @@
         <v>265</v>
       </c>
       <c r="C109" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D109" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E109" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F109" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G109" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -8599,19 +8603,19 @@
         <v>270</v>
       </c>
       <c r="C110" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D110" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E110" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F110" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G110" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -8622,19 +8626,19 @@
         <v>271</v>
       </c>
       <c r="C111" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D111" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E111" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F111" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G111" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/_specs/slirv_translations.xlsx
+++ b/_specs/slirv_translations.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="24660" yWindow="3500" windowWidth="25220" windowHeight="22500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="34660" yWindow="840" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="trans" sheetId="3" r:id="rId1"/>
-    <sheet name="Blatt1" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="slirv_translations" localSheetId="0">trans!$A$2:$H$119</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="571">
   <si>
     <t>typ</t>
   </si>
@@ -1464,9 +1463,6 @@
     <t>localisation d'urgence : activée en cas de recherche de personnes disparues ou en fuite.</t>
   </si>
   <si>
-    <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.</t>
-  </si>
-  <si>
     <t xml:space="preserve">comptes Facebook : &lt;a href='https://fr-fr.facebook.com/help/405183566203254' target='_blank'&gt;cette liste montre les informations récoltées.&lt;/a&gt; </t>
   </si>
   <si>
@@ -1521,9 +1517,6 @@
     <t>Die Digitale Gesellschaft Schweiz veröffentlicht jährlich den Swiss Lawful Interception Report über die staatliche Überwachung in der Schweiz. Diese Visualiserung ergänzt den Report interaktiv und zeigt detailiert auf, wie in den Kantonen überwacht wird. Finden Sie heraus, für welche Delikte Ihre Grundrechte eingeschränkt werden.&lt;br&gt;&lt;br&gt;Die Daten in dieser Statistik beinhalten nur Überwachungmassnahmen nach Strafprozessordnung. Ausgenommen sind Einsätze von IMSI-Catcher, Staatstrojanern oder Überwachungsmassnahmen des Nachrichtendienstes.</t>
   </si>
   <si>
-    <t>Société numérique Suisse publie annuellement un rapport sur la situation de l'interception légale en Suisse. Cette visualisation interactive complète le rapport et montre en détail la surveillance effectuée dans chaque canton. Découvrez avec quels délits on justifie la limitation de vos libertés fondamentales. &lt;br&gt; &lt;br&gt; Les données de cette statistique ne comprennent que les mesures de surveillance conformes au Code de procédure pénale à l'exclusion des scanners IMSI, des chevaux de Troie gouvernementales ou de la surveillance effectuée par le service de renseignement de la Confédération (SRC).</t>
-  </si>
-  <si>
     <t>La Societad Digitala Svizzra publitgescha annual igl “Swiss Lawfull Interception Report” tgi sa tracta sur la survigilaziun digl stadi en Svizzra. La visualisaziun cumplettescha igl report interactiv e mossa detaglià, scu tgi igl Cantuns survigileschan. Chatta or, per tge delicts igls voss dretgs fundamentals reivan restranschia. &lt;br&gt;&lt;br&gt;&lt;small&gt;Las datas ainten quella statistica cuntignan sulettamain mesiras da survigilaziun siva urdan da process penal. Exceptà en missiuns digl IMSI-Catcher, trojan digl stadi ni mesiras da survigilaziun digl servetsch da spiunadi.</t>
   </si>
   <si>
@@ -1636,9 +1629,6 @@
   </si>
   <si>
     <t>https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf</t>
-  </si>
-  <si>
-    <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;</t>
   </si>
   <si>
     <t>Visualisation on Lawful Interception in Switzerland</t>
@@ -1752,10 +1742,6 @@
     <t>La Società Digitale è una fusione aperta per tutti interessati in materie di reti. L'alleanza consiste di circa 50 persone e 15 gruppi.  Esse comprendeno organizzazioni di base per i diritti fondamentali, collettivi di artisti, fornitori di servizi internet e altri gruppi che si sentono obbligati alla società civile digitale critica . &lt;br&gt;&lt;br&gt;Piu informazioni su argomenti in materie di reti si possono trovare nel blog: &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;br&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;
-</t>
-  </si>
-  <si>
     <t>Expensas</t>
   </si>
   <si>
@@ -1810,18 +1796,6 @@
     <t>Neben dieser Visualisierung der Überwachungmassnahmen publiziert die Digitale Gesellschaft jährlich einen detailierten Report, der die Statistiken der Überwachungsmassnahmen noch genauer beleuchtet. Der Report kann hier heruntergeladen werden.</t>
   </si>
   <si>
-    <t>In addition to this visualization of surveillance the Digital Society publishes an annual report, which examines the statistics of surveillance measures in more detail. The Swiss Lawful Interception Report can be downloaded here.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;avaliable only in German&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>In aggiunta a questa visualizzazione della sorveglianza la Società Digitale pubblica un rapporto annuale, che prende in esame le statistiche di misure di sorveglianza più dettagliato. Il rapporto „Swiss Lawful Interception Report“ può essere scaricato qui.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;disponibile solo in tedesco&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>Dasper la visualisaziun dallas mesiras da survigilaziun publitgescha la Societad Digitala en detaglià raport annual, quel che illuminescha las statisticas sur dallas maseiras da survigilaziun anc pli precis. Igl “Swiss Lawful Interception Report” ins sa chargiar giu qua.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;Exclusivamain disponibel en tudestg&lt;/strong&gt;</t>
-  </si>
-  <si>
     <t>Strukturierte Gruppe, welche sich mittels Gewaltverbrechen oder sich durch verbrecherische Mittel um Einkünfte bereichert.</t>
   </si>
   <si>
@@ -1835,6 +1809,15 @@
   </si>
   <si>
     <t>Gruppas structuradas, che sa enritgeschan cun crims da violenza ni oter metels criminals .</t>
+  </si>
+  <si>
+    <t>La Societad Digitala è ena averta uniun da cres tgi sa interesseschan per la politica da reits per la informatica. Alla coaliziun totgan vetiers radond 50 persungas singulas et 15 gruppaziuns. Vetiers totgan organisaziuns da dretg fundamental, manaders per services da reits, parteidas politicas, collectivs d'artists et otras gruppadas, tgi sa sentan obligà per las criticas dalla societad civila. &lt;br&gt;&lt;br&gt;Ulteriuras informatziuns sur da temas dalla politica da reits per la informatica chattez en igl blog : &lt;a href='https://www.digitale-gesellschaft.ch'&gt;https://www.digitale-gesellschaft.ch&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Société numérique Suisse publie annuellement un rapport sur la situation de l'interception légale en Suisse. Cette page interactive complète le rapport et montre en détail la surveillance effectuée dans chaque canton. Découvrez avec quels délits on justifie la limitation de vos libertés fondamentales. &lt;br&gt; &lt;br&gt; Les données de cette statistique ne comprennent que les mesures de surveillance conformes au Code de procédure pénale à l'exclusion des scanners IMSI, des chevaux de Troie gouvernementales ou de la surveillance effectuée par le service de renseignement de la Confédération (SRC).</t>
+  </si>
+  <si>
+    <t>En plus de cette visualisation de la surveillance. La Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.</t>
   </si>
 </sst>
 </file>
@@ -2878,10 +2861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H119"/>
+    <sheetView tabSelected="1" topLeftCell="B114" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3138,13 +3122,13 @@
         <v>407</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>308</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>436</v>
@@ -3278,7 +3262,7 @@
         <v>311</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>311</v>
@@ -3356,7 +3340,7 @@
         <v>241</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>275</v>
@@ -3402,7 +3386,7 @@
         <v>410</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>411</v>
@@ -3411,7 +3395,7 @@
         <v>412</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:9" hidden="1">
@@ -3463,7 +3447,7 @@
         <v>445</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>415</v>
@@ -3477,22 +3461,22 @@
         <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30">
@@ -3503,19 +3487,19 @@
         <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H23" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -3675,7 +3659,7 @@
         <v>269</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>307</v>
@@ -4403,7 +4387,7 @@
         <v>231</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>274</v>
@@ -4455,7 +4439,7 @@
         <v>233</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>418</v>
@@ -4481,7 +4465,7 @@
         <v>446</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>289</v>
@@ -4501,13 +4485,13 @@
         <v>77</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>234</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>357</v>
@@ -4533,7 +4517,7 @@
         <v>447</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>419</v>
@@ -4585,7 +4569,7 @@
         <v>449</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>288</v>
@@ -4688,13 +4672,13 @@
         <v>159</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>451</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>286</v>
@@ -4714,13 +4698,13 @@
         <v>158</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>452</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>421</v>
@@ -4740,13 +4724,13 @@
         <v>391</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>453</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>423</v>
@@ -4772,7 +4756,7 @@
         <v>454</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>422</v>
@@ -4792,7 +4776,7 @@
         <v>392</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>455</v>
@@ -4844,7 +4828,7 @@
         <v>408</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>456</v>
@@ -4876,7 +4860,7 @@
         <v>457</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>285</v>
@@ -4928,7 +4912,7 @@
         <v>236</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>284</v>
@@ -4954,7 +4938,7 @@
         <v>458</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>315</v>
@@ -4980,7 +4964,7 @@
         <v>237</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>297</v>
@@ -5032,7 +5016,7 @@
         <v>459</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>426</v>
@@ -5049,19 +5033,19 @@
         <v>94</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="90">
@@ -5078,13 +5062,13 @@
         <v>394</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>460</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>437</v>
@@ -5110,7 +5094,7 @@
         <v>461</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>427</v>
@@ -5136,7 +5120,7 @@
         <v>462</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>295</v>
@@ -5162,7 +5146,7 @@
         <v>463</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>301</v>
@@ -5179,19 +5163,19 @@
         <v>56</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5214,7 +5198,7 @@
         <v>464</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>305</v>
@@ -5339,19 +5323,19 @@
         <v>56</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="30">
@@ -5368,13 +5352,13 @@
         <v>309</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>430</v>
@@ -5391,16 +5375,16 @@
         <v>61</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>465</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>439</v>
@@ -5417,7 +5401,7 @@
         <v>57</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>384</v>
@@ -5426,7 +5410,7 @@
         <v>466</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>431</v>
@@ -5473,13 +5457,13 @@
         <v>259</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>404</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>405</v>
@@ -5508,7 +5492,7 @@
         <v>467</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>397</v>
@@ -5589,7 +5573,7 @@
         <v>469</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>287</v>
@@ -5609,7 +5593,7 @@
         <v>71</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>227</v>
@@ -5641,7 +5625,7 @@
         <v>470</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>432</v>
@@ -5667,7 +5651,7 @@
         <v>471</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>441</v>
@@ -5693,7 +5677,7 @@
         <v>472</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>433</v>
@@ -5847,7 +5831,7 @@
         <v>270</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E112" s="1" t="str">
         <f>Tabelle2[[#This Row],[de]]</f>
@@ -5877,19 +5861,19 @@
         <v>333</v>
       </c>
       <c r="D113" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="270">
@@ -5903,19 +5887,19 @@
         <v>265</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="120" hidden="1">
@@ -5929,16 +5913,16 @@
         <v>389</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>473</v>
+        <v>570</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>434</v>
@@ -5958,16 +5942,16 @@
         <v>399</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -6027,7 +6011,7 @@
       </c>
       <c r="F118" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>En plus de cette visualisation de la surveillance, Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
+        <v>En plus de cette visualisation de la surveillance. La Société numérique publie un rapport annuel, qui examine les statistiques de surveillance plus en détail. Le Swiss Lawful Interception Report peut être téléchargé ici.&lt;br&gt;&lt;br&gt;&lt;span class='glyphicon glyphicon glyphicon-menu-right' aria-hidden='true'&gt;&lt;/span&gt;&lt;a href='https://www.digitale-gesellschaft.ch/uploads/2015/03/SLIR_2015.pdf' title='Swiss Lawful Interception Report 2015' target='_blank'&gt;Swiss Lawful Interception Report 2015&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;disponible uniquement en allemand&lt;/strong&gt;</v>
       </c>
       <c r="G118" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6049,19 +6033,19 @@
         <v>271</v>
       </c>
       <c r="D119" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>547</v>
-      </c>
       <c r="H119" s="1" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -6076,2577 +6060,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G111"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G111"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" t="s">
-        <v>354</v>
-      </c>
-      <c r="D8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E8" t="s">
-        <v>352</v>
-      </c>
-      <c r="F8" t="s">
-        <v>351</v>
-      </c>
-      <c r="G8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>407</v>
-      </c>
-      <c r="D9" t="s">
-        <v>532</v>
-      </c>
-      <c r="E9" t="s">
-        <v>308</v>
-      </c>
-      <c r="F9" t="s">
-        <v>494</v>
-      </c>
-      <c r="G9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F10" t="s">
-        <v>313</v>
-      </c>
-      <c r="G10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" t="s">
-        <v>314</v>
-      </c>
-      <c r="G11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" t="s">
-        <v>444</v>
-      </c>
-      <c r="F12" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" t="s">
-        <v>393</v>
-      </c>
-      <c r="D13" t="s">
-        <v>393</v>
-      </c>
-      <c r="E13" t="s">
-        <v>393</v>
-      </c>
-      <c r="F13" t="s">
-        <v>393</v>
-      </c>
-      <c r="G13" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" t="s">
-        <v>311</v>
-      </c>
-      <c r="D14" t="s">
-        <v>312</v>
-      </c>
-      <c r="E14" t="s">
-        <v>311</v>
-      </c>
-      <c r="F14" t="s">
-        <v>495</v>
-      </c>
-      <c r="G14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C15" t="s">
-        <v>342</v>
-      </c>
-      <c r="D15" t="s">
-        <v>343</v>
-      </c>
-      <c r="E15" t="s">
-        <v>344</v>
-      </c>
-      <c r="F15" t="s">
-        <v>345</v>
-      </c>
-      <c r="G15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" t="s">
-        <v>279</v>
-      </c>
-      <c r="E16" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" t="s">
-        <v>496</v>
-      </c>
-      <c r="G17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>347</v>
-      </c>
-      <c r="C18" t="s">
-        <v>348</v>
-      </c>
-      <c r="D18" t="s">
-        <v>348</v>
-      </c>
-      <c r="E18" t="s">
-        <v>347</v>
-      </c>
-      <c r="F18" t="s">
-        <v>349</v>
-      </c>
-      <c r="G18" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>409</v>
-      </c>
-      <c r="C19" t="s">
-        <v>410</v>
-      </c>
-      <c r="D19" t="s">
-        <v>533</v>
-      </c>
-      <c r="E19" t="s">
-        <v>411</v>
-      </c>
-      <c r="F19" t="s">
-        <v>412</v>
-      </c>
-      <c r="G19" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>355</v>
-      </c>
-      <c r="C20" t="s">
-        <v>385</v>
-      </c>
-      <c r="D20" t="s">
-        <v>356</v>
-      </c>
-      <c r="E20" t="s">
-        <v>445</v>
-      </c>
-      <c r="F20" t="s">
-        <v>497</v>
-      </c>
-      <c r="G20" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>481</v>
-      </c>
-      <c r="C21" t="s">
-        <v>482</v>
-      </c>
-      <c r="D21" t="s">
-        <v>484</v>
-      </c>
-      <c r="E21" t="s">
-        <v>487</v>
-      </c>
-      <c r="F21" t="s">
-        <v>488</v>
-      </c>
-      <c r="G21" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>481</v>
-      </c>
-      <c r="C22" t="s">
-        <v>483</v>
-      </c>
-      <c r="D22" t="s">
-        <v>485</v>
-      </c>
-      <c r="E22" t="s">
-        <v>486</v>
-      </c>
-      <c r="F22" t="s">
-        <v>489</v>
-      </c>
-      <c r="G22" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>362</v>
-      </c>
-      <c r="C23" t="s">
-        <v>367</v>
-      </c>
-      <c r="D23" t="s">
-        <v>367</v>
-      </c>
-      <c r="E23" t="s">
-        <v>369</v>
-      </c>
-      <c r="F23" t="s">
-        <v>368</v>
-      </c>
-      <c r="G23" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>363</v>
-      </c>
-      <c r="C24" t="s">
-        <v>365</v>
-      </c>
-      <c r="D24" t="s">
-        <v>370</v>
-      </c>
-      <c r="E24" t="s">
-        <v>371</v>
-      </c>
-      <c r="F24" t="s">
-        <v>372</v>
-      </c>
-      <c r="G24" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>364</v>
-      </c>
-      <c r="C25" t="s">
-        <v>366</v>
-      </c>
-      <c r="D25" t="s">
-        <v>374</v>
-      </c>
-      <c r="E25" t="s">
-        <v>375</v>
-      </c>
-      <c r="F25" t="s">
-        <v>376</v>
-      </c>
-      <c r="G25" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>225</v>
-      </c>
-      <c r="F26" t="s">
-        <v>226</v>
-      </c>
-      <c r="G26" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" t="s">
-        <v>267</v>
-      </c>
-      <c r="D27" t="s">
-        <v>268</v>
-      </c>
-      <c r="E27" t="s">
-        <v>269</v>
-      </c>
-      <c r="F27" t="s">
-        <v>498</v>
-      </c>
-      <c r="G27" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" t="s">
-        <v>190</v>
-      </c>
-      <c r="G29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" t="s">
-        <v>191</v>
-      </c>
-      <c r="G30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" t="s">
-        <v>177</v>
-      </c>
-      <c r="F31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" t="s">
-        <v>193</v>
-      </c>
-      <c r="G32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" t="s">
-        <v>179</v>
-      </c>
-      <c r="F33" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" t="s">
-        <v>180</v>
-      </c>
-      <c r="F34" t="s">
-        <v>195</v>
-      </c>
-      <c r="G34" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" t="s">
-        <v>196</v>
-      </c>
-      <c r="G35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" t="s">
-        <v>197</v>
-      </c>
-      <c r="G36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F37" t="s">
-        <v>198</v>
-      </c>
-      <c r="G37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" t="s">
-        <v>144</v>
-      </c>
-      <c r="F38" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" t="s">
-        <v>182</v>
-      </c>
-      <c r="F40" t="s">
-        <v>200</v>
-      </c>
-      <c r="G40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" t="s">
-        <v>183</v>
-      </c>
-      <c r="F41" t="s">
-        <v>201</v>
-      </c>
-      <c r="G41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" t="s">
-        <v>184</v>
-      </c>
-      <c r="F42" t="s">
-        <v>202</v>
-      </c>
-      <c r="G42" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" t="s">
-        <v>185</v>
-      </c>
-      <c r="F43" t="s">
-        <v>203</v>
-      </c>
-      <c r="G43" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" t="s">
-        <v>186</v>
-      </c>
-      <c r="F44" t="s">
-        <v>204</v>
-      </c>
-      <c r="G44" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" t="s">
-        <v>187</v>
-      </c>
-      <c r="F45" t="s">
-        <v>205</v>
-      </c>
-      <c r="G45" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" t="s">
-        <v>145</v>
-      </c>
-      <c r="G46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" t="s">
-        <v>146</v>
-      </c>
-      <c r="G48" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" t="s">
-        <v>206</v>
-      </c>
-      <c r="G49" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" t="s">
-        <v>188</v>
-      </c>
-      <c r="F50" t="s">
-        <v>207</v>
-      </c>
-      <c r="G50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" t="s">
-        <v>148</v>
-      </c>
-      <c r="E51" t="s">
-        <v>148</v>
-      </c>
-      <c r="F51" t="s">
-        <v>208</v>
-      </c>
-      <c r="G51" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" t="s">
-        <v>228</v>
-      </c>
-      <c r="F52" t="s">
-        <v>228</v>
-      </c>
-      <c r="G52" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" t="s">
-        <v>229</v>
-      </c>
-      <c r="F53" t="s">
-        <v>247</v>
-      </c>
-      <c r="G53" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" t="s">
-        <v>230</v>
-      </c>
-      <c r="F54" t="s">
-        <v>248</v>
-      </c>
-      <c r="G54" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" t="s">
-        <v>231</v>
-      </c>
-      <c r="F55" t="s">
-        <v>499</v>
-      </c>
-      <c r="G55" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" t="s">
-        <v>232</v>
-      </c>
-      <c r="F56" t="s">
-        <v>249</v>
-      </c>
-      <c r="G56" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" t="s">
-        <v>233</v>
-      </c>
-      <c r="F57" t="s">
-        <v>500</v>
-      </c>
-      <c r="G57" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" t="s">
-        <v>446</v>
-      </c>
-      <c r="F58" t="s">
-        <v>501</v>
-      </c>
-      <c r="G58" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" t="s">
-        <v>534</v>
-      </c>
-      <c r="E59" t="s">
-        <v>234</v>
-      </c>
-      <c r="F59" t="s">
-        <v>502</v>
-      </c>
-      <c r="G59" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" t="s">
-        <v>447</v>
-      </c>
-      <c r="F60" t="s">
-        <v>503</v>
-      </c>
-      <c r="G60" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" t="s">
-        <v>448</v>
-      </c>
-      <c r="F61" t="s">
-        <v>245</v>
-      </c>
-      <c r="G61" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" t="s">
-        <v>262</v>
-      </c>
-      <c r="D62" t="s">
-        <v>263</v>
-      </c>
-      <c r="E62" t="s">
-        <v>449</v>
-      </c>
-      <c r="F62" t="s">
-        <v>504</v>
-      </c>
-      <c r="G62" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63" t="s">
-        <v>229</v>
-      </c>
-      <c r="F63" t="s">
-        <v>247</v>
-      </c>
-      <c r="G63" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" t="s">
-        <v>390</v>
-      </c>
-      <c r="D64" t="s">
-        <v>272</v>
-      </c>
-      <c r="E64" t="s">
-        <v>450</v>
-      </c>
-      <c r="F64" t="s">
-        <v>273</v>
-      </c>
-      <c r="G64" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" t="s">
-        <v>280</v>
-      </c>
-      <c r="D65" t="s">
-        <v>281</v>
-      </c>
-      <c r="E65" t="s">
-        <v>282</v>
-      </c>
-      <c r="F65" t="s">
-        <v>283</v>
-      </c>
-      <c r="G65" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" t="s">
